--- a/BAB Task/contractors_data.xlsx
+++ b/BAB Task/contractors_data.xlsx
@@ -455,16 +455,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="str">
-        <v>Alenjazat Contracting Company</v>
+        <v>On Al-Arabia Contracting Est.</v>
       </c>
       <c r="C3" t="str">
-        <v>10000937</v>
+        <v>178417841</v>
       </c>
       <c r="D3" t="str">
-        <v>0112001858</v>
+        <v/>
       </c>
       <c r="E3" t="str">
-        <v>info@alenjazat.sa</v>
+        <v>a1032500371@gmail.com</v>
       </c>
       <c r="F3" t="str">
         <v>RIYADH</v>
@@ -495,19 +495,19 @@
         <v>1</v>
       </c>
       <c r="B5" t="str">
-        <v>Gulf Pioneers Trading Company</v>
+        <v>Arabian Towers Projects Contracting Company</v>
       </c>
       <c r="C5" t="str">
-        <v>280728074</v>
+        <v>220622064</v>
       </c>
       <c r="D5" t="str">
-        <v>0112885557</v>
+        <v>599999999</v>
       </c>
       <c r="E5" t="str">
-        <v>acc@gpksa.com</v>
+        <v>atpcosecretary@atpco-sa.com</v>
       </c>
       <c r="F5" t="str">
-        <v>RIYADH</v>
+        <v>DAMMAM</v>
       </c>
     </row>
     <row r="6">
@@ -515,16 +515,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="str">
-        <v>On Al-Arabia Contracting Est.</v>
+        <v>Gulf Pioneers Trading Company</v>
       </c>
       <c r="C6" t="str">
-        <v>178417841</v>
+        <v>280728074</v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v>0112885557</v>
       </c>
       <c r="E6" t="str">
-        <v>a1032500371@gmail.com</v>
+        <v>acc@gpksa.com</v>
       </c>
       <c r="F6" t="str">
         <v>RIYADH</v>
@@ -535,19 +535,19 @@
         <v>1</v>
       </c>
       <c r="B7" t="str">
-        <v>Arabian Towers Projects Contracting Company</v>
+        <v>Alenjazat Contracting Company</v>
       </c>
       <c r="C7" t="str">
-        <v>220622064</v>
+        <v>10000937</v>
       </c>
       <c r="D7" t="str">
-        <v>599999999</v>
+        <v>0112001858</v>
       </c>
       <c r="E7" t="str">
-        <v>atpcosecretary@atpco-sa.com</v>
+        <v>info@alenjazat.sa</v>
       </c>
       <c r="F7" t="str">
-        <v>DAMMAM</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="8">
@@ -555,19 +555,19 @@
         <v>1</v>
       </c>
       <c r="B8" t="str">
-        <v>Sharjah Development Contracting Co</v>
+        <v>Ratel Al Sharq Contracting Company</v>
       </c>
       <c r="C8" t="str">
-        <v>144214428</v>
+        <v>101010104</v>
       </c>
       <c r="D8" t="str">
-        <v>0138141668</v>
+        <v>0542332224</v>
       </c>
       <c r="E8" t="str">
-        <v>alsharqimna@gmail.com</v>
+        <v>adel_77@hotmail.com</v>
       </c>
       <c r="F8" t="str">
-        <v>AL KHOBAR</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="9">
@@ -575,19 +575,19 @@
         <v>1</v>
       </c>
       <c r="B9" t="str">
-        <v>TAKWEEN AND CONSTRUCTION</v>
+        <v>Sharjah Development Contracting Co</v>
       </c>
       <c r="C9" t="str">
-        <v>438043804</v>
+        <v>144214428</v>
       </c>
       <c r="D9" t="str">
-        <v>0503047700</v>
+        <v>0138141668</v>
       </c>
       <c r="E9" t="str">
-        <v>B2B@tbco.com.sa</v>
+        <v>alsharqimna@gmail.com</v>
       </c>
       <c r="F9" t="str">
-        <v>RIYADH</v>
+        <v>AL KHOBAR</v>
       </c>
     </row>
     <row r="10">
@@ -595,16 +595,16 @@
         <v>1</v>
       </c>
       <c r="B10" t="str">
-        <v>Ratel Al Sharq Contracting Company</v>
+        <v>TAKWEEN AND CONSTRUCTION</v>
       </c>
       <c r="C10" t="str">
-        <v>101010104</v>
+        <v>438043804</v>
       </c>
       <c r="D10" t="str">
-        <v>0542332224</v>
+        <v>0503047700</v>
       </c>
       <c r="E10" t="str">
-        <v>adel_77@hotmail.com</v>
+        <v>B2B@tbco.com.sa</v>
       </c>
       <c r="F10" t="str">
         <v>RIYADH</v>
@@ -615,19 +615,19 @@
         <v>1</v>
       </c>
       <c r="B11" t="str">
-        <v>Dome Park Contracting Company</v>
+        <v>Bunoon Wa Funoon Contracting Co.</v>
       </c>
       <c r="C11" t="str">
-        <v>251725170</v>
+        <v>138113818</v>
       </c>
       <c r="D11" t="str">
-        <v>0553518088</v>
+        <v>920015058</v>
       </c>
       <c r="E11" t="str">
-        <v>vv.com838@icloud.com</v>
+        <v>info@bfconst.com</v>
       </c>
       <c r="F11" t="str">
-        <v>AL MUWAYH AL JADID</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="12">
@@ -635,19 +635,19 @@
         <v>1</v>
       </c>
       <c r="B12" t="str">
-        <v>Bunoon Wa Funoon Contracting Co.</v>
+        <v>Dome Park Contracting Company</v>
       </c>
       <c r="C12" t="str">
-        <v>138113818</v>
+        <v>251725170</v>
       </c>
       <c r="D12" t="str">
-        <v>920015058</v>
+        <v>0553518088</v>
       </c>
       <c r="E12" t="str">
-        <v>info@bfconst.com</v>
+        <v>vv.com838@icloud.com</v>
       </c>
       <c r="F12" t="str">
-        <v>RIYADH</v>
+        <v>AL MUWAYH AL JADID</v>
       </c>
     </row>
     <row r="13">
@@ -655,19 +655,19 @@
         <v>1</v>
       </c>
       <c r="B13" t="str">
-        <v>Al-Wessam Contracting Company</v>
+        <v>Rasm Al Benaa Trading and Contracting Co</v>
       </c>
       <c r="C13" t="str">
-        <v>106110611</v>
+        <v>109910994</v>
       </c>
       <c r="D13" t="str">
-        <v>0505643337</v>
+        <v>0138153300</v>
       </c>
       <c r="E13" t="str">
-        <v>alwessam7@gmail.com</v>
+        <v>amz@rasmco.com.sa</v>
       </c>
       <c r="F13" t="str">
-        <v>BILJURASHI</v>
+        <v>DAMMAM</v>
       </c>
     </row>
     <row r="14">
@@ -675,19 +675,19 @@
         <v>1</v>
       </c>
       <c r="B14" t="str">
-        <v>Rasm Al Benaa Trading and Contracting Co</v>
+        <v>Al-Wessam Contracting Company</v>
       </c>
       <c r="C14" t="str">
-        <v>109910994</v>
+        <v>106110611</v>
       </c>
       <c r="D14" t="str">
-        <v>0138153300</v>
+        <v>0505643337</v>
       </c>
       <c r="E14" t="str">
-        <v>amz@rasmco.com.sa</v>
+        <v>alwessam7@gmail.com</v>
       </c>
       <c r="F14" t="str">
-        <v>DAMMAM</v>
+        <v>BILJURASHI</v>
       </c>
     </row>
     <row r="15">
@@ -695,19 +695,19 @@
         <v>1</v>
       </c>
       <c r="B15" t="str">
-        <v>Tala Trading Company</v>
+        <v>Future Houses General Architectural Contracting Est</v>
       </c>
       <c r="C15" t="str">
-        <v>100008050</v>
+        <v>117511752</v>
       </c>
       <c r="D15" t="str">
-        <v>0165335425</v>
+        <v>0540950956</v>
       </c>
       <c r="E15" t="str">
-        <v>talaxtala@hotmail.com</v>
+        <v>f.h.c.9282@gmail.com</v>
       </c>
       <c r="F15" t="str">
-        <v>HAIL</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="16">
@@ -715,19 +715,19 @@
         <v>1</v>
       </c>
       <c r="B16" t="str">
-        <v>Manarat AlOmran AlHadeeth Contracting Est.</v>
+        <v>Tala Trading Company</v>
       </c>
       <c r="C16" t="str">
-        <v>100008649</v>
+        <v>100008050</v>
       </c>
       <c r="D16" t="str">
-        <v>0532278330</v>
+        <v>0165335425</v>
       </c>
       <c r="E16" t="str">
-        <v>Alshehry300@gmail.com</v>
+        <v>talaxtala@hotmail.com</v>
       </c>
       <c r="F16" t="str">
-        <v>KHAMIS MUSHAYT</v>
+        <v>HAIL</v>
       </c>
     </row>
     <row r="17">
@@ -735,19 +735,19 @@
         <v>1</v>
       </c>
       <c r="B17" t="str">
-        <v>Rawasi Sama Contracting Company</v>
+        <v>Mastery and Quality Architectural Contracting Est</v>
       </c>
       <c r="C17" t="str">
-        <v>305530557</v>
+        <v>131313131</v>
       </c>
       <c r="D17" t="str">
-        <v>0500012488</v>
+        <v>0548002240</v>
       </c>
       <c r="E17" t="str">
-        <v>Ce3@hotmail.com</v>
+        <v>malki.abdulrahman80@gmail.com</v>
       </c>
       <c r="F17" t="str">
-        <v>HAFAR AL BATIN</v>
+        <v>JEDDAH</v>
       </c>
     </row>
     <row r="18">
@@ -775,19 +775,19 @@
         <v>1</v>
       </c>
       <c r="B19" t="str">
-        <v>Fineun Alamar Contracting Est</v>
+        <v>Al-Manarat Al-Dhahabiya Contracting Company</v>
       </c>
       <c r="C19" t="str">
-        <v>177617761</v>
+        <v>414741474</v>
       </c>
       <c r="D19" t="str">
         <v/>
       </c>
       <c r="E19" t="str">
-        <v>saeedstar88@hotmail.com</v>
+        <v>Moodel121212@hotmail.com</v>
       </c>
       <c r="F19" t="str">
-        <v>RABIGH</v>
+        <v>MUHAYIL</v>
       </c>
     </row>
     <row r="20">
@@ -835,19 +835,19 @@
         <v>2</v>
       </c>
       <c r="B22" t="str">
-        <v>Mona Nazzal Dehaidah Al Harbi General Contracting Est</v>
+        <v>Fineun Alamar Contracting Est</v>
       </c>
       <c r="C22" t="str">
-        <v>232123211</v>
+        <v>177617761</v>
       </c>
       <c r="D22" t="str">
         <v/>
       </c>
       <c r="E22" t="str">
-        <v>f15-f20@hotmail.com</v>
+        <v>saeedstar88@hotmail.com</v>
       </c>
       <c r="F22" t="str">
-        <v>BURAYDAH</v>
+        <v>RABIGH</v>
       </c>
     </row>
     <row r="23">
@@ -855,19 +855,19 @@
         <v>2</v>
       </c>
       <c r="B23" t="str">
-        <v>Modern Building Solutions Contracting Company</v>
+        <v>Al-Asas Engineering Corporation for General Contracting</v>
       </c>
       <c r="C23" t="str">
-        <v>121612167</v>
+        <v>400040009</v>
       </c>
       <c r="D23" t="str">
-        <v>00966112383966</v>
+        <v/>
       </c>
       <c r="E23" t="str">
-        <v>ttalshammari@gmail.com</v>
+        <v>b2b2020@outlook.sa</v>
       </c>
       <c r="F23" t="str">
-        <v>RIYADH</v>
+        <v>AL MADINAH AL MUNAWWARAH</v>
       </c>
     </row>
     <row r="24">
@@ -875,19 +875,19 @@
         <v>2</v>
       </c>
       <c r="B24" t="str">
-        <v>Al-Manarat Al-Dhahabiya Contracting Company</v>
+        <v>acn solutions for contracting</v>
       </c>
       <c r="C24" t="str">
-        <v>414741474</v>
+        <v>446844684</v>
       </c>
       <c r="D24" t="str">
-        <v/>
+        <v>0126688055</v>
       </c>
       <c r="E24" t="str">
-        <v>Moodel121212@hotmail.com</v>
+        <v>alwa7ed@hotmail.com</v>
       </c>
       <c r="F24" t="str">
-        <v>MUHAYIL</v>
+        <v>JEDDAH</v>
       </c>
     </row>
     <row r="25">
@@ -895,19 +895,19 @@
         <v>2</v>
       </c>
       <c r="B25" t="str">
-        <v>Unique Execution Corporation for General Contracting</v>
+        <v>Munira Nasser Omair Al Omair Contracting Est</v>
       </c>
       <c r="C25" t="str">
-        <v>181518150</v>
+        <v>132413246</v>
       </c>
       <c r="D25" t="str">
-        <v>0173173300</v>
+        <v/>
       </c>
       <c r="E25" t="str">
-        <v>qanai1234@hotmail.com</v>
+        <v>aazzsaleh882364@gmail.com</v>
       </c>
       <c r="F25" t="str">
-        <v>JAZAN</v>
+        <v>HAFAR AL BATIN</v>
       </c>
     </row>
     <row r="26">
@@ -915,19 +915,19 @@
         <v>2</v>
       </c>
       <c r="B26" t="str">
-        <v>Mastery and Quality Architectural Contracting Est</v>
+        <v>Mona Nazzal Dehaidah Al Harbi General Contracting Est</v>
       </c>
       <c r="C26" t="str">
-        <v>131313131</v>
+        <v>232123211</v>
       </c>
       <c r="D26" t="str">
-        <v>0548002240</v>
+        <v/>
       </c>
       <c r="E26" t="str">
-        <v>malki.abdulrahman80@gmail.com</v>
+        <v>f15-f20@hotmail.com</v>
       </c>
       <c r="F26" t="str">
-        <v>JEDDAH</v>
+        <v>BURAYDAH</v>
       </c>
     </row>
     <row r="27">
@@ -935,19 +935,19 @@
         <v>2</v>
       </c>
       <c r="B27" t="str">
-        <v>Future Houses General Architectural Contracting Est</v>
+        <v>Rawasi Sama Contracting Company</v>
       </c>
       <c r="C27" t="str">
-        <v>117511752</v>
+        <v>305530557</v>
       </c>
       <c r="D27" t="str">
-        <v>0540950956</v>
+        <v>0500012488</v>
       </c>
       <c r="E27" t="str">
-        <v>f.h.c.9282@gmail.com</v>
+        <v>Ce3@hotmail.com</v>
       </c>
       <c r="F27" t="str">
-        <v>RIYADH</v>
+        <v>HAFAR AL BATIN</v>
       </c>
     </row>
     <row r="28">
@@ -1115,19 +1115,19 @@
         <v>2</v>
       </c>
       <c r="B36" t="str">
-        <v>Attejarat Company</v>
+        <v>18th Chinarailway Branch Peru Group Company Limited</v>
       </c>
       <c r="C36" t="str">
-        <v>10002744</v>
+        <v>20000803</v>
       </c>
       <c r="D36" t="str">
-        <v>0114531674</v>
+        <v/>
       </c>
       <c r="E36" t="str">
-        <v>M.alsalloum@attejarat.com.sa</v>
+        <v>planningdepartment@cr18gksa.com</v>
       </c>
       <c r="F36" t="str">
-        <v>RIYADH</v>
+        <v>DAMMAM</v>
       </c>
     </row>
     <row r="37">
@@ -1135,19 +1135,19 @@
         <v>2</v>
       </c>
       <c r="B37" t="str">
-        <v>Abu Degen Co. For Drilling Wells</v>
+        <v>Talbi Contracting Company</v>
       </c>
       <c r="C37" t="str">
-        <v>10002615</v>
+        <v>200003350</v>
       </c>
       <c r="D37" t="str">
-        <v/>
+        <v>0173340331</v>
       </c>
       <c r="E37" t="str">
-        <v>info@abudegendrilling.com</v>
+        <v>mog.suliman@gmail.com</v>
       </c>
       <c r="F37" t="str">
-        <v>RIYADH</v>
+        <v>SAMTAH</v>
       </c>
     </row>
     <row r="38">
@@ -1155,19 +1155,19 @@
         <v>2</v>
       </c>
       <c r="B38" t="str">
-        <v>Diamond Contractors Union Company for General Contracting</v>
+        <v>Awjed General Contracting Company</v>
       </c>
       <c r="C38" t="str">
-        <v>10001111</v>
+        <v>100007262</v>
       </c>
       <c r="D38" t="str">
-        <v>0122502860</v>
+        <v>0138443329</v>
       </c>
       <c r="E38" t="str">
-        <v>admin@udc-sa.com</v>
+        <v>h_almutlaq@awjed.co</v>
       </c>
       <c r="F38" t="str">
-        <v>JEDDAH</v>
+        <v>DAMMAM</v>
       </c>
     </row>
     <row r="39">
@@ -1175,19 +1175,19 @@
         <v>2</v>
       </c>
       <c r="B39" t="str">
-        <v>Kanabal Arabian Company Ltd.</v>
+        <v>Rawabi Specialized Contracting Co.</v>
       </c>
       <c r="C39" t="str">
-        <v>100004801</v>
+        <v>10001412</v>
       </c>
       <c r="D39" t="str">
-        <v>920009331</v>
+        <v>0559802628</v>
       </c>
       <c r="E39" t="str">
-        <v>info@canpel.com</v>
+        <v>info@rscc.com.sa</v>
       </c>
       <c r="F39" t="str">
-        <v>JEDDAH</v>
+        <v>AL KHOBAR</v>
       </c>
     </row>
     <row r="40">
@@ -1195,19 +1195,19 @@
         <v>2</v>
       </c>
       <c r="B40" t="str">
-        <v>Branch of Alriyadah Investments Company Ltd.</v>
+        <v>Shafeeq Contracting Company</v>
       </c>
       <c r="C40" t="str">
-        <v>100006953</v>
+        <v>100005480</v>
       </c>
       <c r="D40" t="str">
-        <v>0126112333</v>
+        <v>0138052518</v>
       </c>
       <c r="E40" t="str">
-        <v>sabudawood@arabian-power.com</v>
+        <v>rasool@shafiqcontracting.com</v>
       </c>
       <c r="F40" t="str">
-        <v>JEDDAH</v>
+        <v>DAMMAM</v>
       </c>
     </row>
     <row r="41">
@@ -1215,16 +1215,16 @@
         <v>2</v>
       </c>
       <c r="B41" t="str">
-        <v>Arabian Building Support and Rehabilitation Co. Ltd.</v>
+        <v>Alrajhi Building and Construction Co</v>
       </c>
       <c r="C41" t="str">
-        <v>10001986</v>
+        <v>100005210</v>
       </c>
       <c r="D41" t="str">
-        <v>0114193510</v>
+        <v>96612982272</v>
       </c>
       <c r="E41" t="str">
-        <v>Aalshehri@Absar.Com</v>
+        <v>info@alrajhi-co.sa</v>
       </c>
       <c r="F41" t="str">
         <v>RIYADH</v>
@@ -1235,19 +1235,19 @@
         <v>3</v>
       </c>
       <c r="B42" t="str">
-        <v>Nfoud Alathereia Contracting Co.</v>
+        <v>Hani Al Hoty &amp; Partner Company</v>
       </c>
       <c r="C42" t="str">
-        <v>100005978</v>
+        <v>100005354</v>
       </c>
       <c r="D42" t="str">
-        <v>0114742727</v>
+        <v>0138021567</v>
       </c>
       <c r="E42" t="str">
-        <v>ceo@alathereia.com</v>
+        <v>s.husain@alhoty.com</v>
       </c>
       <c r="F42" t="str">
-        <v>RIYADH</v>
+        <v>AL KHOBAR</v>
       </c>
     </row>
     <row r="43">
@@ -1255,16 +1255,16 @@
         <v>3</v>
       </c>
       <c r="B43" t="str">
-        <v>Rawabi Specialized Contracting Co.</v>
+        <v>Nesma United Industries Company Ltd.</v>
       </c>
       <c r="C43" t="str">
-        <v>10001412</v>
+        <v>10001285</v>
       </c>
       <c r="D43" t="str">
-        <v>0559802628</v>
+        <v>0138298200</v>
       </c>
       <c r="E43" t="str">
-        <v>info@rscc.com.sa</v>
+        <v>marketingnt@nesma.com</v>
       </c>
       <c r="F43" t="str">
         <v>AL KHOBAR</v>
@@ -1275,19 +1275,19 @@
         <v>3</v>
       </c>
       <c r="B44" t="str">
-        <v>Ali Hussain Alyami &amp; Partner Trading and Contracting Company</v>
+        <v>Abdullah Hamoud Alshuwayer Sons Trading &amp; Contracting Co</v>
       </c>
       <c r="C44" t="str">
-        <v>100003604</v>
+        <v>10001371</v>
       </c>
       <c r="D44" t="str">
-        <v>138644149</v>
+        <v>0138489999</v>
       </c>
       <c r="E44" t="str">
-        <v>faris@bormangroup.com</v>
+        <v>admins@shuwayer.com</v>
       </c>
       <c r="F44" t="str">
-        <v/>
+        <v>DAMMAM</v>
       </c>
     </row>
     <row r="45">
@@ -1295,19 +1295,19 @@
         <v>3</v>
       </c>
       <c r="B45" t="str">
-        <v>Al Muzain Gulf Saudi Contracting Company</v>
+        <v>International Hospitals Construction Co Ltd</v>
       </c>
       <c r="C45" t="str">
-        <v>100006679</v>
+        <v>10000932</v>
       </c>
       <c r="D45" t="str">
-        <v>966133404200</v>
+        <v>920006540</v>
       </c>
       <c r="E45" t="str">
-        <v>info@almuzain.com</v>
+        <v>bdm@ihcc.sa</v>
       </c>
       <c r="F45" t="str">
-        <v>AL JUBAIL</v>
+        <v>JEDDAH</v>
       </c>
     </row>
     <row r="46">
@@ -1315,16 +1315,16 @@
         <v>3</v>
       </c>
       <c r="B46" t="str">
-        <v>Modern Insulation Industries Company</v>
+        <v>Madarat Alwasat Contracting Company</v>
       </c>
       <c r="C46" t="str">
-        <v>100006190</v>
+        <v>100003521</v>
       </c>
       <c r="D46" t="str">
-        <v>966112419650</v>
+        <v>0112690259</v>
       </c>
       <c r="E46" t="str">
-        <v>projects@miic.com.sa</v>
+        <v>info@madaratco.sa</v>
       </c>
       <c r="F46" t="str">
         <v>RIYADH</v>
@@ -1335,19 +1335,19 @@
         <v>3</v>
       </c>
       <c r="B47" t="str">
-        <v>Arab Peller Trading and Contracting Company</v>
+        <v>Mebrick Masoud Al-Khamisi Contracting Company is a one-person company</v>
       </c>
       <c r="C47" t="str">
-        <v>10001816</v>
+        <v>10002323</v>
       </c>
       <c r="D47" t="str">
-        <v>112707095</v>
+        <v>0126280049</v>
       </c>
       <c r="E47" t="str">
-        <v>t.salah@pillararabian.com</v>
+        <v>mebarek99@gmail.com</v>
       </c>
       <c r="F47" t="str">
-        <v>RIYADH</v>
+        <v>JEDDAH</v>
       </c>
     </row>
     <row r="48">
@@ -1355,19 +1355,19 @@
         <v>3</v>
       </c>
       <c r="B48" t="str">
-        <v>Abdulmohsen Aljasser Contracting Company</v>
+        <v>Shathrwan Al Thahab Contracting Company</v>
       </c>
       <c r="C48" t="str">
-        <v>100004498</v>
+        <v>10002379</v>
       </c>
       <c r="D48" t="str">
-        <v>0112770000</v>
+        <v>0125344900</v>
       </c>
       <c r="E48" t="str">
-        <v>aljaser_contrat@yahoo.com</v>
+        <v>gm@shathrwan.com</v>
       </c>
       <c r="F48" t="str">
-        <v>RIYADH</v>
+        <v>MAKKAH AL MUKARRAMAH</v>
       </c>
     </row>
     <row r="49">
@@ -1375,19 +1375,19 @@
         <v>3</v>
       </c>
       <c r="B49" t="str">
-        <v>Dar Alshabakat Alarabia Contracting Est.</v>
+        <v>Yousef bin Abdullah bin Sulaiman Abalkhail Contracting Est</v>
       </c>
       <c r="C49" t="str">
-        <v>100003578</v>
+        <v>10002862</v>
       </c>
       <c r="D49" t="str">
-        <v>966114968932</v>
+        <v>0163838000</v>
       </c>
       <c r="E49" t="str">
-        <v>Arabnet@arabnet-ksa.com</v>
+        <v>y.7000@hotmail.com</v>
       </c>
       <c r="F49" t="str">
-        <v>RIYADH</v>
+        <v>BURAYDAH</v>
       </c>
     </row>
     <row r="50">
@@ -1395,19 +1395,19 @@
         <v>3</v>
       </c>
       <c r="B50" t="str">
-        <v>Hadi Haider Alyami Company General Cont. &amp; Trading</v>
+        <v>Alrashid Trading &amp; Contracting Company</v>
       </c>
       <c r="C50" t="str">
-        <v>10003081</v>
+        <v>100003724</v>
       </c>
       <c r="D50" t="str">
-        <v>00966136680002</v>
+        <v>00966114164111</v>
       </c>
       <c r="E50" t="str">
-        <v>info@hadihaider.com</v>
+        <v>rtcc@rtcc.com.sa</v>
       </c>
       <c r="F50" t="str">
-        <v>RAS TANNURAH</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="51">
@@ -1415,16 +1415,16 @@
         <v>3</v>
       </c>
       <c r="B51" t="str">
-        <v>Zass Trading &amp; Contracting Company</v>
+        <v>Nfoud Alathereia Contracting Co.</v>
       </c>
       <c r="C51" t="str">
-        <v>10002051</v>
+        <v>100005978</v>
       </c>
       <c r="D51" t="str">
-        <v/>
+        <v>0114742727</v>
       </c>
       <c r="E51" t="str">
-        <v>zass10@hotmail.com</v>
+        <v>ceo@alathereia.com</v>
       </c>
       <c r="F51" t="str">
         <v>RIYADH</v>
@@ -1435,19 +1435,19 @@
         <v>3</v>
       </c>
       <c r="B52" t="str">
-        <v>Bani Al Jazeera Contracting Company</v>
+        <v>Saudi Urban Development Company</v>
       </c>
       <c r="C52" t="str">
-        <v>10001972</v>
+        <v>100005156</v>
       </c>
       <c r="D52" t="str">
-        <v/>
+        <v>966114540300</v>
       </c>
       <c r="E52" t="str">
-        <v>khalid.farhan@bunaaljazira.com.sa</v>
+        <v>Fahad.aljasser@scdco.sa</v>
       </c>
       <c r="F52" t="str">
-        <v>AL KHOBAR</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="53">
@@ -1455,19 +1455,19 @@
         <v>3</v>
       </c>
       <c r="B53" t="str">
-        <v>Amsy General Contracting Company</v>
+        <v>Modern Insulation Industries Company</v>
       </c>
       <c r="C53" t="str">
-        <v>100003431</v>
+        <v>100006190</v>
       </c>
       <c r="D53" t="str">
-        <v>0173227611</v>
+        <v>966112419650</v>
       </c>
       <c r="E53" t="str">
-        <v>amsy_classic@hotmail.com</v>
+        <v>projects@miic.com.sa</v>
       </c>
       <c r="F53" t="str">
-        <v>JAZAN</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="54">
@@ -1475,19 +1475,19 @@
         <v>3</v>
       </c>
       <c r="B54" t="str">
-        <v>Safety Arabian Company Ltd.</v>
+        <v>SGS Inspection Services Saudi Arabia Company Ltd</v>
       </c>
       <c r="C54" t="str">
-        <v>10002387</v>
+        <v>30001683</v>
       </c>
       <c r="D54" t="str">
-        <v>0114792531</v>
+        <v>96613400044</v>
       </c>
       <c r="E54" t="str">
-        <v>office@safety-arabia.com</v>
+        <v>abdulaziz.alansari@sgs.com</v>
       </c>
       <c r="F54" t="str">
-        <v>RIYADH</v>
+        <v>AL JUBAIL</v>
       </c>
     </row>
     <row r="55">
@@ -1495,16 +1495,16 @@
         <v>3</v>
       </c>
       <c r="B55" t="str">
-        <v>Nesma Al Sondos Contracting Company</v>
+        <v>Hamsat Almaseef Contracting Est</v>
       </c>
       <c r="C55" t="str">
-        <v>100006680</v>
+        <v>10001546</v>
       </c>
       <c r="D55" t="str">
-        <v>2914768</v>
+        <v>01129144</v>
       </c>
       <c r="E55" t="str">
-        <v>m.saeed@nasamahsondos.com</v>
+        <v>HAMSATALMASEEF@HOTMAIL.COM</v>
       </c>
       <c r="F55" t="str">
         <v>RIYADH</v>
@@ -1515,19 +1515,19 @@
         <v>3</v>
       </c>
       <c r="B56" t="str">
-        <v>Al-Majal Syd Al-Khadamat Co.</v>
+        <v>Saudi Architecture Art Maintenance Co. Ltd</v>
       </c>
       <c r="C56" t="str">
-        <v>20001920</v>
+        <v>100004618</v>
       </c>
       <c r="D56" t="str">
-        <v>2849500</v>
+        <v>966114041919</v>
       </c>
       <c r="E56" t="str">
-        <v>abdulrahman@almajal.com</v>
+        <v>bids@buildingtek.com</v>
       </c>
       <c r="F56" t="str">
-        <v>JEDDAH</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="57">
@@ -1535,19 +1535,19 @@
         <v>3</v>
       </c>
       <c r="B57" t="str">
-        <v>Fifteen Contracting Est</v>
+        <v>Abdullah Assaf Mohammed Al Ghamdi Contracting Est</v>
       </c>
       <c r="C57" t="str">
-        <v>10000415</v>
+        <v>10000799</v>
       </c>
       <c r="D57" t="str">
-        <v>0559332559</v>
+        <v>0177220407</v>
       </c>
       <c r="E57" t="str">
-        <v>hajer.nb@gmail.com</v>
+        <v>alassafcompany@hotmail.com</v>
       </c>
       <c r="F57" t="str">
-        <v>MAKKAH AL MUKARRAMAH</v>
+        <v>BILJURASHI</v>
       </c>
     </row>
     <row r="58">
@@ -1555,19 +1555,19 @@
         <v>3</v>
       </c>
       <c r="B58" t="str">
-        <v>Abdullah Hamoud Alshuwayer Sons Trading &amp; Contracting Co</v>
+        <v>Dar Alshabakat Alarabia Contracting Est.</v>
       </c>
       <c r="C58" t="str">
-        <v>10001371</v>
+        <v>100003578</v>
       </c>
       <c r="D58" t="str">
-        <v>0138489999</v>
+        <v>966114968932</v>
       </c>
       <c r="E58" t="str">
-        <v>admins@shuwayer.com</v>
+        <v>Arabnet@arabnet-ksa.com</v>
       </c>
       <c r="F58" t="str">
-        <v>DAMMAM</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="59">
@@ -1575,19 +1575,19 @@
         <v>3</v>
       </c>
       <c r="B59" t="str">
-        <v>Rock and Steel Contracting Company</v>
+        <v>Arabian Housing &amp; Building</v>
       </c>
       <c r="C59" t="str">
-        <v>10001110</v>
+        <v>100004718</v>
       </c>
       <c r="D59" t="str">
-        <v>0122615392</v>
+        <v>966112961997</v>
       </c>
       <c r="E59" t="str">
-        <v>essa@rockandsteel.com</v>
+        <v>hello@ahb.sa</v>
       </c>
       <c r="F59" t="str">
-        <v>JEDDAH</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="60">
@@ -1595,16 +1595,16 @@
         <v>3</v>
       </c>
       <c r="B60" t="str">
-        <v>Sham Najd International Co Ltd</v>
+        <v>Shibh Aljazira Contracting Company</v>
       </c>
       <c r="C60" t="str">
-        <v>200006630</v>
+        <v>10000760</v>
       </c>
       <c r="D60" t="str">
-        <v>0112064070</v>
+        <v>966114777443</v>
       </c>
       <c r="E60" t="str">
-        <v>shamnajd@shamnajd.com</v>
+        <v>maeshal@sajco.com.sa</v>
       </c>
       <c r="F60" t="str">
         <v>RIYADH</v>
@@ -1615,19 +1615,19 @@
         <v>3</v>
       </c>
       <c r="B61" t="str">
-        <v>General Enterprises Trading Co Ltd</v>
+        <v>Al-Kifah Holding Company, Contracting Branch</v>
       </c>
       <c r="C61" t="str">
-        <v>10003116</v>
+        <v>10002946</v>
       </c>
       <c r="D61" t="str">
-        <v>0112025074</v>
+        <v>0138459564</v>
       </c>
       <c r="E61" t="str">
-        <v>helmi@getco.com.sa</v>
+        <v>abdullah.busodah@alkifah.com</v>
       </c>
       <c r="F61" t="str">
-        <v>RIYADH</v>
+        <v>DAMMAM</v>
       </c>
     </row>
     <row r="62">
@@ -1635,19 +1635,19 @@
         <v>4</v>
       </c>
       <c r="B62" t="str">
-        <v>SGS Inspection Services Saudi Arabia Company Ltd</v>
+        <v>Arabian Rock Contracting Company</v>
       </c>
       <c r="C62" t="str">
-        <v>30001683</v>
+        <v>10001271</v>
       </c>
       <c r="D62" t="str">
-        <v>96613400044</v>
+        <v>0114749999</v>
       </c>
       <c r="E62" t="str">
-        <v>abdulaziz.alansari@sgs.com</v>
+        <v>info@arbrock.com</v>
       </c>
       <c r="F62" t="str">
-        <v>AL JUBAIL</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="63">
@@ -1655,19 +1655,19 @@
         <v>4</v>
       </c>
       <c r="B63" t="str">
-        <v>18th Chinarailway Branch Peru Group Company Limited</v>
+        <v>Al Jazera Al Arabia Industries, Trading and Contracting Co.ltd</v>
       </c>
       <c r="C63" t="str">
-        <v>20000803</v>
+        <v>10001484</v>
       </c>
       <c r="D63" t="str">
-        <v/>
+        <v>966125487000</v>
       </c>
       <c r="E63" t="str">
-        <v>planningdepartment@cr18gksa.com</v>
+        <v>jacco@jazera.sa</v>
       </c>
       <c r="F63" t="str">
-        <v>DAMMAM</v>
+        <v>AT TAIF</v>
       </c>
     </row>
     <row r="64">
@@ -1675,19 +1675,19 @@
         <v>4</v>
       </c>
       <c r="B64" t="str">
-        <v>Amarah Intl Architect Construction &amp; Finishing Ltd Co</v>
+        <v>Electrical Power Systems Contracting Est</v>
       </c>
       <c r="C64" t="str">
-        <v>10000719</v>
+        <v>100006289</v>
       </c>
       <c r="D64" t="str">
-        <v>0126144555</v>
+        <v>0138361104</v>
       </c>
       <c r="E64" t="str">
-        <v>info@amarahksa.com</v>
+        <v>F.alyousef@eps-est.com</v>
       </c>
       <c r="F64" t="str">
-        <v>JEDDAH</v>
+        <v>'INAK</v>
       </c>
     </row>
     <row r="65">
@@ -1695,16 +1695,16 @@
         <v>4</v>
       </c>
       <c r="B65" t="str">
-        <v>Hamsat Almaseef Contracting Est</v>
+        <v>Construction Edifices Development Contracting Company</v>
       </c>
       <c r="C65" t="str">
-        <v>10001546</v>
+        <v>10002736</v>
       </c>
       <c r="D65" t="str">
-        <v>01129144</v>
+        <v>4452929</v>
       </c>
       <c r="E65" t="str">
-        <v>HAMSATALMASEEF@HOTMAIL.COM</v>
+        <v>waleed.w@cedme.com</v>
       </c>
       <c r="F65" t="str">
         <v>RIYADH</v>
@@ -1715,19 +1715,19 @@
         <v>4</v>
       </c>
       <c r="B66" t="str">
-        <v>Depth Construction Contracting Company</v>
+        <v>Saudi High Gate Company</v>
       </c>
       <c r="C66" t="str">
-        <v>10000785</v>
+        <v>10002093</v>
       </c>
       <c r="D66" t="str">
-        <v>0500005436</v>
+        <v>0172281538</v>
       </c>
       <c r="E66" t="str">
-        <v>m.harbi@thedepthco.com</v>
+        <v>info@albab-alali.com.sa</v>
       </c>
       <c r="F66" t="str">
-        <v>RIYADH</v>
+        <v>ABHA</v>
       </c>
     </row>
     <row r="67">
@@ -1735,16 +1735,16 @@
         <v>4</v>
       </c>
       <c r="B67" t="str">
-        <v>Raissy Trading &amp; Contracting Co. Ltd.</v>
+        <v>Dera'a Altatweer Trading Company</v>
       </c>
       <c r="C67" t="str">
-        <v>100005079</v>
+        <v>100003470</v>
       </c>
       <c r="D67" t="str">
-        <v>966114977977</v>
+        <v>920019019</v>
       </c>
       <c r="E67" t="str">
-        <v>AHMAD@RAISSY.COM.SA</v>
+        <v>aymen@armis.com.sa</v>
       </c>
       <c r="F67" t="str">
         <v>RIYADH</v>
@@ -1755,16 +1755,16 @@
         <v>4</v>
       </c>
       <c r="B68" t="str">
-        <v>Alsaad General Contracting Company Ltd.</v>
+        <v>Al Baraka Construction Company L.L.C</v>
       </c>
       <c r="C68" t="str">
-        <v>20002951</v>
+        <v>100004075</v>
       </c>
       <c r="D68" t="str">
-        <v>0126830306</v>
+        <v>966122342384</v>
       </c>
       <c r="E68" t="str">
-        <v>iksalam@alsaad.com.sa</v>
+        <v>aziz@albaraka-co.com</v>
       </c>
       <c r="F68" t="str">
         <v>JEDDAH</v>
@@ -1775,19 +1775,19 @@
         <v>4</v>
       </c>
       <c r="B69" t="str">
-        <v>Nesma &amp; Partners Contracting Company Ltd.</v>
+        <v>Building Walls Contracting Est</v>
       </c>
       <c r="C69" t="str">
-        <v>10001763</v>
+        <v>100007392</v>
       </c>
       <c r="D69" t="str">
-        <v>0138519000</v>
+        <v/>
       </c>
       <c r="E69" t="str">
-        <v>bd@nesmapartners.com</v>
+        <v>aan.mak@hotmail.com</v>
       </c>
       <c r="F69" t="str">
-        <v>AL KHOBAR</v>
+        <v>AL MUBARRAZ</v>
       </c>
     </row>
     <row r="70">
@@ -1795,16 +1795,16 @@
         <v>4</v>
       </c>
       <c r="B70" t="str">
-        <v>Mishraf Al Madain Contracting Company</v>
+        <v>Saudi Electronic Trading and Contracting Company</v>
       </c>
       <c r="C70" t="str">
-        <v>10002938</v>
+        <v>200006548</v>
       </c>
       <c r="D70" t="str">
-        <v>920003237</v>
+        <v>0112062277</v>
       </c>
       <c r="E70" t="str">
-        <v>mhamd-alm@msn.com</v>
+        <v>homedi.alrasheed@setra.com.sa</v>
       </c>
       <c r="F70" t="str">
         <v>RIYADH</v>
@@ -1815,16 +1815,16 @@
         <v>4</v>
       </c>
       <c r="B71" t="str">
-        <v>Alsahda Contracting Est.</v>
+        <v>General Enterprises Trading Co Ltd</v>
       </c>
       <c r="C71" t="str">
-        <v>20002666</v>
+        <v>10003116</v>
       </c>
       <c r="D71" t="str">
-        <v/>
+        <v>0112025074</v>
       </c>
       <c r="E71" t="str">
-        <v>info@alsahda.com.sa</v>
+        <v>helmi@getco.com.sa</v>
       </c>
       <c r="F71" t="str">
         <v>RIYADH</v>
@@ -1835,16 +1835,16 @@
         <v>4</v>
       </c>
       <c r="B72" t="str">
-        <v>Specialists for Construction Services</v>
+        <v>Asaleeb Contracting Est</v>
       </c>
       <c r="C72" t="str">
-        <v>10001026</v>
+        <v>100006924</v>
       </c>
       <c r="D72" t="str">
-        <v>00966118127029</v>
+        <v>112929300</v>
       </c>
       <c r="E72" t="str">
-        <v>anas@scsconst.net</v>
+        <v>aziz@almousa.com</v>
       </c>
       <c r="F72" t="str">
         <v>RIYADH</v>
@@ -1855,19 +1855,19 @@
         <v>4</v>
       </c>
       <c r="B73" t="str">
-        <v>Shabakat Altoorq Contracting Company</v>
+        <v>Gulf Cooperation Symbols Contracting Company Limited</v>
       </c>
       <c r="C73" t="str">
-        <v>100003805</v>
+        <v>30001181</v>
       </c>
       <c r="D73" t="str">
-        <v>0112066662</v>
+        <v>0138672275</v>
       </c>
       <c r="E73" t="str">
-        <v>road_net@ymail.com</v>
+        <v>contact@gcscontracting.com</v>
       </c>
       <c r="F73" t="str">
-        <v>RIYADH</v>
+        <v>AL KHOBAR</v>
       </c>
     </row>
     <row r="74">
@@ -1875,19 +1875,19 @@
         <v>4</v>
       </c>
       <c r="B74" t="str">
-        <v>alhadirh Gen Cont Est</v>
+        <v>Awal Tasmim Company For Decoration</v>
       </c>
       <c r="C74" t="str">
-        <v>465046504</v>
+        <v>100007486</v>
       </c>
       <c r="D74" t="str">
-        <v>0138126969</v>
+        <v>0114169700</v>
       </c>
       <c r="E74" t="str">
-        <v>alkhruaim@yahoo.com</v>
+        <v>kab@lepremier.com.sa</v>
       </c>
       <c r="F74" t="str">
-        <v>SAFWA</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="75">
@@ -1895,19 +1895,19 @@
         <v>4</v>
       </c>
       <c r="B75" t="str">
-        <v>Alhejaz Horizon Ltd. Company</v>
+        <v>Enter For Communications &amp; Information Technology Co.</v>
       </c>
       <c r="C75" t="str">
-        <v>100006812</v>
+        <v>100004979</v>
       </c>
       <c r="D75" t="str">
-        <v>125495533</v>
+        <v>0163253323</v>
       </c>
       <c r="E75" t="str">
-        <v>alhejazhorizon@hotmail.com</v>
+        <v>admin@enter.com.sa</v>
       </c>
       <c r="F75" t="str">
-        <v>MAKKAH AL MUKARRAMAH</v>
+        <v/>
       </c>
     </row>
     <row r="76">
@@ -1915,19 +1915,19 @@
         <v>4</v>
       </c>
       <c r="B76" t="str">
-        <v>Abdullah Ayed Alanzi General Contracting Co</v>
+        <v>Nova Sat Commercial Company Joint-stock One Person Company</v>
       </c>
       <c r="C76" t="str">
-        <v>10002750</v>
+        <v>10001003</v>
       </c>
       <c r="D76" t="str">
-        <v/>
+        <v>920022006</v>
       </c>
       <c r="E76" t="str">
-        <v>info@rrksa.com</v>
+        <v>khalid.assiri@novasat.com.sa</v>
       </c>
       <c r="F76" t="str">
-        <v>SAYHAT</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="77">
@@ -1935,19 +1935,19 @@
         <v>4</v>
       </c>
       <c r="B77" t="str">
-        <v>Somac Contracting Company</v>
+        <v>Alsaad General Contracting Company Ltd.</v>
       </c>
       <c r="C77" t="str">
-        <v>20002939</v>
+        <v>20002951</v>
       </c>
       <c r="D77" t="str">
-        <v>00966138260427</v>
+        <v>0126830306</v>
       </c>
       <c r="E77" t="str">
-        <v>info@somaccontracting.com</v>
+        <v>iksalam@alsaad.com.sa</v>
       </c>
       <c r="F77" t="str">
-        <v>DAMMAM</v>
+        <v>JEDDAH</v>
       </c>
     </row>
     <row r="78">
@@ -1955,16 +1955,16 @@
         <v>4</v>
       </c>
       <c r="B78" t="str">
-        <v>Cities Linking Co. for Construction</v>
+        <v>Fast Finishing Contracting Company</v>
       </c>
       <c r="C78" t="str">
-        <v>10001982</v>
+        <v>100006904</v>
       </c>
       <c r="D78" t="str">
-        <v/>
+        <v>0541979932</v>
       </c>
       <c r="E78" t="str">
-        <v>CITCO88@GMAIL.COM</v>
+        <v>aalghamdi@fast-cpc.com</v>
       </c>
       <c r="F78" t="str">
         <v>JEDDAH</v>
@@ -1975,19 +1975,19 @@
         <v>4</v>
       </c>
       <c r="B79" t="str">
-        <v>Hani Al Hoty &amp; Partner Company</v>
+        <v>Altayyar Alarabi Contracting Company</v>
       </c>
       <c r="C79" t="str">
-        <v>100005354</v>
+        <v>150815082</v>
       </c>
       <c r="D79" t="str">
-        <v>0138021567</v>
+        <v>966505300528</v>
       </c>
       <c r="E79" t="str">
-        <v>s.husain@alhoty.com</v>
+        <v>altayar.a2007@gmail.com</v>
       </c>
       <c r="F79" t="str">
-        <v>AL KHOBAR</v>
+        <v>AL MADINAH AL MUNAWWARAH</v>
       </c>
     </row>
     <row r="80">
@@ -1995,19 +1995,19 @@
         <v>4</v>
       </c>
       <c r="B80" t="str">
-        <v>Al-Rawaf Contracting Co.</v>
+        <v>JAC Saudi Contracting Company</v>
       </c>
       <c r="C80" t="str">
-        <v>10001197</v>
+        <v>100006974</v>
       </c>
       <c r="D80" t="str">
-        <v>163234440</v>
+        <v/>
       </c>
       <c r="E80" t="str">
-        <v>RIMOSONG2000@YAHOO.COM</v>
+        <v>mesholif@yahoo.com</v>
       </c>
       <c r="F80" t="str">
-        <v>BURAYDAH</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="81">
@@ -2015,19 +2015,19 @@
         <v>4</v>
       </c>
       <c r="B81" t="str">
-        <v>Smart Decoration Contracting Company</v>
+        <v>Saudi Sicli Company</v>
       </c>
       <c r="C81" t="str">
-        <v>100003389</v>
+        <v>10001887</v>
       </c>
       <c r="D81" t="str">
-        <v>0114531133</v>
+        <v>0126355252</v>
       </c>
       <c r="E81" t="str">
-        <v>smartdesign_i@yahoo.com</v>
+        <v>ahmad@saudisicli.com.sa</v>
       </c>
       <c r="F81" t="str">
-        <v>RIYADH</v>
+        <v>JEDDAH</v>
       </c>
     </row>
     <row r="82">
@@ -2035,19 +2035,19 @@
         <v>5</v>
       </c>
       <c r="B82" t="str">
-        <v>Shafeeq Contracting Company</v>
+        <v>Arabian Building Support and Rehabilitation Co. Ltd.</v>
       </c>
       <c r="C82" t="str">
-        <v>100005480</v>
+        <v>10001986</v>
       </c>
       <c r="D82" t="str">
-        <v>0138052518</v>
+        <v>0114193510</v>
       </c>
       <c r="E82" t="str">
-        <v>rasool@shafiqcontracting.com</v>
+        <v>Aalshehri@Absar.Com</v>
       </c>
       <c r="F82" t="str">
-        <v>DAMMAM</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="83">
@@ -2055,16 +2055,16 @@
         <v>5</v>
       </c>
       <c r="B83" t="str">
-        <v>Infrastructure Engineering and Contracting Company Ltd</v>
+        <v>Somac Contracting Company</v>
       </c>
       <c r="C83" t="str">
-        <v>100006338</v>
+        <v>20002939</v>
       </c>
       <c r="D83" t="str">
-        <v/>
+        <v>00966138260427</v>
       </c>
       <c r="E83" t="str">
-        <v>hmismail@isecc-sa.com</v>
+        <v>info@somaccontracting.com</v>
       </c>
       <c r="F83" t="str">
         <v>DAMMAM</v>
@@ -2075,19 +2075,19 @@
         <v>5</v>
       </c>
       <c r="B84" t="str">
-        <v>Shathrwan Al Thahab Contracting Company</v>
+        <v>Saudi Electrical Contracting Company</v>
       </c>
       <c r="C84" t="str">
-        <v>10002379</v>
+        <v>20001177</v>
       </c>
       <c r="D84" t="str">
-        <v>0125344900</v>
+        <v>0114608821</v>
       </c>
       <c r="E84" t="str">
-        <v>gm@shathrwan.com</v>
+        <v>e.bassam@selcop.co</v>
       </c>
       <c r="F84" t="str">
-        <v>MAKKAH AL MUKARRAMAH</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="85">
@@ -2095,19 +2095,19 @@
         <v>5</v>
       </c>
       <c r="B85" t="str">
-        <v>Nova Sat Commercial Company Joint-stock One Person Company</v>
+        <v>Infrastructure Engineering and Contracting Company Ltd</v>
       </c>
       <c r="C85" t="str">
-        <v>10001003</v>
+        <v>100006338</v>
       </c>
       <c r="D85" t="str">
-        <v>920022006</v>
+        <v/>
       </c>
       <c r="E85" t="str">
-        <v>khalid.assiri@novasat.com.sa</v>
+        <v>hmismail@isecc-sa.com</v>
       </c>
       <c r="F85" t="str">
-        <v>RIYADH</v>
+        <v>DAMMAM</v>
       </c>
     </row>
     <row r="86">
@@ -2115,19 +2115,19 @@
         <v>5</v>
       </c>
       <c r="B86" t="str">
-        <v>Al-Asila Solutions Co., Ltd</v>
+        <v>Bani Al Jazeera Contracting Company</v>
       </c>
       <c r="C86" t="str">
-        <v>30002587</v>
+        <v>10001972</v>
       </c>
       <c r="D86" t="str">
-        <v>0112059550</v>
+        <v/>
       </c>
       <c r="E86" t="str">
-        <v>khalid@alasila.com</v>
+        <v>khalid.farhan@bunaaljazira.com.sa</v>
       </c>
       <c r="F86" t="str">
-        <v>RIYADH</v>
+        <v>AL KHOBAR</v>
       </c>
     </row>
     <row r="87">
@@ -2135,19 +2135,19 @@
         <v>5</v>
       </c>
       <c r="B87" t="str">
-        <v>Awjed General Contracting Company</v>
+        <v>Ibrahim M Alaboud Co for Development</v>
       </c>
       <c r="C87" t="str">
-        <v>100007262</v>
+        <v>100006300</v>
       </c>
       <c r="D87" t="str">
-        <v>0138443329</v>
+        <v>0116433448</v>
       </c>
       <c r="E87" t="str">
-        <v>h_almutlaq@awjed.co</v>
+        <v>alaboud2008@yahoo.com</v>
       </c>
       <c r="F87" t="str">
-        <v>DAMMAM</v>
+        <v>AD DUWADIMI</v>
       </c>
     </row>
     <row r="88">
@@ -2155,19 +2155,19 @@
         <v>5</v>
       </c>
       <c r="B88" t="str">
-        <v>Saudi Electrical Contracting Company</v>
+        <v>Alrajeh Modern Contracting Co. Ltd.</v>
       </c>
       <c r="C88" t="str">
-        <v>20001177</v>
+        <v>10001221</v>
       </c>
       <c r="D88" t="str">
-        <v>0114608821</v>
+        <v>0126682040</v>
       </c>
       <c r="E88" t="str">
-        <v>e.bassam@selcop.co</v>
+        <v>info@alrajehmodern.com.sa</v>
       </c>
       <c r="F88" t="str">
-        <v>RIYADH</v>
+        <v>JEDDAH</v>
       </c>
     </row>
     <row r="89">
@@ -2175,19 +2175,19 @@
         <v>5</v>
       </c>
       <c r="B89" t="str">
-        <v>Safety Triangle Company for General Contracting</v>
+        <v>Al-Dhaati Group Company</v>
       </c>
       <c r="C89" t="str">
-        <v>10001974</v>
+        <v>10003068</v>
       </c>
       <c r="D89" t="str">
-        <v/>
+        <v>0550600092</v>
       </c>
       <c r="E89" t="str">
-        <v>talal@safetytriangle.com.sa</v>
+        <v>althaatygroup@gmail.com</v>
       </c>
       <c r="F89" t="str">
-        <v>ABHA</v>
+        <v>AL KHOBAR</v>
       </c>
     </row>
     <row r="90">
@@ -2195,19 +2195,19 @@
         <v>5</v>
       </c>
       <c r="B90" t="str">
-        <v>Raghad Projects Contracting Est.</v>
+        <v>A.J. Corporation Company Branch</v>
       </c>
       <c r="C90" t="str">
-        <v>10002082</v>
+        <v>200003781</v>
       </c>
       <c r="D90" t="str">
-        <v>0114916149</v>
+        <v>966138288365</v>
       </c>
       <c r="E90" t="str">
-        <v>ie_anasah@hotmail.com</v>
+        <v>jibreel@ajcengg.pk</v>
       </c>
       <c r="F90" t="str">
-        <v>RIYADH</v>
+        <v>DAMMAM</v>
       </c>
     </row>
     <row r="91">
@@ -2215,16 +2215,16 @@
         <v>5</v>
       </c>
       <c r="B91" t="str">
-        <v>Branch of National Power Construction Corporation Ltd.</v>
+        <v>International for Modern Industries Co</v>
       </c>
       <c r="C91" t="str">
-        <v>200006257</v>
+        <v>10001505</v>
       </c>
       <c r="D91" t="str">
-        <v>966126132073</v>
+        <v/>
       </c>
       <c r="E91" t="str">
-        <v>npcc@npcc.com.sa</v>
+        <v>gm@ifmi.com.sa</v>
       </c>
       <c r="F91" t="str">
         <v>JEDDAH</v>
@@ -2235,19 +2235,19 @@
         <v>5</v>
       </c>
       <c r="B92" t="str">
-        <v>Alrashid Trading &amp; Contracting Company</v>
+        <v>Saudi Electronic Computers Company</v>
       </c>
       <c r="C92" t="str">
-        <v>100003724</v>
+        <v>10003104</v>
       </c>
       <c r="D92" t="str">
-        <v>00966114164111</v>
+        <v/>
       </c>
       <c r="E92" t="str">
-        <v>rtcc@rtcc.com.sa</v>
+        <v>snaif@sbm.com.sa</v>
       </c>
       <c r="F92" t="str">
-        <v>RIYADH</v>
+        <v>JEDDAH</v>
       </c>
     </row>
     <row r="93">
@@ -2255,19 +2255,19 @@
         <v>5</v>
       </c>
       <c r="B93" t="str">
-        <v>Belt Industrial Company</v>
+        <v>Mohammad and Sulaiman Al-Assaf Trading and Contracting Company Ltd</v>
       </c>
       <c r="C93" t="str">
-        <v>10003183</v>
+        <v>10002264</v>
       </c>
       <c r="D93" t="str">
-        <v>2252877000</v>
+        <v>00966122712299</v>
       </c>
       <c r="E93" t="str">
-        <v>msaber@labab.com.sa</v>
+        <v>info@alassafco.com.sa</v>
       </c>
       <c r="F93" t="str">
-        <v>RIYADH</v>
+        <v>JEDDAH</v>
       </c>
     </row>
     <row r="94">
@@ -2275,19 +2275,19 @@
         <v>5</v>
       </c>
       <c r="B94" t="str">
-        <v>Basmt Laith for Contracting</v>
+        <v>Belt Industrial Company</v>
       </c>
       <c r="C94" t="str">
-        <v>10002385</v>
+        <v>10003183</v>
       </c>
       <c r="D94" t="str">
-        <v/>
+        <v>2252877000</v>
       </c>
       <c r="E94" t="str">
-        <v>basmt8@gmail.com</v>
+        <v>msaber@labab.com.sa</v>
       </c>
       <c r="F94" t="str">
-        <v>AL LITH</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="95">
@@ -2295,19 +2295,19 @@
         <v>5</v>
       </c>
       <c r="B95" t="str">
-        <v>Construction Edifices Development Contracting Company</v>
+        <v>Mohammed Ahmed Al-Hilal Contracting Est</v>
       </c>
       <c r="C95" t="str">
-        <v>10002736</v>
+        <v>122512250</v>
       </c>
       <c r="D95" t="str">
-        <v>4452929</v>
+        <v/>
       </c>
       <c r="E95" t="str">
-        <v>waleed.w@cedme.com</v>
+        <v>aboahmada0@gmail.com</v>
       </c>
       <c r="F95" t="str">
-        <v>RIYADH</v>
+        <v>AL AHSA</v>
       </c>
     </row>
     <row r="96">
@@ -2315,19 +2315,19 @@
         <v>5</v>
       </c>
       <c r="B96" t="str">
-        <v>Khalf Almoheet Contracting Est.</v>
+        <v>Capital Lights Co For Electro-Mechanics</v>
       </c>
       <c r="C96" t="str">
-        <v>100007302</v>
+        <v>10001074</v>
       </c>
       <c r="D96" t="str">
-        <v>0173224303</v>
+        <v>00966114707002</v>
       </c>
       <c r="E96" t="str">
-        <v>khalfalmoheet@gmail.com</v>
+        <v>clc967@gmail.com</v>
       </c>
       <c r="F96" t="str">
-        <v>FAYFA</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="97">
@@ -2335,19 +2335,19 @@
         <v>5</v>
       </c>
       <c r="B97" t="str">
-        <v>Gulf Cooperation Symbols Contracting Company Limited</v>
+        <v>Eastern Mman Co. For Trading &amp; Contracting</v>
       </c>
       <c r="C97" t="str">
-        <v>30001181</v>
+        <v>100004622</v>
       </c>
       <c r="D97" t="str">
-        <v>0138672275</v>
+        <v>00966920003418</v>
       </c>
       <c r="E97" t="str">
-        <v>contact@gcscontracting.com</v>
+        <v>CEO@MMANCO.COM</v>
       </c>
       <c r="F97" t="str">
-        <v>AL KHOBAR</v>
+        <v>AL JUBAIL</v>
       </c>
     </row>
     <row r="98">
@@ -2355,19 +2355,19 @@
         <v>5</v>
       </c>
       <c r="B98" t="str">
-        <v>Saad Hussein Bin Khammash and Sons Company for Trading, Industry, and Contracting</v>
+        <v>Al-Deyabi Contracting Group</v>
       </c>
       <c r="C98" t="str">
-        <v>100003851</v>
+        <v>10002269</v>
       </c>
       <c r="D98" t="str">
-        <v>0172570257</v>
+        <v>966114561245</v>
       </c>
       <c r="E98" t="str">
-        <v>isk@binkamash.com</v>
+        <v>maged@aldeyabi.com</v>
       </c>
       <c r="F98" t="str">
-        <v>KHAMIS MUSHAYT</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="99">
@@ -2375,19 +2375,19 @@
         <v>5</v>
       </c>
       <c r="B99" t="str">
-        <v>Ground Engineering Contracting Co.</v>
+        <v>GRC Touch Company</v>
       </c>
       <c r="C99" t="str">
-        <v>20001464</v>
+        <v>100004851</v>
       </c>
       <c r="D99" t="str">
-        <v>966114773601</v>
+        <v>966559374306</v>
       </c>
       <c r="E99" t="str">
-        <v>jftouma@gmail.com</v>
+        <v>Waleed@grctouch.com</v>
       </c>
       <c r="F99" t="str">
-        <v>DAMMAM</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="100">
@@ -2395,19 +2395,19 @@
         <v>5</v>
       </c>
       <c r="B100" t="str">
-        <v>Algosaibi Services Company Ltd.</v>
+        <v>Branch of Alriyadah Investments Company Ltd.</v>
       </c>
       <c r="C100" t="str">
-        <v>100005370</v>
+        <v>100006953</v>
       </c>
       <c r="D100" t="str">
-        <v>00966138472444</v>
+        <v>0126112333</v>
       </c>
       <c r="E100" t="str">
-        <v>khalid.alabdulaziz@algosaibi.com.sa</v>
+        <v>sabudawood@arabian-power.com</v>
       </c>
       <c r="F100" t="str">
-        <v>DAMMAM</v>
+        <v>JEDDAH</v>
       </c>
     </row>
     <row r="101">
@@ -2415,19 +2415,19 @@
         <v>5</v>
       </c>
       <c r="B101" t="str">
-        <v>Electrical Works &amp; Maintenance Company, Branch of Shobokshi Trading &amp; Development Co.</v>
+        <v>Equipment &amp; Technical Services Ltd. Company</v>
       </c>
       <c r="C101" t="str">
-        <v>10001833</v>
+        <v>100003533</v>
       </c>
       <c r="D101" t="str">
-        <v>0126916655</v>
+        <v>0114505040</v>
       </c>
       <c r="E101" t="str">
-        <v>m.sofy@ewmcom.com</v>
+        <v>munif.alsubaiy@etechsco.com</v>
       </c>
       <c r="F101" t="str">
-        <v>JEDDAH</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="102">
@@ -2435,19 +2435,19 @@
         <v>6</v>
       </c>
       <c r="B102" t="str">
-        <v>Al-Rawaf Contracting Co.</v>
+        <v>Source Machinery Company for Trading Contracting LTD</v>
       </c>
       <c r="C102" t="str">
-        <v>10001197</v>
+        <v>10000738</v>
       </c>
       <c r="D102" t="str">
-        <v>163234440</v>
+        <v>966114767667</v>
       </c>
       <c r="E102" t="str">
-        <v>RIMOSONG2000@YAHOO.COM</v>
+        <v>info@source-machinery.com</v>
       </c>
       <c r="F102" t="str">
-        <v>BURAYDAH</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="103">
@@ -2455,19 +2455,19 @@
         <v>6</v>
       </c>
       <c r="B103" t="str">
-        <v>Shabakat Altoorq Contracting Company</v>
+        <v>MHI-AP Saudi Arabia Co. Ltd</v>
       </c>
       <c r="C103" t="str">
-        <v>100003805</v>
+        <v>100005345</v>
       </c>
       <c r="D103" t="str">
-        <v>0112066662</v>
+        <v>0133581112</v>
       </c>
       <c r="E103" t="str">
-        <v>road_net@ymail.com</v>
+        <v>ali.almabooq.ns@mhi.com</v>
       </c>
       <c r="F103" t="str">
-        <v>RIYADH</v>
+        <v>AL JUBAIL</v>
       </c>
     </row>
     <row r="104">
@@ -2475,19 +2475,19 @@
         <v>6</v>
       </c>
       <c r="B104" t="str">
-        <v>Development Way Contracting Co</v>
+        <v>Rkan Alsmood General Contracting Co.</v>
       </c>
       <c r="C104" t="str">
-        <v>130413048</v>
+        <v>100005601</v>
       </c>
       <c r="D104" t="str">
-        <v>0126499939</v>
+        <v>0176220495</v>
       </c>
       <c r="E104" t="str">
-        <v>meshari.alsaiby@dmco.sa</v>
+        <v>alsmood-@hotmail.com</v>
       </c>
       <c r="F104" t="str">
-        <v>JEDDAH</v>
+        <v>BISHAH</v>
       </c>
     </row>
     <row r="105">
@@ -2495,16 +2495,16 @@
         <v>6</v>
       </c>
       <c r="B105" t="str">
-        <v>Construction Edifices Development Contracting Company</v>
+        <v>Trading &amp; Development Partnership Co</v>
       </c>
       <c r="C105" t="str">
-        <v>10002736</v>
+        <v>100003410</v>
       </c>
       <c r="D105" t="str">
-        <v>4452929</v>
+        <v>0112812222</v>
       </c>
       <c r="E105" t="str">
-        <v>waleed.w@cedme.com</v>
+        <v>amobark@tdpco.com</v>
       </c>
       <c r="F105" t="str">
         <v>RIYADH</v>
@@ -2515,19 +2515,19 @@
         <v>6</v>
       </c>
       <c r="B106" t="str">
-        <v>Concrete Technology Contracting Company</v>
+        <v>Electrical Works &amp; Maintenance Company, Branch of Shobokshi Trading &amp; Development Co.</v>
       </c>
       <c r="C106" t="str">
-        <v>100003782</v>
+        <v>10001833</v>
       </c>
       <c r="D106" t="str">
-        <v>00966539391916</v>
+        <v>0126916655</v>
       </c>
       <c r="E106" t="str">
-        <v>conc-tech@hotmail.com</v>
+        <v>m.sofy@ewmcom.com</v>
       </c>
       <c r="F106" t="str">
-        <v>RIYADH</v>
+        <v>JEDDAH</v>
       </c>
     </row>
     <row r="107">
@@ -2535,16 +2535,16 @@
         <v>6</v>
       </c>
       <c r="B107" t="str">
-        <v>Kanabal Arabian Company Ltd.</v>
+        <v>Rock and Steel Contracting Company</v>
       </c>
       <c r="C107" t="str">
-        <v>100004801</v>
+        <v>10001110</v>
       </c>
       <c r="D107" t="str">
-        <v>920009331</v>
+        <v>0122615392</v>
       </c>
       <c r="E107" t="str">
-        <v>info@canpel.com</v>
+        <v>essa@rockandsteel.com</v>
       </c>
       <c r="F107" t="str">
         <v>JEDDAH</v>
@@ -2555,16 +2555,16 @@
         <v>6</v>
       </c>
       <c r="B108" t="str">
-        <v>Dathin Contracting Company</v>
+        <v>Saudi Geo Co</v>
       </c>
       <c r="C108" t="str">
-        <v>10000708</v>
+        <v>100004802</v>
       </c>
       <c r="D108" t="str">
-        <v>00966114633554</v>
+        <v>920012320</v>
       </c>
       <c r="E108" t="str">
-        <v>INFO@DATHIN.COM</v>
+        <v>ehab.eltantawy@saudigeo.com.sa</v>
       </c>
       <c r="F108" t="str">
         <v>RIYADH</v>
@@ -2575,16 +2575,16 @@
         <v>6</v>
       </c>
       <c r="B109" t="str">
-        <v>Arab Peller Trading and Contracting Company</v>
+        <v>Bait Aljaleed for Maintenance &amp; Operation Company</v>
       </c>
       <c r="C109" t="str">
-        <v>10001816</v>
+        <v>100006826</v>
       </c>
       <c r="D109" t="str">
-        <v>112707095</v>
+        <v>920001721</v>
       </c>
       <c r="E109" t="str">
-        <v>t.salah@pillararabian.com</v>
+        <v>alkhadhar.a@gmail.com</v>
       </c>
       <c r="F109" t="str">
         <v>RIYADH</v>
@@ -2595,19 +2595,19 @@
         <v>6</v>
       </c>
       <c r="B110" t="str">
-        <v>Technical Support Company for Industrial Services</v>
+        <v>Saudi Spectrum Engineering Company</v>
       </c>
       <c r="C110" t="str">
-        <v>100007290</v>
+        <v>403640366</v>
       </c>
       <c r="D110" t="str">
-        <v>0133411182</v>
+        <v/>
       </c>
       <c r="E110" t="str">
-        <v>hr@techsen.com</v>
+        <v>yalsayeh@sesksa.com</v>
       </c>
       <c r="F110" t="str">
-        <v>AL JUBAIL</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="111">
@@ -2615,19 +2615,19 @@
         <v>6</v>
       </c>
       <c r="B111" t="str">
-        <v>Al-Haramain Trading &amp; Contracting Co.</v>
+        <v>Fawares Al Olaya Contracting Company</v>
       </c>
       <c r="C111" t="str">
-        <v>10001319</v>
+        <v>100004211</v>
       </c>
       <c r="D111" t="str">
-        <v>0126942000</v>
+        <v>0114464626</v>
       </c>
       <c r="E111" t="str">
-        <v>muad@haramain.com.sa</v>
+        <v>info@fawares.com.sa</v>
       </c>
       <c r="F111" t="str">
-        <v>JEDDAH</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="112">
@@ -2655,16 +2655,16 @@
         <v>6</v>
       </c>
       <c r="B113" t="str">
-        <v>Dar Alshabakat Alarabia Contracting Est.</v>
+        <v>Alkhorayef Water &amp; Power Technologies Company</v>
       </c>
       <c r="C113" t="str">
-        <v>100003578</v>
+        <v>10002677</v>
       </c>
       <c r="D113" t="str">
-        <v>966114968932</v>
+        <v>0114000612</v>
       </c>
       <c r="E113" t="str">
-        <v>Arabnet@arabnet-ksa.com</v>
+        <v>talsayadi@alkhorayef.com</v>
       </c>
       <c r="F113" t="str">
         <v>RIYADH</v>
@@ -2675,19 +2675,19 @@
         <v>6</v>
       </c>
       <c r="B114" t="str">
-        <v>Shalfa Facilities Management Company</v>
+        <v>ِ Almayssan Technical Services Co Ltd</v>
       </c>
       <c r="C114" t="str">
-        <v>100003616</v>
+        <v>100006543</v>
       </c>
       <c r="D114" t="str">
-        <v>0114538155</v>
+        <v>0126676251</v>
       </c>
       <c r="E114" t="str">
-        <v>f.albrahim@shalfaintl.com.sa</v>
+        <v>a.anwar@almayssan.com</v>
       </c>
       <c r="F114" t="str">
-        <v>RIYADH</v>
+        <v>JEDDAH</v>
       </c>
     </row>
     <row r="115">
@@ -2695,19 +2695,19 @@
         <v>6</v>
       </c>
       <c r="B115" t="str">
-        <v>United Cell Company for Pest Control</v>
+        <v>Eastern Projects Contracting Co. For Building Works</v>
       </c>
       <c r="C115" t="str">
-        <v>100005364</v>
+        <v>10000106</v>
       </c>
       <c r="D115" t="str">
         <v/>
       </c>
       <c r="E115" t="str">
-        <v>mas@unitedest.com</v>
+        <v>sec3@alaligroup.com</v>
       </c>
       <c r="F115" t="str">
-        <v>DAMMAM</v>
+        <v>AL HUFUF</v>
       </c>
     </row>
     <row r="116">
@@ -2715,19 +2715,19 @@
         <v>6</v>
       </c>
       <c r="B116" t="str">
-        <v>Abdullah Hamoud Alshuwayer Sons Trading &amp; Contracting Co</v>
+        <v>Saad Saeed Al Saadi &amp; Sons Co. for Contracting, Maintenance &amp; Operation</v>
       </c>
       <c r="C116" t="str">
-        <v>10001371</v>
+        <v>10001862</v>
       </c>
       <c r="D116" t="str">
-        <v>0138489999</v>
+        <v>5589303</v>
       </c>
       <c r="E116" t="str">
-        <v>admins@shuwayer.com</v>
+        <v>ISS966@HOTMAIL.COM</v>
       </c>
       <c r="F116" t="str">
-        <v>DAMMAM</v>
+        <v>MAKKAH AL MUKARRAMAH</v>
       </c>
     </row>
     <row r="117">
@@ -2735,19 +2735,19 @@
         <v>6</v>
       </c>
       <c r="B117" t="str">
-        <v>Fifteen Contracting Est</v>
+        <v>Mofarreh Marzouq Alharbi &amp; Partners Co. Ltd.</v>
       </c>
       <c r="C117" t="str">
-        <v>10000415</v>
+        <v>10001405</v>
       </c>
       <c r="D117" t="str">
-        <v>0559332559</v>
+        <v/>
       </c>
       <c r="E117" t="str">
-        <v>hajer.nb@gmail.com</v>
+        <v>ghazi@harbico.com</v>
       </c>
       <c r="F117" t="str">
-        <v>MAKKAH AL MUKARRAMAH</v>
+        <v>SAFWA</v>
       </c>
     </row>
     <row r="118">
@@ -2755,16 +2755,16 @@
         <v>6</v>
       </c>
       <c r="B118" t="str">
-        <v>Shibh Aljazira Contracting Company</v>
+        <v>Saudi Media Systems Co</v>
       </c>
       <c r="C118" t="str">
-        <v>10000760</v>
+        <v>100006342</v>
       </c>
       <c r="D118" t="str">
-        <v>966114777443</v>
+        <v>0114191939</v>
       </c>
       <c r="E118" t="str">
-        <v>maeshal@sajco.com.sa</v>
+        <v>khumadi@smediasys.com</v>
       </c>
       <c r="F118" t="str">
         <v>RIYADH</v>
@@ -2775,19 +2775,19 @@
         <v>6</v>
       </c>
       <c r="B119" t="str">
-        <v>Eastern Projects Contracting Co. For Building Works</v>
+        <v>National Computer Systems Company</v>
       </c>
       <c r="C119" t="str">
-        <v>10000106</v>
+        <v>100006355</v>
       </c>
       <c r="D119" t="str">
-        <v/>
+        <v>0126444777</v>
       </c>
       <c r="E119" t="str">
-        <v>sec3@alaligroup.com</v>
+        <v>hassan.jamman@natcom.com.sa</v>
       </c>
       <c r="F119" t="str">
-        <v>AL HUFUF</v>
+        <v>JEDDAH</v>
       </c>
     </row>
     <row r="120">
@@ -2795,19 +2795,19 @@
         <v>6</v>
       </c>
       <c r="B120" t="str">
-        <v>Khalf Almoheet Contracting Est.</v>
+        <v>Branch of Amazan Contracting Est.</v>
       </c>
       <c r="C120" t="str">
-        <v>100007302</v>
+        <v>100007159</v>
       </c>
       <c r="D120" t="str">
-        <v>0173224303</v>
+        <v>0112731919</v>
       </c>
       <c r="E120" t="str">
-        <v>khalfalmoheet@gmail.com</v>
+        <v>alassaker2010@yahoo.com</v>
       </c>
       <c r="F120" t="str">
-        <v>FAYFA</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="121">
@@ -2815,19 +2815,19 @@
         <v>6</v>
       </c>
       <c r="B121" t="str">
-        <v>Kafou Technical Services Co Ltd.</v>
+        <v>Deep Ocean Contracting Company</v>
       </c>
       <c r="C121" t="str">
-        <v>100004499</v>
+        <v>10002099</v>
       </c>
       <c r="D121" t="str">
-        <v>00966138825067</v>
+        <v>0112915204</v>
       </c>
       <c r="E121" t="str">
-        <v>rashed@ktsco.com.sa</v>
+        <v>info@thedeepocean.com.sa</v>
       </c>
       <c r="F121" t="str">
-        <v>AL KHOBAR</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="122">
@@ -2835,19 +2835,19 @@
         <v>7</v>
       </c>
       <c r="B122" t="str">
-        <v>Kafou Technical Services Co Ltd.</v>
+        <v>Alhejaz Horizon Ltd. Company</v>
       </c>
       <c r="C122" t="str">
-        <v>100004499</v>
+        <v>100006812</v>
       </c>
       <c r="D122" t="str">
-        <v>00966138825067</v>
+        <v>125495533</v>
       </c>
       <c r="E122" t="str">
-        <v>rashed@ktsco.com.sa</v>
+        <v>alhejazhorizon@hotmail.com</v>
       </c>
       <c r="F122" t="str">
-        <v>AL KHOBAR</v>
+        <v>MAKKAH AL MUKARRAMAH</v>
       </c>
     </row>
     <row r="123">
@@ -2855,19 +2855,19 @@
         <v>7</v>
       </c>
       <c r="B123" t="str">
-        <v>Arab Builders for Telecommunications and Security Services</v>
+        <v>Maqasim Company Limited</v>
       </c>
       <c r="C123" t="str">
-        <v>100004019</v>
+        <v>100004818</v>
       </c>
       <c r="D123" t="str">
-        <v>9662912222</v>
+        <v>0096626424242</v>
       </c>
       <c r="E123" t="str">
-        <v>a.kadasa@abtss.com.sa</v>
+        <v>hsan2000@hotmail.com</v>
       </c>
       <c r="F123" t="str">
-        <v>RIYADH</v>
+        <v>JEDDAH</v>
       </c>
     </row>
     <row r="124">
@@ -2875,19 +2875,19 @@
         <v>7</v>
       </c>
       <c r="B124" t="str">
-        <v>Electrical Works &amp; Maintenance Company, Branch of Shobokshi Trading &amp; Development Co.</v>
+        <v>Basmt Laith for Contracting</v>
       </c>
       <c r="C124" t="str">
-        <v>10001833</v>
+        <v>10002385</v>
       </c>
       <c r="D124" t="str">
-        <v>0126916655</v>
+        <v/>
       </c>
       <c r="E124" t="str">
-        <v>m.sofy@ewmcom.com</v>
+        <v>basmt8@gmail.com</v>
       </c>
       <c r="F124" t="str">
-        <v>JEDDAH</v>
+        <v>AL LITH</v>
       </c>
     </row>
     <row r="125">
@@ -2895,19 +2895,19 @@
         <v>7</v>
       </c>
       <c r="B125" t="str">
-        <v>Atheeb Intergraph Saudi Company</v>
+        <v>Hadi Haider Alyami Company General Cont. &amp; Trading</v>
       </c>
       <c r="C125" t="str">
-        <v>10003118</v>
+        <v>10003081</v>
       </c>
       <c r="D125" t="str">
-        <v>00966114622335</v>
+        <v>00966136680002</v>
       </c>
       <c r="E125" t="str">
-        <v>aamonim@intergraph.com.sa</v>
+        <v>info@hadihaider.com</v>
       </c>
       <c r="F125" t="str">
-        <v>RIYADH</v>
+        <v>RAS TANNURAH</v>
       </c>
     </row>
     <row r="126">
@@ -2915,19 +2915,19 @@
         <v>7</v>
       </c>
       <c r="B126" t="str">
-        <v>Youssef Marroun Contracting Co.</v>
+        <v>Al-Rawaf Contracting Co.</v>
       </c>
       <c r="C126" t="str">
-        <v>100007451</v>
+        <v>10001197</v>
       </c>
       <c r="D126" t="str">
-        <v>0114765992</v>
+        <v>163234440</v>
       </c>
       <c r="E126" t="str">
-        <v>info-hr@ymco.sa</v>
+        <v>RIMOSONG2000@YAHOO.COM</v>
       </c>
       <c r="F126" t="str">
-        <v>RIYADH</v>
+        <v>BURAYDAH</v>
       </c>
     </row>
     <row r="127">
@@ -2935,19 +2935,19 @@
         <v>7</v>
       </c>
       <c r="B127" t="str">
-        <v>Al Baraka Construction Company L.L.C</v>
+        <v>Raissy Trading &amp; Contracting Co. Ltd.</v>
       </c>
       <c r="C127" t="str">
-        <v>100004075</v>
+        <v>100005079</v>
       </c>
       <c r="D127" t="str">
-        <v>966122342384</v>
+        <v>966114977977</v>
       </c>
       <c r="E127" t="str">
-        <v>aziz@albaraka-co.com</v>
+        <v>AHMAD@RAISSY.COM.SA</v>
       </c>
       <c r="F127" t="str">
-        <v>JEDDAH</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="128">
@@ -2955,19 +2955,19 @@
         <v>7</v>
       </c>
       <c r="B128" t="str">
-        <v>National Computer Systems Company</v>
+        <v>Bakri Ahmed Hassan Al Saab Contracting Company</v>
       </c>
       <c r="C128" t="str">
-        <v>100006355</v>
+        <v>10002598</v>
       </c>
       <c r="D128" t="str">
-        <v>0126444777</v>
+        <v>0172279800</v>
       </c>
       <c r="E128" t="str">
-        <v>hassan.jamman@natcom.com.sa</v>
+        <v>h.bakkri@gmail.com</v>
       </c>
       <c r="F128" t="str">
-        <v>JEDDAH</v>
+        <v>MUHAYIL</v>
       </c>
     </row>
     <row r="129">
@@ -2975,19 +2975,19 @@
         <v>7</v>
       </c>
       <c r="B129" t="str">
-        <v>Building Walls Contracting Est</v>
+        <v>JAC Saudi Contracting Company</v>
       </c>
       <c r="C129" t="str">
-        <v>100007392</v>
+        <v>100006974</v>
       </c>
       <c r="D129" t="str">
         <v/>
       </c>
       <c r="E129" t="str">
-        <v>aan.mak@hotmail.com</v>
+        <v>mesholif@yahoo.com</v>
       </c>
       <c r="F129" t="str">
-        <v>AL MUBARRAZ</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="130">
@@ -2995,19 +2995,19 @@
         <v>7</v>
       </c>
       <c r="B130" t="str">
-        <v>Power Lines Contracting Co.</v>
+        <v>Albabtain Contracting Company</v>
       </c>
       <c r="C130" t="str">
-        <v>10002512</v>
+        <v>10001767</v>
       </c>
       <c r="D130" t="str">
         <v/>
       </c>
       <c r="E130" t="str">
-        <v>hazem@plc-sa.net</v>
+        <v>naif@abc.sa.com</v>
       </c>
       <c r="F130" t="str">
-        <v>RIYADH</v>
+        <v>DAMMAM</v>
       </c>
     </row>
     <row r="131">
@@ -3015,16 +3015,16 @@
         <v>7</v>
       </c>
       <c r="B131" t="str">
-        <v>Arab Peller Trading and Contracting Company</v>
+        <v>Saudi Architecture Art Maintenance Co. Ltd</v>
       </c>
       <c r="C131" t="str">
-        <v>10001816</v>
+        <v>100004618</v>
       </c>
       <c r="D131" t="str">
-        <v>112707095</v>
+        <v>966114041919</v>
       </c>
       <c r="E131" t="str">
-        <v>t.salah@pillararabian.com</v>
+        <v>bids@buildingtek.com</v>
       </c>
       <c r="F131" t="str">
         <v>RIYADH</v>
@@ -3035,19 +3035,19 @@
         <v>7</v>
       </c>
       <c r="B132" t="str">
-        <v>Equipment &amp; Technical Services Ltd. Company</v>
+        <v>ِ Almayssan Technical Services Co Ltd</v>
       </c>
       <c r="C132" t="str">
-        <v>100003533</v>
+        <v>100006543</v>
       </c>
       <c r="D132" t="str">
-        <v>0114505040</v>
+        <v>0126676251</v>
       </c>
       <c r="E132" t="str">
-        <v>munif.alsubaiy@etechsco.com</v>
+        <v>a.anwar@almayssan.com</v>
       </c>
       <c r="F132" t="str">
-        <v>RIYADH</v>
+        <v>JEDDAH</v>
       </c>
     </row>
     <row r="133">
@@ -3055,19 +3055,19 @@
         <v>7</v>
       </c>
       <c r="B133" t="str">
-        <v>Mudun Contracting Co</v>
+        <v>Hamsat Almaseef Contracting Est</v>
       </c>
       <c r="C133" t="str">
-        <v>10000851</v>
+        <v>10001546</v>
       </c>
       <c r="D133" t="str">
-        <v>0569999996</v>
+        <v>01129144</v>
       </c>
       <c r="E133" t="str">
-        <v>contact@mudungroup.com</v>
+        <v>HAMSATALMASEEF@HOTMAIL.COM</v>
       </c>
       <c r="F133" t="str">
-        <v>JEDDAH</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="134">
@@ -3075,19 +3075,19 @@
         <v>7</v>
       </c>
       <c r="B134" t="str">
-        <v>Saudi Sicli Company</v>
+        <v>Safety Triangle Company for General Contracting</v>
       </c>
       <c r="C134" t="str">
-        <v>10001887</v>
+        <v>10001974</v>
       </c>
       <c r="D134" t="str">
-        <v>0126355252</v>
+        <v/>
       </c>
       <c r="E134" t="str">
-        <v>ahmad@saudisicli.com.sa</v>
+        <v>talal@safetytriangle.com.sa</v>
       </c>
       <c r="F134" t="str">
-        <v>JEDDAH</v>
+        <v>ABHA</v>
       </c>
     </row>
     <row r="135">
@@ -3095,19 +3095,19 @@
         <v>7</v>
       </c>
       <c r="B135" t="str">
-        <v>Rowad Aljazeera Trading &amp; Contracting Company</v>
+        <v>Sama Al-afaq for Trading and Contracting Ltd.</v>
       </c>
       <c r="C135" t="str">
-        <v>100005005</v>
+        <v>10002438</v>
       </c>
       <c r="D135" t="str">
-        <v>96657537000</v>
+        <v>0146521444</v>
       </c>
       <c r="E135" t="str">
-        <v>naif@rjazeeraco.com</v>
+        <v>samaalafaq@hotmail.com</v>
       </c>
       <c r="F135" t="str">
-        <v>AL HUFUF</v>
+        <v>TURAIF</v>
       </c>
     </row>
     <row r="136">
@@ -3115,16 +3115,16 @@
         <v>7</v>
       </c>
       <c r="B136" t="str">
-        <v>Raghad Projects Contracting Est.</v>
+        <v>Dar Alshabakat Alarabia Contracting Est.</v>
       </c>
       <c r="C136" t="str">
-        <v>10002082</v>
+        <v>100003578</v>
       </c>
       <c r="D136" t="str">
-        <v>0114916149</v>
+        <v>966114968932</v>
       </c>
       <c r="E136" t="str">
-        <v>ie_anasah@hotmail.com</v>
+        <v>Arabnet@arabnet-ksa.com</v>
       </c>
       <c r="F136" t="str">
         <v>RIYADH</v>
@@ -3135,19 +3135,19 @@
         <v>7</v>
       </c>
       <c r="B137" t="str">
-        <v>Emdadat Tawneya Company</v>
+        <v>Albawani Co. Ltd.</v>
       </c>
       <c r="C137" t="str">
-        <v>10001653</v>
+        <v>10001023</v>
       </c>
       <c r="D137" t="str">
-        <v>0114333207</v>
+        <v/>
       </c>
       <c r="E137" t="str">
-        <v>emdadat.tawneya@hotmail.com</v>
+        <v>majed.aljaffar@albawani.net</v>
       </c>
       <c r="F137" t="str">
-        <v>RIYADH</v>
+        <v>DAMMAM</v>
       </c>
     </row>
     <row r="138">
@@ -3155,19 +3155,19 @@
         <v>7</v>
       </c>
       <c r="B138" t="str">
-        <v>Kenan Arabian General Contracting Est</v>
+        <v>Mebrick Masoud Al-Khamisi Contracting Company is a one-person company</v>
       </c>
       <c r="C138" t="str">
-        <v>10001176</v>
+        <v>10002323</v>
       </c>
       <c r="D138" t="str">
-        <v>0173348082</v>
+        <v>0126280049</v>
       </c>
       <c r="E138" t="str">
-        <v>kenan@kenan-sa.com</v>
+        <v>mebarek99@gmail.com</v>
       </c>
       <c r="F138" t="str">
-        <v>JAZAN</v>
+        <v>JEDDAH</v>
       </c>
     </row>
     <row r="139">
@@ -3175,19 +3175,19 @@
         <v>7</v>
       </c>
       <c r="B139" t="str">
-        <v>Arabian Building Support and Rehabilitation Co. Ltd.</v>
+        <v>Nesma &amp; Partners Contracting Company Ltd.</v>
       </c>
       <c r="C139" t="str">
-        <v>10001986</v>
+        <v>10001763</v>
       </c>
       <c r="D139" t="str">
-        <v>0114193510</v>
+        <v>0138519000</v>
       </c>
       <c r="E139" t="str">
-        <v>Aalshehri@Absar.Com</v>
+        <v>bd@nesmapartners.com</v>
       </c>
       <c r="F139" t="str">
-        <v>RIYADH</v>
+        <v>AL KHOBAR</v>
       </c>
     </row>
     <row r="140">
@@ -3195,19 +3195,19 @@
         <v>7</v>
       </c>
       <c r="B140" t="str">
-        <v>Awjed General Contracting Company</v>
+        <v>Saudi Sicli Company</v>
       </c>
       <c r="C140" t="str">
-        <v>100007262</v>
+        <v>10001887</v>
       </c>
       <c r="D140" t="str">
-        <v>0138443329</v>
+        <v>0126355252</v>
       </c>
       <c r="E140" t="str">
-        <v>h_almutlaq@awjed.co</v>
+        <v>ahmad@saudisicli.com.sa</v>
       </c>
       <c r="F140" t="str">
-        <v>DAMMAM</v>
+        <v>JEDDAH</v>
       </c>
     </row>
     <row r="141">
@@ -3215,16 +3215,16 @@
         <v>7</v>
       </c>
       <c r="B141" t="str">
-        <v>Saudi Urban Development Company</v>
+        <v>Abdulmohsen Aljasser Contracting Company</v>
       </c>
       <c r="C141" t="str">
-        <v>100005156</v>
+        <v>100004498</v>
       </c>
       <c r="D141" t="str">
-        <v>966114540300</v>
+        <v>0112770000</v>
       </c>
       <c r="E141" t="str">
-        <v>Fahad.aljasser@scdco.sa</v>
+        <v>aljaser_contrat@yahoo.com</v>
       </c>
       <c r="F141" t="str">
         <v>RIYADH</v>
@@ -3235,19 +3235,19 @@
         <v>8</v>
       </c>
       <c r="B142" t="str">
-        <v>Building Defense Systems Trading and Contracting Company</v>
+        <v>Alosais Contracting Company</v>
       </c>
       <c r="C142" t="str">
-        <v>100006258</v>
+        <v>100004776</v>
       </c>
       <c r="D142" t="str">
-        <v>0138141404</v>
+        <v>966138196159</v>
       </c>
       <c r="E142" t="str">
-        <v>hina@bds-sa.org</v>
+        <v>Sec.yousef@osais.com</v>
       </c>
       <c r="F142" t="str">
-        <v>AL KHOBAR</v>
+        <v>DAMMAM</v>
       </c>
     </row>
     <row r="143">
@@ -3255,19 +3255,19 @@
         <v>8</v>
       </c>
       <c r="B143" t="str">
-        <v>Eastern Mman Co. For Trading &amp; Contracting</v>
+        <v>Mishraf Al Madain Contracting Company</v>
       </c>
       <c r="C143" t="str">
-        <v>100004622</v>
+        <v>10002938</v>
       </c>
       <c r="D143" t="str">
-        <v>00966920003418</v>
+        <v>920003237</v>
       </c>
       <c r="E143" t="str">
-        <v>CEO@MMANCO.COM</v>
+        <v>mhamd-alm@msn.com</v>
       </c>
       <c r="F143" t="str">
-        <v>AL JUBAIL</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="144">
@@ -3275,19 +3275,19 @@
         <v>8</v>
       </c>
       <c r="B144" t="str">
-        <v>Saudi Electronic Computers Company</v>
+        <v>Alkhorayef Water &amp; Power Technologies Company</v>
       </c>
       <c r="C144" t="str">
-        <v>10003104</v>
+        <v>10002677</v>
       </c>
       <c r="D144" t="str">
-        <v/>
+        <v>0114000612</v>
       </c>
       <c r="E144" t="str">
-        <v>snaif@sbm.com.sa</v>
+        <v>talsayadi@alkhorayef.com</v>
       </c>
       <c r="F144" t="str">
-        <v>JEDDAH</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="145">
@@ -3295,19 +3295,19 @@
         <v>8</v>
       </c>
       <c r="B145" t="str">
-        <v>United Engineering Construction Co. UNEC</v>
+        <v>SGS Inspection Services Saudi Arabia Company Ltd</v>
       </c>
       <c r="C145" t="str">
-        <v>200005259</v>
+        <v>30001683</v>
       </c>
       <c r="D145" t="str">
-        <v>966114002769</v>
+        <v>96613400044</v>
       </c>
       <c r="E145" t="str">
-        <v>asharqi@unec.ae</v>
+        <v>abdulaziz.alansari@sgs.com</v>
       </c>
       <c r="F145" t="str">
-        <v>RIYADH</v>
+        <v>AL JUBAIL</v>
       </c>
     </row>
     <row r="146">
@@ -3315,19 +3315,19 @@
         <v>8</v>
       </c>
       <c r="B146" t="str">
-        <v>Albawani Co. Ltd.</v>
+        <v>Branch of Alriyadah Investments Company Ltd.</v>
       </c>
       <c r="C146" t="str">
-        <v>10001023</v>
+        <v>100006953</v>
       </c>
       <c r="D146" t="str">
-        <v/>
+        <v>0126112333</v>
       </c>
       <c r="E146" t="str">
-        <v>majed.aljaffar@albawani.net</v>
+        <v>sabudawood@arabian-power.com</v>
       </c>
       <c r="F146" t="str">
-        <v>DAMMAM</v>
+        <v>JEDDAH</v>
       </c>
     </row>
     <row r="147">
@@ -3335,16 +3335,16 @@
         <v>8</v>
       </c>
       <c r="B147" t="str">
-        <v>Asaleeb Contracting Est</v>
+        <v>Source Machinery Company for Trading Contracting LTD</v>
       </c>
       <c r="C147" t="str">
-        <v>100006924</v>
+        <v>10000738</v>
       </c>
       <c r="D147" t="str">
-        <v>112929300</v>
+        <v>966114767667</v>
       </c>
       <c r="E147" t="str">
-        <v>aziz@almousa.com</v>
+        <v>info@source-machinery.com</v>
       </c>
       <c r="F147" t="str">
         <v>RIYADH</v>
@@ -3355,19 +3355,19 @@
         <v>8</v>
       </c>
       <c r="B148" t="str">
-        <v>Al Jazera Al Arabia Industries, Trading and Contracting Co.ltd</v>
+        <v>Diamond Contractors Union Company for General Contracting</v>
       </c>
       <c r="C148" t="str">
-        <v>10001484</v>
+        <v>10001111</v>
       </c>
       <c r="D148" t="str">
-        <v>966125487000</v>
+        <v>0122502860</v>
       </c>
       <c r="E148" t="str">
-        <v>jacco@jazera.sa</v>
+        <v>admin@udc-sa.com</v>
       </c>
       <c r="F148" t="str">
-        <v>AT TAIF</v>
+        <v>JEDDAH</v>
       </c>
     </row>
     <row r="149">
@@ -3375,19 +3375,19 @@
         <v>8</v>
       </c>
       <c r="B149" t="str">
-        <v>Albabtain Contracting Company</v>
+        <v>Depth Construction Contracting Company</v>
       </c>
       <c r="C149" t="str">
-        <v>10001767</v>
+        <v>10000785</v>
       </c>
       <c r="D149" t="str">
-        <v/>
+        <v>0500005436</v>
       </c>
       <c r="E149" t="str">
-        <v>naif@abc.sa.com</v>
+        <v>m.harbi@thedepthco.com</v>
       </c>
       <c r="F149" t="str">
-        <v>DAMMAM</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="150">
@@ -3395,16 +3395,16 @@
         <v>8</v>
       </c>
       <c r="B150" t="str">
-        <v>Pro Fast Company Ltd</v>
+        <v>Arch Company for Technical Development</v>
       </c>
       <c r="C150" t="str">
-        <v>20003219</v>
+        <v>100006571</v>
       </c>
       <c r="D150" t="str">
-        <v>0114914810</v>
+        <v>0114772400</v>
       </c>
       <c r="E150" t="str">
-        <v>info@alaaalafaq.com</v>
+        <v>ahmad@al-kaws.com</v>
       </c>
       <c r="F150" t="str">
         <v>RIYADH</v>
@@ -3415,19 +3415,19 @@
         <v>8</v>
       </c>
       <c r="B151" t="str">
-        <v>Infrastructure Engineering and Contracting Company Ltd</v>
+        <v>Concrete Technology Contracting Company</v>
       </c>
       <c r="C151" t="str">
-        <v>100006338</v>
+        <v>100003782</v>
       </c>
       <c r="D151" t="str">
-        <v/>
+        <v>00966539391916</v>
       </c>
       <c r="E151" t="str">
-        <v>hmismail@isecc-sa.com</v>
+        <v>conc-tech@hotmail.com</v>
       </c>
       <c r="F151" t="str">
-        <v>DAMMAM</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="152">
@@ -3435,19 +3435,19 @@
         <v>8</v>
       </c>
       <c r="B152" t="str">
-        <v>Construction Edifices Development Contracting Company</v>
+        <v>MHI-AP Saudi Arabia Co. Ltd</v>
       </c>
       <c r="C152" t="str">
-        <v>10002736</v>
+        <v>100005345</v>
       </c>
       <c r="D152" t="str">
-        <v>4452929</v>
+        <v>0133581112</v>
       </c>
       <c r="E152" t="str">
-        <v>waleed.w@cedme.com</v>
+        <v>ali.almabooq.ns@mhi.com</v>
       </c>
       <c r="F152" t="str">
-        <v>RIYADH</v>
+        <v>AL JUBAIL</v>
       </c>
     </row>
     <row r="153">
@@ -3455,19 +3455,19 @@
         <v>8</v>
       </c>
       <c r="B153" t="str">
-        <v>Abdullah Assaf Mohammed Al Ghamdi Contracting Est</v>
+        <v>Dera'a Altatweer Trading Company</v>
       </c>
       <c r="C153" t="str">
-        <v>10000799</v>
+        <v>100003470</v>
       </c>
       <c r="D153" t="str">
-        <v>0177220407</v>
+        <v>920019019</v>
       </c>
       <c r="E153" t="str">
-        <v>alassafcompany@hotmail.com</v>
+        <v>aymen@armis.com.sa</v>
       </c>
       <c r="F153" t="str">
-        <v>BILJURASHI</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="154">
@@ -3475,16 +3475,16 @@
         <v>8</v>
       </c>
       <c r="B154" t="str">
-        <v>ITEA International Ltd</v>
+        <v>Bin Omaira Contracting Company LTD.</v>
       </c>
       <c r="C154" t="str">
-        <v>20001370</v>
+        <v>10001055</v>
       </c>
       <c r="D154" t="str">
-        <v>4207555</v>
+        <v>966114536062</v>
       </c>
       <c r="E154" t="str">
-        <v>elando@iteaint.com</v>
+        <v>ssd@binomairah.com</v>
       </c>
       <c r="F154" t="str">
         <v>RIYADH</v>
@@ -3495,19 +3495,19 @@
         <v>8</v>
       </c>
       <c r="B155" t="str">
-        <v>Bakri Ahmed Hassan Al Saab Contracting Company</v>
+        <v>Al Muzain Gulf Saudi Contracting Company</v>
       </c>
       <c r="C155" t="str">
-        <v>10002598</v>
+        <v>100006679</v>
       </c>
       <c r="D155" t="str">
-        <v>0172279800</v>
+        <v>966133404200</v>
       </c>
       <c r="E155" t="str">
-        <v>h.bakkri@gmail.com</v>
+        <v>info@almuzain.com</v>
       </c>
       <c r="F155" t="str">
-        <v>MUHAYIL</v>
+        <v>AL JUBAIL</v>
       </c>
     </row>
     <row r="156">
@@ -3515,19 +3515,19 @@
         <v>8</v>
       </c>
       <c r="B156" t="str">
-        <v>Afaq Almanzil Construction &amp; Development Company Ltd.</v>
+        <v>Development Way Contracting Co</v>
       </c>
       <c r="C156" t="str">
-        <v>20002163</v>
+        <v>130413048</v>
       </c>
       <c r="D156" t="str">
-        <v>6632720</v>
+        <v>0126499939</v>
       </c>
       <c r="E156" t="str">
-        <v>r.jafar@afaqalmanzil.com</v>
+        <v>meshari.alsaiby@dmco.sa</v>
       </c>
       <c r="F156" t="str">
-        <v/>
+        <v>JEDDAH</v>
       </c>
     </row>
     <row r="157">
@@ -3535,19 +3535,19 @@
         <v>8</v>
       </c>
       <c r="B157" t="str">
-        <v>Saudi Services For Electro Mechanic Works</v>
+        <v>Branch of National Power Construction Corporation Ltd.</v>
       </c>
       <c r="C157" t="str">
-        <v>10000044</v>
+        <v>200006257</v>
       </c>
       <c r="D157" t="str">
-        <v>0114625511</v>
+        <v>966126132073</v>
       </c>
       <c r="E157" t="str">
-        <v>gmoffice@ssem.com.sa</v>
+        <v>npcc@npcc.com.sa</v>
       </c>
       <c r="F157" t="str">
-        <v>RIYADH</v>
+        <v>JEDDAH</v>
       </c>
     </row>
     <row r="158">
@@ -3555,19 +3555,19 @@
         <v>8</v>
       </c>
       <c r="B158" t="str">
-        <v>Fire Direct Centre Company LTD</v>
+        <v>National Water Works Company</v>
       </c>
       <c r="C158" t="str">
-        <v>100006246</v>
+        <v>100004251</v>
       </c>
       <c r="D158" t="str">
-        <v>966138123579</v>
+        <v>00966112088558</v>
       </c>
       <c r="E158" t="str">
-        <v>firedirect@firedirect.org</v>
+        <v>info@nwwc.com.sa</v>
       </c>
       <c r="F158" t="str">
-        <v>DAMMAM</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="159">
@@ -3575,19 +3575,19 @@
         <v>8</v>
       </c>
       <c r="B159" t="str">
-        <v>Al-Deyabi Contracting Group</v>
+        <v>Rawnaq Al-Amar Contracting Company</v>
       </c>
       <c r="C159" t="str">
-        <v>10002269</v>
+        <v>100005891</v>
       </c>
       <c r="D159" t="str">
-        <v>966114561245</v>
+        <v>0173250041</v>
       </c>
       <c r="E159" t="str">
-        <v>maged@aldeyabi.com</v>
+        <v>a7med.alajami@gmail.com</v>
       </c>
       <c r="F159" t="str">
-        <v>RIYADH</v>
+        <v>ABU ARISH</v>
       </c>
     </row>
     <row r="160">
@@ -3595,19 +3595,19 @@
         <v>8</v>
       </c>
       <c r="B160" t="str">
-        <v>Shanahan Engineering Limited</v>
+        <v>Ahmed Nasser Al Binali &amp; Sons Trading &amp; Contracting Company</v>
       </c>
       <c r="C160" t="str">
-        <v>200006228</v>
+        <v>10000846</v>
       </c>
       <c r="D160" t="str">
-        <v>0138813826</v>
+        <v>0138595555</v>
       </c>
       <c r="E160" t="str">
-        <v>govt.affairs@shanahaneng.ie</v>
+        <v>nalbinali@albinali.com</v>
       </c>
       <c r="F160" t="str">
-        <v>AL KHOBAR</v>
+        <v>DHAHRAN</v>
       </c>
     </row>
     <row r="161">
@@ -3615,19 +3615,19 @@
         <v>8</v>
       </c>
       <c r="B161" t="str">
-        <v>Experience Castle Contracting Company</v>
+        <v>Elkhereiji Commerce &amp; contracting Co</v>
       </c>
       <c r="C161" t="str">
-        <v>100006803</v>
+        <v>10000746</v>
       </c>
       <c r="D161" t="str">
-        <v>0114559414</v>
+        <v/>
       </c>
       <c r="E161" t="str">
-        <v>b.abidah@ex-castle.com</v>
+        <v>hisham@el-khereiji.com</v>
       </c>
       <c r="F161" t="str">
-        <v>RIYADH</v>
+        <v>JEDDAH</v>
       </c>
     </row>
     <row r="162">
@@ -3635,19 +3635,19 @@
         <v>9</v>
       </c>
       <c r="B162" t="str">
-        <v>Bin Delamah Contracting</v>
+        <v>Tatra Information Technology Company</v>
       </c>
       <c r="C162" t="str">
-        <v>10001161</v>
+        <v>100006635</v>
       </c>
       <c r="D162" t="str">
-        <v>0136680668</v>
+        <v>00966920004794</v>
       </c>
       <c r="E162" t="str">
-        <v>mail@bindelamah.com</v>
+        <v>tatra@tatrait.com</v>
       </c>
       <c r="F162" t="str">
-        <v>RAS TANNURAH</v>
+        <v>DAMMAM</v>
       </c>
     </row>
     <row r="163">
@@ -3655,19 +3655,19 @@
         <v>9</v>
       </c>
       <c r="B163" t="str">
-        <v>Abdulmohsen Aljasser Contracting Company</v>
+        <v>Al-Majal Syd Al-Khadamat Co.</v>
       </c>
       <c r="C163" t="str">
-        <v>100004498</v>
+        <v>20001920</v>
       </c>
       <c r="D163" t="str">
-        <v>0112770000</v>
+        <v>2849500</v>
       </c>
       <c r="E163" t="str">
-        <v>aljaser_contrat@yahoo.com</v>
+        <v>abdulrahman@almajal.com</v>
       </c>
       <c r="F163" t="str">
-        <v>RIYADH</v>
+        <v>JEDDAH</v>
       </c>
     </row>
     <row r="164">
@@ -3675,19 +3675,19 @@
         <v>9</v>
       </c>
       <c r="B164" t="str">
-        <v>Safety Arabian Company Ltd.</v>
+        <v>Cities Linking Co. for Construction</v>
       </c>
       <c r="C164" t="str">
-        <v>10002387</v>
+        <v>10001982</v>
       </c>
       <c r="D164" t="str">
-        <v>0114792531</v>
+        <v/>
       </c>
       <c r="E164" t="str">
-        <v>office@safety-arabia.com</v>
+        <v>CITCO88@GMAIL.COM</v>
       </c>
       <c r="F164" t="str">
-        <v>RIYADH</v>
+        <v>JEDDAH</v>
       </c>
     </row>
     <row r="165">
@@ -3695,19 +3695,19 @@
         <v>9</v>
       </c>
       <c r="B165" t="str">
-        <v>Al-Yamamah Trading and Contracting Company</v>
+        <v>Abu Degen Co. For Drilling Wells</v>
       </c>
       <c r="C165" t="str">
-        <v>10000102</v>
+        <v>10002615</v>
       </c>
       <c r="D165" t="str">
-        <v>138266444</v>
+        <v/>
       </c>
       <c r="E165" t="str">
-        <v>info@yc.com.sa</v>
+        <v>info@abudegendrilling.com</v>
       </c>
       <c r="F165" t="str">
-        <v>DAMMAM</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="166">
@@ -3715,19 +3715,19 @@
         <v>9</v>
       </c>
       <c r="B166" t="str">
-        <v>Alrashid Trading &amp; Contracting Company</v>
+        <v>Amsy General Contracting Company</v>
       </c>
       <c r="C166" t="str">
-        <v>100003724</v>
+        <v>100003431</v>
       </c>
       <c r="D166" t="str">
-        <v>00966114164111</v>
+        <v>0173227611</v>
       </c>
       <c r="E166" t="str">
-        <v>rtcc@rtcc.com.sa</v>
+        <v>amsy_classic@hotmail.com</v>
       </c>
       <c r="F166" t="str">
-        <v>RIYADH</v>
+        <v>JAZAN</v>
       </c>
     </row>
     <row r="167">
@@ -3735,19 +3735,19 @@
         <v>9</v>
       </c>
       <c r="B167" t="str">
-        <v>Tasheed Almsaken Contracting Co</v>
+        <v>Arab Peller Trading and Contracting Company</v>
       </c>
       <c r="C167" t="str">
-        <v>10001419</v>
+        <v>10001816</v>
       </c>
       <c r="D167" t="str">
-        <v/>
+        <v>112707095</v>
       </c>
       <c r="E167" t="str">
-        <v>tassheedalmsaken@gmail.com</v>
+        <v>t.salah@pillararabian.com</v>
       </c>
       <c r="F167" t="str">
-        <v>HAIL</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="168">
@@ -3755,19 +3755,19 @@
         <v>9</v>
       </c>
       <c r="B168" t="str">
-        <v>Eastern Projects Contracting Co. For Building Works</v>
+        <v>Azdah Contracting Company</v>
       </c>
       <c r="C168" t="str">
-        <v>10000106</v>
+        <v>200003903</v>
       </c>
       <c r="D168" t="str">
-        <v/>
+        <v>0112912621</v>
       </c>
       <c r="E168" t="str">
-        <v>sec3@alaligroup.com</v>
+        <v>admin@azdah.com</v>
       </c>
       <c r="F168" t="str">
-        <v>AL HUFUF</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="169">
@@ -3775,19 +3775,19 @@
         <v>9</v>
       </c>
       <c r="B169" t="str">
-        <v>Saudi Electrical Contracting Company</v>
+        <v>Al Baraka Construction Company L.L.C</v>
       </c>
       <c r="C169" t="str">
-        <v>20001177</v>
+        <v>100004075</v>
       </c>
       <c r="D169" t="str">
-        <v>0114608821</v>
+        <v>966122342384</v>
       </c>
       <c r="E169" t="str">
-        <v>e.bassam@selcop.co</v>
+        <v>aziz@albaraka-co.com</v>
       </c>
       <c r="F169" t="str">
-        <v>RIYADH</v>
+        <v>JEDDAH</v>
       </c>
     </row>
     <row r="170">
@@ -3795,19 +3795,19 @@
         <v>9</v>
       </c>
       <c r="B170" t="str">
-        <v>Jabal Beshah General Contracting Est.</v>
+        <v>Electrical Works &amp; Maintenance Company, Branch of Shobokshi Trading &amp; Development Co.</v>
       </c>
       <c r="C170" t="str">
-        <v>10002386</v>
+        <v>10001833</v>
       </c>
       <c r="D170" t="str">
-        <v/>
+        <v>0126916655</v>
       </c>
       <c r="E170" t="str">
-        <v>abok1402@hotmail.com</v>
+        <v>m.sofy@ewmcom.com</v>
       </c>
       <c r="F170" t="str">
-        <v>JAZAN</v>
+        <v>JEDDAH</v>
       </c>
     </row>
     <row r="171">
@@ -3815,19 +3815,19 @@
         <v>9</v>
       </c>
       <c r="B171" t="str">
-        <v>Raissy Trading &amp; Contracting Co. Ltd.</v>
+        <v>Al - Yousr Al-Arabia General Contracting Co</v>
       </c>
       <c r="C171" t="str">
-        <v>100005079</v>
+        <v>10002350</v>
       </c>
       <c r="D171" t="str">
-        <v>966114977977</v>
+        <v/>
       </c>
       <c r="E171" t="str">
-        <v>AHMAD@RAISSY.COM.SA</v>
+        <v>alysr2009@hotmail.com</v>
       </c>
       <c r="F171" t="str">
-        <v>RIYADH</v>
+        <v>NAJRAN</v>
       </c>
     </row>
     <row r="172">
@@ -3835,16 +3835,16 @@
         <v>9</v>
       </c>
       <c r="B172" t="str">
-        <v>Nfoud Alathereia Contracting Co.</v>
+        <v>Emdadat Tawneya Company</v>
       </c>
       <c r="C172" t="str">
-        <v>100005978</v>
+        <v>10001653</v>
       </c>
       <c r="D172" t="str">
-        <v>0114742727</v>
+        <v>0114333207</v>
       </c>
       <c r="E172" t="str">
-        <v>ceo@alathereia.com</v>
+        <v>emdadat.tawneya@hotmail.com</v>
       </c>
       <c r="F172" t="str">
         <v>RIYADH</v>
@@ -3855,19 +3855,19 @@
         <v>9</v>
       </c>
       <c r="B173" t="str">
-        <v>Enter For Communications &amp; Information Technology Co.</v>
+        <v>Marasah Company</v>
       </c>
       <c r="C173" t="str">
-        <v>100004979</v>
+        <v>10000911</v>
       </c>
       <c r="D173" t="str">
-        <v>0163253323</v>
+        <v>0112112550</v>
       </c>
       <c r="E173" t="str">
-        <v>admin@enter.com.sa</v>
+        <v>m.alsuhaimi@marasah.com</v>
       </c>
       <c r="F173" t="str">
-        <v/>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="174">
@@ -3875,19 +3875,19 @@
         <v>9</v>
       </c>
       <c r="B174" t="str">
-        <v>Nesma Infrastructure and Technology Company Limited</v>
+        <v>Afaq Almanzil Construction &amp; Development Company Ltd.</v>
       </c>
       <c r="C174" t="str">
-        <v>10001007</v>
+        <v>20002163</v>
       </c>
       <c r="D174" t="str">
-        <v>0966122727635</v>
+        <v>6632720</v>
       </c>
       <c r="E174" t="str">
-        <v>rayan@nesma.com</v>
+        <v>r.jafar@afaqalmanzil.com</v>
       </c>
       <c r="F174" t="str">
-        <v>JEDDAH</v>
+        <v/>
       </c>
     </row>
     <row r="175">
@@ -3895,19 +3895,19 @@
         <v>9</v>
       </c>
       <c r="B175" t="str">
-        <v>Abdulkarim H Al Senan &amp; Partner Trading Company</v>
+        <v>Energy Power Service for General Contracting Est</v>
       </c>
       <c r="C175" t="str">
-        <v>10002674</v>
+        <v>100007141</v>
       </c>
       <c r="D175" t="str">
-        <v>133505200</v>
+        <v/>
       </c>
       <c r="E175" t="str">
-        <v>mrefai@sinanakh.com</v>
+        <v>MOHAMMAD@ENERSERV-SA.COM</v>
       </c>
       <c r="F175" t="str">
-        <v>AL JUBAIL</v>
+        <v>DAMMAM</v>
       </c>
     </row>
     <row r="176">
@@ -3915,19 +3915,19 @@
         <v>9</v>
       </c>
       <c r="B176" t="str">
-        <v>Algosaibi Services Company Ltd.</v>
+        <v>Rock and Steel Contracting Company</v>
       </c>
       <c r="C176" t="str">
-        <v>100005370</v>
+        <v>10001110</v>
       </c>
       <c r="D176" t="str">
-        <v>00966138472444</v>
+        <v>0122615392</v>
       </c>
       <c r="E176" t="str">
-        <v>khalid.alabdulaziz@algosaibi.com.sa</v>
+        <v>essa@rockandsteel.com</v>
       </c>
       <c r="F176" t="str">
-        <v>DAMMAM</v>
+        <v>JEDDAH</v>
       </c>
     </row>
     <row r="177">
@@ -3935,19 +3935,19 @@
         <v>9</v>
       </c>
       <c r="B177" t="str">
-        <v>Al-Majal Syd Al-Khadamat Co.</v>
+        <v>Naif Awadh Alboqmi Contracting Est</v>
       </c>
       <c r="C177" t="str">
-        <v>20001920</v>
+        <v>100007417</v>
       </c>
       <c r="D177" t="str">
-        <v>2849500</v>
+        <v>0559009214</v>
       </c>
       <c r="E177" t="str">
-        <v>abdulrahman@almajal.com</v>
+        <v>info@shadengulf.com</v>
       </c>
       <c r="F177" t="str">
-        <v>JEDDAH</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="178">
@@ -3955,19 +3955,19 @@
         <v>9</v>
       </c>
       <c r="B178" t="str">
-        <v>Hadi Haider Alyami Company General Cont. &amp; Trading</v>
+        <v>Al-Kifah Holding Company, Contracting Branch</v>
       </c>
       <c r="C178" t="str">
-        <v>10003081</v>
+        <v>10002946</v>
       </c>
       <c r="D178" t="str">
-        <v>00966136680002</v>
+        <v>0138459564</v>
       </c>
       <c r="E178" t="str">
-        <v>info@hadihaider.com</v>
+        <v>abdullah.busodah@alkifah.com</v>
       </c>
       <c r="F178" t="str">
-        <v>RAS TANNURAH</v>
+        <v>DAMMAM</v>
       </c>
     </row>
     <row r="179">
@@ -3975,19 +3975,19 @@
         <v>9</v>
       </c>
       <c r="B179" t="str">
-        <v>Alrajhi Building and Construction Co</v>
+        <v>Jabal Beshah General Contracting Est.</v>
       </c>
       <c r="C179" t="str">
-        <v>100005210</v>
+        <v>10002386</v>
       </c>
       <c r="D179" t="str">
-        <v>96612982272</v>
+        <v/>
       </c>
       <c r="E179" t="str">
-        <v>info@alrajhi-co.sa</v>
+        <v>abok1402@hotmail.com</v>
       </c>
       <c r="F179" t="str">
-        <v>RIYADH</v>
+        <v>JAZAN</v>
       </c>
     </row>
     <row r="180">
@@ -3995,19 +3995,19 @@
         <v>9</v>
       </c>
       <c r="B180" t="str">
-        <v>Maqasim Company Limited</v>
+        <v>Saudi Urban Development Company</v>
       </c>
       <c r="C180" t="str">
-        <v>100004818</v>
+        <v>100005156</v>
       </c>
       <c r="D180" t="str">
-        <v>0096626424242</v>
+        <v>966114540300</v>
       </c>
       <c r="E180" t="str">
-        <v>hsan2000@hotmail.com</v>
+        <v>Fahad.aljasser@scdco.sa</v>
       </c>
       <c r="F180" t="str">
-        <v>JEDDAH</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="181">
@@ -4015,19 +4015,19 @@
         <v>9</v>
       </c>
       <c r="B181" t="str">
-        <v>Amarah Intl Architect Construction &amp; Finishing Ltd Co</v>
+        <v>Abdulkarim H Al Senan &amp; Partner Trading Company</v>
       </c>
       <c r="C181" t="str">
-        <v>10000719</v>
+        <v>10002674</v>
       </c>
       <c r="D181" t="str">
-        <v>0126144555</v>
+        <v>133505200</v>
       </c>
       <c r="E181" t="str">
-        <v>info@amarahksa.com</v>
+        <v>mrefai@sinanakh.com</v>
       </c>
       <c r="F181" t="str">
-        <v>JEDDAH</v>
+        <v>AL JUBAIL</v>
       </c>
     </row>
     <row r="182">
@@ -4035,19 +4035,19 @@
         <v>10</v>
       </c>
       <c r="B182" t="str">
-        <v>Al-Kifah Holding Company, Contracting Branch</v>
+        <v>Power Lines Contracting Co.</v>
       </c>
       <c r="C182" t="str">
-        <v>10002946</v>
+        <v>10002512</v>
       </c>
       <c r="D182" t="str">
-        <v>0138459564</v>
+        <v/>
       </c>
       <c r="E182" t="str">
-        <v>abdullah.busodah@alkifah.com</v>
+        <v>hazem@plc-sa.net</v>
       </c>
       <c r="F182" t="str">
-        <v>DAMMAM</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="183">
@@ -4055,19 +4055,19 @@
         <v>10</v>
       </c>
       <c r="B183" t="str">
-        <v>Awad Saad Binzafrah Contracting Company</v>
+        <v>Hani Al Hoty &amp; Partner Company</v>
       </c>
       <c r="C183" t="str">
-        <v>10001760</v>
+        <v>100005354</v>
       </c>
       <c r="D183" t="str">
-        <v>0115411118</v>
+        <v>0138021567</v>
       </c>
       <c r="E183" t="str">
-        <v>ali.alwaeli@binzafrah.com</v>
+        <v>s.husain@alhoty.com</v>
       </c>
       <c r="F183" t="str">
-        <v>RIYADH</v>
+        <v>AL KHOBAR</v>
       </c>
     </row>
     <row r="184">
@@ -4075,19 +4075,19 @@
         <v>10</v>
       </c>
       <c r="B184" t="str">
-        <v>Trading &amp; Development Partnership Co</v>
+        <v>Abdullah Ayed Alanzi General Contracting Co</v>
       </c>
       <c r="C184" t="str">
-        <v>100003410</v>
+        <v>10002750</v>
       </c>
       <c r="D184" t="str">
-        <v>0112812222</v>
+        <v/>
       </c>
       <c r="E184" t="str">
-        <v>amobark@tdpco.com</v>
+        <v>info@rrksa.com</v>
       </c>
       <c r="F184" t="str">
-        <v>RIYADH</v>
+        <v>SAYHAT</v>
       </c>
     </row>
     <row r="185">
@@ -4095,19 +4095,19 @@
         <v>10</v>
       </c>
       <c r="B185" t="str">
-        <v>Branch of National Power Construction Corporation Ltd.</v>
+        <v>Alkifah International Contracting Company</v>
       </c>
       <c r="C185" t="str">
-        <v>200006257</v>
+        <v>10000864</v>
       </c>
       <c r="D185" t="str">
-        <v>966126132073</v>
+        <v>966112478887</v>
       </c>
       <c r="E185" t="str">
-        <v>npcc@npcc.com.sa</v>
+        <v>info@alkifahco.com</v>
       </c>
       <c r="F185" t="str">
-        <v>JEDDAH</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="186">
@@ -4115,19 +4115,19 @@
         <v>10</v>
       </c>
       <c r="B186" t="str">
-        <v>Amjad Abdlwahed Mohamed Contracting Est</v>
+        <v>Shathrwan Al Thahab Contracting Company</v>
       </c>
       <c r="C186" t="str">
-        <v>100006449</v>
+        <v>10002379</v>
       </c>
       <c r="D186" t="str">
-        <v/>
+        <v>0125344900</v>
       </c>
       <c r="E186" t="str">
-        <v>amjad007.com@gmail.com</v>
+        <v>gm@shathrwan.com</v>
       </c>
       <c r="F186" t="str">
-        <v>MUHAYIL</v>
+        <v>MAKKAH AL MUKARRAMAH</v>
       </c>
     </row>
     <row r="187">
@@ -4135,19 +4135,19 @@
         <v>10</v>
       </c>
       <c r="B187" t="str">
-        <v>Althat Alarabia Company</v>
+        <v>Enter For Communications &amp; Information Technology Co.</v>
       </c>
       <c r="C187" t="str">
-        <v>100004909</v>
+        <v>100004979</v>
       </c>
       <c r="D187" t="str">
-        <v>966138993577</v>
+        <v>0163253323</v>
       </c>
       <c r="E187" t="str">
-        <v>HASSAN.RIY@ALTHAT.COM.SA</v>
+        <v>admin@enter.com.sa</v>
       </c>
       <c r="F187" t="str">
-        <v>RIYADH</v>
+        <v/>
       </c>
     </row>
     <row r="188">
@@ -4155,19 +4155,19 @@
         <v>10</v>
       </c>
       <c r="B188" t="str">
-        <v>Shafeeq Contracting Company</v>
+        <v>Bait Aljaleed for Maintenance &amp; Operation Company</v>
       </c>
       <c r="C188" t="str">
-        <v>100005480</v>
+        <v>100006826</v>
       </c>
       <c r="D188" t="str">
-        <v>0138052518</v>
+        <v>920001721</v>
       </c>
       <c r="E188" t="str">
-        <v>rasool@shafiqcontracting.com</v>
+        <v>alkhadhar.a@gmail.com</v>
       </c>
       <c r="F188" t="str">
-        <v>DAMMAM</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="189">
@@ -4175,19 +4175,19 @@
         <v>10</v>
       </c>
       <c r="B189" t="str">
-        <v>Fifteen Contracting Est</v>
+        <v>Construction Edifices Development Contracting Company</v>
       </c>
       <c r="C189" t="str">
-        <v>10000415</v>
+        <v>10002736</v>
       </c>
       <c r="D189" t="str">
-        <v>0559332559</v>
+        <v>4452929</v>
       </c>
       <c r="E189" t="str">
-        <v>hajer.nb@gmail.com</v>
+        <v>waleed.w@cedme.com</v>
       </c>
       <c r="F189" t="str">
-        <v>MAKKAH AL MUKARRAMAH</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="190">
@@ -4195,19 +4195,19 @@
         <v>10</v>
       </c>
       <c r="B190" t="str">
-        <v>Future Horizons Contracting Est.</v>
+        <v>Ansab General Contracting Company</v>
       </c>
       <c r="C190" t="str">
-        <v>10002923</v>
+        <v>100005137</v>
       </c>
       <c r="D190" t="str">
-        <v>0176228000</v>
+        <v>966599000677</v>
       </c>
       <c r="E190" t="str">
-        <v>m@fhi.sa</v>
+        <v>n.hashem@ansab.com.sa</v>
       </c>
       <c r="F190" t="str">
-        <v>BISHAH</v>
+        <v>AL KHOBAR</v>
       </c>
     </row>
     <row r="191">
@@ -4215,19 +4215,19 @@
         <v>10</v>
       </c>
       <c r="B191" t="str">
-        <v>Mohammed Ahmed Al-Hilal Contracting Est</v>
+        <v>Leaders Contracting Est</v>
       </c>
       <c r="C191" t="str">
-        <v>122512250</v>
+        <v>10001965</v>
       </c>
       <c r="D191" t="str">
-        <v/>
+        <v>0177502235</v>
       </c>
       <c r="E191" t="str">
-        <v>aboahmada0@gmail.com</v>
+        <v>mohad1390@hotmail.com</v>
       </c>
       <c r="F191" t="str">
-        <v>AL AHSA</v>
+        <v>AL ATAWLAH</v>
       </c>
     </row>
     <row r="192">
@@ -4235,19 +4235,19 @@
         <v>10</v>
       </c>
       <c r="B192" t="str">
-        <v>Deep Ocean Contracting Company</v>
+        <v>Building Walls Contracting Est</v>
       </c>
       <c r="C192" t="str">
-        <v>10002099</v>
+        <v>100007392</v>
       </c>
       <c r="D192" t="str">
-        <v>0112915204</v>
+        <v/>
       </c>
       <c r="E192" t="str">
-        <v>info@thedeepocean.com.sa</v>
+        <v>aan.mak@hotmail.com</v>
       </c>
       <c r="F192" t="str">
-        <v>RIYADH</v>
+        <v>AL MUBARRAZ</v>
       </c>
     </row>
     <row r="193">
@@ -4255,19 +4255,19 @@
         <v>10</v>
       </c>
       <c r="B193" t="str">
-        <v>Saad Hussein Bin Khammash and Sons Company for Trading, Industry, and Contracting</v>
+        <v>United Cell Company for Pest Control</v>
       </c>
       <c r="C193" t="str">
-        <v>100003851</v>
+        <v>100005364</v>
       </c>
       <c r="D193" t="str">
-        <v>0172570257</v>
+        <v/>
       </c>
       <c r="E193" t="str">
-        <v>isk@binkamash.com</v>
+        <v>mas@unitedest.com</v>
       </c>
       <c r="F193" t="str">
-        <v>KHAMIS MUSHAYT</v>
+        <v>DAMMAM</v>
       </c>
     </row>
     <row r="194">
@@ -4275,19 +4275,19 @@
         <v>10</v>
       </c>
       <c r="B194" t="str">
-        <v>Environment Systems Contracting Est</v>
+        <v>Midad Company Limited</v>
       </c>
       <c r="C194" t="str">
-        <v>100005173</v>
+        <v>10002928</v>
       </c>
       <c r="D194" t="str">
-        <v>0114109707</v>
+        <v/>
       </c>
       <c r="E194" t="str">
-        <v>MOH.S.Q@HOTMAIL.COM</v>
+        <v>sghamdi@midadholdings.com</v>
       </c>
       <c r="F194" t="str">
-        <v>RIYADH</v>
+        <v>AL KHOBAR</v>
       </c>
     </row>
     <row r="195">
@@ -4295,19 +4295,19 @@
         <v>10</v>
       </c>
       <c r="B195" t="str">
-        <v>Depth Construction Contracting Company</v>
+        <v>Sojitz Corporation Company</v>
       </c>
       <c r="C195" t="str">
-        <v>10000785</v>
+        <v>200007124</v>
       </c>
       <c r="D195" t="str">
-        <v>0500005436</v>
+        <v>966126627253</v>
       </c>
       <c r="E195" t="str">
-        <v>m.harbi@thedepthco.com</v>
+        <v>masood.asif@sojitz.com</v>
       </c>
       <c r="F195" t="str">
-        <v>RIYADH</v>
+        <v>JEDDAH</v>
       </c>
     </row>
     <row r="196">
@@ -4315,16 +4315,16 @@
         <v>10</v>
       </c>
       <c r="B196" t="str">
-        <v>Thabat Construction Company Ltd</v>
+        <v>Fire Direct Centre Company LTD</v>
       </c>
       <c r="C196" t="str">
-        <v>100003366</v>
+        <v>100006246</v>
       </c>
       <c r="D196" t="str">
-        <v/>
+        <v>966138123579</v>
       </c>
       <c r="E196" t="str">
-        <v>majed.zahrani@thabat.sa</v>
+        <v>firedirect@firedirect.org</v>
       </c>
       <c r="F196" t="str">
         <v>DAMMAM</v>
@@ -4335,19 +4335,19 @@
         <v>10</v>
       </c>
       <c r="B197" t="str">
-        <v>Ansab General Contracting Company</v>
+        <v>Awal Tasmim Company For Decoration</v>
       </c>
       <c r="C197" t="str">
-        <v>100005137</v>
+        <v>100007486</v>
       </c>
       <c r="D197" t="str">
-        <v>966599000677</v>
+        <v>0114169700</v>
       </c>
       <c r="E197" t="str">
-        <v>n.hashem@ansab.com.sa</v>
+        <v>kab@lepremier.com.sa</v>
       </c>
       <c r="F197" t="str">
-        <v>AL KHOBAR</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="198">
@@ -4355,19 +4355,19 @@
         <v>10</v>
       </c>
       <c r="B198" t="str">
-        <v>Evolution Electrical &amp; Mechanical Services Company</v>
+        <v>BAC Arabia Contracting Company</v>
       </c>
       <c r="C198" t="str">
-        <v>10001453</v>
+        <v>200005232</v>
       </c>
       <c r="D198" t="str">
-        <v>00966126134501</v>
+        <v>966112166633</v>
       </c>
       <c r="E198" t="str">
-        <v>tareq.obeido@ees-jo.com</v>
+        <v>government.relations@becsaudi.com</v>
       </c>
       <c r="F198" t="str">
-        <v>JEDDAH</v>
+        <v>RIYADH</v>
       </c>
     </row>
     <row r="199">
@@ -4375,16 +4375,16 @@
         <v>10</v>
       </c>
       <c r="B199" t="str">
-        <v>Abu Degen Co. For Drilling Wells</v>
+        <v>Specialists for Construction Services</v>
       </c>
       <c r="C199" t="str">
-        <v>10002615</v>
+        <v>10001026</v>
       </c>
       <c r="D199" t="str">
-        <v/>
+        <v>00966118127029</v>
       </c>
       <c r="E199" t="str">
-        <v>info@abudegendrilling.com</v>
+        <v>anas@scsconst.net</v>
       </c>
       <c r="F199" t="str">
         <v>RIYADH</v>
@@ -4395,19 +4395,19 @@
         <v>10</v>
       </c>
       <c r="B200" t="str">
-        <v>Comatec Saudi Arabia Limited Company Limited</v>
+        <v>Safety Level Contracting Company is a one person company</v>
       </c>
       <c r="C200" t="str">
-        <v>100004492</v>
+        <v>100006859</v>
       </c>
       <c r="D200" t="str">
-        <v>00966114161901</v>
+        <v/>
       </c>
       <c r="E200" t="str">
-        <v>bashir.alshamemi@comatec.com.sa</v>
+        <v>safety-level@hotmail.com</v>
       </c>
       <c r="F200" t="str">
-        <v>RIYADH</v>
+        <v>NAJRAN</v>
       </c>
     </row>
     <row r="201">
@@ -4415,19 +4415,19 @@
         <v>10</v>
       </c>
       <c r="B201" t="str">
-        <v>GRC Touch Company</v>
+        <v>Alsaad General Contracting Company Ltd.</v>
       </c>
       <c r="C201" t="str">
-        <v>100004851</v>
+        <v>20002951</v>
       </c>
       <c r="D201" t="str">
-        <v>966559374306</v>
+        <v>0126830306</v>
       </c>
       <c r="E201" t="str">
-        <v>Waleed@grctouch.com</v>
+        <v>iksalam@alsaad.com.sa</v>
       </c>
       <c r="F201" t="str">
-        <v>RIYADH</v>
+        <v>JEDDAH</v>
       </c>
     </row>
   </sheetData>

--- a/BAB Task/contractors_data.xlsx
+++ b/BAB Task/contractors_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,6 +408,7 @@
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
     <col min="6" max="6" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -415,19 +416,22 @@
         <v>page</v>
       </c>
       <c r="B1" t="str">
-        <v>companyName</v>
+        <v>Company Name</v>
       </c>
       <c r="C1" t="str">
         <v>Membership Number</v>
       </c>
       <c r="D1" t="str">
-        <v>phone</v>
+        <v>Phone Number</v>
       </c>
       <c r="E1" t="str">
-        <v xml:space="preserve">Email </v>
+        <v>Email</v>
       </c>
       <c r="F1" t="str">
         <v>City</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Activities</v>
       </c>
     </row>
     <row r="2">
@@ -435,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>Awared General Contracting Company</v>
+        <v>شركة عوارض للمقاولات العامة</v>
       </c>
       <c r="C2" t="str">
         <v>160916095</v>
@@ -447,7 +451,10 @@
         <v>fared@fared-est.com</v>
       </c>
       <c r="F2" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G2" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها</v>
       </c>
     </row>
     <row r="3">
@@ -455,19 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="str">
-        <v>On Al-Arabia Contracting Est.</v>
+        <v>شركة الأنجازات للمقاولات</v>
       </c>
       <c r="C3" t="str">
-        <v>178417841</v>
+        <v>10000937</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>0112001858</v>
       </c>
       <c r="E3" t="str">
-        <v>a1032500371@gmail.com</v>
+        <v>info@alenjazat.sa</v>
       </c>
       <c r="F3" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G3" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أنشطة تقديم الخدمات للمباني وتجميل المواقع,التنظيف العام للمباني,التنظيف العام للمباني</v>
       </c>
     </row>
     <row r="4">
@@ -475,19 +485,22 @@
         <v>1</v>
       </c>
       <c r="B4" t="str">
-        <v>Gulf Pioneers for Construction Company</v>
+        <v>شركة مشاريع الأبراج العربية للمقاولات</v>
       </c>
       <c r="C4" t="str">
-        <v>10000434</v>
+        <v>220622064</v>
       </c>
       <c r="D4" t="str">
-        <v>0553705555</v>
+        <v>599999999</v>
       </c>
       <c r="E4" t="str">
-        <v>hh@gpksa.com</v>
+        <v>atpcosecretary@atpco-sa.com</v>
       </c>
       <c r="F4" t="str">
-        <v>RIYADH</v>
+        <v>الدمام</v>
+      </c>
+      <c r="G4" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية</v>
       </c>
     </row>
     <row r="5">
@@ -495,19 +508,22 @@
         <v>1</v>
       </c>
       <c r="B5" t="str">
-        <v>Arabian Towers Projects Contracting Company</v>
+        <v>شركة خليج الرواد للمقاولات</v>
       </c>
       <c r="C5" t="str">
-        <v>220622064</v>
+        <v>10000434</v>
       </c>
       <c r="D5" t="str">
-        <v>599999999</v>
+        <v>0553705555</v>
       </c>
       <c r="E5" t="str">
-        <v>atpcosecretary@atpco-sa.com</v>
+        <v>hh@gpksa.com</v>
       </c>
       <c r="F5" t="str">
-        <v>DAMMAM</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G5" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,ترميمات المباني السكنية والغير سكنية</v>
       </c>
     </row>
     <row r="6">
@@ -515,19 +531,22 @@
         <v>1</v>
       </c>
       <c r="B6" t="str">
-        <v>Gulf Pioneers Trading Company</v>
+        <v>مؤسسة أون العربية للمقاولات</v>
       </c>
       <c r="C6" t="str">
-        <v>280728074</v>
+        <v>178417841</v>
       </c>
       <c r="D6" t="str">
-        <v>0112885557</v>
+        <v/>
       </c>
       <c r="E6" t="str">
-        <v>acc@gpksa.com</v>
+        <v>a1032500371@gmail.com</v>
       </c>
       <c r="F6" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G6" t="str">
+        <v xml:space="preserve"> لا يوجد بيانات</v>
       </c>
     </row>
     <row r="7">
@@ -535,19 +554,22 @@
         <v>1</v>
       </c>
       <c r="B7" t="str">
-        <v>Alenjazat Contracting Company</v>
+        <v>شركة خليج الرواد للتجارة</v>
       </c>
       <c r="C7" t="str">
-        <v>10000937</v>
+        <v>280728074</v>
       </c>
       <c r="D7" t="str">
-        <v>0112001858</v>
+        <v>0112885557</v>
       </c>
       <c r="E7" t="str">
-        <v>info@alenjazat.sa</v>
+        <v>acc@gpksa.com</v>
       </c>
       <c r="F7" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G7" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات</v>
       </c>
     </row>
     <row r="8">
@@ -555,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="str">
-        <v>Ratel Al Sharq Contracting Company</v>
+        <v>شركة رتيل الشرق للمقاولات</v>
       </c>
       <c r="C8" t="str">
         <v>101010104</v>
@@ -567,7 +589,10 @@
         <v>adel_77@hotmail.com</v>
       </c>
       <c r="F8" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G8" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تركيب انظمة انذار الحريق,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,اكمال المباني وتشطيبها, تشطيب المباني,أعمال وتركيب الديكورات</v>
       </c>
     </row>
     <row r="9">
@@ -575,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="str">
-        <v>Sharjah Development Contracting Co</v>
+        <v>شركة التطوير الشارقة للمقاولات</v>
       </c>
       <c r="C9" t="str">
         <v>144214428</v>
@@ -587,7 +612,10 @@
         <v>alsharqimna@gmail.com</v>
       </c>
       <c r="F9" t="str">
-        <v>AL KHOBAR</v>
+        <v>الخبر</v>
+      </c>
+      <c r="G9" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية الحديدية,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,تحضير الموقع,صب القواعد والاساسات,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديدات الشبكات,تركيب انظمة انذار الحريق,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الرخام,تركيب الحجر,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,تركيب زجاج واجهات الابراج,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أنشطة تقديم الخدمات للمباني وتجميل المواقع,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,أنشطة خدمات تصميم المناظر الطبيعية</v>
       </c>
     </row>
     <row r="10">
@@ -595,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="str">
-        <v>TAKWEEN AND CONSTRUCTION</v>
+        <v>شركة تكوين وبناء للمقاولات</v>
       </c>
       <c r="C10" t="str">
         <v>438043804</v>
@@ -607,7 +635,10 @@
         <v>B2B@tbco.com.sa</v>
       </c>
       <c r="F10" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G10" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض</v>
       </c>
     </row>
     <row r="11">
@@ -615,19 +646,22 @@
         <v>1</v>
       </c>
       <c r="B11" t="str">
-        <v>Bunoon Wa Funoon Contracting Co.</v>
+        <v>شركة دوم بارك للمقاولات</v>
       </c>
       <c r="C11" t="str">
-        <v>138113818</v>
+        <v>251725170</v>
       </c>
       <c r="D11" t="str">
-        <v>920015058</v>
+        <v>0553518088</v>
       </c>
       <c r="E11" t="str">
-        <v>info@bfconst.com</v>
+        <v>vv.com838@icloud.com</v>
       </c>
       <c r="F11" t="str">
-        <v>RIYADH</v>
+        <v>المويه الجديد</v>
+      </c>
+      <c r="G11" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,تحضير الموقع,صب القواعد والاساسات,أنشطة أخرى لتحضير الموقع,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني</v>
       </c>
     </row>
     <row r="12">
@@ -635,19 +669,22 @@
         <v>1</v>
       </c>
       <c r="B12" t="str">
-        <v>Dome Park Contracting Company</v>
+        <v>شركة الوسام للمقاولات</v>
       </c>
       <c r="C12" t="str">
-        <v>251725170</v>
+        <v>106110611</v>
       </c>
       <c r="D12" t="str">
-        <v>0553518088</v>
+        <v>0505643337</v>
       </c>
       <c r="E12" t="str">
-        <v>vv.com838@icloud.com</v>
+        <v>alwessam7@gmail.com</v>
       </c>
       <c r="F12" t="str">
-        <v>AL MUWAYH AL JADID</v>
+        <v>بلجرشي</v>
+      </c>
+      <c r="G12" t="str">
+        <v>أنشطة خدمات دعم التعدين,أنشطة الدعم لاستخراج النفط والغاز الطبيعي,حفر آبار النفط,حفر آبار الغاز الطبيعي,الخدمات المتصلة باستخراج النفط باستثناء خدمات المسح,الخدمات المتصلة باستخراج الغاز الطبيعي باستثناء خدمات المسح,أنشطة أخرى تتعلق بأنشطة الدعم لاستخراج النفط والغاز الطبيعي,أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,تنظيف الشوارع,جمع المواد لإعادة التصنيع,أنشطة أخرى تتعلق بجمع النفايات الغير خطرة,خدمات جمع النفايات البلدية,نقل النفايات الصناعية الغير خطرة,تجميع زيوت الطعام المستخدمة,جمع النفايات الخطرة,جمع النفايات الخطرة للزيوت المستعملة من الشحن أو المرائب,جمع النفايات الخطرة للمواد الخطرة البيولوجية,جمع النفايات الخطرة للبطاريات المستعملة,تشغيل محطات نقل النفايات للنفايات الخطرة,جمع النفايات الخطرة الأخرى,جمع ونقل النفايات الخطرة للزيوت المستعملة من منتجي هذه النفايات,نقل النفايات الطبية الخطرة,جمع ونقل النفايات الناتجة عن أعمال المكافحة والتنظيف للبيئة البحرية والساحلية,نقل النفايات الخطرة,نقل نفايات الاسبستوس,نقل الزيت من واسطة بحرية إلى أخرى داخل عرض البحر أو من مواقع تجميع الزيوت داخل البحر في حالات التلوث,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
       </c>
     </row>
     <row r="13">
@@ -655,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="str">
-        <v>Rasm Al Benaa Trading and Contracting Co</v>
+        <v>شركة رسم البناء للتجارة و المقاولات</v>
       </c>
       <c r="C13" t="str">
         <v>109910994</v>
@@ -667,7 +704,10 @@
         <v>amz@rasmco.com.sa</v>
       </c>
       <c r="F13" t="str">
-        <v>DAMMAM</v>
+        <v>الدمام</v>
+      </c>
+      <c r="G13" t="str">
+        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,تنظيف الشوارع,جمع المواد لإعادة التصنيع,أنشطة أخرى تتعلق بجمع النفايات الغير خطرة,خدمات جمع النفايات البلدية,نقل النفايات الصناعية الغير خطرة,تجميع زيوت الطعام المستخدمة,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب انظمة الاضاءة,تركيبات إنشائية أخرى,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,تركيب زجاج واجهات الابراج,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,إنشاء حمامات السباحة</v>
       </c>
     </row>
     <row r="14">
@@ -675,19 +715,22 @@
         <v>1</v>
       </c>
       <c r="B14" t="str">
-        <v>Al-Wessam Contracting Company</v>
+        <v>شركة بنون وفنون للمقاولات</v>
       </c>
       <c r="C14" t="str">
-        <v>106110611</v>
+        <v>138113818</v>
       </c>
       <c r="D14" t="str">
-        <v>0505643337</v>
+        <v>920015058</v>
       </c>
       <c r="E14" t="str">
-        <v>alwessam7@gmail.com</v>
+        <v>info@bfconst.com</v>
       </c>
       <c r="F14" t="str">
-        <v>BILJURASHI</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G14" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),أنشطة التشييد المتخصصة ,اكمال المباني وتشطيبها, تشطيب المباني,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني,أنشطة خدمات التنظيف للمباني الحكومية</v>
       </c>
     </row>
     <row r="15">
@@ -695,19 +738,22 @@
         <v>1</v>
       </c>
       <c r="B15" t="str">
-        <v>Future Houses General Architectural Contracting Est</v>
+        <v>شركة حلول البناء الحديث للمقاولات</v>
       </c>
       <c r="C15" t="str">
-        <v>117511752</v>
+        <v>121612167</v>
       </c>
       <c r="D15" t="str">
-        <v>0540950956</v>
+        <v>00966112383966</v>
       </c>
       <c r="E15" t="str">
-        <v>f.h.c.9282@gmail.com</v>
+        <v>ttalshammari@gmail.com</v>
       </c>
       <c r="F15" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G15" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,اكمال المباني وتشطيبها, تشطيب المباني,تركيب السيراميك والكاشي,أعمال وتركيب الديكورات,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,تنظيف المباني الجديدة بعد الإنشاء,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال أخرى من أعمال تركيب الطابوق والصخور,أنشطة تقديم الخدمات للمباني وتجميل المواقع,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
       </c>
     </row>
     <row r="16">
@@ -715,19 +761,22 @@
         <v>1</v>
       </c>
       <c r="B16" t="str">
-        <v>Tala Trading Company</v>
+        <v>مؤسسة منى نزال دحيدح الحربي للمقاولات العامة</v>
       </c>
       <c r="C16" t="str">
-        <v>100008050</v>
+        <v>232123211</v>
       </c>
       <c r="D16" t="str">
-        <v>0165335425</v>
+        <v/>
       </c>
       <c r="E16" t="str">
-        <v>talaxtala@hotmail.com</v>
+        <v>f15-f20@hotmail.com</v>
       </c>
       <c r="F16" t="str">
-        <v>HAIL</v>
+        <v>بريدة</v>
+      </c>
+      <c r="G16" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض</v>
       </c>
     </row>
     <row r="17">
@@ -735,19 +784,22 @@
         <v>1</v>
       </c>
       <c r="B17" t="str">
-        <v>Mastery and Quality Architectural Contracting Est</v>
+        <v>مؤسسة التنفيذ الفريد للمقاولات العامة</v>
       </c>
       <c r="C17" t="str">
-        <v>131313131</v>
+        <v>181518150</v>
       </c>
       <c r="D17" t="str">
-        <v>0548002240</v>
+        <v>0173173300</v>
       </c>
       <c r="E17" t="str">
-        <v>malki.abdulrahman80@gmail.com</v>
+        <v>qanai1234@hotmail.com</v>
       </c>
       <c r="F17" t="str">
-        <v>JEDDAH</v>
+        <v>جازان</v>
+      </c>
+      <c r="G17" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية</v>
       </c>
     </row>
     <row r="18">
@@ -755,19 +807,22 @@
         <v>1</v>
       </c>
       <c r="B18" t="str">
-        <v>Modern Building Solutions Contracting Company</v>
+        <v>شركة المنارات الذهبيه للمقاولات</v>
       </c>
       <c r="C18" t="str">
-        <v>121612167</v>
+        <v>414741474</v>
       </c>
       <c r="D18" t="str">
-        <v>00966112383966</v>
+        <v/>
       </c>
       <c r="E18" t="str">
-        <v>ttalshammari@gmail.com</v>
+        <v>Moodel121212@hotmail.com</v>
       </c>
       <c r="F18" t="str">
-        <v>RIYADH</v>
+        <v>محايل</v>
+      </c>
+      <c r="G18" t="str">
+        <v xml:space="preserve"> لا يوجد بيانات</v>
       </c>
     </row>
     <row r="19">
@@ -775,19 +830,22 @@
         <v>1</v>
       </c>
       <c r="B19" t="str">
-        <v>Al-Manarat Al-Dhahabiya Contracting Company</v>
+        <v>مؤسسة وصل الخير للمقاولات</v>
       </c>
       <c r="C19" t="str">
-        <v>414741474</v>
+        <v>144614468</v>
       </c>
       <c r="D19" t="str">
-        <v/>
+        <v>0532226712</v>
       </c>
       <c r="E19" t="str">
-        <v>Moodel121212@hotmail.com</v>
+        <v>habcdefgh2012@gmail.com</v>
       </c>
       <c r="F19" t="str">
-        <v>MUHAYIL</v>
+        <v>احد المسارحة</v>
+      </c>
+      <c r="G19" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام</v>
       </c>
     </row>
     <row r="20">
@@ -795,19 +853,22 @@
         <v>1</v>
       </c>
       <c r="B20" t="str">
-        <v>Wasl Al Khair Contracting Est</v>
+        <v>مؤسسة منارة العمران الحديث للمقاولات</v>
       </c>
       <c r="C20" t="str">
-        <v>144614468</v>
+        <v>100008649</v>
       </c>
       <c r="D20" t="str">
-        <v>0532226712</v>
+        <v>0532278330</v>
       </c>
       <c r="E20" t="str">
-        <v>habcdefgh2012@gmail.com</v>
+        <v>Alshehry300@gmail.com</v>
       </c>
       <c r="F20" t="str">
-        <v>AHAD AL MUSARIHAH</v>
+        <v>خميس مشيط</v>
+      </c>
+      <c r="G20" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء السدود,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,التركيبات الكهربائية,تركيب انظمة الاضاءة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,التركيبات الكهربائية الأخرى,اكمال المباني وتشطيبها, تشطيب المباني</v>
       </c>
     </row>
     <row r="21">
@@ -815,19 +876,22 @@
         <v>1</v>
       </c>
       <c r="B21" t="str">
-        <v>Unique Execution Corporation for General Contracting</v>
+        <v>مؤسسة فنيؤن العمار للمقاولات</v>
       </c>
       <c r="C21" t="str">
-        <v>181518150</v>
+        <v>177617761</v>
       </c>
       <c r="D21" t="str">
-        <v>0173173300</v>
+        <v/>
       </c>
       <c r="E21" t="str">
-        <v>qanai1234@hotmail.com</v>
+        <v>saeedstar88@hotmail.com</v>
       </c>
       <c r="F21" t="str">
-        <v>JAZAN</v>
+        <v>رابغ</v>
+      </c>
+      <c r="G21" t="str">
+        <v xml:space="preserve"> لا يوجد بيانات</v>
       </c>
     </row>
     <row r="22">
@@ -835,19 +899,22 @@
         <v>2</v>
       </c>
       <c r="B22" t="str">
-        <v>Fineun Alamar Contracting Est</v>
+        <v>شركة تالا للتجارة</v>
       </c>
       <c r="C22" t="str">
-        <v>177617761</v>
+        <v>100008050</v>
       </c>
       <c r="D22" t="str">
-        <v/>
+        <v>0165335425</v>
       </c>
       <c r="E22" t="str">
-        <v>saeedstar88@hotmail.com</v>
+        <v>talaxtala@hotmail.com</v>
       </c>
       <c r="F22" t="str">
-        <v>RABIGH</v>
+        <v>حائل</v>
+      </c>
+      <c r="G22" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,ترميمات المباني السكنية والغير سكنية</v>
       </c>
     </row>
     <row r="23">
@@ -855,19 +922,22 @@
         <v>2</v>
       </c>
       <c r="B23" t="str">
-        <v>Al-Asas Engineering Corporation for General Contracting</v>
+        <v>مؤسسة أتقان وجودة للمقاولات المعمارية</v>
       </c>
       <c r="C23" t="str">
-        <v>400040009</v>
+        <v>131313131</v>
       </c>
       <c r="D23" t="str">
-        <v/>
+        <v>0548002240</v>
       </c>
       <c r="E23" t="str">
-        <v>b2b2020@outlook.sa</v>
+        <v>malki.abdulrahman80@gmail.com</v>
       </c>
       <c r="F23" t="str">
-        <v>AL MADINAH AL MUNAWWARAH</v>
+        <v>جدة</v>
+      </c>
+      <c r="G23" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,إنشاء حمامات السباحة,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض</v>
       </c>
     </row>
     <row r="24">
@@ -875,19 +945,22 @@
         <v>2</v>
       </c>
       <c r="B24" t="str">
-        <v>acn solutions for contracting</v>
+        <v>مؤسسة بيوت المستقبل للمقاولات المعمارية العامة</v>
       </c>
       <c r="C24" t="str">
-        <v>446844684</v>
+        <v>117511752</v>
       </c>
       <c r="D24" t="str">
-        <v>0126688055</v>
+        <v>0540950956</v>
       </c>
       <c r="E24" t="str">
-        <v>alwa7ed@hotmail.com</v>
+        <v>f.h.c.9282@gmail.com</v>
       </c>
       <c r="F24" t="str">
-        <v>JEDDAH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G24" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,أنشطة التشييد المتخصصة ,تحضير الموقع,صب القواعد والاساسات,اكمال المباني وتشطيبها, تشطيب المباني,تركيب السيراميك والكاشي,تغطية الارضيات خشب الباركيه,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية</v>
       </c>
     </row>
     <row r="25">
@@ -895,19 +968,22 @@
         <v>2</v>
       </c>
       <c r="B25" t="str">
-        <v>Munira Nasser Omair Al Omair Contracting Est</v>
+        <v>شركة حلول اكن للمقاولات</v>
       </c>
       <c r="C25" t="str">
-        <v>132413246</v>
+        <v>446844684</v>
       </c>
       <c r="D25" t="str">
-        <v/>
+        <v>0126688055</v>
       </c>
       <c r="E25" t="str">
-        <v>aazzsaleh882364@gmail.com</v>
+        <v>alwa7ed@hotmail.com</v>
       </c>
       <c r="F25" t="str">
-        <v>HAFAR AL BATIN</v>
+        <v>جدة</v>
+      </c>
+      <c r="G25" t="str">
+        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,تنظيف الشوارع,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات التنظيف للمباني الحكومية,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,أنشطة تنظيف الطرق,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
       </c>
     </row>
     <row r="26">
@@ -915,19 +991,22 @@
         <v>2</v>
       </c>
       <c r="B26" t="str">
-        <v>Mona Nazzal Dehaidah Al Harbi General Contracting Est</v>
+        <v>مؤسسة الاساس الهندسي للمقاولات العامة</v>
       </c>
       <c r="C26" t="str">
-        <v>232123211</v>
+        <v>400040009</v>
       </c>
       <c r="D26" t="str">
         <v/>
       </c>
       <c r="E26" t="str">
-        <v>f15-f20@hotmail.com</v>
+        <v>b2b2020@outlook.sa</v>
       </c>
       <c r="F26" t="str">
-        <v>BURAYDAH</v>
+        <v>المدينة المنورة</v>
+      </c>
+      <c r="G26" t="str">
+        <v xml:space="preserve"> لا يوجد بيانات</v>
       </c>
     </row>
     <row r="27">
@@ -935,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="str">
-        <v>Rawasi Sama Contracting Company</v>
+        <v>شركة رواسي سما للمقاولات</v>
       </c>
       <c r="C27" t="str">
         <v>305530557</v>
@@ -947,7 +1026,10 @@
         <v>Ce3@hotmail.com</v>
       </c>
       <c r="F27" t="str">
-        <v>HAFAR AL BATIN</v>
+        <v>حفر الباطن</v>
+      </c>
+      <c r="G27" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
       </c>
     </row>
     <row r="28">
@@ -955,19 +1037,22 @@
         <v>2</v>
       </c>
       <c r="B28" t="str">
-        <v>Manarat AlOmran AlHadeeth Contracting Est.</v>
+        <v>مؤسسة منيره ناصر عمير العمير للمقاولات</v>
       </c>
       <c r="C28" t="str">
-        <v>100008649</v>
+        <v>132413246</v>
       </c>
       <c r="D28" t="str">
-        <v>0532278330</v>
+        <v/>
       </c>
       <c r="E28" t="str">
-        <v>Alshehry300@gmail.com</v>
+        <v>aazzsaleh882364@gmail.com</v>
       </c>
       <c r="F28" t="str">
-        <v>KHAMIS MUSHAYT</v>
+        <v>حفر الباطن</v>
+      </c>
+      <c r="G28" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية</v>
       </c>
     </row>
     <row r="29">
@@ -975,7 +1060,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="str">
-        <v>Maha Ghadeer Ramadan Al Shammari General Contracting Est</v>
+        <v>مؤسسة مها غدير رمضان الشمري للمقاولات العامة</v>
       </c>
       <c r="C29" t="str">
         <v>180118011</v>
@@ -987,7 +1072,10 @@
         <v>abda1zaal@hotmail.com</v>
       </c>
       <c r="F29" t="str">
-        <v>AL HUFUF</v>
+        <v>الهفوف</v>
+      </c>
+      <c r="G29" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
       </c>
     </row>
     <row r="30">
@@ -995,7 +1083,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="str">
-        <v>Najmat Al Mimar General Contracting Company (one person company)</v>
+        <v>شركة نجمة المعمار للمقاولات العامة (شركة شخص واحد)</v>
       </c>
       <c r="C30" t="str">
         <v>281528159</v>
@@ -1007,7 +1095,10 @@
         <v>nasy-11@outlook.com</v>
       </c>
       <c r="F30" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G30" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
       </c>
     </row>
     <row r="31">
@@ -1015,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="B31" t="str">
-        <v>Wissam Al-Washm General Contracting Est</v>
+        <v>مؤسسة وسام الوشم للمقاولات العامة</v>
       </c>
       <c r="C31" t="str">
         <v>200120015</v>
@@ -1027,7 +1118,10 @@
         <v>bader202005@gmail.com</v>
       </c>
       <c r="F31" t="str">
-        <v>SHAQRA'</v>
+        <v>شقراء</v>
+      </c>
+      <c r="G31" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
       </c>
     </row>
     <row r="32">
@@ -1035,7 +1129,7 @@
         <v>2</v>
       </c>
       <c r="B32" t="str">
-        <v>My Best Choice Contracting Est</v>
+        <v>مؤسسة خياري الامثل للمقاولات</v>
       </c>
       <c r="C32" t="str">
         <v>100004514</v>
@@ -1047,7 +1141,10 @@
         <v>Salnofaiy@gmail.com</v>
       </c>
       <c r="F32" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G32" t="str">
+        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,تنظيف الشوارع,خدمات جمع النفايات البلدية,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,تنظيف الممرات المائية,إصلاح وصيانة السدود,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
       </c>
     </row>
     <row r="33">
@@ -1055,7 +1152,7 @@
         <v>2</v>
       </c>
       <c r="B33" t="str">
-        <v>New Lover Home General Contracting Est</v>
+        <v>مؤسسة نيلوفر هوم للمقاولات العامة</v>
       </c>
       <c r="C33" t="str">
         <v>138713878</v>
@@ -1067,7 +1164,10 @@
         <v>aljnshz@gmail.com</v>
       </c>
       <c r="F33" t="str">
-        <v>BURAYDAH</v>
+        <v>بريدة</v>
+      </c>
+      <c r="G33" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية</v>
       </c>
     </row>
     <row r="34">
@@ -1075,7 +1175,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="str">
-        <v>Access point for contracting</v>
+        <v>مؤسسة نقطة وصول للمقاولات</v>
       </c>
       <c r="C34" t="str">
         <v>384138419</v>
@@ -1087,7 +1187,10 @@
         <v>taha0595742980@outlook.com</v>
       </c>
       <c r="F34" t="str">
-        <v>AL KHAFJI</v>
+        <v>الخفجي</v>
+      </c>
+      <c r="G34" t="str">
+        <v xml:space="preserve"> لا يوجد بيانات</v>
       </c>
     </row>
     <row r="35">
@@ -1095,7 +1198,7 @@
         <v>2</v>
       </c>
       <c r="B35" t="str">
-        <v>Mosanadat Alemdad Company Ltd.</v>
+        <v>شركة مساندة الإمداد المحدودة</v>
       </c>
       <c r="C35" t="str">
         <v>100003449</v>
@@ -1107,7 +1210,10 @@
         <v>meshal@alkathiriholding.com</v>
       </c>
       <c r="F35" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G35" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديدات الشبكات,اكمال المباني وتشطيبها,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني</v>
       </c>
     </row>
     <row r="36">
@@ -1115,19 +1221,22 @@
         <v>2</v>
       </c>
       <c r="B36" t="str">
-        <v>18th Chinarailway Branch Peru Group Company Limited</v>
+        <v>شركة بي اي سي العربية للمقاولات</v>
       </c>
       <c r="C36" t="str">
-        <v>20000803</v>
+        <v>200005232</v>
       </c>
       <c r="D36" t="str">
-        <v/>
+        <v>966112166633</v>
       </c>
       <c r="E36" t="str">
-        <v>planningdepartment@cr18gksa.com</v>
+        <v>government.relations@becsaudi.com</v>
       </c>
       <c r="F36" t="str">
-        <v>DAMMAM</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G36" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
       </c>
     </row>
     <row r="37">
@@ -1135,19 +1244,22 @@
         <v>2</v>
       </c>
       <c r="B37" t="str">
-        <v>Talbi Contracting Company</v>
+        <v>شركة بلت الصناعية</v>
       </c>
       <c r="C37" t="str">
-        <v>200003350</v>
+        <v>10003183</v>
       </c>
       <c r="D37" t="str">
-        <v>0173340331</v>
+        <v>2252877000</v>
       </c>
       <c r="E37" t="str">
-        <v>mog.suliman@gmail.com</v>
+        <v>msaber@labab.com.sa</v>
       </c>
       <c r="F37" t="str">
-        <v>SAMTAH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G37" t="str">
+        <v>أنشطة خدمات دعم التعدين,أنشطة الدعم لاستخراج النفط والغاز الطبيعي,حفر آبار النفط,حفر آبار الغاز الطبيعي,الخدمات المتصلة باستخراج النفط باستثناء خدمات المسح,الخدمات المتصلة باستخراج الغاز الطبيعي باستثناء خدمات المسح,أنشطة أخرى تتعلق بأنشطة الدعم لاستخراج النفط والغاز الطبيعي,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق</v>
       </c>
     </row>
     <row r="38">
@@ -1155,19 +1267,22 @@
         <v>2</v>
       </c>
       <c r="B38" t="str">
-        <v>Awjed General Contracting Company</v>
+        <v>شركة شهم للمقاولات</v>
       </c>
       <c r="C38" t="str">
-        <v>100007262</v>
+        <v>10000886</v>
       </c>
       <c r="D38" t="str">
-        <v>0138443329</v>
+        <v>0126166633</v>
       </c>
       <c r="E38" t="str">
-        <v>h_almutlaq@awjed.co</v>
+        <v>info@shahm.sa</v>
       </c>
       <c r="F38" t="str">
-        <v>DAMMAM</v>
+        <v>جدة</v>
+      </c>
+      <c r="G38" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء السدود,إنشاء كاسرات الأمواج والحماية للأرصفة,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,التركيبات الكهربائية الأخرى,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الزجاج والمرايا للمباني,تنظيف المباني الجديدة بعد الإنشاء,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات التنظيف للمباني الحكومية,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف</v>
       </c>
     </row>
     <row r="39">
@@ -1175,19 +1290,22 @@
         <v>2</v>
       </c>
       <c r="B39" t="str">
-        <v>Rawabi Specialized Contracting Co.</v>
+        <v>شركة بكري أحمد حسن آل صعب للمقاولات</v>
       </c>
       <c r="C39" t="str">
-        <v>10001412</v>
+        <v>10002598</v>
       </c>
       <c r="D39" t="str">
-        <v>0559802628</v>
+        <v>0172279800</v>
       </c>
       <c r="E39" t="str">
-        <v>info@rscc.com.sa</v>
+        <v>h.bakkri@gmail.com</v>
       </c>
       <c r="F39" t="str">
-        <v>AL KHOBAR</v>
+        <v>محايل</v>
+      </c>
+      <c r="G39" t="str">
+        <v xml:space="preserve"> لا يوجد بيانات</v>
       </c>
     </row>
     <row r="40">
@@ -1195,19 +1313,22 @@
         <v>2</v>
       </c>
       <c r="B40" t="str">
-        <v>Shafeeq Contracting Company</v>
+        <v>شركة البركة للإنشاءات المحدودة</v>
       </c>
       <c r="C40" t="str">
-        <v>100005480</v>
+        <v>100004075</v>
       </c>
       <c r="D40" t="str">
-        <v>0138052518</v>
+        <v>966122342384</v>
       </c>
       <c r="E40" t="str">
-        <v>rasool@shafiqcontracting.com</v>
+        <v>aziz@albaraka-co.com</v>
       </c>
       <c r="F40" t="str">
-        <v>DAMMAM</v>
+        <v>جدة</v>
+      </c>
+      <c r="G40" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح</v>
       </c>
     </row>
     <row r="41">
@@ -1215,19 +1336,22 @@
         <v>2</v>
       </c>
       <c r="B41" t="str">
-        <v>Alrajhi Building and Construction Co</v>
+        <v>شركة درع التطوير للتجارة</v>
       </c>
       <c r="C41" t="str">
-        <v>100005210</v>
+        <v>100003470</v>
       </c>
       <c r="D41" t="str">
-        <v>96612982272</v>
+        <v>920019019</v>
       </c>
       <c r="E41" t="str">
-        <v>info@alrajhi-co.sa</v>
+        <v>aymen@armis.com.sa</v>
       </c>
       <c r="F41" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G41" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية</v>
       </c>
     </row>
     <row r="42">
@@ -1235,19 +1359,22 @@
         <v>3</v>
       </c>
       <c r="B42" t="str">
-        <v>Hani Al Hoty &amp; Partner Company</v>
+        <v>شركة مراسة</v>
       </c>
       <c r="C42" t="str">
-        <v>100005354</v>
+        <v>10000911</v>
       </c>
       <c r="D42" t="str">
-        <v>0138021567</v>
+        <v>0112112550</v>
       </c>
       <c r="E42" t="str">
-        <v>s.husain@alhoty.com</v>
+        <v>m.alsuhaimi@marasah.com</v>
       </c>
       <c r="F42" t="str">
-        <v>AL KHOBAR</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G42" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,أعمال السباكة والتدفئة وتكييف الهواء,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,اكمال المباني وتشطيبها, تشطيب المباني</v>
       </c>
     </row>
     <row r="43">
@@ -1255,19 +1382,22 @@
         <v>3</v>
       </c>
       <c r="B43" t="str">
-        <v>Nesma United Industries Company Ltd.</v>
+        <v>شركة قلعة الخبرة للمقاولات</v>
       </c>
       <c r="C43" t="str">
-        <v>10001285</v>
+        <v>100006803</v>
       </c>
       <c r="D43" t="str">
-        <v>0138298200</v>
+        <v>0114559414</v>
       </c>
       <c r="E43" t="str">
-        <v>marketingnt@nesma.com</v>
+        <v>b.abidah@ex-castle.com</v>
       </c>
       <c r="F43" t="str">
-        <v>AL KHOBAR</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G43" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,ترميمات المباني السكنية والغير سكنية</v>
       </c>
     </row>
     <row r="44">
@@ -1275,19 +1405,22 @@
         <v>3</v>
       </c>
       <c r="B44" t="str">
-        <v>Abdullah Hamoud Alshuwayer Sons Trading &amp; Contracting Co</v>
+        <v>شركة الكهرباء العصرية للمقاولات</v>
       </c>
       <c r="C44" t="str">
-        <v>10001371</v>
+        <v>10000805</v>
       </c>
       <c r="D44" t="str">
-        <v>0138489999</v>
+        <v>0126638739</v>
       </c>
       <c r="E44" t="str">
-        <v>admins@shuwayer.com</v>
+        <v>info@mecksa.com</v>
       </c>
       <c r="F44" t="str">
-        <v>DAMMAM</v>
+        <v>جدة</v>
+      </c>
+      <c r="G44" t="str">
+        <v>أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها</v>
       </c>
     </row>
     <row r="45">
@@ -1295,19 +1428,22 @@
         <v>3</v>
       </c>
       <c r="B45" t="str">
-        <v>International Hospitals Construction Co Ltd</v>
+        <v>شركة التقنية والتشغيل للمقاولات</v>
       </c>
       <c r="C45" t="str">
-        <v>10000932</v>
+        <v>10003037</v>
       </c>
       <c r="D45" t="str">
-        <v>920006540</v>
+        <v>920009363</v>
       </c>
       <c r="E45" t="str">
-        <v>bdm@ihcc.sa</v>
+        <v>sout@otc.sa.com</v>
       </c>
       <c r="F45" t="str">
-        <v>JEDDAH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G45" t="str">
+        <v>الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,اكمال المباني وتشطيبها, تشطيب المباني,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني</v>
       </c>
     </row>
     <row r="46">
@@ -1315,19 +1451,22 @@
         <v>3</v>
       </c>
       <c r="B46" t="str">
-        <v>Madarat Alwasat Contracting Company</v>
+        <v>شركة منافع الخليج للمقاولات</v>
       </c>
       <c r="C46" t="str">
-        <v>100003521</v>
+        <v>100005245</v>
       </c>
       <c r="D46" t="str">
-        <v>0112690259</v>
+        <v>966138254225</v>
       </c>
       <c r="E46" t="str">
-        <v>info@madaratco.sa</v>
+        <v>afo@manafalkhaleej.com</v>
       </c>
       <c r="F46" t="str">
-        <v>RIYADH</v>
+        <v>الدمام</v>
+      </c>
+      <c r="G46" t="str">
+        <v>الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح</v>
       </c>
     </row>
     <row r="47">
@@ -1335,19 +1474,22 @@
         <v>3</v>
       </c>
       <c r="B47" t="str">
-        <v>Mebrick Masoud Al-Khamisi Contracting Company is a one-person company</v>
+        <v>شركة رموز الاتحاد الخليجي للمقاولات</v>
       </c>
       <c r="C47" t="str">
-        <v>10002323</v>
+        <v>30001181</v>
       </c>
       <c r="D47" t="str">
-        <v>0126280049</v>
+        <v>0138672275</v>
       </c>
       <c r="E47" t="str">
-        <v>mebarek99@gmail.com</v>
+        <v>contact@gcscontracting.com</v>
       </c>
       <c r="F47" t="str">
-        <v>JEDDAH</v>
+        <v>الخبر</v>
+      </c>
+      <c r="G47" t="str">
+        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,تنظيف الشوارع,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية المطارات,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,أعمال السباكة والتدفئة وتكييف الهواء,تمديدات انابيب الري وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,أنشطة تنظيف الطرق</v>
       </c>
     </row>
     <row r="48">
@@ -1355,19 +1497,22 @@
         <v>3</v>
       </c>
       <c r="B48" t="str">
-        <v>Shathrwan Al Thahab Contracting Company</v>
+        <v>شركة القصيبي للخدمات المحدودة</v>
       </c>
       <c r="C48" t="str">
-        <v>10002379</v>
+        <v>100005370</v>
       </c>
       <c r="D48" t="str">
-        <v>0125344900</v>
+        <v>00966138472444</v>
       </c>
       <c r="E48" t="str">
-        <v>gm@shathrwan.com</v>
+        <v>khalid.alabdulaziz@algosaibi.com.sa</v>
       </c>
       <c r="F48" t="str">
-        <v>MAKKAH AL MUKARRAMAH</v>
+        <v>الدمام</v>
+      </c>
+      <c r="G48" t="str">
+        <v>أنشطة التشييد المتخصصة ,اكمال المباني وتشطيبها,تنظيف المباني الجديدة بعد الإنشاء,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات التنظيف للمباني الحكومية,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر</v>
       </c>
     </row>
     <row r="49">
@@ -1375,19 +1520,22 @@
         <v>3</v>
       </c>
       <c r="B49" t="str">
-        <v>Yousef bin Abdullah bin Sulaiman Abalkhail Contracting Est</v>
+        <v>شركة سوجتس كوربوريشن</v>
       </c>
       <c r="C49" t="str">
-        <v>10002862</v>
+        <v>200007124</v>
       </c>
       <c r="D49" t="str">
-        <v>0163838000</v>
+        <v>966126627253</v>
       </c>
       <c r="E49" t="str">
-        <v>y.7000@hotmail.com</v>
+        <v>masood.asif@sojitz.com</v>
       </c>
       <c r="F49" t="str">
-        <v>BURAYDAH</v>
+        <v>جدة</v>
+      </c>
+      <c r="G49" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تركيب انظمة الاضاءة,تركيب انظمة اضاءة الطرق ومهابط الطائرات</v>
       </c>
     </row>
     <row r="50">
@@ -1395,19 +1543,22 @@
         <v>3</v>
       </c>
       <c r="B50" t="str">
-        <v>Alrashid Trading &amp; Contracting Company</v>
+        <v>شركة فداك للطرق والمقاولات</v>
       </c>
       <c r="C50" t="str">
-        <v>100003724</v>
+        <v>10001297</v>
       </c>
       <c r="D50" t="str">
-        <v>00966114164111</v>
+        <v/>
       </c>
       <c r="E50" t="str">
-        <v>rtcc@rtcc.com.sa</v>
+        <v>haa@fidakcom.com</v>
       </c>
       <c r="F50" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G50" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء السدود,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,اكمال المباني وتشطيبها,أعمال وتركيب الديكورات,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,أنشطة تنظيف الطرق</v>
       </c>
     </row>
     <row r="51">
@@ -1415,19 +1566,22 @@
         <v>3</v>
       </c>
       <c r="B51" t="str">
-        <v>Nfoud Alathereia Contracting Co.</v>
+        <v>مؤسسة الحاضرة للمقاولات العامة</v>
       </c>
       <c r="C51" t="str">
-        <v>100005978</v>
+        <v>465046504</v>
       </c>
       <c r="D51" t="str">
-        <v>0114742727</v>
+        <v>0138126969</v>
       </c>
       <c r="E51" t="str">
-        <v>ceo@alathereia.com</v>
+        <v>alkhruaim@yahoo.com</v>
       </c>
       <c r="F51" t="str">
-        <v>RIYADH</v>
+        <v>صفوى</v>
+      </c>
+      <c r="G51" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني</v>
       </c>
     </row>
     <row r="52">
@@ -1435,19 +1589,22 @@
         <v>3</v>
       </c>
       <c r="B52" t="str">
-        <v>Saudi Urban Development Company</v>
+        <v>شركة فن المعمار السعودية للصيانة المحدودة</v>
       </c>
       <c r="C52" t="str">
-        <v>100005156</v>
+        <v>100004618</v>
       </c>
       <c r="D52" t="str">
-        <v>966114540300</v>
+        <v>966114041919</v>
       </c>
       <c r="E52" t="str">
-        <v>Fahad.aljasser@scdco.sa</v>
+        <v>bids@buildingtek.com</v>
       </c>
       <c r="F52" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G52" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية</v>
       </c>
     </row>
     <row r="53">
@@ -1455,19 +1612,22 @@
         <v>3</v>
       </c>
       <c r="B53" t="str">
-        <v>Modern Insulation Industries Company</v>
+        <v>شركة خطوط الطاقة للمقاولات</v>
       </c>
       <c r="C53" t="str">
-        <v>100006190</v>
+        <v>10002512</v>
       </c>
       <c r="D53" t="str">
-        <v>966112419650</v>
+        <v/>
       </c>
       <c r="E53" t="str">
-        <v>projects@miic.com.sa</v>
+        <v>hazem@plc-sa.net</v>
       </c>
       <c r="F53" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G53" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني</v>
       </c>
     </row>
     <row r="54">
@@ -1475,19 +1635,22 @@
         <v>3</v>
       </c>
       <c r="B54" t="str">
-        <v>SGS Inspection Services Saudi Arabia Company Ltd</v>
+        <v>شركة عمارة الإنشاء والتشطيبات العالمية المحدودة</v>
       </c>
       <c r="C54" t="str">
-        <v>30001683</v>
+        <v>10000719</v>
       </c>
       <c r="D54" t="str">
-        <v>96613400044</v>
+        <v>0126144555</v>
       </c>
       <c r="E54" t="str">
-        <v>abdulaziz.alansari@sgs.com</v>
+        <v>info@amarahksa.com</v>
       </c>
       <c r="F54" t="str">
-        <v>AL JUBAIL</v>
+        <v>جدة</v>
+      </c>
+      <c r="G54" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب انظمة الاضاءة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,اكمال المباني وتشطيبها, تشطيب المباني</v>
       </c>
     </row>
     <row r="55">
@@ -1495,19 +1658,22 @@
         <v>3</v>
       </c>
       <c r="B55" t="str">
-        <v>Hamsat Almaseef Contracting Est</v>
+        <v>شركة البابطين للمقاولات</v>
       </c>
       <c r="C55" t="str">
-        <v>10001546</v>
+        <v>10001767</v>
       </c>
       <c r="D55" t="str">
-        <v>01129144</v>
+        <v/>
       </c>
       <c r="E55" t="str">
-        <v>HAMSATALMASEEF@HOTMAIL.COM</v>
+        <v>naif@abc.sa.com</v>
       </c>
       <c r="F55" t="str">
-        <v>RIYADH</v>
+        <v>الدمام</v>
+      </c>
+      <c r="G55" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها</v>
       </c>
     </row>
     <row r="56">
@@ -1515,19 +1681,22 @@
         <v>3</v>
       </c>
       <c r="B56" t="str">
-        <v>Saudi Architecture Art Maintenance Co. Ltd</v>
+        <v>شركة الرواد الفنيه للتجارة والمقاولات العامة المحدودة</v>
       </c>
       <c r="C56" t="str">
-        <v>100004618</v>
+        <v>100003917</v>
       </c>
       <c r="D56" t="str">
-        <v>966114041919</v>
+        <v>0126648565</v>
       </c>
       <c r="E56" t="str">
-        <v>bids@buildingtek.com</v>
+        <v>TAWFIQ@PT-TGC.COM</v>
       </c>
       <c r="F56" t="str">
-        <v>RIYADH</v>
+        <v>جدة</v>
+      </c>
+      <c r="G56" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
       </c>
     </row>
     <row r="57">
@@ -1535,19 +1704,22 @@
         <v>3</v>
       </c>
       <c r="B57" t="str">
-        <v>Abdullah Assaf Mohammed Al Ghamdi Contracting Est</v>
+        <v>شركة الكفاح العالمية للمقاولات</v>
       </c>
       <c r="C57" t="str">
-        <v>10000799</v>
+        <v>10000864</v>
       </c>
       <c r="D57" t="str">
-        <v>0177220407</v>
+        <v>966112478887</v>
       </c>
       <c r="E57" t="str">
-        <v>alassafcompany@hotmail.com</v>
+        <v>info@alkifahco.com</v>
       </c>
       <c r="F57" t="str">
-        <v>BILJURASHI</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G57" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة التشييد المتخصصة ,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,أنشطة تقديم الخدمات للمباني وتجميل المواقع,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,أنشطة خدمات تصميم المناظر الطبيعية</v>
       </c>
     </row>
     <row r="58">
@@ -1555,19 +1727,22 @@
         <v>3</v>
       </c>
       <c r="B58" t="str">
-        <v>Dar Alshabakat Alarabia Contracting Est.</v>
+        <v>فرع المؤسسة الوطنية للقوى الكهربائية المحدودة</v>
       </c>
       <c r="C58" t="str">
-        <v>100003578</v>
+        <v>200006257</v>
       </c>
       <c r="D58" t="str">
-        <v>966114968932</v>
+        <v>966126132073</v>
       </c>
       <c r="E58" t="str">
-        <v>Arabnet@arabnet-ksa.com</v>
+        <v>npcc@npcc.com.sa</v>
       </c>
       <c r="F58" t="str">
-        <v>RIYADH</v>
+        <v>جدة</v>
+      </c>
+      <c r="G58" t="str">
+        <v xml:space="preserve"> لا يوجد بيانات</v>
       </c>
     </row>
     <row r="59">
@@ -1575,19 +1750,22 @@
         <v>3</v>
       </c>
       <c r="B59" t="str">
-        <v>Arabian Housing &amp; Building</v>
+        <v>شركة يوسف مرون للمقاولات</v>
       </c>
       <c r="C59" t="str">
-        <v>100004718</v>
+        <v>100007451</v>
       </c>
       <c r="D59" t="str">
-        <v>966112961997</v>
+        <v>0114765992</v>
       </c>
       <c r="E59" t="str">
-        <v>hello@ahb.sa</v>
+        <v>info-hr@ymco.sa</v>
       </c>
       <c r="F59" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G59" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,اكمال المباني وتشطيبها, تشطيب المباني,تنظيف المباني الجديدة بعد الإنشاء,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني</v>
       </c>
     </row>
     <row r="60">
@@ -1595,19 +1773,22 @@
         <v>3</v>
       </c>
       <c r="B60" t="str">
-        <v>Shibh Aljazira Contracting Company</v>
+        <v>شركة سـوماك للمقاولات</v>
       </c>
       <c r="C60" t="str">
-        <v>10000760</v>
+        <v>20002939</v>
       </c>
       <c r="D60" t="str">
-        <v>966114777443</v>
+        <v>00966138260427</v>
       </c>
       <c r="E60" t="str">
-        <v>maeshal@sajco.com.sa</v>
+        <v>info@somaccontracting.com</v>
       </c>
       <c r="F60" t="str">
-        <v>RIYADH</v>
+        <v>الدمام</v>
+      </c>
+      <c r="G60" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء السدود,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب السقالات,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر</v>
       </c>
     </row>
     <row r="61">
@@ -1615,19 +1796,22 @@
         <v>3</v>
       </c>
       <c r="B61" t="str">
-        <v>Al-Kifah Holding Company, Contracting Branch</v>
+        <v>شركة الجزيرة العربية المحدودة للتجارة والصناعة والمقاولات</v>
       </c>
       <c r="C61" t="str">
-        <v>10002946</v>
+        <v>10001484</v>
       </c>
       <c r="D61" t="str">
-        <v>0138459564</v>
+        <v>966125487000</v>
       </c>
       <c r="E61" t="str">
-        <v>abdullah.busodah@alkifah.com</v>
+        <v>jacco@jazera.sa</v>
       </c>
       <c r="F61" t="str">
-        <v>DAMMAM</v>
+        <v>الطائف</v>
+      </c>
+      <c r="G61" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع</v>
       </c>
     </row>
     <row r="62">
@@ -1635,19 +1819,22 @@
         <v>4</v>
       </c>
       <c r="B62" t="str">
-        <v>Arabian Rock Contracting Company</v>
+        <v>شركة دار السمار للمقاولات</v>
       </c>
       <c r="C62" t="str">
-        <v>10001271</v>
+        <v>10002935</v>
       </c>
       <c r="D62" t="str">
-        <v>0114749999</v>
+        <v>0114771477</v>
       </c>
       <c r="E62" t="str">
-        <v>info@arbrock.com</v>
+        <v>daralsammare@yahoo.com</v>
       </c>
       <c r="F62" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G62" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء السدود,تنظيف الممرات المائية,إصلاح وصيانة السدود,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,اكمال المباني وتشطيبها,تنظيف المباني الجديدة بعد الإنشاء,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة</v>
       </c>
     </row>
     <row r="63">
@@ -1655,19 +1842,22 @@
         <v>4</v>
       </c>
       <c r="B63" t="str">
-        <v>Al Jazera Al Arabia Industries, Trading and Contracting Co.ltd</v>
+        <v>شركة الحرمين للتجارة والمقاولات</v>
       </c>
       <c r="C63" t="str">
-        <v>10001484</v>
+        <v>10001319</v>
       </c>
       <c r="D63" t="str">
-        <v>966125487000</v>
+        <v>0126942000</v>
       </c>
       <c r="E63" t="str">
-        <v>jacco@jazera.sa</v>
+        <v>muad@haramain.com.sa</v>
       </c>
       <c r="F63" t="str">
-        <v>AT TAIF</v>
+        <v>جدة</v>
+      </c>
+      <c r="G63" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء السدود,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام</v>
       </c>
     </row>
     <row r="64">
@@ -1675,19 +1865,22 @@
         <v>4</v>
       </c>
       <c r="B64" t="str">
-        <v>Electrical Power Systems Contracting Est</v>
+        <v>شركة كيان المملكة كاك المحدودة</v>
       </c>
       <c r="C64" t="str">
-        <v>100006289</v>
+        <v>100009685</v>
       </c>
       <c r="D64" t="str">
-        <v>0138361104</v>
+        <v>26514999</v>
       </c>
       <c r="E64" t="str">
-        <v>F.alyousef@eps-est.com</v>
+        <v>alharthyahmad@yahoo.com</v>
       </c>
       <c r="F64" t="str">
-        <v>'INAK</v>
+        <v>جدة</v>
+      </c>
+      <c r="G64" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
       </c>
     </row>
     <row r="65">
@@ -1695,19 +1888,22 @@
         <v>4</v>
       </c>
       <c r="B65" t="str">
-        <v>Construction Edifices Development Contracting Company</v>
+        <v>شركة شفيق للمقاولات</v>
       </c>
       <c r="C65" t="str">
-        <v>10002736</v>
+        <v>100005480</v>
       </c>
       <c r="D65" t="str">
-        <v>4452929</v>
+        <v>0138052518</v>
       </c>
       <c r="E65" t="str">
-        <v>waleed.w@cedme.com</v>
+        <v>rasool@shafiqcontracting.com</v>
       </c>
       <c r="F65" t="str">
-        <v>RIYADH</v>
+        <v>الدمام</v>
+      </c>
+      <c r="G65" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,اكمال المباني وتشطيبها, تشطيب المباني</v>
       </c>
     </row>
     <row r="66">
@@ -1715,19 +1911,22 @@
         <v>4</v>
       </c>
       <c r="B66" t="str">
-        <v>Saudi High Gate Company</v>
+        <v>شركة شبه الجزيرة للمقاولات</v>
       </c>
       <c r="C66" t="str">
-        <v>10002093</v>
+        <v>10000760</v>
       </c>
       <c r="D66" t="str">
-        <v>0172281538</v>
+        <v>966114777443</v>
       </c>
       <c r="E66" t="str">
-        <v>info@albab-alali.com.sa</v>
+        <v>maeshal@sajco.com.sa</v>
       </c>
       <c r="F66" t="str">
-        <v>ABHA</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G66" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تركيب انظمة الاضاءة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,اكمال المباني وتشطيبها, تشطيب المباني</v>
       </c>
     </row>
     <row r="67">
@@ -1735,19 +1934,22 @@
         <v>4</v>
       </c>
       <c r="B67" t="str">
-        <v>Dera'a Altatweer Trading Company</v>
+        <v>شركة طرق التنمية للمقاولات</v>
       </c>
       <c r="C67" t="str">
-        <v>100003470</v>
+        <v>130413048</v>
       </c>
       <c r="D67" t="str">
-        <v>920019019</v>
+        <v>0126499939</v>
       </c>
       <c r="E67" t="str">
-        <v>aymen@armis.com.sa</v>
+        <v>meshari.alsaiby@dmco.sa</v>
       </c>
       <c r="F67" t="str">
-        <v>RIYADH</v>
+        <v>جدة</v>
+      </c>
+      <c r="G67" t="str">
+        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,تنظيف الشوارع,خدمات جمع النفايات البلدية,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تمديدات انابيب الري وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,اكمال المباني وتشطيبها, تشطيب المباني,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الطرق,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق</v>
       </c>
     </row>
     <row r="68">
@@ -1755,19 +1957,22 @@
         <v>4</v>
       </c>
       <c r="B68" t="str">
-        <v>Al Baraka Construction Company L.L.C</v>
+        <v>مؤسسة رغد المشاريع للمقاولات</v>
       </c>
       <c r="C68" t="str">
-        <v>100004075</v>
+        <v>10002082</v>
       </c>
       <c r="D68" t="str">
-        <v>966122342384</v>
+        <v>0114916149</v>
       </c>
       <c r="E68" t="str">
-        <v>aziz@albaraka-co.com</v>
+        <v>ie_anasah@hotmail.com</v>
       </c>
       <c r="F68" t="str">
-        <v>JEDDAH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G68" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق</v>
       </c>
     </row>
     <row r="69">
@@ -1775,19 +1980,22 @@
         <v>4</v>
       </c>
       <c r="B69" t="str">
-        <v>Building Walls Contracting Est</v>
+        <v>شركة المجال سيد الخدمات</v>
       </c>
       <c r="C69" t="str">
-        <v>100007392</v>
+        <v>20001920</v>
       </c>
       <c r="D69" t="str">
-        <v/>
+        <v>2849500</v>
       </c>
       <c r="E69" t="str">
-        <v>aan.mak@hotmail.com</v>
+        <v>abdulrahman@almajal.com</v>
       </c>
       <c r="F69" t="str">
-        <v>AL MUBARRAZ</v>
+        <v>جدة</v>
+      </c>
+      <c r="G69" t="str">
+        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,تنظيف الشوارع,تشييد المباني,تشييد المباني,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,تنظيف الممرات المائية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,اكمال المباني وتشطيبها, تشطيب المباني,أعمال وتركيب الديكورات,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,تنظيف المباني الجديدة بعد الإنشاء,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الطرق,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة</v>
       </c>
     </row>
     <row r="70">
@@ -1795,19 +2003,22 @@
         <v>4</v>
       </c>
       <c r="B70" t="str">
-        <v>Saudi Electronic Trading and Contracting Company</v>
+        <v>شركة نوفا ست التجارية مساهمة مقفلة شركة شخص واحد</v>
       </c>
       <c r="C70" t="str">
-        <v>200006548</v>
+        <v>10001003</v>
       </c>
       <c r="D70" t="str">
-        <v>0112062277</v>
+        <v>920022006</v>
       </c>
       <c r="E70" t="str">
-        <v>homedi.alrasheed@setra.com.sa</v>
+        <v>khalid.assiri@novasat.com.sa</v>
       </c>
       <c r="F70" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G70" t="str">
+        <v>أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,تركيب وتمديد شبكات الكمبيوتر والاتصالات,التركيبات الكهربائية الأخرى</v>
       </c>
     </row>
     <row r="71">
@@ -1815,19 +2026,22 @@
         <v>4</v>
       </c>
       <c r="B71" t="str">
-        <v>General Enterprises Trading Co Ltd</v>
+        <v>شركة عوض سعد بن ظفرة للمقاولات</v>
       </c>
       <c r="C71" t="str">
-        <v>10003116</v>
+        <v>10001760</v>
       </c>
       <c r="D71" t="str">
-        <v>0112025074</v>
+        <v>0115411118</v>
       </c>
       <c r="E71" t="str">
-        <v>helmi@getco.com.sa</v>
+        <v>ali.alwaeli@binzafrah.com</v>
       </c>
       <c r="F71" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G71" t="str">
+        <v>الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات</v>
       </c>
     </row>
     <row r="72">
@@ -1835,19 +2049,22 @@
         <v>4</v>
       </c>
       <c r="B72" t="str">
-        <v>Asaleeb Contracting Est</v>
+        <v>شركة المشاريع والتجارة العامة المحدودة</v>
       </c>
       <c r="C72" t="str">
-        <v>100006924</v>
+        <v>10003116</v>
       </c>
       <c r="D72" t="str">
-        <v>112929300</v>
+        <v>0112025074</v>
       </c>
       <c r="E72" t="str">
-        <v>aziz@almousa.com</v>
+        <v>helmi@getco.com.sa</v>
       </c>
       <c r="F72" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G72" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات</v>
       </c>
     </row>
     <row r="73">
@@ -1855,19 +2072,22 @@
         <v>4</v>
       </c>
       <c r="B73" t="str">
-        <v>Gulf Cooperation Symbols Contracting Company Limited</v>
+        <v>مؤسسة خدمات قوى الطاقة للمقاولات العامة</v>
       </c>
       <c r="C73" t="str">
-        <v>30001181</v>
+        <v>100007141</v>
       </c>
       <c r="D73" t="str">
-        <v>0138672275</v>
+        <v/>
       </c>
       <c r="E73" t="str">
-        <v>contact@gcscontracting.com</v>
+        <v>MOHAMMAD@ENERSERV-SA.COM</v>
       </c>
       <c r="F73" t="str">
-        <v>AL KHOBAR</v>
+        <v>الدمام</v>
+      </c>
+      <c r="G73" t="str">
+        <v xml:space="preserve"> لا يوجد بيانات</v>
       </c>
     </row>
     <row r="74">
@@ -1875,19 +2095,22 @@
         <v>4</v>
       </c>
       <c r="B74" t="str">
-        <v>Awal Tasmim Company For Decoration</v>
+        <v>شركة نبني المحدودة</v>
       </c>
       <c r="C74" t="str">
-        <v>100007486</v>
+        <v>100007123</v>
       </c>
       <c r="D74" t="str">
-        <v>0114169700</v>
+        <v>0554544193</v>
       </c>
       <c r="E74" t="str">
-        <v>kab@lepremier.com.sa</v>
+        <v>info@nabny.sa</v>
       </c>
       <c r="F74" t="str">
-        <v>RIYADH</v>
+        <v>تبوك</v>
+      </c>
+      <c r="G74" t="str">
+        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,تنظيف الشوارع,جمع المواد لإعادة التصنيع,أنشطة أخرى تتعلق بجمع النفايات الغير خطرة,خدمات جمع النفايات البلدية,نقل النفايات الصناعية الغير خطرة,تجميع زيوت الطعام المستخدمة,جمع النفايات الخطرة,جمع النفايات الخطرة للزيوت المستعملة من الشحن أو المرائب,جمع النفايات الخطرة للمواد الخطرة البيولوجية,جمع النفايات الخطرة للبطاريات المستعملة,تشغيل محطات نقل النفايات للنفايات الخطرة,جمع النفايات الخطرة الأخرى,جمع ونقل النفايات الخطرة للزيوت المستعملة من منتجي هذه النفايات,نقل النفايات الطبية الخطرة,جمع ونقل النفايات الناتجة عن أعمال المكافحة والتنظيف للبيئة البحرية والساحلية,نقل النفايات الخطرة,نقل نفايات الاسبستوس,نقل الزيت من واسطة بحرية إلى أخرى داخل عرض البحر أو من مواقع تجميع الزيوت داخل البحر في حالات التلوث,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
       </c>
     </row>
     <row r="75">
@@ -1895,19 +2118,22 @@
         <v>4</v>
       </c>
       <c r="B75" t="str">
-        <v>Enter For Communications &amp; Information Technology Co.</v>
+        <v>شركة أس جي أس لخدمات الفحص العربية السعودية المحدودة</v>
       </c>
       <c r="C75" t="str">
-        <v>100004979</v>
+        <v>30001683</v>
       </c>
       <c r="D75" t="str">
-        <v>0163253323</v>
+        <v>96613400044</v>
       </c>
       <c r="E75" t="str">
-        <v>admin@enter.com.sa</v>
+        <v>abdulaziz.alansari@sgs.com</v>
       </c>
       <c r="F75" t="str">
-        <v/>
+        <v>الجبيل</v>
+      </c>
+      <c r="G75" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),إنشاءات المباني الجاهزة في المواقع</v>
       </c>
     </row>
     <row r="76">
@@ -1915,19 +2141,22 @@
         <v>4</v>
       </c>
       <c r="B76" t="str">
-        <v>Nova Sat Commercial Company Joint-stock One Person Company</v>
+        <v>شركة الحلول الآصيله المحدوده</v>
       </c>
       <c r="C76" t="str">
-        <v>10001003</v>
+        <v>30002587</v>
       </c>
       <c r="D76" t="str">
-        <v>920022006</v>
+        <v>0112059550</v>
       </c>
       <c r="E76" t="str">
-        <v>khalid.assiri@novasat.com.sa</v>
+        <v>khalid@alasila.com</v>
       </c>
       <c r="F76" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G76" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة</v>
       </c>
     </row>
     <row r="77">
@@ -1935,19 +2164,22 @@
         <v>4</v>
       </c>
       <c r="B77" t="str">
-        <v>Alsaad General Contracting Company Ltd.</v>
+        <v>شركة داثن للمقاولات</v>
       </c>
       <c r="C77" t="str">
-        <v>20002951</v>
+        <v>10000708</v>
       </c>
       <c r="D77" t="str">
-        <v>0126830306</v>
+        <v>00966114633554</v>
       </c>
       <c r="E77" t="str">
-        <v>iksalam@alsaad.com.sa</v>
+        <v>INFO@DATHIN.COM</v>
       </c>
       <c r="F77" t="str">
-        <v>JEDDAH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G77" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة منتزهات الطرق السريعة</v>
       </c>
     </row>
     <row r="78">
@@ -1955,19 +2187,22 @@
         <v>4</v>
       </c>
       <c r="B78" t="str">
-        <v>Fast Finishing Contracting Company</v>
+        <v>شركة أبناء عبدالله حمود الشويعر للتجارة والمقاولات</v>
       </c>
       <c r="C78" t="str">
-        <v>100006904</v>
+        <v>10001371</v>
       </c>
       <c r="D78" t="str">
-        <v>0541979932</v>
+        <v>0138489999</v>
       </c>
       <c r="E78" t="str">
-        <v>aalghamdi@fast-cpc.com</v>
+        <v>admins@shuwayer.com</v>
       </c>
       <c r="F78" t="str">
-        <v>JEDDAH</v>
+        <v>الدمام</v>
+      </c>
+      <c r="G78" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,أعمال السباكة والتدفئة وتكييف الهواء,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها</v>
       </c>
     </row>
     <row r="79">
@@ -1975,19 +2210,22 @@
         <v>4</v>
       </c>
       <c r="B79" t="str">
-        <v>Altayyar Alarabi Contracting Company</v>
+        <v>شركة كفو للخدمات الفنية المحدودة</v>
       </c>
       <c r="C79" t="str">
-        <v>150815082</v>
+        <v>100004499</v>
       </c>
       <c r="D79" t="str">
-        <v>966505300528</v>
+        <v>00966138825067</v>
       </c>
       <c r="E79" t="str">
-        <v>altayar.a2007@gmail.com</v>
+        <v>rashed@ktsco.com.sa</v>
       </c>
       <c r="F79" t="str">
-        <v>AL MADINAH AL MUNAWWARAH</v>
+        <v>الخبر</v>
+      </c>
+      <c r="G79" t="str">
+        <v>الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة مانعه الصواعق,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,أنشطة تنظيف الآلات والمعدات الصناعية</v>
       </c>
     </row>
     <row r="80">
@@ -1995,19 +2233,22 @@
         <v>4</v>
       </c>
       <c r="B80" t="str">
-        <v>JAC Saudi Contracting Company</v>
+        <v>شركة نسما للبنية التحتية والتقنية المحدودة</v>
       </c>
       <c r="C80" t="str">
-        <v>100006974</v>
+        <v>10001007</v>
       </c>
       <c r="D80" t="str">
-        <v/>
+        <v>0966122727635</v>
       </c>
       <c r="E80" t="str">
-        <v>mesholif@yahoo.com</v>
+        <v>rayan@nesma.com</v>
       </c>
       <c r="F80" t="str">
-        <v>RIYADH</v>
+        <v>جدة</v>
+      </c>
+      <c r="G80" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الحديدية,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,التركيبات الكهربائية الأخرى</v>
       </c>
     </row>
     <row r="81">
@@ -2015,19 +2256,22 @@
         <v>4</v>
       </c>
       <c r="B81" t="str">
-        <v>Saudi Sicli Company</v>
+        <v>شركة جاك السعودية للمقاولات</v>
       </c>
       <c r="C81" t="str">
-        <v>10001887</v>
+        <v>100006974</v>
       </c>
       <c r="D81" t="str">
-        <v>0126355252</v>
+        <v/>
       </c>
       <c r="E81" t="str">
-        <v>ahmad@saudisicli.com.sa</v>
+        <v>mesholif@yahoo.com</v>
       </c>
       <c r="F81" t="str">
-        <v>JEDDAH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G81" t="str">
+        <v xml:space="preserve"> لا يوجد بيانات</v>
       </c>
     </row>
     <row r="82">
@@ -2035,19 +2279,22 @@
         <v>5</v>
       </c>
       <c r="B82" t="str">
-        <v>Arabian Building Support and Rehabilitation Co. Ltd.</v>
+        <v>شركة عبدالمحسن الجاسر للمقاولات</v>
       </c>
       <c r="C82" t="str">
-        <v>10001986</v>
+        <v>100004498</v>
       </c>
       <c r="D82" t="str">
-        <v>0114193510</v>
+        <v>0112770000</v>
       </c>
       <c r="E82" t="str">
-        <v>Aalshehri@Absar.Com</v>
+        <v>aljaser_contrat@yahoo.com</v>
       </c>
       <c r="F82" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G82" t="str">
+        <v>الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء السدود</v>
       </c>
     </row>
     <row r="83">
@@ -2055,19 +2302,22 @@
         <v>5</v>
       </c>
       <c r="B83" t="str">
-        <v>Somac Contracting Company</v>
+        <v>مؤسسه دار الشبكات العربيه للمقاولات</v>
       </c>
       <c r="C83" t="str">
-        <v>20002939</v>
+        <v>100003578</v>
       </c>
       <c r="D83" t="str">
-        <v>00966138260427</v>
+        <v>966114968932</v>
       </c>
       <c r="E83" t="str">
-        <v>info@somaccontracting.com</v>
+        <v>Arabnet@arabnet-ksa.com</v>
       </c>
       <c r="F83" t="str">
-        <v>DAMMAM</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G83" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تركيب انظمة انذار الحريق,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تركيبات إنشائية أخرى,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء</v>
       </c>
     </row>
     <row r="84">
@@ -2075,19 +2325,22 @@
         <v>5</v>
       </c>
       <c r="B84" t="str">
-        <v>Saudi Electrical Contracting Company</v>
+        <v>فرع شركة تشايناريلواي الثامنة عشر بيرو جروب كومباني ليمتد</v>
       </c>
       <c r="C84" t="str">
-        <v>20001177</v>
+        <v>20000803</v>
       </c>
       <c r="D84" t="str">
-        <v>0114608821</v>
+        <v/>
       </c>
       <c r="E84" t="str">
-        <v>e.bassam@selcop.co</v>
+        <v>planningdepartment@cr18gksa.com</v>
       </c>
       <c r="F84" t="str">
-        <v>RIYADH</v>
+        <v>الدمام</v>
+      </c>
+      <c r="G84" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,أنشطة التشييد المتخصصة ,تحضير الموقع,صب القواعد والاساسات,اكمال المباني وتشطيبها,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر</v>
       </c>
     </row>
     <row r="85">
@@ -2095,19 +2348,22 @@
         <v>5</v>
       </c>
       <c r="B85" t="str">
-        <v>Infrastructure Engineering and Contracting Company Ltd</v>
+        <v>شركة شبكة الطرق للمقاولات</v>
       </c>
       <c r="C85" t="str">
-        <v>100006338</v>
+        <v>100003805</v>
       </c>
       <c r="D85" t="str">
-        <v/>
+        <v>0112066662</v>
       </c>
       <c r="E85" t="str">
-        <v>hmismail@isecc-sa.com</v>
+        <v>road_net@ymail.com</v>
       </c>
       <c r="F85" t="str">
-        <v>DAMMAM</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G85" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,التنظيف العام للمباني,التنظيف العام للمباني</v>
       </c>
     </row>
     <row r="86">
@@ -2115,19 +2371,22 @@
         <v>5</v>
       </c>
       <c r="B86" t="str">
-        <v>Bani Al Jazeera Contracting Company</v>
+        <v>شركة قمة الرواسي للمقاولات</v>
       </c>
       <c r="C86" t="str">
-        <v>10001972</v>
+        <v>10001416</v>
       </c>
       <c r="D86" t="str">
-        <v/>
+        <v>0114329255</v>
       </c>
       <c r="E86" t="str">
-        <v>khalid.farhan@bunaaljazira.com.sa</v>
+        <v>qemmet.alrawasi@gmail.com</v>
       </c>
       <c r="F86" t="str">
-        <v>AL KHOBAR</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G86" t="str">
+        <v>الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,أعمال السباكة والتدفئة وتكييف الهواء,تمديدات انابيب الري وصيانتها واصلاحها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,أنشطة تنظيف الطرق</v>
       </c>
     </row>
     <row r="87">
@@ -2135,19 +2394,22 @@
         <v>5</v>
       </c>
       <c r="B87" t="str">
-        <v>Ibrahim M Alaboud Co for Development</v>
+        <v>شركة مؤنس محمد الشايب للأعمال المدنية "موبكو"</v>
       </c>
       <c r="C87" t="str">
-        <v>100006300</v>
+        <v>200004541</v>
       </c>
       <c r="D87" t="str">
-        <v>0116433448</v>
+        <v>00966112935966</v>
       </c>
       <c r="E87" t="str">
-        <v>alaboud2008@yahoo.com</v>
+        <v>info.ksa@mobco-group.com</v>
       </c>
       <c r="F87" t="str">
-        <v>AD DUWADIMI</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G87" t="str">
+        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,تنظيف الشوارع,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب السقالات,إنشاء حمامات السباحة,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات التنظيف للمباني الحكومية,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
       </c>
     </row>
     <row r="88">
@@ -2155,19 +2417,22 @@
         <v>5</v>
       </c>
       <c r="B88" t="str">
-        <v>Alrajeh Modern Contracting Co. Ltd.</v>
+        <v>شركة افق الحجاز المحدودة</v>
       </c>
       <c r="C88" t="str">
-        <v>10001221</v>
+        <v>100006812</v>
       </c>
       <c r="D88" t="str">
-        <v>0126682040</v>
+        <v>125495533</v>
       </c>
       <c r="E88" t="str">
-        <v>info@alrajehmodern.com.sa</v>
+        <v>alhejazhorizon@hotmail.com</v>
       </c>
       <c r="F88" t="str">
-        <v>JEDDAH</v>
+        <v>مكة المكرمة</v>
+      </c>
+      <c r="G88" t="str">
+        <v>الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,اكمال المباني وتشطيبها,تنظيف المباني الجديدة بعد الإنشاء,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات التنظيف للمباني الحكومية,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة منتزهات الطرق السريعة</v>
       </c>
     </row>
     <row r="89">
@@ -2175,19 +2440,22 @@
         <v>5</v>
       </c>
       <c r="B89" t="str">
-        <v>Al-Dhaati Group Company</v>
+        <v>شركة لمسة الالياف الزجاجيه للمقاولات</v>
       </c>
       <c r="C89" t="str">
-        <v>10003068</v>
+        <v>100004851</v>
       </c>
       <c r="D89" t="str">
-        <v>0550600092</v>
+        <v>966559374306</v>
       </c>
       <c r="E89" t="str">
-        <v>althaatygroup@gmail.com</v>
+        <v>Waleed@grctouch.com</v>
       </c>
       <c r="F89" t="str">
-        <v>AL KHOBAR</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G89" t="str">
+        <v>أنشطة التشييد المتخصصة ,اكمال المباني وتشطيبها,أعمال وتركيب الديكورات,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر</v>
       </c>
     </row>
     <row r="90">
@@ -2195,19 +2463,22 @@
         <v>5</v>
       </c>
       <c r="B90" t="str">
-        <v>A.J. Corporation Company Branch</v>
+        <v>شركة محمد وسليمان العساف للتجارة والمقاولات المحدودة</v>
       </c>
       <c r="C90" t="str">
-        <v>200003781</v>
+        <v>10002264</v>
       </c>
       <c r="D90" t="str">
-        <v>966138288365</v>
+        <v>00966122712299</v>
       </c>
       <c r="E90" t="str">
-        <v>jibreel@ajcengg.pk</v>
+        <v>info@alassafco.com.sa</v>
       </c>
       <c r="F90" t="str">
-        <v>DAMMAM</v>
+        <v>جدة</v>
+      </c>
+      <c r="G90" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية</v>
       </c>
     </row>
     <row r="91">
@@ -2215,19 +2486,22 @@
         <v>5</v>
       </c>
       <c r="B91" t="str">
-        <v>International for Modern Industries Co</v>
+        <v>شركة بن دلامة للمقاولات</v>
       </c>
       <c r="C91" t="str">
-        <v>10001505</v>
+        <v>10001161</v>
       </c>
       <c r="D91" t="str">
-        <v/>
+        <v>0136680668</v>
       </c>
       <c r="E91" t="str">
-        <v>gm@ifmi.com.sa</v>
+        <v>mail@bindelamah.com</v>
       </c>
       <c r="F91" t="str">
-        <v>JEDDAH</v>
+        <v>راس تنورة</v>
+      </c>
+      <c r="G91" t="str">
+        <v xml:space="preserve"> لا يوجد بيانات</v>
       </c>
     </row>
     <row r="92">
@@ -2235,19 +2509,22 @@
         <v>5</v>
       </c>
       <c r="B92" t="str">
-        <v>Saudi Electronic Computers Company</v>
+        <v>شركة فوارس العليا للمقاولات</v>
       </c>
       <c r="C92" t="str">
-        <v>10003104</v>
+        <v>100004211</v>
       </c>
       <c r="D92" t="str">
-        <v/>
+        <v>0114464626</v>
       </c>
       <c r="E92" t="str">
-        <v>snaif@sbm.com.sa</v>
+        <v>info@fawares.com.sa</v>
       </c>
       <c r="F92" t="str">
-        <v>JEDDAH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G92" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر</v>
       </c>
     </row>
     <row r="93">
@@ -2255,19 +2532,22 @@
         <v>5</v>
       </c>
       <c r="B93" t="str">
-        <v>Mohammad and Sulaiman Al-Assaf Trading and Contracting Company Ltd</v>
+        <v>شركة المحيط العميق للمقاولات</v>
       </c>
       <c r="C93" t="str">
-        <v>10002264</v>
+        <v>10002099</v>
       </c>
       <c r="D93" t="str">
-        <v>00966122712299</v>
+        <v>0112915204</v>
       </c>
       <c r="E93" t="str">
-        <v>info@alassafco.com.sa</v>
+        <v>info@thedeepocean.com.sa</v>
       </c>
       <c r="F93" t="str">
-        <v>JEDDAH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G93" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيبات إنشائية أخرى,تركيب وصيانة أجهزة ومعدات الإطفاء,أنشطة تقديم الخدمات للمباني وتجميل المواقع,التنظيف العام للمباني,التنظيف العام للمباني</v>
       </c>
     </row>
     <row r="94">
@@ -2275,19 +2555,22 @@
         <v>5</v>
       </c>
       <c r="B94" t="str">
-        <v>Belt Industrial Company</v>
+        <v>شركة المزين جلف السعودية للمقاولات</v>
       </c>
       <c r="C94" t="str">
-        <v>10003183</v>
+        <v>100006679</v>
       </c>
       <c r="D94" t="str">
-        <v>2252877000</v>
+        <v>966133404200</v>
       </c>
       <c r="E94" t="str">
-        <v>msaber@labab.com.sa</v>
+        <v>info@almuzain.com</v>
       </c>
       <c r="F94" t="str">
-        <v>RIYADH</v>
+        <v>الجبيل</v>
+      </c>
+      <c r="G94" t="str">
+        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل النفايات الصناعية الغير خطرة,جمع النفايات الخطرة,جمع النفايات الخطرة الأخرى,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,أنشطة التشييد المتخصصة ,أعمال السباكة والتدفئة وتكييف الهواء,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب السقالات,تأجير معدات التشييد والبناء مع مشغل,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر</v>
       </c>
     </row>
     <row r="95">
@@ -2295,19 +2578,22 @@
         <v>5</v>
       </c>
       <c r="B95" t="str">
-        <v>Mohammed Ahmed Al-Hilal Contracting Est</v>
+        <v>شركة الظلال العربية للتجارة والمقاولات</v>
       </c>
       <c r="C95" t="str">
-        <v>122512250</v>
+        <v>100004520</v>
       </c>
       <c r="D95" t="str">
-        <v/>
+        <v>920008799</v>
       </c>
       <c r="E95" t="str">
-        <v>aboahmada0@gmail.com</v>
+        <v>s.almallouhi@arabshadows.com</v>
       </c>
       <c r="F95" t="str">
-        <v>AL AHSA</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G95" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات الكمبيوتر والاتصالات,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الطرق,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
       </c>
     </row>
     <row r="96">
@@ -2315,19 +2601,22 @@
         <v>5</v>
       </c>
       <c r="B96" t="str">
-        <v>Capital Lights Co For Electro-Mechanics</v>
+        <v>شركة اتحاد الهندسة الإنشائية (يونك)</v>
       </c>
       <c r="C96" t="str">
-        <v>10001074</v>
+        <v>200005259</v>
       </c>
       <c r="D96" t="str">
-        <v>00966114707002</v>
+        <v>966114002769</v>
       </c>
       <c r="E96" t="str">
-        <v>clc967@gmail.com</v>
+        <v>asharqi@unec.ae</v>
       </c>
       <c r="F96" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G96" t="str">
+        <v xml:space="preserve"> لا يوجد بيانات</v>
       </c>
     </row>
     <row r="97">
@@ -2335,19 +2624,22 @@
         <v>5</v>
       </c>
       <c r="B97" t="str">
-        <v>Eastern Mman Co. For Trading &amp; Contracting</v>
+        <v>شركة زهرة الصحراء للتجارة والمقاولات مساهمه مقفله</v>
       </c>
       <c r="C97" t="str">
-        <v>100004622</v>
+        <v>10002643</v>
       </c>
       <c r="D97" t="str">
-        <v>00966920003418</v>
+        <v>0114792233</v>
       </c>
       <c r="E97" t="str">
-        <v>CEO@MMANCO.COM</v>
+        <v>info@zas.com.sa</v>
       </c>
       <c r="F97" t="str">
-        <v>AL JUBAIL</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G97" t="str">
+        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,تنظيف الشوارع,جمع المواد لإعادة التصنيع,أنشطة أخرى تتعلق بجمع النفايات الغير خطرة,خدمات جمع النفايات البلدية,نقل النفايات الصناعية الغير خطرة,تجميع زيوت الطعام المستخدمة,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
       </c>
     </row>
     <row r="98">
@@ -2355,19 +2647,22 @@
         <v>5</v>
       </c>
       <c r="B98" t="str">
-        <v>Al-Deyabi Contracting Group</v>
+        <v>شركة زاس للتجارة والمقاولات</v>
       </c>
       <c r="C98" t="str">
-        <v>10002269</v>
+        <v>10002051</v>
       </c>
       <c r="D98" t="str">
-        <v>966114561245</v>
+        <v/>
       </c>
       <c r="E98" t="str">
-        <v>maged@aldeyabi.com</v>
+        <v>zass10@hotmail.com</v>
       </c>
       <c r="F98" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G98" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,اكمال المباني وتشطيبها,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها</v>
       </c>
     </row>
     <row r="99">
@@ -2375,19 +2670,22 @@
         <v>5</v>
       </c>
       <c r="B99" t="str">
-        <v>GRC Touch Company</v>
+        <v>شركة مجموعة الذعاتي</v>
       </c>
       <c r="C99" t="str">
-        <v>100004851</v>
+        <v>10003068</v>
       </c>
       <c r="D99" t="str">
-        <v>966559374306</v>
+        <v>0550600092</v>
       </c>
       <c r="E99" t="str">
-        <v>Waleed@grctouch.com</v>
+        <v>althaatygroup@gmail.com</v>
       </c>
       <c r="F99" t="str">
-        <v>RIYADH</v>
+        <v>الخبر</v>
+      </c>
+      <c r="G99" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تركيب انظمة الاضاءة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,اكمال المباني وتشطيبها,أعمال وتركيب الديكورات,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أنشطة تقديم الخدمات للمباني وتجميل المواقع,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام</v>
       </c>
     </row>
     <row r="100">
@@ -2395,19 +2693,22 @@
         <v>5</v>
       </c>
       <c r="B100" t="str">
-        <v>Branch of Alriyadah Investments Company Ltd.</v>
+        <v>شركة تكنولوجيا الخرسانة للمقاولات</v>
       </c>
       <c r="C100" t="str">
-        <v>100006953</v>
+        <v>100003782</v>
       </c>
       <c r="D100" t="str">
-        <v>0126112333</v>
+        <v>00966539391916</v>
       </c>
       <c r="E100" t="str">
-        <v>sabudawood@arabian-power.com</v>
+        <v>conc-tech@hotmail.com</v>
       </c>
       <c r="F100" t="str">
-        <v>JEDDAH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G100" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,تحضير الموقع,صب القواعد والاساسات,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني</v>
       </c>
     </row>
     <row r="101">
@@ -2415,19 +2716,22 @@
         <v>5</v>
       </c>
       <c r="B101" t="str">
-        <v>Equipment &amp; Technical Services Ltd. Company</v>
+        <v>شركة إنشاء المستشفيات الدوليه المحدودة</v>
       </c>
       <c r="C101" t="str">
-        <v>100003533</v>
+        <v>10000932</v>
       </c>
       <c r="D101" t="str">
-        <v>0114505040</v>
+        <v>920006540</v>
       </c>
       <c r="E101" t="str">
-        <v>munif.alsubaiy@etechsco.com</v>
+        <v>bdm@ihcc.sa</v>
       </c>
       <c r="F101" t="str">
-        <v>RIYADH</v>
+        <v>جدة</v>
+      </c>
+      <c r="G101" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها</v>
       </c>
     </row>
     <row r="102">
@@ -2435,19 +2739,22 @@
         <v>6</v>
       </c>
       <c r="B102" t="str">
-        <v>Source Machinery Company for Trading Contracting LTD</v>
+        <v>شركة الانظمة المتقدمة للمشاريع المحدودة</v>
       </c>
       <c r="C102" t="str">
-        <v>10000738</v>
+        <v>10001198</v>
       </c>
       <c r="D102" t="str">
-        <v>966114767667</v>
+        <v>00966114443535</v>
       </c>
       <c r="E102" t="str">
-        <v>info@source-machinery.com</v>
+        <v>ats@atsc-sa.com</v>
       </c>
       <c r="F102" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G102" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور</v>
       </c>
     </row>
     <row r="103">
@@ -2455,19 +2762,22 @@
         <v>6</v>
       </c>
       <c r="B103" t="str">
-        <v>MHI-AP Saudi Arabia Co. Ltd</v>
+        <v>شركة تنمية الصروح الانشائية للمقاولات</v>
       </c>
       <c r="C103" t="str">
-        <v>100005345</v>
+        <v>10002736</v>
       </c>
       <c r="D103" t="str">
-        <v>0133581112</v>
+        <v>4452929</v>
       </c>
       <c r="E103" t="str">
-        <v>ali.almabooq.ns@mhi.com</v>
+        <v>waleed.w@cedme.com</v>
       </c>
       <c r="F103" t="str">
-        <v>AL JUBAIL</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G103" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها</v>
       </c>
     </row>
     <row r="104">
@@ -2475,19 +2785,22 @@
         <v>6</v>
       </c>
       <c r="B104" t="str">
-        <v>Rkan Alsmood General Contracting Co.</v>
+        <v>مؤسسة خمسة عشر للمقاولات</v>
       </c>
       <c r="C104" t="str">
-        <v>100005601</v>
+        <v>10000415</v>
       </c>
       <c r="D104" t="str">
-        <v>0176220495</v>
+        <v>0559332559</v>
       </c>
       <c r="E104" t="str">
-        <v>alsmood-@hotmail.com</v>
+        <v>hajer.nb@gmail.com</v>
       </c>
       <c r="F104" t="str">
-        <v>BISHAH</v>
+        <v>مكة المكرمة</v>
+      </c>
+      <c r="G104" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية</v>
       </c>
     </row>
     <row r="105">
@@ -2495,19 +2808,22 @@
         <v>6</v>
       </c>
       <c r="B105" t="str">
-        <v>Trading &amp; Development Partnership Co</v>
+        <v>شركة علي حسين اليامي وشريكه للتجارة والمقاولات</v>
       </c>
       <c r="C105" t="str">
-        <v>100003410</v>
+        <v>100003604</v>
       </c>
       <c r="D105" t="str">
-        <v>0112812222</v>
+        <v>138644149</v>
       </c>
       <c r="E105" t="str">
-        <v>amobark@tdpco.com</v>
+        <v>faris@bormangroup.com</v>
       </c>
       <c r="F105" t="str">
-        <v>RIYADH</v>
+        <v/>
+      </c>
+      <c r="G105" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديدات الشبكات,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,التنظيف العام للمباني,التنظيف العام للمباني</v>
       </c>
     </row>
     <row r="106">
@@ -2515,19 +2831,22 @@
         <v>6</v>
       </c>
       <c r="B106" t="str">
-        <v>Electrical Works &amp; Maintenance Company, Branch of Shobokshi Trading &amp; Development Co.</v>
+        <v>شركة السلامة العربية المحدودة</v>
       </c>
       <c r="C106" t="str">
-        <v>10001833</v>
+        <v>10002387</v>
       </c>
       <c r="D106" t="str">
-        <v>0126916655</v>
+        <v>0114792531</v>
       </c>
       <c r="E106" t="str">
-        <v>m.sofy@ewmcom.com</v>
+        <v>office@safety-arabia.com</v>
       </c>
       <c r="F106" t="str">
-        <v>JEDDAH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G106" t="str">
+        <v>الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق</v>
       </c>
     </row>
     <row r="107">
@@ -2535,19 +2854,22 @@
         <v>6</v>
       </c>
       <c r="B107" t="str">
-        <v>Rock and Steel Contracting Company</v>
+        <v>شركة يالين العربية للمقاولات المحدودة</v>
       </c>
       <c r="C107" t="str">
-        <v>10001110</v>
+        <v>10002714</v>
       </c>
       <c r="D107" t="str">
-        <v>0122615392</v>
+        <v/>
       </c>
       <c r="E107" t="str">
-        <v>essa@rockandsteel.com</v>
+        <v>a.mujahed@arabianyalin.com</v>
       </c>
       <c r="F107" t="str">
-        <v>JEDDAH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G107" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
       </c>
     </row>
     <row r="108">
@@ -2555,19 +2877,22 @@
         <v>6</v>
       </c>
       <c r="B108" t="str">
-        <v>Saudi Geo Co</v>
+        <v>مجموعة الذيابي للمقاولات</v>
       </c>
       <c r="C108" t="str">
-        <v>100004802</v>
+        <v>10002269</v>
       </c>
       <c r="D108" t="str">
-        <v>920012320</v>
+        <v>966114561245</v>
       </c>
       <c r="E108" t="str">
-        <v>ehab.eltantawy@saudigeo.com.sa</v>
+        <v>maged@aldeyabi.com</v>
       </c>
       <c r="F108" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G108" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء السدود,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,اكمال المباني وتشطيبها, تشطيب المباني,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام</v>
       </c>
     </row>
     <row r="109">
@@ -2575,19 +2900,22 @@
         <v>6</v>
       </c>
       <c r="B109" t="str">
-        <v>Bait Aljaleed for Maintenance &amp; Operation Company</v>
+        <v>شركة برو فاست المحدودة</v>
       </c>
       <c r="C109" t="str">
-        <v>100006826</v>
+        <v>20003219</v>
       </c>
       <c r="D109" t="str">
-        <v>920001721</v>
+        <v>0114914810</v>
       </c>
       <c r="E109" t="str">
-        <v>alkhadhar.a@gmail.com</v>
+        <v>info@alaaalafaq.com</v>
       </c>
       <c r="F109" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G109" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,تشييد المشاريع الخاصة بالمنافع,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء السدود,إصلاح وصيانة السدود,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني</v>
       </c>
     </row>
     <row r="110">
@@ -2595,19 +2923,22 @@
         <v>6</v>
       </c>
       <c r="B110" t="str">
-        <v>Saudi Spectrum Engineering Company</v>
+        <v>شركة الديكور الذكي للمقاولات</v>
       </c>
       <c r="C110" t="str">
-        <v>403640366</v>
+        <v>100003389</v>
       </c>
       <c r="D110" t="str">
-        <v/>
+        <v>0114531133</v>
       </c>
       <c r="E110" t="str">
-        <v>yalsayeh@sesksa.com</v>
+        <v>smartdesign_i@yahoo.com</v>
       </c>
       <c r="F110" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G110" t="str">
+        <v>أنشطة التشييد المتخصصة ,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,أنشطة أخرى من تركيب الزجاج والمرايا,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها</v>
       </c>
     </row>
     <row r="111">
@@ -2615,19 +2946,22 @@
         <v>6</v>
       </c>
       <c r="B111" t="str">
-        <v>Fawares Al Olaya Contracting Company</v>
+        <v>مؤسسة السهدة للمقاولات</v>
       </c>
       <c r="C111" t="str">
-        <v>100004211</v>
+        <v>20002666</v>
       </c>
       <c r="D111" t="str">
-        <v>0114464626</v>
+        <v/>
       </c>
       <c r="E111" t="str">
-        <v>info@fawares.com.sa</v>
+        <v>info@alsahda.com.sa</v>
       </c>
       <c r="F111" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G111" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,اكمال المباني وتشطيبها, تشطيب المباني,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق</v>
       </c>
     </row>
     <row r="112">
@@ -2635,19 +2969,22 @@
         <v>6</v>
       </c>
       <c r="B112" t="str">
-        <v>Maintenance of Air-conditioning &amp; Refrigeration Company Ltd. (Marco)</v>
+        <v>شركة سبكتروم اينجنيرينغ السعودية</v>
       </c>
       <c r="C112" t="str">
-        <v>10003211</v>
+        <v>403640366</v>
       </c>
       <c r="D112" t="str">
-        <v>0126396611</v>
+        <v/>
       </c>
       <c r="E112" t="str">
-        <v>info@juffalimarco.com</v>
+        <v>yalsayeh@sesksa.com</v>
       </c>
       <c r="F112" t="str">
-        <v>JEDDAH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G112" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تركيب انظمة الاضاءة,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الرخام</v>
       </c>
     </row>
     <row r="113">
@@ -2655,19 +2992,22 @@
         <v>6</v>
       </c>
       <c r="B113" t="str">
-        <v>Alkhorayef Water &amp; Power Technologies Company</v>
+        <v>شركة طالبي للمقاولات</v>
       </c>
       <c r="C113" t="str">
-        <v>10002677</v>
+        <v>200003350</v>
       </c>
       <c r="D113" t="str">
-        <v>0114000612</v>
+        <v>0173340331</v>
       </c>
       <c r="E113" t="str">
-        <v>talsayadi@alkhorayef.com</v>
+        <v>mog.suliman@gmail.com</v>
       </c>
       <c r="F113" t="str">
-        <v>RIYADH</v>
+        <v>صامطة</v>
+      </c>
+      <c r="G113" t="str">
+        <v>أنشطة خدمات دعم التعدين,أنشطة الدعم لاستخراج النفط والغاز الطبيعي,حفر آبار النفط,حفر آبار الغاز الطبيعي,الخدمات المتصلة باستخراج النفط باستثناء خدمات المسح,الخدمات المتصلة باستخراج الغاز الطبيعي باستثناء خدمات المسح,أنشطة أخرى تتعلق بأنشطة الدعم لاستخراج النفط والغاز الطبيعي,أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,تنظيف الشوارع,جمع المواد لإعادة التصنيع,أنشطة أخرى تتعلق بجمع النفايات الغير خطرة,خدمات جمع النفايات البلدية,نقل النفايات الصناعية الغير خطرة,تجميع زيوت الطعام المستخدمة,جمع النفايات الخطرة,جمع النفايات الخطرة للزيوت المستعملة من الشحن أو المرائب,جمع النفايات الخطرة للمواد الخطرة البيولوجية,جمع النفايات الخطرة للبطاريات المستعملة,تشغيل محطات نقل النفايات للنفايات الخطرة,جمع النفايات الخطرة الأخرى,جمع ونقل النفايات الخطرة للزيوت المستعملة من منتجي هذه النفايات,نقل النفايات الطبية الخطرة,جمع ونقل النفايات الناتجة عن أعمال المكافحة والتنظيف للبيئة البحرية والساحلية,نقل النفايات الخطرة,نقل نفايات الاسبستوس,نقل الزيت من واسطة بحرية إلى أخرى داخل عرض البحر أو من مواقع تجميع الزيوت داخل البحر في حالات التلوث,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
       </c>
     </row>
     <row r="114">
@@ -2675,19 +3015,22 @@
         <v>6</v>
       </c>
       <c r="B114" t="str">
-        <v>ِ Almayssan Technical Services Co Ltd</v>
+        <v>فرع مؤسسة امزان للمقاولات</v>
       </c>
       <c r="C114" t="str">
-        <v>100006543</v>
+        <v>100007159</v>
       </c>
       <c r="D114" t="str">
-        <v>0126676251</v>
+        <v>0112731919</v>
       </c>
       <c r="E114" t="str">
-        <v>a.anwar@almayssan.com</v>
+        <v>alassaker2010@yahoo.com</v>
       </c>
       <c r="F114" t="str">
-        <v>JEDDAH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G114" t="str">
+        <v>أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر</v>
       </c>
     </row>
     <row r="115">
@@ -2695,19 +3038,22 @@
         <v>6</v>
       </c>
       <c r="B115" t="str">
-        <v>Eastern Projects Contracting Co. For Building Works</v>
+        <v>شركة اول تصميم للديكور</v>
       </c>
       <c r="C115" t="str">
-        <v>10000106</v>
+        <v>100007486</v>
       </c>
       <c r="D115" t="str">
-        <v/>
+        <v>0114169700</v>
       </c>
       <c r="E115" t="str">
-        <v>sec3@alaligroup.com</v>
+        <v>kab@lepremier.com.sa</v>
       </c>
       <c r="F115" t="str">
-        <v>AL HUFUF</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G115" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات</v>
       </c>
     </row>
     <row r="116">
@@ -2715,19 +3061,22 @@
         <v>6</v>
       </c>
       <c r="B116" t="str">
-        <v>Saad Saeed Al Saadi &amp; Sons Co. for Contracting, Maintenance &amp; Operation</v>
+        <v>شركة هلال مشبب العتيبي للمقاولات</v>
       </c>
       <c r="C116" t="str">
-        <v>10001862</v>
+        <v>100004393</v>
       </c>
       <c r="D116" t="str">
-        <v>5589303</v>
+        <v>0112753219</v>
       </c>
       <c r="E116" t="str">
-        <v>ISS966@HOTMAIL.COM</v>
+        <v>hilalalotaibicorp@gmail.com</v>
       </c>
       <c r="F116" t="str">
-        <v>MAKKAH AL MUKARRAMAH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G116" t="str">
+        <v xml:space="preserve"> لا يوجد بيانات</v>
       </c>
     </row>
     <row r="117">
@@ -2735,19 +3084,22 @@
         <v>6</v>
       </c>
       <c r="B117" t="str">
-        <v>Mofarreh Marzouq Alharbi &amp; Partners Co. Ltd.</v>
+        <v>(شركة صيانة التكييف والتبريد المحدودة (ماركو</v>
       </c>
       <c r="C117" t="str">
-        <v>10001405</v>
+        <v>10003211</v>
       </c>
       <c r="D117" t="str">
-        <v/>
+        <v>0126396611</v>
       </c>
       <c r="E117" t="str">
-        <v>ghazi@harbico.com</v>
+        <v>info@juffalimarco.com</v>
       </c>
       <c r="F117" t="str">
-        <v>SAFWA</v>
+        <v>جدة</v>
+      </c>
+      <c r="G117" t="str">
+        <v>أنشطة التشييد المتخصصة ,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني</v>
       </c>
     </row>
     <row r="118">
@@ -2755,19 +3107,22 @@
         <v>6</v>
       </c>
       <c r="B118" t="str">
-        <v>Saudi Media Systems Co</v>
+        <v>شركة الواجهة المعمارية للمقاولات</v>
       </c>
       <c r="C118" t="str">
-        <v>100006342</v>
+        <v>100006049</v>
       </c>
       <c r="D118" t="str">
-        <v>0114191939</v>
+        <v>920009727</v>
       </c>
       <c r="E118" t="str">
-        <v>khumadi@smediasys.com</v>
+        <v>k.almhfouth@levels-re.com</v>
       </c>
       <c r="F118" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G118" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها</v>
       </c>
     </row>
     <row r="119">
@@ -2775,19 +3130,22 @@
         <v>6</v>
       </c>
       <c r="B119" t="str">
-        <v>National Computer Systems Company</v>
+        <v>شركة سفر للتجارة و المقاولات</v>
       </c>
       <c r="C119" t="str">
-        <v>100006355</v>
+        <v>10001562</v>
       </c>
       <c r="D119" t="str">
-        <v>0126444777</v>
+        <v>594132685</v>
       </c>
       <c r="E119" t="str">
-        <v>hassan.jamman@natcom.com.sa</v>
+        <v>saffar515@yahoo.com</v>
       </c>
       <c r="F119" t="str">
-        <v>JEDDAH</v>
+        <v>مكة المكرمة</v>
+      </c>
+      <c r="G119" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء السدود,أنشطة التشييد المتخصصة ,الهدم,أنشطة أخرى من الهدم,تحضير الموقع,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديدات الشبكات,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية ارضيات بانواع اخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال أخرى من أعمال تركيب الطابوق والصخور,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها</v>
       </c>
     </row>
     <row r="120">
@@ -2795,19 +3153,22 @@
         <v>6</v>
       </c>
       <c r="B120" t="str">
-        <v>Branch of Amazan Contracting Est.</v>
+        <v>فرع شركة ايه جيه كوربوريشن</v>
       </c>
       <c r="C120" t="str">
-        <v>100007159</v>
+        <v>200003781</v>
       </c>
       <c r="D120" t="str">
-        <v>0112731919</v>
+        <v>966138288365</v>
       </c>
       <c r="E120" t="str">
-        <v>alassaker2010@yahoo.com</v>
+        <v>jibreel@ajcengg.pk</v>
       </c>
       <c r="F120" t="str">
-        <v>RIYADH</v>
+        <v>الدمام</v>
+      </c>
+      <c r="G120" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر</v>
       </c>
     </row>
     <row r="121">
@@ -2815,19 +3176,22 @@
         <v>6</v>
       </c>
       <c r="B121" t="str">
-        <v>Deep Ocean Contracting Company</v>
+        <v>شركة الراجحي للبناء و التعمير</v>
       </c>
       <c r="C121" t="str">
-        <v>10002099</v>
+        <v>100005210</v>
       </c>
       <c r="D121" t="str">
-        <v>0112915204</v>
+        <v>96612982272</v>
       </c>
       <c r="E121" t="str">
-        <v>info@thedeepocean.com.sa</v>
+        <v>info@alrajhi-co.sa</v>
       </c>
       <c r="F121" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G121" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تركيب الأثاث</v>
       </c>
     </row>
     <row r="122">
@@ -2835,19 +3199,22 @@
         <v>7</v>
       </c>
       <c r="B122" t="str">
-        <v>Alhejaz Horizon Ltd. Company</v>
+        <v>الشركة العالمية للصناعات الحديثة</v>
       </c>
       <c r="C122" t="str">
-        <v>100006812</v>
+        <v>10001505</v>
       </c>
       <c r="D122" t="str">
-        <v>125495533</v>
+        <v/>
       </c>
       <c r="E122" t="str">
-        <v>alhejazhorizon@hotmail.com</v>
+        <v>gm@ifmi.com.sa</v>
       </c>
       <c r="F122" t="str">
-        <v>MAKKAH AL MUKARRAMAH</v>
+        <v>جدة</v>
+      </c>
+      <c r="G122" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات الكمبيوتر والاتصالات,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,أنشطة التشييد المتخصصة الأخرى,تأجير معدات التشييد والبناء مع مشغل,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني,التنظيف العام للمباني,التنظيف العام للمباني,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام</v>
       </c>
     </row>
     <row r="123">
@@ -2855,19 +3222,22 @@
         <v>7</v>
       </c>
       <c r="B123" t="str">
-        <v>Maqasim Company Limited</v>
+        <v>شركة علي حسين اليامي وشريكه للتجارة والمقاولات</v>
       </c>
       <c r="C123" t="str">
-        <v>100004818</v>
+        <v>100003604</v>
       </c>
       <c r="D123" t="str">
-        <v>0096626424242</v>
+        <v>138644149</v>
       </c>
       <c r="E123" t="str">
-        <v>hsan2000@hotmail.com</v>
+        <v>faris@bormangroup.com</v>
       </c>
       <c r="F123" t="str">
-        <v>JEDDAH</v>
+        <v/>
+      </c>
+      <c r="G123" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديدات الشبكات,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,التنظيف العام للمباني,التنظيف العام للمباني</v>
       </c>
     </row>
     <row r="124">
@@ -2875,19 +3245,22 @@
         <v>7</v>
       </c>
       <c r="B124" t="str">
-        <v>Basmt Laith for Contracting</v>
+        <v>شركة ممان الشرقية للتجارة والمقاولات</v>
       </c>
       <c r="C124" t="str">
-        <v>10002385</v>
+        <v>100004622</v>
       </c>
       <c r="D124" t="str">
-        <v/>
+        <v>00966920003418</v>
       </c>
       <c r="E124" t="str">
-        <v>basmt8@gmail.com</v>
+        <v>CEO@MMANCO.COM</v>
       </c>
       <c r="F124" t="str">
-        <v>AL LITH</v>
+        <v>الجبيل</v>
+      </c>
+      <c r="G124" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي</v>
       </c>
     </row>
     <row r="125">
@@ -2895,19 +3268,22 @@
         <v>7</v>
       </c>
       <c r="B125" t="str">
-        <v>Hadi Haider Alyami Company General Cont. &amp; Trading</v>
+        <v>شركة شبكة الطرق للمقاولات</v>
       </c>
       <c r="C125" t="str">
-        <v>10003081</v>
+        <v>100003805</v>
       </c>
       <c r="D125" t="str">
-        <v>00966136680002</v>
+        <v>0112066662</v>
       </c>
       <c r="E125" t="str">
-        <v>info@hadihaider.com</v>
+        <v>road_net@ymail.com</v>
       </c>
       <c r="F125" t="str">
-        <v>RAS TANNURAH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G125" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,التنظيف العام للمباني,التنظيف العام للمباني</v>
       </c>
     </row>
     <row r="126">
@@ -2915,19 +3291,22 @@
         <v>7</v>
       </c>
       <c r="B126" t="str">
-        <v>Al-Rawaf Contracting Co.</v>
+        <v>شركة بلت الصناعية</v>
       </c>
       <c r="C126" t="str">
-        <v>10001197</v>
+        <v>10003183</v>
       </c>
       <c r="D126" t="str">
-        <v>163234440</v>
+        <v>2252877000</v>
       </c>
       <c r="E126" t="str">
-        <v>RIMOSONG2000@YAHOO.COM</v>
+        <v>msaber@labab.com.sa</v>
       </c>
       <c r="F126" t="str">
-        <v>BURAYDAH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G126" t="str">
+        <v>أنشطة خدمات دعم التعدين,أنشطة الدعم لاستخراج النفط والغاز الطبيعي,حفر آبار النفط,حفر آبار الغاز الطبيعي,الخدمات المتصلة باستخراج النفط باستثناء خدمات المسح,الخدمات المتصلة باستخراج الغاز الطبيعي باستثناء خدمات المسح,أنشطة أخرى تتعلق بأنشطة الدعم لاستخراج النفط والغاز الطبيعي,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق</v>
       </c>
     </row>
     <row r="127">
@@ -2935,19 +3314,22 @@
         <v>7</v>
       </c>
       <c r="B127" t="str">
-        <v>Raissy Trading &amp; Contracting Co. Ltd.</v>
+        <v>شركة امتياز العروبة</v>
       </c>
       <c r="C127" t="str">
-        <v>100005079</v>
+        <v>100003545</v>
       </c>
       <c r="D127" t="str">
-        <v>966114977977</v>
+        <v>00966530188346</v>
       </c>
       <c r="E127" t="str">
-        <v>AHMAD@RAISSY.COM.SA</v>
+        <v>falehalwadani@hotmail.com</v>
       </c>
       <c r="F127" t="str">
-        <v>RIYADH</v>
+        <v>الزلفي</v>
+      </c>
+      <c r="G127" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,التركيبات الكهربائية الأخرى</v>
       </c>
     </row>
     <row r="128">
@@ -2955,19 +3337,22 @@
         <v>7</v>
       </c>
       <c r="B128" t="str">
-        <v>Bakri Ahmed Hassan Al Saab Contracting Company</v>
+        <v>الشركة السعودية للحاسبات الالكترونية</v>
       </c>
       <c r="C128" t="str">
-        <v>10002598</v>
+        <v>10003104</v>
       </c>
       <c r="D128" t="str">
-        <v>0172279800</v>
+        <v/>
       </c>
       <c r="E128" t="str">
-        <v>h.bakkri@gmail.com</v>
+        <v>snaif@sbm.com.sa</v>
       </c>
       <c r="F128" t="str">
-        <v>MUHAYIL</v>
+        <v>جدة</v>
+      </c>
+      <c r="G128" t="str">
+        <v>الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها</v>
       </c>
     </row>
     <row r="129">
@@ -2975,19 +3360,22 @@
         <v>7</v>
       </c>
       <c r="B129" t="str">
-        <v>JAC Saudi Contracting Company</v>
+        <v>مؤسسه دار الشبكات العربيه للمقاولات</v>
       </c>
       <c r="C129" t="str">
-        <v>100006974</v>
+        <v>100003578</v>
       </c>
       <c r="D129" t="str">
-        <v/>
+        <v>966114968932</v>
       </c>
       <c r="E129" t="str">
-        <v>mesholif@yahoo.com</v>
+        <v>Arabnet@arabnet-ksa.com</v>
       </c>
       <c r="F129" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G129" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تركيب انظمة انذار الحريق,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تركيبات إنشائية أخرى,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء</v>
       </c>
     </row>
     <row r="130">
@@ -2995,19 +3383,22 @@
         <v>7</v>
       </c>
       <c r="B130" t="str">
-        <v>Albabtain Contracting Company</v>
+        <v>شركة كوماتيك العربية السعودية المحدودة</v>
       </c>
       <c r="C130" t="str">
-        <v>10001767</v>
+        <v>100004492</v>
       </c>
       <c r="D130" t="str">
-        <v/>
+        <v>00966114161901</v>
       </c>
       <c r="E130" t="str">
-        <v>naif@abc.sa.com</v>
+        <v>bashir.alshamemi@comatec.com.sa</v>
       </c>
       <c r="F130" t="str">
-        <v>DAMMAM</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G130" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
       </c>
     </row>
     <row r="131">
@@ -3015,19 +3406,22 @@
         <v>7</v>
       </c>
       <c r="B131" t="str">
-        <v>Saudi Architecture Art Maintenance Co. Ltd</v>
+        <v>شركة مقاسم المحدودة</v>
       </c>
       <c r="C131" t="str">
-        <v>100004618</v>
+        <v>100004818</v>
       </c>
       <c r="D131" t="str">
-        <v>966114041919</v>
+        <v>0096626424242</v>
       </c>
       <c r="E131" t="str">
-        <v>bids@buildingtek.com</v>
+        <v>hsan2000@hotmail.com</v>
       </c>
       <c r="F131" t="str">
-        <v>RIYADH</v>
+        <v>جدة</v>
+      </c>
+      <c r="G131" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيبات إنشائية أخرى,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,اكمال المباني وتشطيبها, تشطيب المباني,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,أنشطة تنظيف الطرق</v>
       </c>
     </row>
     <row r="132">
@@ -3035,19 +3429,22 @@
         <v>7</v>
       </c>
       <c r="B132" t="str">
-        <v>ِ Almayssan Technical Services Co Ltd</v>
+        <v>شركة كفو للخدمات الفنية المحدودة</v>
       </c>
       <c r="C132" t="str">
-        <v>100006543</v>
+        <v>100004499</v>
       </c>
       <c r="D132" t="str">
-        <v>0126676251</v>
+        <v>00966138825067</v>
       </c>
       <c r="E132" t="str">
-        <v>a.anwar@almayssan.com</v>
+        <v>rashed@ktsco.com.sa</v>
       </c>
       <c r="F132" t="str">
-        <v>JEDDAH</v>
+        <v>الخبر</v>
+      </c>
+      <c r="G132" t="str">
+        <v>الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة مانعه الصواعق,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,أنشطة تنظيف الآلات والمعدات الصناعية</v>
       </c>
     </row>
     <row r="133">
@@ -3055,19 +3452,22 @@
         <v>7</v>
       </c>
       <c r="B133" t="str">
-        <v>Hamsat Almaseef Contracting Est</v>
+        <v>شركة الماء الاحمر لهندسة المشاريع</v>
       </c>
       <c r="C133" t="str">
-        <v>10001546</v>
+        <v>10001191</v>
       </c>
       <c r="D133" t="str">
-        <v>01129144</v>
+        <v/>
       </c>
       <c r="E133" t="str">
-        <v>HAMSATALMASEEF@HOTMAIL.COM</v>
+        <v>awad@redwater.sa</v>
       </c>
       <c r="F133" t="str">
-        <v>RIYADH</v>
+        <v/>
+      </c>
+      <c r="G133" t="str">
+        <v>أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة</v>
       </c>
     </row>
     <row r="134">
@@ -3075,19 +3475,22 @@
         <v>7</v>
       </c>
       <c r="B134" t="str">
-        <v>Safety Triangle Company for General Contracting</v>
+        <v>شركة الرواد الفنيه للتجارة والمقاولات العامة المحدودة</v>
       </c>
       <c r="C134" t="str">
-        <v>10001974</v>
+        <v>100003917</v>
       </c>
       <c r="D134" t="str">
-        <v/>
+        <v>0126648565</v>
       </c>
       <c r="E134" t="str">
-        <v>talal@safetytriangle.com.sa</v>
+        <v>TAWFIQ@PT-TGC.COM</v>
       </c>
       <c r="F134" t="str">
-        <v>ABHA</v>
+        <v>جدة</v>
+      </c>
+      <c r="G134" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
       </c>
     </row>
     <row r="135">
@@ -3095,19 +3498,22 @@
         <v>7</v>
       </c>
       <c r="B135" t="str">
-        <v>Sama Al-afaq for Trading and Contracting Ltd.</v>
+        <v>مؤسسة أساليب للمقاولات</v>
       </c>
       <c r="C135" t="str">
-        <v>10002438</v>
+        <v>100006924</v>
       </c>
       <c r="D135" t="str">
-        <v>0146521444</v>
+        <v>112929300</v>
       </c>
       <c r="E135" t="str">
-        <v>samaalafaq@hotmail.com</v>
+        <v>aziz@almousa.com</v>
       </c>
       <c r="F135" t="str">
-        <v>TURAIF</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G135" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
       </c>
     </row>
     <row r="136">
@@ -3115,19 +3521,22 @@
         <v>7</v>
       </c>
       <c r="B136" t="str">
-        <v>Dar Alshabakat Alarabia Contracting Est.</v>
+        <v>شركة أضواء العاصمة للكهروميكانيكا</v>
       </c>
       <c r="C136" t="str">
-        <v>100003578</v>
+        <v>10001074</v>
       </c>
       <c r="D136" t="str">
-        <v>966114968932</v>
+        <v>00966114707002</v>
       </c>
       <c r="E136" t="str">
-        <v>Arabnet@arabnet-ksa.com</v>
+        <v>clc967@gmail.com</v>
       </c>
       <c r="F136" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G136" t="str">
+        <v>الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديدات الشبكات,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيبات إنشائية أخرى,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني</v>
       </c>
     </row>
     <row r="137">
@@ -3135,19 +3544,22 @@
         <v>7</v>
       </c>
       <c r="B137" t="str">
-        <v>Albawani Co. Ltd.</v>
+        <v>شركة التعمير والإنشاء المحدودة</v>
       </c>
       <c r="C137" t="str">
-        <v>10001023</v>
+        <v>10003238</v>
       </c>
       <c r="D137" t="str">
-        <v/>
+        <v>0138612223</v>
       </c>
       <c r="E137" t="str">
-        <v>majed.aljaffar@albawani.net</v>
+        <v>info@bcc-sa.com</v>
       </c>
       <c r="F137" t="str">
-        <v>DAMMAM</v>
+        <v>الخبر</v>
+      </c>
+      <c r="G137" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية</v>
       </c>
     </row>
     <row r="138">
@@ -3155,19 +3567,22 @@
         <v>7</v>
       </c>
       <c r="B138" t="str">
-        <v>Mebrick Masoud Al-Khamisi Contracting Company is a one-person company</v>
+        <v>مؤسسة خلف المحيط للمقاولات</v>
       </c>
       <c r="C138" t="str">
-        <v>10002323</v>
+        <v>100007302</v>
       </c>
       <c r="D138" t="str">
-        <v>0126280049</v>
+        <v>0173224303</v>
       </c>
       <c r="E138" t="str">
-        <v>mebarek99@gmail.com</v>
+        <v>khalfalmoheet@gmail.com</v>
       </c>
       <c r="F138" t="str">
-        <v>JEDDAH</v>
+        <v>فيفاء</v>
+      </c>
+      <c r="G138" t="str">
+        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,تنظيف الشوارع,أنشطة أخرى تتعلق بجمع النفايات الغير خطرة,خدمات جمع النفايات البلدية,نقل النفايات الصناعية الغير خطرة,أنشطة التشييد المتخصصة ,تحضير الموقع,سحب المياه الجوفية وتجفيف المواقع</v>
       </c>
     </row>
     <row r="139">
@@ -3175,19 +3590,22 @@
         <v>7</v>
       </c>
       <c r="B139" t="str">
-        <v>Nesma &amp; Partners Contracting Company Ltd.</v>
+        <v>شركة تراث المشرق للمقاولات</v>
       </c>
       <c r="C139" t="str">
-        <v>10001763</v>
+        <v>1000020000104</v>
       </c>
       <c r="D139" t="str">
-        <v>0138519000</v>
+        <v>011660114</v>
       </c>
       <c r="E139" t="str">
-        <v>bd@nesmapartners.com</v>
+        <v>turath.almashrq@gmail.com</v>
       </c>
       <c r="F139" t="str">
-        <v>AL KHOBAR</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G139" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,اكمال المباني وتشطيبها, تشطيب المباني</v>
       </c>
     </row>
     <row r="140">
@@ -3195,19 +3613,22 @@
         <v>7</v>
       </c>
       <c r="B140" t="str">
-        <v>Saudi Sicli Company</v>
+        <v>شركة أس جي أس لخدمات الفحص العربية السعودية المحدودة</v>
       </c>
       <c r="C140" t="str">
-        <v>10001887</v>
+        <v>30001683</v>
       </c>
       <c r="D140" t="str">
-        <v>0126355252</v>
+        <v>96613400044</v>
       </c>
       <c r="E140" t="str">
-        <v>ahmad@saudisicli.com.sa</v>
+        <v>abdulaziz.alansari@sgs.com</v>
       </c>
       <c r="F140" t="str">
-        <v>JEDDAH</v>
+        <v>الجبيل</v>
+      </c>
+      <c r="G140" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),إنشاءات المباني الجاهزة في المواقع</v>
       </c>
     </row>
     <row r="141">
@@ -3215,19 +3636,22 @@
         <v>7</v>
       </c>
       <c r="B141" t="str">
-        <v>Abdulmohsen Aljasser Contracting Company</v>
+        <v>مؤسسة الحاضرة للمقاولات العامة</v>
       </c>
       <c r="C141" t="str">
-        <v>100004498</v>
+        <v>465046504</v>
       </c>
       <c r="D141" t="str">
-        <v>0112770000</v>
+        <v>0138126969</v>
       </c>
       <c r="E141" t="str">
-        <v>aljaser_contrat@yahoo.com</v>
+        <v>alkhruaim@yahoo.com</v>
       </c>
       <c r="F141" t="str">
-        <v>RIYADH</v>
+        <v>صفوى</v>
+      </c>
+      <c r="G141" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني</v>
       </c>
     </row>
     <row r="142">
@@ -3235,7 +3659,7 @@
         <v>8</v>
       </c>
       <c r="B142" t="str">
-        <v>Alosais Contracting Company</v>
+        <v>شركة العسيس للمقاولات</v>
       </c>
       <c r="C142" t="str">
         <v>100004776</v>
@@ -3247,7 +3671,10 @@
         <v>Sec.yousef@osais.com</v>
       </c>
       <c r="F142" t="str">
-        <v>DAMMAM</v>
+        <v>الدمام</v>
+      </c>
+      <c r="G142" t="str">
+        <v>أنشطة خدمات دعم التعدين,أنشطة الدعم لاستخراج النفط والغاز الطبيعي,حفر آبار النفط,حفر آبار الغاز الطبيعي,الخدمات المتصلة باستخراج النفط باستثناء خدمات المسح,الخدمات المتصلة باستخراج الغاز الطبيعي باستثناء خدمات المسح,أنشطة أخرى تتعلق بأنشطة الدعم لاستخراج النفط والغاز الطبيعي,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
       </c>
     </row>
     <row r="143">
@@ -3255,19 +3682,22 @@
         <v>8</v>
       </c>
       <c r="B143" t="str">
-        <v>Mishraf Al Madain Contracting Company</v>
+        <v>مؤسسة اسامة بن زيد ازرق</v>
       </c>
       <c r="C143" t="str">
-        <v>10002938</v>
+        <v>10001089</v>
       </c>
       <c r="D143" t="str">
-        <v>920003237</v>
+        <v>0125240222</v>
       </c>
       <c r="E143" t="str">
-        <v>mhamd-alm@msn.com</v>
+        <v>osamaazraq@hotmail.com</v>
       </c>
       <c r="F143" t="str">
-        <v>RIYADH</v>
+        <v>مكة المكرمة</v>
+      </c>
+      <c r="G143" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تركيبات إنشائية أخرى,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني,أنشطة خدمات التنظيف للمباني الحكومية</v>
       </c>
     </row>
     <row r="144">
@@ -3275,19 +3705,22 @@
         <v>8</v>
       </c>
       <c r="B144" t="str">
-        <v>Alkhorayef Water &amp; Power Technologies Company</v>
+        <v>شركة المحيط العميق للمقاولات</v>
       </c>
       <c r="C144" t="str">
-        <v>10002677</v>
+        <v>10002099</v>
       </c>
       <c r="D144" t="str">
-        <v>0114000612</v>
+        <v>0112915204</v>
       </c>
       <c r="E144" t="str">
-        <v>talsayadi@alkhorayef.com</v>
+        <v>info@thedeepocean.com.sa</v>
       </c>
       <c r="F144" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G144" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيبات إنشائية أخرى,تركيب وصيانة أجهزة ومعدات الإطفاء,أنشطة تقديم الخدمات للمباني وتجميل المواقع,التنظيف العام للمباني,التنظيف العام للمباني</v>
       </c>
     </row>
     <row r="145">
@@ -3295,19 +3728,22 @@
         <v>8</v>
       </c>
       <c r="B145" t="str">
-        <v>SGS Inspection Services Saudi Arabia Company Ltd</v>
+        <v>شركة الانظمة المتقدمة للمشاريع المحدودة</v>
       </c>
       <c r="C145" t="str">
-        <v>30001683</v>
+        <v>10001198</v>
       </c>
       <c r="D145" t="str">
-        <v>96613400044</v>
+        <v>00966114443535</v>
       </c>
       <c r="E145" t="str">
-        <v>abdulaziz.alansari@sgs.com</v>
+        <v>ats@atsc-sa.com</v>
       </c>
       <c r="F145" t="str">
-        <v>AL JUBAIL</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G145" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور</v>
       </c>
     </row>
     <row r="146">
@@ -3315,19 +3751,22 @@
         <v>8</v>
       </c>
       <c r="B146" t="str">
-        <v>Branch of Alriyadah Investments Company Ltd.</v>
+        <v>شركة أزدة للمقاولات</v>
       </c>
       <c r="C146" t="str">
-        <v>100006953</v>
+        <v>200003903</v>
       </c>
       <c r="D146" t="str">
-        <v>0126112333</v>
+        <v>0112912621</v>
       </c>
       <c r="E146" t="str">
-        <v>sabudawood@arabian-power.com</v>
+        <v>admin@azdah.com</v>
       </c>
       <c r="F146" t="str">
-        <v>JEDDAH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G146" t="str">
+        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,تنظيف الشوارع,جمع المواد لإعادة التصنيع,أنشطة أخرى تتعلق بجمع النفايات الغير خطرة,خدمات جمع النفايات البلدية,نقل النفايات الصناعية الغير خطرة,تجميع زيوت الطعام المستخدمة,جمع النفايات الخطرة,جمع النفايات الخطرة للزيوت المستعملة من الشحن أو المرائب,جمع النفايات الخطرة للمواد الخطرة البيولوجية,جمع النفايات الخطرة للبطاريات المستعملة,تشغيل محطات نقل النفايات للنفايات الخطرة,جمع النفايات الخطرة الأخرى,جمع ونقل النفايات الخطرة للزيوت المستعملة من منتجي هذه النفايات,نقل النفايات الطبية الخطرة,جمع ونقل النفايات الناتجة عن أعمال المكافحة والتنظيف للبيئة البحرية والساحلية,نقل النفايات الخطرة,نقل نفايات الاسبستوس,نقل الزيت من واسطة بحرية إلى أخرى داخل عرض البحر أو من مواقع تجميع الزيوت داخل البحر في حالات التلوث,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء السدود,إنشاء كاسرات الأمواج والحماية للأرصفة,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة</v>
       </c>
     </row>
     <row r="147">
@@ -3335,19 +3774,22 @@
         <v>8</v>
       </c>
       <c r="B147" t="str">
-        <v>Source Machinery Company for Trading Contracting LTD</v>
+        <v>شركة سعد سعيد الصاعدي واولاده للمقاولات والصيانه والتشغيل التضامنية</v>
       </c>
       <c r="C147" t="str">
-        <v>10000738</v>
+        <v>10001862</v>
       </c>
       <c r="D147" t="str">
-        <v>966114767667</v>
+        <v>5589303</v>
       </c>
       <c r="E147" t="str">
-        <v>info@source-machinery.com</v>
+        <v>ISS966@HOTMAIL.COM</v>
       </c>
       <c r="F147" t="str">
-        <v>RIYADH</v>
+        <v>مكة المكرمة</v>
+      </c>
+      <c r="G147" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء السدود,أنشطة التشييد المتخصصة ,تركيبات إنشائية أخرى,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا</v>
       </c>
     </row>
     <row r="148">
@@ -3355,19 +3797,22 @@
         <v>8</v>
       </c>
       <c r="B148" t="str">
-        <v>Diamond Contractors Union Company for General Contracting</v>
+        <v>شركة العميل المحدوده</v>
       </c>
       <c r="C148" t="str">
-        <v>10001111</v>
+        <v>10001985</v>
       </c>
       <c r="D148" t="str">
-        <v>0122502860</v>
+        <v/>
       </c>
       <c r="E148" t="str">
-        <v>admin@udc-sa.com</v>
+        <v>info@al-ameel.com</v>
       </c>
       <c r="F148" t="str">
-        <v>JEDDAH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G148" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,اكمال المباني وتشطيبها, تشطيب المباني,تركيب السيراميك والكاشي,تركيب الرخام,تغطية الارضيات خشب الباركيه,أعمال وتركيب الديكورات,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء</v>
       </c>
     </row>
     <row r="149">
@@ -3375,19 +3820,22 @@
         <v>8</v>
       </c>
       <c r="B149" t="str">
-        <v>Depth Construction Contracting Company</v>
+        <v>شركة مركز اتجاه الحريق المحدودة</v>
       </c>
       <c r="C149" t="str">
-        <v>10000785</v>
+        <v>100006246</v>
       </c>
       <c r="D149" t="str">
-        <v>0500005436</v>
+        <v>966138123579</v>
       </c>
       <c r="E149" t="str">
-        <v>m.harbi@thedepthco.com</v>
+        <v>firedirect@firedirect.org</v>
       </c>
       <c r="F149" t="str">
-        <v>RIYADH</v>
+        <v>الدمام</v>
+      </c>
+      <c r="G149" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تركيب انظمة انذار الحريق,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق</v>
       </c>
     </row>
     <row r="150">
@@ -3395,19 +3843,22 @@
         <v>8</v>
       </c>
       <c r="B150" t="str">
-        <v>Arch Company for Technical Development</v>
+        <v>شركة بن دلامة للمقاولات</v>
       </c>
       <c r="C150" t="str">
-        <v>100006571</v>
+        <v>10001161</v>
       </c>
       <c r="D150" t="str">
-        <v>0114772400</v>
+        <v>0136680668</v>
       </c>
       <c r="E150" t="str">
-        <v>ahmad@al-kaws.com</v>
+        <v>mail@bindelamah.com</v>
       </c>
       <c r="F150" t="str">
-        <v>RIYADH</v>
+        <v>راس تنورة</v>
+      </c>
+      <c r="G150" t="str">
+        <v xml:space="preserve"> لا يوجد بيانات</v>
       </c>
     </row>
     <row r="151">
@@ -3415,19 +3866,22 @@
         <v>8</v>
       </c>
       <c r="B151" t="str">
-        <v>Concrete Technology Contracting Company</v>
+        <v>شركة روابي للمقاولات المتخصصة</v>
       </c>
       <c r="C151" t="str">
-        <v>100003782</v>
+        <v>10001412</v>
       </c>
       <c r="D151" t="str">
-        <v>00966539391916</v>
+        <v>0559802628</v>
       </c>
       <c r="E151" t="str">
-        <v>conc-tech@hotmail.com</v>
+        <v>info@rscc.com.sa</v>
       </c>
       <c r="F151" t="str">
-        <v>RIYADH</v>
+        <v>الخبر</v>
+      </c>
+      <c r="G151" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني</v>
       </c>
     </row>
     <row r="152">
@@ -3435,19 +3889,22 @@
         <v>8</v>
       </c>
       <c r="B152" t="str">
-        <v>MHI-AP Saudi Arabia Co. Ltd</v>
+        <v>شركة تشييد المساكن للمقاولات</v>
       </c>
       <c r="C152" t="str">
-        <v>100005345</v>
+        <v>10001419</v>
       </c>
       <c r="D152" t="str">
-        <v>0133581112</v>
+        <v/>
       </c>
       <c r="E152" t="str">
-        <v>ali.almabooq.ns@mhi.com</v>
+        <v>tassheedalmsaken@gmail.com</v>
       </c>
       <c r="F152" t="str">
-        <v>AL JUBAIL</v>
+        <v>حائل</v>
+      </c>
+      <c r="G152" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تركيب انظمة الاضاءة,اكمال المباني وتشطيبها, تشطيب المباني,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,التنظيف العام للمباني,التنظيف العام للمباني,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها</v>
       </c>
     </row>
     <row r="153">
@@ -3455,19 +3912,22 @@
         <v>8</v>
       </c>
       <c r="B153" t="str">
-        <v>Dera'a Altatweer Trading Company</v>
+        <v>شركة كيان المملكة كاك المحدودة</v>
       </c>
       <c r="C153" t="str">
-        <v>100003470</v>
+        <v>100009685</v>
       </c>
       <c r="D153" t="str">
-        <v>920019019</v>
+        <v>26514999</v>
       </c>
       <c r="E153" t="str">
-        <v>aymen@armis.com.sa</v>
+        <v>alharthyahmad@yahoo.com</v>
       </c>
       <c r="F153" t="str">
-        <v>RIYADH</v>
+        <v>جدة</v>
+      </c>
+      <c r="G153" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
       </c>
     </row>
     <row r="154">
@@ -3475,19 +3935,22 @@
         <v>8</v>
       </c>
       <c r="B154" t="str">
-        <v>Bin Omaira Contracting Company LTD.</v>
+        <v>شركة أحمد ناصر البنعلى وأولاده للتجارة والمقاولات</v>
       </c>
       <c r="C154" t="str">
-        <v>10001055</v>
+        <v>10000846</v>
       </c>
       <c r="D154" t="str">
-        <v>966114536062</v>
+        <v>0138595555</v>
       </c>
       <c r="E154" t="str">
-        <v>ssd@binomairah.com</v>
+        <v>nalbinali@albinali.com</v>
       </c>
       <c r="F154" t="str">
-        <v>RIYADH</v>
+        <v>الظهران</v>
+      </c>
+      <c r="G154" t="str">
+        <v>الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية</v>
       </c>
     </row>
     <row r="155">
@@ -3495,19 +3958,22 @@
         <v>8</v>
       </c>
       <c r="B155" t="str">
-        <v>Al Muzain Gulf Saudi Contracting Company</v>
+        <v>شركة بكري أحمد حسن آل صعب للمقاولات</v>
       </c>
       <c r="C155" t="str">
-        <v>100006679</v>
+        <v>10002598</v>
       </c>
       <c r="D155" t="str">
-        <v>966133404200</v>
+        <v>0172279800</v>
       </c>
       <c r="E155" t="str">
-        <v>info@almuzain.com</v>
+        <v>h.bakkri@gmail.com</v>
       </c>
       <c r="F155" t="str">
-        <v>AL JUBAIL</v>
+        <v>محايل</v>
+      </c>
+      <c r="G155" t="str">
+        <v xml:space="preserve"> لا يوجد بيانات</v>
       </c>
     </row>
     <row r="156">
@@ -3515,19 +3981,22 @@
         <v>8</v>
       </c>
       <c r="B156" t="str">
-        <v>Development Way Contracting Co</v>
+        <v>شركة انساب للمقاولات العامة</v>
       </c>
       <c r="C156" t="str">
-        <v>130413048</v>
+        <v>100005137</v>
       </c>
       <c r="D156" t="str">
-        <v>0126499939</v>
+        <v>966599000677</v>
       </c>
       <c r="E156" t="str">
-        <v>meshari.alsaiby@dmco.sa</v>
+        <v>n.hashem@ansab.com.sa</v>
       </c>
       <c r="F156" t="str">
-        <v>JEDDAH</v>
+        <v>الخبر</v>
+      </c>
+      <c r="G156" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
       </c>
     </row>
     <row r="157">
@@ -3535,19 +4004,22 @@
         <v>8</v>
       </c>
       <c r="B157" t="str">
-        <v>Branch of National Power Construction Corporation Ltd.</v>
+        <v>شركة شلفا لإدارة المرافق</v>
       </c>
       <c r="C157" t="str">
-        <v>200006257</v>
+        <v>100003616</v>
       </c>
       <c r="D157" t="str">
-        <v>966126132073</v>
+        <v>0114538155</v>
       </c>
       <c r="E157" t="str">
-        <v>npcc@npcc.com.sa</v>
+        <v>f.albrahim@shalfaintl.com.sa</v>
       </c>
       <c r="F157" t="str">
-        <v>JEDDAH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G157" t="str">
+        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,تنظيف الشوارع,جمع المواد لإعادة التصنيع,أنشطة أخرى تتعلق بجمع النفايات الغير خطرة,خدمات جمع النفايات البلدية,جمع النفايات الخطرة,جمع النفايات الخطرة للزيوت المستعملة من الشحن أو المرائب,جمع النفايات الخطرة للمواد الخطرة البيولوجية,جمع النفايات الخطرة للبطاريات المستعملة,تشغيل محطات نقل النفايات للنفايات الخطرة,جمع النفايات الخطرة الأخرى,جمع ونقل النفايات الناتجة عن أعمال المكافحة والتنظيف للبيئة البحرية والساحلية,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها</v>
       </c>
     </row>
     <row r="158">
@@ -3555,19 +4027,22 @@
         <v>8</v>
       </c>
       <c r="B158" t="str">
-        <v>National Water Works Company</v>
+        <v>شركة تترى لتقنية المعلومات</v>
       </c>
       <c r="C158" t="str">
-        <v>100004251</v>
+        <v>100006635</v>
       </c>
       <c r="D158" t="str">
-        <v>00966112088558</v>
+        <v>00966920004794</v>
       </c>
       <c r="E158" t="str">
-        <v>info@nwwc.com.sa</v>
+        <v>tatra@tatrait.com</v>
       </c>
       <c r="F158" t="str">
-        <v>RIYADH</v>
+        <v>الدمام</v>
+      </c>
+      <c r="G158" t="str">
+        <v>أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة انذار السرقة</v>
       </c>
     </row>
     <row r="159">
@@ -3575,19 +4050,22 @@
         <v>8</v>
       </c>
       <c r="B159" t="str">
-        <v>Rawnaq Al-Amar Contracting Company</v>
+        <v>شركة الظلال العربية للتجارة والمقاولات</v>
       </c>
       <c r="C159" t="str">
-        <v>100005891</v>
+        <v>100004520</v>
       </c>
       <c r="D159" t="str">
-        <v>0173250041</v>
+        <v>920008799</v>
       </c>
       <c r="E159" t="str">
-        <v>a7med.alajami@gmail.com</v>
+        <v>s.almallouhi@arabshadows.com</v>
       </c>
       <c r="F159" t="str">
-        <v>ABU ARISH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G159" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات الكمبيوتر والاتصالات,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الطرق,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
       </c>
     </row>
     <row r="160">
@@ -3595,19 +4073,22 @@
         <v>8</v>
       </c>
       <c r="B160" t="str">
-        <v>Ahmed Nasser Al Binali &amp; Sons Trading &amp; Contracting Company</v>
+        <v>شركة الحلول الآصيله المحدوده</v>
       </c>
       <c r="C160" t="str">
-        <v>10000846</v>
+        <v>30002587</v>
       </c>
       <c r="D160" t="str">
-        <v>0138595555</v>
+        <v>0112059550</v>
       </c>
       <c r="E160" t="str">
-        <v>nalbinali@albinali.com</v>
+        <v>khalid@alasila.com</v>
       </c>
       <c r="F160" t="str">
-        <v>DHAHRAN</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G160" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة</v>
       </c>
     </row>
     <row r="161">
@@ -3615,19 +4096,22 @@
         <v>8</v>
       </c>
       <c r="B161" t="str">
-        <v>Elkhereiji Commerce &amp; contracting Co</v>
+        <v>شركة الأعمال الكهربائية والصيانة فرع شركة شبكشي للتنمية والتجارة</v>
       </c>
       <c r="C161" t="str">
-        <v>10000746</v>
+        <v>10001833</v>
       </c>
       <c r="D161" t="str">
-        <v/>
+        <v>0126916655</v>
       </c>
       <c r="E161" t="str">
-        <v>hisham@el-khereiji.com</v>
+        <v>m.sofy@ewmcom.com</v>
       </c>
       <c r="F161" t="str">
-        <v>JEDDAH</v>
+        <v>جدة</v>
+      </c>
+      <c r="G161" t="str">
+        <v xml:space="preserve"> لا يوجد بيانات</v>
       </c>
     </row>
     <row r="162">
@@ -3635,19 +4119,22 @@
         <v>9</v>
       </c>
       <c r="B162" t="str">
-        <v>Tatra Information Technology Company</v>
+        <v>شركة دلتا</v>
       </c>
       <c r="C162" t="str">
-        <v>100006635</v>
+        <v>10000998</v>
       </c>
       <c r="D162" t="str">
-        <v>00966920004794</v>
+        <v>966559339964</v>
       </c>
       <c r="E162" t="str">
-        <v>tatra@tatrait.com</v>
+        <v>info@delta.com.sa</v>
       </c>
       <c r="F162" t="str">
-        <v>DAMMAM</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G162" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار</v>
       </c>
     </row>
     <row r="163">
@@ -3655,19 +4142,22 @@
         <v>9</v>
       </c>
       <c r="B163" t="str">
-        <v>Al-Majal Syd Al-Khadamat Co.</v>
+        <v>شركة هاني الحوطي وشريكه</v>
       </c>
       <c r="C163" t="str">
-        <v>20001920</v>
+        <v>100005354</v>
       </c>
       <c r="D163" t="str">
-        <v>2849500</v>
+        <v>0138021567</v>
       </c>
       <c r="E163" t="str">
-        <v>abdulrahman@almajal.com</v>
+        <v>s.husain@alhoty.com</v>
       </c>
       <c r="F163" t="str">
-        <v>JEDDAH</v>
+        <v>الخبر</v>
+      </c>
+      <c r="G163" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),أنشطة التشييد المتخصصة ,التركيبات الكهربائية,التركيبات الكهربائية الأخرى</v>
       </c>
     </row>
     <row r="164">
@@ -3675,19 +4165,22 @@
         <v>9</v>
       </c>
       <c r="B164" t="str">
-        <v>Cities Linking Co. for Construction</v>
+        <v>شركة نظم البيئة للمقاولات</v>
       </c>
       <c r="C164" t="str">
-        <v>10001982</v>
+        <v>100005173</v>
       </c>
       <c r="D164" t="str">
-        <v/>
+        <v>0114109707</v>
       </c>
       <c r="E164" t="str">
-        <v>CITCO88@GMAIL.COM</v>
+        <v>MOH.S.Q@HOTMAIL.COM</v>
       </c>
       <c r="F164" t="str">
-        <v>JEDDAH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G164" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء السدود,تنظيف الممرات المائية,إصلاح وصيانة السدود,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,أعمال السباكة والتدفئة وتكييف الهواء,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,اكمال المباني وتشطيبها, تشطيب المباني,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها</v>
       </c>
     </row>
     <row r="165">
@@ -3695,19 +4188,22 @@
         <v>9</v>
       </c>
       <c r="B165" t="str">
-        <v>Abu Degen Co. For Drilling Wells</v>
+        <v>شركة الإمدادات التعاونية</v>
       </c>
       <c r="C165" t="str">
-        <v>10002615</v>
+        <v>10001653</v>
       </c>
       <c r="D165" t="str">
-        <v/>
+        <v>0114333207</v>
       </c>
       <c r="E165" t="str">
-        <v>info@abudegendrilling.com</v>
+        <v>emdadat.tawneya@hotmail.com</v>
       </c>
       <c r="F165" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G165" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,اكمال المباني وتشطيبها, تشطيب المباني,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني,أنشطة خدمات التنظيف للمباني الحكومية,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,أنشطة تنظيف الطرق</v>
       </c>
     </row>
     <row r="166">
@@ -3715,19 +4211,22 @@
         <v>9</v>
       </c>
       <c r="B166" t="str">
-        <v>Amsy General Contracting Company</v>
+        <v>شركة السعد للمقاولات العامة المحدودة</v>
       </c>
       <c r="C166" t="str">
-        <v>100003431</v>
+        <v>20002951</v>
       </c>
       <c r="D166" t="str">
-        <v>0173227611</v>
+        <v>0126830306</v>
       </c>
       <c r="E166" t="str">
-        <v>amsy_classic@hotmail.com</v>
+        <v>iksalam@alsaad.com.sa</v>
       </c>
       <c r="F166" t="str">
-        <v>JAZAN</v>
+        <v>جدة</v>
+      </c>
+      <c r="G166" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تركيب انظمة الاضاءة</v>
       </c>
     </row>
     <row r="167">
@@ -3735,19 +4234,22 @@
         <v>9</v>
       </c>
       <c r="B167" t="str">
-        <v>Arab Peller Trading and Contracting Company</v>
+        <v>شركة مستوى السلامة للمقاولات شركة شخص واحد</v>
       </c>
       <c r="C167" t="str">
-        <v>10001816</v>
+        <v>100006859</v>
       </c>
       <c r="D167" t="str">
-        <v>112707095</v>
+        <v/>
       </c>
       <c r="E167" t="str">
-        <v>t.salah@pillararabian.com</v>
+        <v>safety-level@hotmail.com</v>
       </c>
       <c r="F167" t="str">
-        <v>RIYADH</v>
+        <v>نجران</v>
+      </c>
+      <c r="G167" t="str">
+        <v>أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة</v>
       </c>
     </row>
     <row r="168">
@@ -3755,19 +4257,22 @@
         <v>9</v>
       </c>
       <c r="B168" t="str">
-        <v>Azdah Contracting Company</v>
+        <v>شركة الديكور الذكي للمقاولات</v>
       </c>
       <c r="C168" t="str">
-        <v>200003903</v>
+        <v>100003389</v>
       </c>
       <c r="D168" t="str">
-        <v>0112912621</v>
+        <v>0114531133</v>
       </c>
       <c r="E168" t="str">
-        <v>admin@azdah.com</v>
+        <v>smartdesign_i@yahoo.com</v>
       </c>
       <c r="F168" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G168" t="str">
+        <v>أنشطة التشييد المتخصصة ,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,أنشطة أخرى من تركيب الزجاج والمرايا,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها</v>
       </c>
     </row>
     <row r="169">
@@ -3775,19 +4280,22 @@
         <v>9</v>
       </c>
       <c r="B169" t="str">
-        <v>Al Baraka Construction Company L.L.C</v>
+        <v>شركة رايسي للتجارة والمقاولات المحدودة</v>
       </c>
       <c r="C169" t="str">
-        <v>100004075</v>
+        <v>100005079</v>
       </c>
       <c r="D169" t="str">
-        <v>966122342384</v>
+        <v>966114977977</v>
       </c>
       <c r="E169" t="str">
-        <v>aziz@albaraka-co.com</v>
+        <v>AHMAD@RAISSY.COM.SA</v>
       </c>
       <c r="F169" t="str">
-        <v>JEDDAH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G169" t="str">
+        <v>أنشطة خدمات دعم التعدين,أنشطة الدعم لاستخراج النفط والغاز الطبيعي,حفر آبار النفط,حفر آبار الغاز الطبيعي,الخدمات المتصلة باستخراج النفط باستثناء خدمات المسح,الخدمات المتصلة باستخراج الغاز الطبيعي باستثناء خدمات المسح,أنشطة أخرى تتعلق بأنشطة الدعم لاستخراج النفط والغاز الطبيعي,أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,تنظيف الشوارع,جمع المواد لإعادة التصنيع,أنشطة أخرى تتعلق بجمع النفايات الغير خطرة,خدمات جمع النفايات البلدية,نقل النفايات الصناعية الغير خطرة,تجميع زيوت الطعام المستخدمة,جمع النفايات الخطرة,جمع النفايات الخطرة للزيوت المستعملة من الشحن أو المرائب,جمع النفايات الخطرة للمواد الخطرة البيولوجية,جمع النفايات الخطرة للبطاريات المستعملة,تشغيل محطات نقل النفايات للنفايات الخطرة,جمع النفايات الخطرة الأخرى,جمع ونقل النفايات الخطرة للزيوت المستعملة من منتجي هذه النفايات,نقل النفايات الطبية الخطرة,جمع ونقل النفايات الناتجة عن أعمال المكافحة والتنظيف للبيئة البحرية والساحلية,نقل النفايات الخطرة,نقل نفايات الاسبستوس,نقل الزيت من واسطة بحرية إلى أخرى داخل عرض البحر أو من مواقع تجميع الزيوت داخل البحر في حالات التلوث,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
       </c>
     </row>
     <row r="170">
@@ -3795,19 +4303,22 @@
         <v>9</v>
       </c>
       <c r="B170" t="str">
-        <v>Electrical Works &amp; Maintenance Company, Branch of Shobokshi Trading &amp; Development Co.</v>
+        <v>شركة فيصل للأعمال الكهربائية والميكانيكية</v>
       </c>
       <c r="C170" t="str">
-        <v>10001833</v>
+        <v>10001272</v>
       </c>
       <c r="D170" t="str">
-        <v>0126916655</v>
+        <v>920023595</v>
       </c>
       <c r="E170" t="str">
-        <v>m.sofy@ewmcom.com</v>
+        <v>FEMCO@FEMCO.COM.SA</v>
       </c>
       <c r="F170" t="str">
-        <v>JEDDAH</v>
+        <v>الدمام</v>
+      </c>
+      <c r="G170" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,اكمال المباني وتشطيبها,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,إنشاء حمامات السباحة</v>
       </c>
     </row>
     <row r="171">
@@ -3815,19 +4326,22 @@
         <v>9</v>
       </c>
       <c r="B171" t="str">
-        <v>Al - Yousr Al-Arabia General Contracting Co</v>
+        <v>مؤسسة عبد الله عساف محمد الغامدي للمقاولات</v>
       </c>
       <c r="C171" t="str">
-        <v>10002350</v>
+        <v>10000799</v>
       </c>
       <c r="D171" t="str">
-        <v/>
+        <v>0177220407</v>
       </c>
       <c r="E171" t="str">
-        <v>alysr2009@hotmail.com</v>
+        <v>alassafcompany@hotmail.com</v>
       </c>
       <c r="F171" t="str">
-        <v>NAJRAN</v>
+        <v>بلجرشي</v>
+      </c>
+      <c r="G171" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق</v>
       </c>
     </row>
     <row r="172">
@@ -3835,19 +4349,22 @@
         <v>9</v>
       </c>
       <c r="B172" t="str">
-        <v>Emdadat Tawneya Company</v>
+        <v>شركه صناعات العزل الحديثه</v>
       </c>
       <c r="C172" t="str">
-        <v>10001653</v>
+        <v>100006190</v>
       </c>
       <c r="D172" t="str">
-        <v>0114333207</v>
+        <v>966112419650</v>
       </c>
       <c r="E172" t="str">
-        <v>emdadat.tawneya@hotmail.com</v>
+        <v>projects@miic.com.sa</v>
       </c>
       <c r="F172" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G172" t="str">
+        <v xml:space="preserve"> لا يوجد بيانات</v>
       </c>
     </row>
     <row r="173">
@@ -3855,19 +4372,22 @@
         <v>9</v>
       </c>
       <c r="B173" t="str">
-        <v>Marasah Company</v>
+        <v>شركة الميسان للخدمات التقنية المحدودة</v>
       </c>
       <c r="C173" t="str">
-        <v>10000911</v>
+        <v>100006543</v>
       </c>
       <c r="D173" t="str">
-        <v>0112112550</v>
+        <v>0126676251</v>
       </c>
       <c r="E173" t="str">
-        <v>m.alsuhaimi@marasah.com</v>
+        <v>a.anwar@almayssan.com</v>
       </c>
       <c r="F173" t="str">
-        <v>RIYADH</v>
+        <v>جدة</v>
+      </c>
+      <c r="G173" t="str">
+        <v>أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة</v>
       </c>
     </row>
     <row r="174">
@@ -3875,19 +4395,22 @@
         <v>9</v>
       </c>
       <c r="B174" t="str">
-        <v>Afaq Almanzil Construction &amp; Development Company Ltd.</v>
+        <v>شركة الحرمين للتجارة والمقاولات</v>
       </c>
       <c r="C174" t="str">
-        <v>20002163</v>
+        <v>10001319</v>
       </c>
       <c r="D174" t="str">
-        <v>6632720</v>
+        <v>0126942000</v>
       </c>
       <c r="E174" t="str">
-        <v>r.jafar@afaqalmanzil.com</v>
+        <v>muad@haramain.com.sa</v>
       </c>
       <c r="F174" t="str">
-        <v/>
+        <v>جدة</v>
+      </c>
+      <c r="G174" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء السدود,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام</v>
       </c>
     </row>
     <row r="175">
@@ -3895,19 +4418,22 @@
         <v>9</v>
       </c>
       <c r="B175" t="str">
-        <v>Energy Power Service for General Contracting Est</v>
+        <v>شركة طرق التنمية للمقاولات</v>
       </c>
       <c r="C175" t="str">
-        <v>100007141</v>
+        <v>130413048</v>
       </c>
       <c r="D175" t="str">
-        <v/>
+        <v>0126499939</v>
       </c>
       <c r="E175" t="str">
-        <v>MOHAMMAD@ENERSERV-SA.COM</v>
+        <v>meshari.alsaiby@dmco.sa</v>
       </c>
       <c r="F175" t="str">
-        <v>DAMMAM</v>
+        <v>جدة</v>
+      </c>
+      <c r="G175" t="str">
+        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,تنظيف الشوارع,خدمات جمع النفايات البلدية,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تمديدات انابيب الري وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,اكمال المباني وتشطيبها, تشطيب المباني,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الطرق,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق</v>
       </c>
     </row>
     <row r="176">
@@ -3915,19 +4441,22 @@
         <v>9</v>
       </c>
       <c r="B176" t="str">
-        <v>Rock and Steel Contracting Company</v>
+        <v>شركة عبدالمحسن الجاسر للمقاولات</v>
       </c>
       <c r="C176" t="str">
-        <v>10001110</v>
+        <v>100004498</v>
       </c>
       <c r="D176" t="str">
-        <v>0122615392</v>
+        <v>0112770000</v>
       </c>
       <c r="E176" t="str">
-        <v>essa@rockandsteel.com</v>
+        <v>aljaser_contrat@yahoo.com</v>
       </c>
       <c r="F176" t="str">
-        <v>JEDDAH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G176" t="str">
+        <v>الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء السدود</v>
       </c>
     </row>
     <row r="177">
@@ -3935,19 +4464,22 @@
         <v>9</v>
       </c>
       <c r="B177" t="str">
-        <v>Naif Awadh Alboqmi Contracting Est</v>
+        <v>الشركة الوطنية لأعمال المياه</v>
       </c>
       <c r="C177" t="str">
-        <v>100007417</v>
+        <v>100004251</v>
       </c>
       <c r="D177" t="str">
-        <v>0559009214</v>
+        <v>00966112088558</v>
       </c>
       <c r="E177" t="str">
-        <v>info@shadengulf.com</v>
+        <v>info@nwwc.com.sa</v>
       </c>
       <c r="F177" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G177" t="str">
+        <v xml:space="preserve"> لا يوجد بيانات</v>
       </c>
     </row>
     <row r="178">
@@ -3955,19 +4487,22 @@
         <v>9</v>
       </c>
       <c r="B178" t="str">
-        <v>Al-Kifah Holding Company, Contracting Branch</v>
+        <v>شركة منافع الخليج للمقاولات</v>
       </c>
       <c r="C178" t="str">
-        <v>10002946</v>
+        <v>100005245</v>
       </c>
       <c r="D178" t="str">
-        <v>0138459564</v>
+        <v>966138254225</v>
       </c>
       <c r="E178" t="str">
-        <v>abdullah.busodah@alkifah.com</v>
+        <v>afo@manafalkhaleej.com</v>
       </c>
       <c r="F178" t="str">
-        <v>DAMMAM</v>
+        <v>الدمام</v>
+      </c>
+      <c r="G178" t="str">
+        <v>الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح</v>
       </c>
     </row>
     <row r="179">
@@ -3975,19 +4510,22 @@
         <v>9</v>
       </c>
       <c r="B179" t="str">
-        <v>Jabal Beshah General Contracting Est.</v>
+        <v>شركة الجزيرة العربية المحدودة للتجارة والصناعة والمقاولات</v>
       </c>
       <c r="C179" t="str">
-        <v>10002386</v>
+        <v>10001484</v>
       </c>
       <c r="D179" t="str">
-        <v/>
+        <v>966125487000</v>
       </c>
       <c r="E179" t="str">
-        <v>abok1402@hotmail.com</v>
+        <v>jacco@jazera.sa</v>
       </c>
       <c r="F179" t="str">
-        <v>JAZAN</v>
+        <v>الطائف</v>
+      </c>
+      <c r="G179" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع</v>
       </c>
     </row>
     <row r="180">
@@ -3995,19 +4533,22 @@
         <v>9</v>
       </c>
       <c r="B180" t="str">
-        <v>Saudi Urban Development Company</v>
+        <v>شركة فن المعمار السعودية للصيانة المحدودة</v>
       </c>
       <c r="C180" t="str">
-        <v>100005156</v>
+        <v>100004618</v>
       </c>
       <c r="D180" t="str">
-        <v>966114540300</v>
+        <v>966114041919</v>
       </c>
       <c r="E180" t="str">
-        <v>Fahad.aljasser@scdco.sa</v>
+        <v>bids@buildingtek.com</v>
       </c>
       <c r="F180" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G180" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية</v>
       </c>
     </row>
     <row r="181">
@@ -4015,19 +4556,22 @@
         <v>9</v>
       </c>
       <c r="B181" t="str">
-        <v>Abdulkarim H Al Senan &amp; Partner Trading Company</v>
+        <v>مؤسسة نظم القوى الكهربائية للمقاولات</v>
       </c>
       <c r="C181" t="str">
-        <v>10002674</v>
+        <v>100006289</v>
       </c>
       <c r="D181" t="str">
-        <v>133505200</v>
+        <v>0138361104</v>
       </c>
       <c r="E181" t="str">
-        <v>mrefai@sinanakh.com</v>
+        <v>F.alyousef@eps-est.com</v>
       </c>
       <c r="F181" t="str">
-        <v>AL JUBAIL</v>
+        <v>عنك</v>
+      </c>
+      <c r="G181" t="str">
+        <v xml:space="preserve"> لا يوجد بيانات</v>
       </c>
     </row>
     <row r="182">
@@ -4035,19 +4579,22 @@
         <v>10</v>
       </c>
       <c r="B182" t="str">
-        <v>Power Lines Contracting Co.</v>
+        <v>شركة أبناء عبدالله حمود الشويعر للتجارة والمقاولات</v>
       </c>
       <c r="C182" t="str">
-        <v>10002512</v>
+        <v>10001371</v>
       </c>
       <c r="D182" t="str">
-        <v/>
+        <v>0138489999</v>
       </c>
       <c r="E182" t="str">
-        <v>hazem@plc-sa.net</v>
+        <v>admins@shuwayer.com</v>
       </c>
       <c r="F182" t="str">
-        <v>RIYADH</v>
+        <v>الدمام</v>
+      </c>
+      <c r="G182" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,أعمال السباكة والتدفئة وتكييف الهواء,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها</v>
       </c>
     </row>
     <row r="183">
@@ -4055,19 +4602,22 @@
         <v>10</v>
       </c>
       <c r="B183" t="str">
-        <v>Hani Al Hoty &amp; Partner Company</v>
+        <v>شركة بلر العربية للتجارة والمقاولات</v>
       </c>
       <c r="C183" t="str">
-        <v>100005354</v>
+        <v>10001816</v>
       </c>
       <c r="D183" t="str">
-        <v>0138021567</v>
+        <v>112707095</v>
       </c>
       <c r="E183" t="str">
-        <v>s.husain@alhoty.com</v>
+        <v>t.salah@pillararabian.com</v>
       </c>
       <c r="F183" t="str">
-        <v>AL KHOBAR</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G183" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,اكمال المباني وتشطيبها, تشطيب المباني,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق</v>
       </c>
     </row>
     <row r="184">
@@ -4075,19 +4625,22 @@
         <v>10</v>
       </c>
       <c r="B184" t="str">
-        <v>Abdullah Ayed Alanzi General Contracting Co</v>
+        <v>شركة الخريف لتقنية المياه والطاقة</v>
       </c>
       <c r="C184" t="str">
-        <v>10002750</v>
+        <v>10002677</v>
       </c>
       <c r="D184" t="str">
-        <v/>
+        <v>0114000612</v>
       </c>
       <c r="E184" t="str">
-        <v>info@rrksa.com</v>
+        <v>talsayadi@alkhorayef.com</v>
       </c>
       <c r="F184" t="str">
-        <v>SAYHAT</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G184" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء السدود,تنظيف الممرات المائية,إصلاح وصيانة السدود,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديدات الشبكات,اكمال المباني وتشطيبها, تشطيب المباني,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني</v>
       </c>
     </row>
     <row r="185">
@@ -4095,7 +4648,7 @@
         <v>10</v>
       </c>
       <c r="B185" t="str">
-        <v>Alkifah International Contracting Company</v>
+        <v>شركة الكفاح العالمية للمقاولات</v>
       </c>
       <c r="C185" t="str">
         <v>10000864</v>
@@ -4107,7 +4660,10 @@
         <v>info@alkifahco.com</v>
       </c>
       <c r="F185" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G185" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة التشييد المتخصصة ,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,أنشطة تقديم الخدمات للمباني وتجميل المواقع,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,أنشطة خدمات تصميم المناظر الطبيعية</v>
       </c>
     </row>
     <row r="186">
@@ -4115,19 +4671,22 @@
         <v>10</v>
       </c>
       <c r="B186" t="str">
-        <v>Shathrwan Al Thahab Contracting Company</v>
+        <v>شركة بي اي سي العربية للمقاولات</v>
       </c>
       <c r="C186" t="str">
-        <v>10002379</v>
+        <v>200005232</v>
       </c>
       <c r="D186" t="str">
-        <v>0125344900</v>
+        <v>966112166633</v>
       </c>
       <c r="E186" t="str">
-        <v>gm@shathrwan.com</v>
+        <v>government.relations@becsaudi.com</v>
       </c>
       <c r="F186" t="str">
-        <v>MAKKAH AL MUKARRAMAH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G186" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
       </c>
     </row>
     <row r="187">
@@ -4135,19 +4694,22 @@
         <v>10</v>
       </c>
       <c r="B187" t="str">
-        <v>Enter For Communications &amp; Information Technology Co.</v>
+        <v>الشركه العربيه لدعم وتأهيل المباني المحدودة</v>
       </c>
       <c r="C187" t="str">
-        <v>100004979</v>
+        <v>10001986</v>
       </c>
       <c r="D187" t="str">
-        <v>0163253323</v>
+        <v>0114193510</v>
       </c>
       <c r="E187" t="str">
-        <v>admin@enter.com.sa</v>
+        <v>Aalshehri@Absar.Com</v>
       </c>
       <c r="F187" t="str">
-        <v/>
+        <v>الرياض</v>
+      </c>
+      <c r="G187" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء كاسرات الأمواج والحماية للأرصفة,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,اكمال المباني وتشطيبها, تشطيب المباني,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,أعمال أخرى لإنهاء المباني وتجهيزها</v>
       </c>
     </row>
     <row r="188">
@@ -4155,19 +4717,22 @@
         <v>10</v>
       </c>
       <c r="B188" t="str">
-        <v>Bait Aljaleed for Maintenance &amp; Operation Company</v>
+        <v>مؤسسة عبدالعزيز محمد زين العابدين للمقاولات العامة</v>
       </c>
       <c r="C188" t="str">
-        <v>100006826</v>
+        <v>100003685</v>
       </c>
       <c r="D188" t="str">
-        <v>920001721</v>
+        <v>966125336200</v>
       </c>
       <c r="E188" t="str">
-        <v>alkhadhar.a@gmail.com</v>
+        <v>mo@amz.com.sa</v>
       </c>
       <c r="F188" t="str">
-        <v>RIYADH</v>
+        <v>مكة المكرمة</v>
+      </c>
+      <c r="G188" t="str">
+        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,خدمات جمع النفايات البلدية,نقل النفايات الصناعية الغير خطرة,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديدات الشبكات,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات التنظيف للمباني الحكومية,التنظيف العام للمباني,التنظيف العام للمباني,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
       </c>
     </row>
     <row r="189">
@@ -4175,19 +4740,22 @@
         <v>10</v>
       </c>
       <c r="B189" t="str">
-        <v>Construction Edifices Development Contracting Company</v>
+        <v>شركة النظم الإعلامية السعودية</v>
       </c>
       <c r="C189" t="str">
-        <v>10002736</v>
+        <v>100006342</v>
       </c>
       <c r="D189" t="str">
-        <v>4452929</v>
+        <v>0114191939</v>
       </c>
       <c r="E189" t="str">
-        <v>waleed.w@cedme.com</v>
+        <v>khumadi@smediasys.com</v>
       </c>
       <c r="F189" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G189" t="str">
+        <v xml:space="preserve"> لا يوجد بيانات</v>
       </c>
     </row>
     <row r="190">
@@ -4195,19 +4763,22 @@
         <v>10</v>
       </c>
       <c r="B190" t="str">
-        <v>Ansab General Contracting Company</v>
+        <v>شركة طالبي للمقاولات</v>
       </c>
       <c r="C190" t="str">
-        <v>100005137</v>
+        <v>200003350</v>
       </c>
       <c r="D190" t="str">
-        <v>966599000677</v>
+        <v>0173340331</v>
       </c>
       <c r="E190" t="str">
-        <v>n.hashem@ansab.com.sa</v>
+        <v>mog.suliman@gmail.com</v>
       </c>
       <c r="F190" t="str">
-        <v>AL KHOBAR</v>
+        <v>صامطة</v>
+      </c>
+      <c r="G190" t="str">
+        <v>أنشطة خدمات دعم التعدين,أنشطة الدعم لاستخراج النفط والغاز الطبيعي,حفر آبار النفط,حفر آبار الغاز الطبيعي,الخدمات المتصلة باستخراج النفط باستثناء خدمات المسح,الخدمات المتصلة باستخراج الغاز الطبيعي باستثناء خدمات المسح,أنشطة أخرى تتعلق بأنشطة الدعم لاستخراج النفط والغاز الطبيعي,أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,تنظيف الشوارع,جمع المواد لإعادة التصنيع,أنشطة أخرى تتعلق بجمع النفايات الغير خطرة,خدمات جمع النفايات البلدية,نقل النفايات الصناعية الغير خطرة,تجميع زيوت الطعام المستخدمة,جمع النفايات الخطرة,جمع النفايات الخطرة للزيوت المستعملة من الشحن أو المرائب,جمع النفايات الخطرة للمواد الخطرة البيولوجية,جمع النفايات الخطرة للبطاريات المستعملة,تشغيل محطات نقل النفايات للنفايات الخطرة,جمع النفايات الخطرة الأخرى,جمع ونقل النفايات الخطرة للزيوت المستعملة من منتجي هذه النفايات,نقل النفايات الطبية الخطرة,جمع ونقل النفايات الناتجة عن أعمال المكافحة والتنظيف للبيئة البحرية والساحلية,نقل النفايات الخطرة,نقل نفايات الاسبستوس,نقل الزيت من واسطة بحرية إلى أخرى داخل عرض البحر أو من مواقع تجميع الزيوت داخل البحر في حالات التلوث,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
       </c>
     </row>
     <row r="191">
@@ -4215,19 +4786,22 @@
         <v>10</v>
       </c>
       <c r="B191" t="str">
-        <v>Leaders Contracting Est</v>
+        <v>مؤسسة خدمات قوى الطاقة للمقاولات العامة</v>
       </c>
       <c r="C191" t="str">
-        <v>10001965</v>
+        <v>100007141</v>
       </c>
       <c r="D191" t="str">
-        <v>0177502235</v>
+        <v/>
       </c>
       <c r="E191" t="str">
-        <v>mohad1390@hotmail.com</v>
+        <v>MOHAMMAD@ENERSERV-SA.COM</v>
       </c>
       <c r="F191" t="str">
-        <v>AL ATAWLAH</v>
+        <v>الدمام</v>
+      </c>
+      <c r="G191" t="str">
+        <v xml:space="preserve"> لا يوجد بيانات</v>
       </c>
     </row>
     <row r="192">
@@ -4235,19 +4809,22 @@
         <v>10</v>
       </c>
       <c r="B192" t="str">
-        <v>Building Walls Contracting Est</v>
+        <v>شركة بن عميرة للمقاولات ذات مسؤولية محدودة</v>
       </c>
       <c r="C192" t="str">
-        <v>100007392</v>
+        <v>10001055</v>
       </c>
       <c r="D192" t="str">
-        <v/>
+        <v>966114536062</v>
       </c>
       <c r="E192" t="str">
-        <v>aan.mak@hotmail.com</v>
+        <v>ssd@binomairah.com</v>
       </c>
       <c r="F192" t="str">
-        <v>AL MUBARRAZ</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G192" t="str">
+        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها</v>
       </c>
     </row>
     <row r="193">
@@ -4255,19 +4832,22 @@
         <v>10</v>
       </c>
       <c r="B193" t="str">
-        <v>United Cell Company for Pest Control</v>
+        <v>شركة المفاهيم المتقدمة للمقاولات</v>
       </c>
       <c r="C193" t="str">
-        <v>100005364</v>
+        <v>100006184</v>
       </c>
       <c r="D193" t="str">
-        <v/>
+        <v>0112192256</v>
       </c>
       <c r="E193" t="str">
-        <v>mas@unitedest.com</v>
+        <v>samir@advacon.com.sa</v>
       </c>
       <c r="F193" t="str">
-        <v>DAMMAM</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G193" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديدات الشبكات,تركيب وصيانة الأجهزة الأمنية,أنشطة تقديم الخدمات للمباني وتجميل المواقع,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
       </c>
     </row>
     <row r="194">
@@ -4275,19 +4855,22 @@
         <v>10</v>
       </c>
       <c r="B194" t="str">
-        <v>Midad Company Limited</v>
+        <v>شركة مراسة</v>
       </c>
       <c r="C194" t="str">
-        <v>10002928</v>
+        <v>10000911</v>
       </c>
       <c r="D194" t="str">
-        <v/>
+        <v>0112112550</v>
       </c>
       <c r="E194" t="str">
-        <v>sghamdi@midadholdings.com</v>
+        <v>m.alsuhaimi@marasah.com</v>
       </c>
       <c r="F194" t="str">
-        <v>AL KHOBAR</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G194" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,أعمال السباكة والتدفئة وتكييف الهواء,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,اكمال المباني وتشطيبها, تشطيب المباني</v>
       </c>
     </row>
     <row r="195">
@@ -4295,19 +4878,22 @@
         <v>10</v>
       </c>
       <c r="B195" t="str">
-        <v>Sojitz Corporation Company</v>
+        <v>مؤسسة همسة المصيف للمقاولات</v>
       </c>
       <c r="C195" t="str">
-        <v>200007124</v>
+        <v>10001546</v>
       </c>
       <c r="D195" t="str">
-        <v>966126627253</v>
+        <v>01129144</v>
       </c>
       <c r="E195" t="str">
-        <v>masood.asif@sojitz.com</v>
+        <v>HAMSATALMASEEF@HOTMAIL.COM</v>
       </c>
       <c r="F195" t="str">
-        <v>JEDDAH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G195" t="str">
+        <v>الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق</v>
       </c>
     </row>
     <row r="196">
@@ -4315,19 +4901,22 @@
         <v>10</v>
       </c>
       <c r="B196" t="str">
-        <v>Fire Direct Centre Company LTD</v>
+        <v>شركة الصخر والفولاذ للمقاولات</v>
       </c>
       <c r="C196" t="str">
-        <v>100006246</v>
+        <v>10001110</v>
       </c>
       <c r="D196" t="str">
-        <v>966138123579</v>
+        <v>0122615392</v>
       </c>
       <c r="E196" t="str">
-        <v>firedirect@firedirect.org</v>
+        <v>essa@rockandsteel.com</v>
       </c>
       <c r="F196" t="str">
-        <v>DAMMAM</v>
+        <v>جدة</v>
+      </c>
+      <c r="G196" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,التركيبات الكهربائية الأخرى,اكمال المباني وتشطيبها,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية</v>
       </c>
     </row>
     <row r="197">
@@ -4335,7 +4924,7 @@
         <v>10</v>
       </c>
       <c r="B197" t="str">
-        <v>Awal Tasmim Company For Decoration</v>
+        <v>شركة اول تصميم للديكور</v>
       </c>
       <c r="C197" t="str">
         <v>100007486</v>
@@ -4347,7 +4936,10 @@
         <v>kab@lepremier.com.sa</v>
       </c>
       <c r="F197" t="str">
-        <v>RIYADH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G197" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات</v>
       </c>
     </row>
     <row r="198">
@@ -4355,19 +4947,22 @@
         <v>10</v>
       </c>
       <c r="B198" t="str">
-        <v>BAC Arabia Contracting Company</v>
+        <v>شركة الرواف للمقاولات</v>
       </c>
       <c r="C198" t="str">
-        <v>200005232</v>
+        <v>10001197</v>
       </c>
       <c r="D198" t="str">
-        <v>966112166633</v>
+        <v>163234440</v>
       </c>
       <c r="E198" t="str">
-        <v>government.relations@becsaudi.com</v>
+        <v>RIMOSONG2000@YAHOO.COM</v>
       </c>
       <c r="F198" t="str">
-        <v>RIYADH</v>
+        <v>بريدة</v>
+      </c>
+      <c r="G198" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية</v>
       </c>
     </row>
     <row r="199">
@@ -4375,19 +4970,22 @@
         <v>10</v>
       </c>
       <c r="B199" t="str">
-        <v>Specialists for Construction Services</v>
+        <v>شركة بنى الجزيرة للمقاولات</v>
       </c>
       <c r="C199" t="str">
-        <v>10001026</v>
+        <v>10001972</v>
       </c>
       <c r="D199" t="str">
-        <v>00966118127029</v>
+        <v/>
       </c>
       <c r="E199" t="str">
-        <v>anas@scsconst.net</v>
+        <v>khalid.farhan@bunaaljazira.com.sa</v>
       </c>
       <c r="F199" t="str">
-        <v>RIYADH</v>
+        <v>الخبر</v>
+      </c>
+      <c r="G199" t="str">
+        <v>الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات</v>
       </c>
     </row>
     <row r="200">
@@ -4395,19 +4993,22 @@
         <v>10</v>
       </c>
       <c r="B200" t="str">
-        <v>Safety Level Contracting Company is a one person company</v>
+        <v>شركة درع التطوير للتجارة</v>
       </c>
       <c r="C200" t="str">
-        <v>100006859</v>
+        <v>100003470</v>
       </c>
       <c r="D200" t="str">
-        <v/>
+        <v>920019019</v>
       </c>
       <c r="E200" t="str">
-        <v>safety-level@hotmail.com</v>
+        <v>aymen@armis.com.sa</v>
       </c>
       <c r="F200" t="str">
-        <v>NAJRAN</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G200" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية</v>
       </c>
     </row>
     <row r="201">
@@ -4415,24 +5016,27 @@
         <v>10</v>
       </c>
       <c r="B201" t="str">
-        <v>Alsaad General Contracting Company Ltd.</v>
+        <v>شركة نسمة السندس للمقاولات</v>
       </c>
       <c r="C201" t="str">
-        <v>20002951</v>
+        <v>100006680</v>
       </c>
       <c r="D201" t="str">
-        <v>0126830306</v>
+        <v>2914768</v>
       </c>
       <c r="E201" t="str">
-        <v>iksalam@alsaad.com.sa</v>
+        <v>m.saeed@nasamahsondos.com</v>
       </c>
       <c r="F201" t="str">
-        <v>JEDDAH</v>
+        <v>الرياض</v>
+      </c>
+      <c r="G201" t="str">
+        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات التنظيف للمباني الحكومية,التنظيف العام للمباني,التنظيف العام للمباني,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F201"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G201"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/BAB Task/contractors_data.xlsx
+++ b/BAB Task/contractors_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,15 +422,12 @@
         <v>Membership Number</v>
       </c>
       <c r="D1" t="str">
-        <v>Phone Number</v>
+        <v>Email</v>
       </c>
       <c r="E1" t="str">
-        <v>Email</v>
+        <v>City</v>
       </c>
       <c r="F1" t="str">
-        <v>City</v>
-      </c>
-      <c r="G1" t="str">
         <v>Activities</v>
       </c>
     </row>
@@ -439,22 +436,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>شركة عوارض للمقاولات العامة</v>
+        <v>Awared General Contracting Company</v>
       </c>
       <c r="C2" t="str">
         <v>160916095</v>
       </c>
       <c r="D2" t="str">
-        <v>0112090111</v>
+        <v>fared@fared-est.com</v>
       </c>
       <c r="E2" t="str">
-        <v>fared@fared-est.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F2" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G2" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Repair and maintenance of railways and subways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Long-distance oil and gas pipelines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction, erection and repair of power plants,Repair and maintenance of wired and wireless communication stations and radars,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Dredging of waterways,Construction of dykes,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.),Repair and maintenance of dams,Repair and maintenance of port piers and marine facilities,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of lightning conductors,Installation, repair and maintenance of thermal, sound or vibration insulation,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work</v>
       </c>
     </row>
     <row r="3">
@@ -462,22 +456,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="str">
-        <v>شركة الأنجازات للمقاولات</v>
+        <v>Arabian Towers Projects Contracting Company</v>
       </c>
       <c r="C3" t="str">
-        <v>10000937</v>
+        <v>220622064</v>
       </c>
       <c r="D3" t="str">
-        <v>0112001858</v>
+        <v>atpcosecretary@atpco-sa.com</v>
       </c>
       <c r="E3" t="str">
-        <v>info@alenjazat.sa</v>
+        <v>DAMMAM</v>
       </c>
       <c r="F3" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G3" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أنشطة تقديم الخدمات للمباني وتجميل المواقع,التنظيف العام للمباني,التنظيف العام للمباني</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings</v>
       </c>
     </row>
     <row r="4">
@@ -485,22 +476,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="str">
-        <v>شركة مشاريع الأبراج العربية للمقاولات</v>
+        <v>Alenjazat Contracting Company</v>
       </c>
       <c r="C4" t="str">
-        <v>220622064</v>
+        <v>10000937</v>
       </c>
       <c r="D4" t="str">
-        <v>599999999</v>
+        <v>info@alenjazat.sa</v>
       </c>
       <c r="E4" t="str">
-        <v>atpcosecretary@atpco-sa.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F4" t="str">
-        <v>الدمام</v>
-      </c>
-      <c r="G4" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction of utility projects ,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Services to buildings and landscape activities,General cleaning of buildings ,General cleaning of buildings</v>
       </c>
     </row>
     <row r="5">
@@ -508,22 +496,19 @@
         <v>1</v>
       </c>
       <c r="B5" t="str">
-        <v>شركة خليج الرواد للمقاولات</v>
+        <v>Gulf Pioneers Trading Company</v>
       </c>
       <c r="C5" t="str">
-        <v>10000434</v>
+        <v>280728074</v>
       </c>
       <c r="D5" t="str">
-        <v>0553705555</v>
+        <v>acc@gpksa.com</v>
       </c>
       <c r="E5" t="str">
-        <v>hh@gpksa.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F5" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G5" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,ترميمات المباني السكنية والغير سكنية</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of utility projects ,Long-distance pipelines, communication and power lines,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Specialized construction activities,Electrical installation ,Telecommunications wiring,Network wiring,Installation of satellite dishes,Installation of computer network and cable television wiring</v>
       </c>
     </row>
     <row r="6">
@@ -531,22 +516,19 @@
         <v>1</v>
       </c>
       <c r="B6" t="str">
-        <v>مؤسسة أون العربية للمقاولات</v>
+        <v>On Al-Arabia Contracting Est.</v>
       </c>
       <c r="C6" t="str">
         <v>178417841</v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v>a1032500371@gmail.com</v>
       </c>
       <c r="E6" t="str">
-        <v>a1032500371@gmail.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F6" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G6" t="str">
-        <v xml:space="preserve"> لا يوجد بيانات</v>
+        <v>No Data</v>
       </c>
     </row>
     <row r="7">
@@ -554,22 +536,19 @@
         <v>1</v>
       </c>
       <c r="B7" t="str">
-        <v>شركة خليج الرواد للتجارة</v>
+        <v>Gulf Pioneers for Construction Company</v>
       </c>
       <c r="C7" t="str">
-        <v>280728074</v>
+        <v>10000434</v>
       </c>
       <c r="D7" t="str">
-        <v>0112885557</v>
+        <v>hh@gpksa.com</v>
       </c>
       <c r="E7" t="str">
-        <v>acc@gpksa.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F7" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G7" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of other not previously mentioned non-residential buildings,Remodeling or renovating existing residential and non- residential structures</v>
       </c>
     </row>
     <row r="8">
@@ -577,22 +556,19 @@
         <v>1</v>
       </c>
       <c r="B8" t="str">
-        <v>شركة رتيل الشرق للمقاولات</v>
+        <v>Ratel Al Sharq Contracting Company</v>
       </c>
       <c r="C8" t="str">
         <v>101010104</v>
       </c>
       <c r="D8" t="str">
-        <v>0542332224</v>
+        <v>adel_77@hotmail.com</v>
       </c>
       <c r="E8" t="str">
-        <v>adel_77@hotmail.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F8" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G8" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تركيب انظمة انذار الحريق,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,اكمال المباني وتشطيبها, تشطيب المباني,أعمال وتركيب الديكورات</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Specialized construction activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Installation of fire alarms,Connecting of electric appliances and household equipment, including baseboard heating,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Building completion and finishing ,Building finishing,Installation of decor</v>
       </c>
     </row>
     <row r="9">
@@ -600,22 +576,19 @@
         <v>1</v>
       </c>
       <c r="B9" t="str">
-        <v>شركة التطوير الشارقة للمقاولات</v>
+        <v>TAKWEEN AND CONSTRUCTION</v>
       </c>
       <c r="C9" t="str">
-        <v>144214428</v>
+        <v>438043804</v>
       </c>
       <c r="D9" t="str">
-        <v>0138141668</v>
+        <v>B2B@tbco.com.sa</v>
       </c>
       <c r="E9" t="str">
-        <v>alsharqimna@gmail.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F9" t="str">
-        <v>الخبر</v>
-      </c>
-      <c r="G9" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية الحديدية,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,تحضير الموقع,صب القواعد والاساسات,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديدات الشبكات,تركيب انظمة انذار الحريق,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الرخام,تركيب الحجر,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,تركيب زجاج واجهات الابراج,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أنشطة تقديم الخدمات للمباني وتجميل المواقع,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,أنشطة خدمات تصميم المناظر الطبيعية</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Repair and maintenance of railways and subways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Long-distance oil and gas pipelines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction, erection and repair of power plants,Repair and maintenance of wired and wireless communication stations and radars,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Dredging of waterways,Construction of dykes,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.),Repair and maintenance of dams,Repair and maintenance of port piers and marine facilities,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Blasting,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of elevators and escalators,Installation, repair and maintenance of automated and revolving doors,Installation, repair and maintenance of lightning conductors,Installation, repair and maintenance of vacuum cleaning systems,Installation, repair and maintenance of thermal, sound or vibration insulation,Other not previously mentioned construction installation, repair and maintenance activities,Installation and maintenance of elevators,Installation, repair and maintenance of escalators, conveyor and ground belts,Installation, repair and maintenance of thermal, sound or vibration insulation,Installation and repair of civil protection devices such as heavy equipment used to control earth quicks and buildings collapse and ways of individual protection,Installation and maintenance of early warning sirens and control centers,Installation and maintenance of fire equipment,Installing and maintaining storage and shelves solutions,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,Activities of government buildings cleaning services,Provision of mail routing services,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Specialized cleaning activities for buildings such as window cleaning, chimney cleaning, etc.,Swimming pool cleaning and maintenance services,Disinfecting and exterminating activities,Cleaning of trains, buses, planes, etc.,Cleaning of industrial machinery,Street sweeping and snow and ice removal,Other building and industrial cleaning activities n.e.c.,Disinfection activities and pest and rodents control by fumes</v>
       </c>
     </row>
     <row r="10">
@@ -623,22 +596,19 @@
         <v>1</v>
       </c>
       <c r="B10" t="str">
-        <v>شركة تكوين وبناء للمقاولات</v>
+        <v>Sharjah Development Contracting Co</v>
       </c>
       <c r="C10" t="str">
-        <v>438043804</v>
+        <v>144214428</v>
       </c>
       <c r="D10" t="str">
-        <v>0503047700</v>
+        <v>alsharqimna@gmail.com</v>
       </c>
       <c r="E10" t="str">
-        <v>B2B@tbco.com.sa</v>
+        <v>AL KHOBAR</v>
       </c>
       <c r="F10" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G10" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential steel buildings,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Site preparation ,Landfill,Electrical installation ,Electrical wiring,Network wiring,Installation of fire alarms,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of plumbing and sanitary equipment,Building completion and finishing ,Building finishing,Installation of marble,Installation of cut stone tiles,Interior and exterior painting of buildings,Painting of civil engineering structures,Exterior glass installation of towers,Other specialized construction activities ,Bricklaying,Services to buildings and landscape activities,Landscape care and maintenance service activities ,Activities of landscape design services</v>
       </c>
     </row>
     <row r="11">
@@ -646,22 +616,19 @@
         <v>1</v>
       </c>
       <c r="B11" t="str">
-        <v>شركة دوم بارك للمقاولات</v>
+        <v>Bunoon Wa Funoon Contracting Co.</v>
       </c>
       <c r="C11" t="str">
-        <v>251725170</v>
+        <v>138113818</v>
       </c>
       <c r="D11" t="str">
-        <v>0553518088</v>
+        <v>info@bfconst.com</v>
       </c>
       <c r="E11" t="str">
-        <v>vv.com838@icloud.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F11" t="str">
-        <v>المويه الجديد</v>
-      </c>
-      <c r="G11" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,تحضير الموقع,صب القواعد والاساسات,أنشطة أخرى لتحضير الموقع,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Specialized construction activities,Building completion and finishing ,Building finishing,Services to buildings and landscape activities,Combined facilities support activities ,Provision of maintenance services within facilities,Activities of government buildings cleaning services</v>
       </c>
     </row>
     <row r="12">
@@ -669,22 +636,19 @@
         <v>1</v>
       </c>
       <c r="B12" t="str">
-        <v>شركة الوسام للمقاولات</v>
+        <v>Dome Park Contracting Company</v>
       </c>
       <c r="C12" t="str">
-        <v>106110611</v>
+        <v>251725170</v>
       </c>
       <c r="D12" t="str">
-        <v>0505643337</v>
+        <v>vv.com838@icloud.com</v>
       </c>
       <c r="E12" t="str">
-        <v>alwessam7@gmail.com</v>
+        <v>AL MUWAYH AL JADID</v>
       </c>
       <c r="F12" t="str">
-        <v>بلجرشي</v>
-      </c>
-      <c r="G12" t="str">
-        <v>أنشطة خدمات دعم التعدين,أنشطة الدعم لاستخراج النفط والغاز الطبيعي,حفر آبار النفط,حفر آبار الغاز الطبيعي,الخدمات المتصلة باستخراج النفط باستثناء خدمات المسح,الخدمات المتصلة باستخراج الغاز الطبيعي باستثناء خدمات المسح,أنشطة أخرى تتعلق بأنشطة الدعم لاستخراج النفط والغاز الطبيعي,أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,تنظيف الشوارع,جمع المواد لإعادة التصنيع,أنشطة أخرى تتعلق بجمع النفايات الغير خطرة,خدمات جمع النفايات البلدية,نقل النفايات الصناعية الغير خطرة,تجميع زيوت الطعام المستخدمة,جمع النفايات الخطرة,جمع النفايات الخطرة للزيوت المستعملة من الشحن أو المرائب,جمع النفايات الخطرة للمواد الخطرة البيولوجية,جمع النفايات الخطرة للبطاريات المستعملة,تشغيل محطات نقل النفايات للنفايات الخطرة,جمع النفايات الخطرة الأخرى,جمع ونقل النفايات الخطرة للزيوت المستعملة من منتجي هذه النفايات,نقل النفايات الطبية الخطرة,جمع ونقل النفايات الناتجة عن أعمال المكافحة والتنظيف للبيئة البحرية والساحلية,نقل النفايات الخطرة,نقل نفايات الاسبستوس,نقل الزيت من واسطة بحرية إلى أخرى داخل عرض البحر أو من مواقع تجميع الزيوت داخل البحر في حالات التلوث,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Specialized construction activities,Site preparation ,Landfill,Other site preparation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of plumbing and sanitary equipment,Other installation, maintenance and repair activities n.e.c.,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Services to buildings and landscape activities,Combined facilities support activities ,Activities of government buildings cleaning services,Provision of mail routing services,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings</v>
       </c>
     </row>
     <row r="13">
@@ -692,22 +656,19 @@
         <v>1</v>
       </c>
       <c r="B13" t="str">
-        <v>شركة رسم البناء للتجارة و المقاولات</v>
+        <v>Al-Wessam Contracting Company</v>
       </c>
       <c r="C13" t="str">
-        <v>109910994</v>
+        <v>106110611</v>
       </c>
       <c r="D13" t="str">
-        <v>0138153300</v>
+        <v>alwessam7@gmail.com</v>
       </c>
       <c r="E13" t="str">
-        <v>amz@rasmco.com.sa</v>
+        <v>BILJURASHI</v>
       </c>
       <c r="F13" t="str">
-        <v>الدمام</v>
-      </c>
-      <c r="G13" t="str">
-        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,تنظيف الشوارع,جمع المواد لإعادة التصنيع,أنشطة أخرى تتعلق بجمع النفايات الغير خطرة,خدمات جمع النفايات البلدية,نقل النفايات الصناعية الغير خطرة,تجميع زيوت الطعام المستخدمة,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب انظمة الاضاءة,تركيبات إنشائية أخرى,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,تركيب زجاج واجهات الابراج,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,إنشاء حمامات السباحة</v>
+        <v>Mining support services,Oil and natural gas extraction support activities ,Drilling of oil fields,Drilling of natural gas fields,Services related to oil extraction except surveying services,Services related to natural gas extraction except surveying services,Other activities related to oil and natural gas extraction support activities,Waste collection, treatment &amp; disposal activities; materials recovery,Collection of non-hazardous waste ,Transfer of municipal waste,Street cleaning,Collection of recyclable materials,Other non-hazardous waste collection activities,Municipal waste collection services,Transfer of non-hazardous industrial waste,Used cooking oil collection,Collection of hazardous waste ,Collection of hazardous waste, such as used oil from shipment or garages,Collection of hazardous waste, such as bio-hazardous waste,Collection of hazardous waste, such as used batteries,Operation of waste transfer stations for hazardous waste,Collection of other types of hazardous waste,Collection and transfer of hazardous wastes of used oils from producers of such wastes,Transfer of hazardous medical waste,Collection and transfer of waste resulting from the control and cleaning work of the marine and coastal environment,Transfer of hazardous wastes,Transfer of asbestos wastes,Transfer of oil from one watercraft to another within the sea or from offshore oil collection sites in cases of contamination,Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Repair and maintenance of railways and subways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Long-distance oil and gas pipelines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction, erection and repair of power plants,Repair and maintenance of wired and wireless communication stations and radars,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Dredging of waterways,Construction of dykes,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.),Repair and maintenance of dams,Repair and maintenance of port piers and marine facilities,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Blasting,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of elevators and escalators,Installation, repair and maintenance of automated and revolving doors,Installation, repair and maintenance of lightning conductors,Installation, repair and maintenance of vacuum cleaning systems,Installation, repair and maintenance of thermal, sound or vibration insulation,Other not previously mentioned construction installation, repair and maintenance activities,Installation and maintenance of elevators,Installation, repair and maintenance of escalators, conveyor and ground belts,Installation, repair and maintenance of thermal, sound or vibration insulation,Installation and repair of civil protection devices such as heavy equipment used to control earth quicks and buildings collapse and ways of individual protection,Installation and maintenance of early warning sirens and control centers,Installation and maintenance of fire equipment,Installing and maintaining storage and shelves solutions,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,Activities of government buildings cleaning services,Provision of mail routing services,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Specialized cleaning activities for buildings such as window cleaning, chimney cleaning, etc.,Swimming pool cleaning and maintenance services,Disinfecting and exterminating activities,Cleaning of trains, buses, planes, etc.,Cleaning of industrial machinery,Street sweeping and snow and ice removal,Other building and industrial cleaning activities n.e.c.,Disinfection activities and pest and rodents control by fumes,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery,Care and maintenance of greenery for sports grounds (e.g. golf courses),Care and maintenance of greenery for stationary and flowing water (basins, ponds, swimming pools, watercourses and wet areas),Care and maintenance of plants for protection against noise, wind and erosion,Care and maintenance of other types of landscap n.e.c.,Activities of landscape design services,Maintenance of land in order to keep it in good ecological condition</v>
       </c>
     </row>
     <row r="14">
@@ -715,22 +676,19 @@
         <v>1</v>
       </c>
       <c r="B14" t="str">
-        <v>شركة بنون وفنون للمقاولات</v>
+        <v>Rasm Al Benaa Trading and Contracting Co</v>
       </c>
       <c r="C14" t="str">
-        <v>138113818</v>
+        <v>109910994</v>
       </c>
       <c r="D14" t="str">
-        <v>920015058</v>
+        <v>amz@rasmco.com.sa</v>
       </c>
       <c r="E14" t="str">
-        <v>info@bfconst.com</v>
+        <v>DAMMAM</v>
       </c>
       <c r="F14" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G14" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),أنشطة التشييد المتخصصة ,اكمال المباني وتشطيبها, تشطيب المباني,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني,أنشطة خدمات التنظيف للمباني الحكومية</v>
+        <v>Waste collection, treatment &amp; disposal activities; materials recovery,Collection of non-hazardous waste ,Transfer of municipal waste,Street cleaning,Collection of recyclable materials,Other non-hazardous waste collection activities,Municipal waste collection services,Transfer of non-hazardous industrial waste,Used cooking oil collection,Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of utility projects ,Long-distance pipelines, communication and power lines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of lighting systems,Other construction installation ,Other not previously mentioned construction installation, repair and maintenance activities,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Interior and exterior painting of buildings,Painting of civil engineering structures,Exterior glass installation of towers,Other building completion work,Other specialized construction activities ,Bricklaying,Construction of outdoor swimming pools</v>
       </c>
     </row>
     <row r="15">
@@ -738,22 +696,19 @@
         <v>1</v>
       </c>
       <c r="B15" t="str">
-        <v>شركة حلول البناء الحديث للمقاولات</v>
+        <v>Manarat AlOmran AlHadeeth Contracting Est.</v>
       </c>
       <c r="C15" t="str">
-        <v>121612167</v>
+        <v>100008649</v>
       </c>
       <c r="D15" t="str">
-        <v>00966112383966</v>
+        <v>Alshehry300@gmail.com</v>
       </c>
       <c r="E15" t="str">
-        <v>ttalshammari@gmail.com</v>
+        <v>KHAMIS MUSHAYT</v>
       </c>
       <c r="F15" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G15" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,اكمال المباني وتشطيبها, تشطيب المباني,تركيب السيراميك والكاشي,أعمال وتركيب الديكورات,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,تنظيف المباني الجديدة بعد الإنشاء,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال أخرى من أعمال تركيب الطابوق والصخور,أنشطة تقديم الخدمات للمباني وتجميل المواقع,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Construction of utility projects ,Long-distance pipelines, communication and power lines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Repair and maintenance of water distribution stations, networks and main lines,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction, erection and repair of power plants,Construction of other civil engineering projects ,Construction of harbor and river works,Construction of dams,Repair and maintenance of dams,Repair and maintenance of port piers and marine facilities,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Electrical installation ,Installation of lighting systems,Installation of street lighting and airport runway lighting,Other types of electrical installation,Building completion and finishing ,Building finishing</v>
       </c>
     </row>
     <row r="16">
@@ -761,22 +716,19 @@
         <v>1</v>
       </c>
       <c r="B16" t="str">
-        <v>مؤسسة منى نزال دحيدح الحربي للمقاولات العامة</v>
+        <v>Munira Nasser Omair Al Omair Contracting Est</v>
       </c>
       <c r="C16" t="str">
-        <v>232123211</v>
+        <v>132413246</v>
       </c>
       <c r="D16" t="str">
-        <v/>
+        <v>aazzsaleh882364@gmail.com</v>
       </c>
       <c r="E16" t="str">
-        <v>f15-f20@hotmail.com</v>
+        <v>HAFAR AL BATIN</v>
       </c>
       <c r="F16" t="str">
-        <v>بريدة</v>
-      </c>
-      <c r="G16" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures</v>
       </c>
     </row>
     <row r="17">
@@ -784,22 +736,19 @@
         <v>1</v>
       </c>
       <c r="B17" t="str">
-        <v>مؤسسة التنفيذ الفريد للمقاولات العامة</v>
+        <v>Modern Building Solutions Contracting Company</v>
       </c>
       <c r="C17" t="str">
-        <v>181518150</v>
+        <v>121612167</v>
       </c>
       <c r="D17" t="str">
-        <v>0173173300</v>
+        <v>ttalshammari@gmail.com</v>
       </c>
       <c r="E17" t="str">
-        <v>qanai1234@hotmail.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F17" t="str">
-        <v>جازان</v>
-      </c>
-      <c r="G17" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Specialized construction activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Building completion and finishing ,Building finishing,Installation of ceramic,Installation of decor,Works of plaster or stucco,Interior and exterior painting of buildings,Cleaning of new buildings after construction,Other building completion work,Other specialized construction activities ,Other bricklaying and stone setting work,Services to buildings and landscape activities,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery,Care and maintenance of greenery for sports grounds (e.g. golf courses),Care and maintenance of greenery for stationary and flowing water (basins, ponds, swimming pools, watercourses and wet areas),Care and maintenance of plants for protection against noise, wind and erosion,Care and maintenance of other types of landscap n.e.c.,Activities of landscape design services,Maintenance of land in order to keep it in good ecological condition</v>
       </c>
     </row>
     <row r="18">
@@ -807,22 +756,19 @@
         <v>1</v>
       </c>
       <c r="B18" t="str">
-        <v>شركة المنارات الذهبيه للمقاولات</v>
+        <v>Rawasi Sama Contracting Company</v>
       </c>
       <c r="C18" t="str">
-        <v>414741474</v>
+        <v>305530557</v>
       </c>
       <c r="D18" t="str">
-        <v/>
+        <v>Ce3@hotmail.com</v>
       </c>
       <c r="E18" t="str">
-        <v>Moodel121212@hotmail.com</v>
+        <v>HAFAR AL BATIN</v>
       </c>
       <c r="F18" t="str">
-        <v>محايل</v>
-      </c>
-      <c r="G18" t="str">
-        <v xml:space="preserve"> لا يوجد بيانات</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Blasting,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of elevators and escalators,Installation, repair and maintenance of automated and revolving doors,Installation, repair and maintenance of lightning conductors,Installation, repair and maintenance of vacuum cleaning systems,Installation, repair and maintenance of thermal, sound or vibration insulation,Other not previously mentioned construction installation, repair and maintenance activities,Installation and maintenance of elevators,Installation, repair and maintenance of escalators, conveyor and ground belts,Installation, repair and maintenance of thermal, sound or vibration insulation,Installation and repair of civil protection devices such as heavy equipment used to control earth quicks and buildings collapse and ways of individual protection,Installation and maintenance of early warning sirens and control centers,Installation and maintenance of fire equipment,Installing and maintaining storage and shelves solutions,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,Activities of government buildings cleaning services,Provision of mail routing services,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Specialized cleaning activities for buildings such as window cleaning, chimney cleaning, etc.,Swimming pool cleaning and maintenance services,Disinfecting and exterminating activities,Cleaning of trains, buses, planes, etc.,Cleaning of industrial machinery,Street sweeping and snow and ice removal,Other building and industrial cleaning activities n.e.c.,Disinfection activities and pest and rodents control by fumes,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery,Care and maintenance of greenery for sports grounds (e.g. golf courses),Care and maintenance of greenery for stationary and flowing water (basins, ponds, swimming pools, watercourses and wet areas),Care and maintenance of plants for protection against noise, wind and erosion,Care and maintenance of other types of landscap n.e.c.,Activities of landscape design services,Maintenance of land in order to keep it in good ecological condition</v>
       </c>
     </row>
     <row r="19">
@@ -830,22 +776,19 @@
         <v>1</v>
       </c>
       <c r="B19" t="str">
-        <v>مؤسسة وصل الخير للمقاولات</v>
+        <v>Unique Execution Corporation for General Contracting</v>
       </c>
       <c r="C19" t="str">
-        <v>144614468</v>
+        <v>181518150</v>
       </c>
       <c r="D19" t="str">
-        <v>0532226712</v>
+        <v>qanai1234@hotmail.com</v>
       </c>
       <c r="E19" t="str">
-        <v>habcdefgh2012@gmail.com</v>
+        <v>JAZAN</v>
       </c>
       <c r="F19" t="str">
-        <v>احد المسارحة</v>
-      </c>
-      <c r="G19" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures</v>
       </c>
     </row>
     <row r="20">
@@ -853,22 +796,19 @@
         <v>1</v>
       </c>
       <c r="B20" t="str">
-        <v>مؤسسة منارة العمران الحديث للمقاولات</v>
+        <v>Future Houses General Architectural Contracting Est</v>
       </c>
       <c r="C20" t="str">
-        <v>100008649</v>
+        <v>117511752</v>
       </c>
       <c r="D20" t="str">
-        <v>0532278330</v>
+        <v>f.h.c.9282@gmail.com</v>
       </c>
       <c r="E20" t="str">
-        <v>Alshehry300@gmail.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F20" t="str">
-        <v>خميس مشيط</v>
-      </c>
-      <c r="G20" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء السدود,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,التركيبات الكهربائية,تركيب انظمة الاضاءة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,التركيبات الكهربائية الأخرى,اكمال المباني وتشطيبها, تشطيب المباني</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of other not previously mentioned non-residential buildings,Specialized construction activities,Site preparation ,Landfill,Building completion and finishing ,Building finishing,Installation of ceramic,Parquet and other wooden floor coverings,Works of plaster or stucco,Interior and exterior painting of buildings</v>
       </c>
     </row>
     <row r="21">
@@ -876,22 +816,19 @@
         <v>1</v>
       </c>
       <c r="B21" t="str">
-        <v>مؤسسة فنيؤن العمار للمقاولات</v>
+        <v>Mona Nazzal Dehaidah Al Harbi General Contracting Est</v>
       </c>
       <c r="C21" t="str">
-        <v>177617761</v>
+        <v>232123211</v>
       </c>
       <c r="D21" t="str">
-        <v/>
+        <v>f15-f20@hotmail.com</v>
       </c>
       <c r="E21" t="str">
-        <v>saeedstar88@hotmail.com</v>
+        <v>BURAYDAH</v>
       </c>
       <c r="F21" t="str">
-        <v>رابغ</v>
-      </c>
-      <c r="G21" t="str">
-        <v xml:space="preserve"> لا يوجد بيانات</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Blasting,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of elevators and escalators,Installation, repair and maintenance of automated and revolving doors,Installation, repair and maintenance of lightning conductors,Installation, repair and maintenance of vacuum cleaning systems,Installation, repair and maintenance of thermal, sound or vibration insulation,Other not previously mentioned construction installation, repair and maintenance activities,Installation and maintenance of elevators,Installation, repair and maintenance of escalators, conveyor and ground belts,Installation, repair and maintenance of thermal, sound or vibration insulation,Installation and repair of civil protection devices such as heavy equipment used to control earth quicks and buildings collapse and ways of individual protection,Installation and maintenance of early warning sirens and control centers,Installation and maintenance of fire equipment,Installing and maintaining storage and shelves solutions,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,Activities of government buildings cleaning services,Provision of mail routing services,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Specialized cleaning activities for buildings such as window cleaning, chimney cleaning, etc.,Swimming pool cleaning and maintenance services,Disinfecting and exterminating activities,Cleaning of trains, buses, planes, etc.,Cleaning of industrial machinery,Street sweeping and snow and ice removal,Other building and industrial cleaning activities n.e.c.,Disinfection activities and pest and rodents control by fumes</v>
       </c>
     </row>
     <row r="22">
@@ -899,22 +836,19 @@
         <v>2</v>
       </c>
       <c r="B22" t="str">
-        <v>شركة تالا للتجارة</v>
+        <v>Mastery and Quality Architectural Contracting Est</v>
       </c>
       <c r="C22" t="str">
-        <v>100008050</v>
+        <v>131313131</v>
       </c>
       <c r="D22" t="str">
-        <v>0165335425</v>
+        <v>malki.abdulrahman80@gmail.com</v>
       </c>
       <c r="E22" t="str">
-        <v>talaxtala@hotmail.com</v>
+        <v>JEDDAH</v>
       </c>
       <c r="F22" t="str">
-        <v>حائل</v>
-      </c>
-      <c r="G22" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,ترميمات المباني السكنية والغير سكنية</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Blasting,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of elevators and escalators,Installation, repair and maintenance of automated and revolving doors,Installation, repair and maintenance of lightning conductors,Installation, repair and maintenance of vacuum cleaning systems,Installation, repair and maintenance of thermal, sound or vibration insulation,Other not previously mentioned construction installation, repair and maintenance activities,Installation and maintenance of elevators,Installation, repair and maintenance of escalators, conveyor and ground belts,Installation, repair and maintenance of thermal, sound or vibration insulation,Installation and repair of civil protection devices such as heavy equipment used to control earth quicks and buildings collapse and ways of individual protection,Installation and maintenance of early warning sirens and control centers,Installation and maintenance of fire equipment,Installing and maintaining storage and shelves solutions,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Construction of outdoor swimming pools,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,Activities of government buildings cleaning services,Provision of mail routing services,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Specialized cleaning activities for buildings such as window cleaning, chimney cleaning, etc.,Swimming pool cleaning and maintenance services,Disinfecting and exterminating activities,Cleaning of trains, buses, planes, etc.,Cleaning of industrial machinery,Street sweeping and snow and ice removal,Other building and industrial cleaning activities n.e.c.,Disinfection activities and pest and rodents control by fumes</v>
       </c>
     </row>
     <row r="23">
@@ -922,22 +856,19 @@
         <v>2</v>
       </c>
       <c r="B23" t="str">
-        <v>مؤسسة أتقان وجودة للمقاولات المعمارية</v>
+        <v>Al-Asas Engineering Corporation for General Contracting</v>
       </c>
       <c r="C23" t="str">
-        <v>131313131</v>
+        <v>400040009</v>
       </c>
       <c r="D23" t="str">
-        <v>0548002240</v>
+        <v>b2b2020@outlook.sa</v>
       </c>
       <c r="E23" t="str">
-        <v>malki.abdulrahman80@gmail.com</v>
+        <v>AL MADINAH AL MUNAWWARAH</v>
       </c>
       <c r="F23" t="str">
-        <v>جدة</v>
-      </c>
-      <c r="G23" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,إنشاء حمامات السباحة,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض</v>
+        <v>No Data</v>
       </c>
     </row>
     <row r="24">
@@ -945,22 +876,19 @@
         <v>2</v>
       </c>
       <c r="B24" t="str">
-        <v>مؤسسة بيوت المستقبل للمقاولات المعمارية العامة</v>
+        <v>Al-Manarat Al-Dhahabiya Contracting Company</v>
       </c>
       <c r="C24" t="str">
-        <v>117511752</v>
+        <v>414741474</v>
       </c>
       <c r="D24" t="str">
-        <v>0540950956</v>
+        <v>Moodel121212@hotmail.com</v>
       </c>
       <c r="E24" t="str">
-        <v>f.h.c.9282@gmail.com</v>
+        <v>MUHAYIL</v>
       </c>
       <c r="F24" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G24" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,أنشطة التشييد المتخصصة ,تحضير الموقع,صب القواعد والاساسات,اكمال المباني وتشطيبها, تشطيب المباني,تركيب السيراميك والكاشي,تغطية الارضيات خشب الباركيه,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية</v>
+        <v>No Data</v>
       </c>
     </row>
     <row r="25">
@@ -968,22 +896,19 @@
         <v>2</v>
       </c>
       <c r="B25" t="str">
-        <v>شركة حلول اكن للمقاولات</v>
+        <v>Tala Trading Company</v>
       </c>
       <c r="C25" t="str">
-        <v>446844684</v>
+        <v>100008050</v>
       </c>
       <c r="D25" t="str">
-        <v>0126688055</v>
+        <v>talaxtala@hotmail.com</v>
       </c>
       <c r="E25" t="str">
-        <v>alwa7ed@hotmail.com</v>
+        <v>HAIL</v>
       </c>
       <c r="F25" t="str">
-        <v>جدة</v>
-      </c>
-      <c r="G25" t="str">
-        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,تنظيف الشوارع,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات التنظيف للمباني الحكومية,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,أنشطة تنظيف الطرق,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Remodeling or renovating existing residential and non- residential structures</v>
       </c>
     </row>
     <row r="26">
@@ -991,22 +916,19 @@
         <v>2</v>
       </c>
       <c r="B26" t="str">
-        <v>مؤسسة الاساس الهندسي للمقاولات العامة</v>
+        <v>Fineun Alamar Contracting Est</v>
       </c>
       <c r="C26" t="str">
-        <v>400040009</v>
+        <v>177617761</v>
       </c>
       <c r="D26" t="str">
-        <v/>
+        <v>saeedstar88@hotmail.com</v>
       </c>
       <c r="E26" t="str">
-        <v>b2b2020@outlook.sa</v>
+        <v>RABIGH</v>
       </c>
       <c r="F26" t="str">
-        <v>المدينة المنورة</v>
-      </c>
-      <c r="G26" t="str">
-        <v xml:space="preserve"> لا يوجد بيانات</v>
+        <v>No Data</v>
       </c>
     </row>
     <row r="27">
@@ -1014,22 +936,19 @@
         <v>2</v>
       </c>
       <c r="B27" t="str">
-        <v>شركة رواسي سما للمقاولات</v>
+        <v>acn solutions for contracting</v>
       </c>
       <c r="C27" t="str">
-        <v>305530557</v>
+        <v>446844684</v>
       </c>
       <c r="D27" t="str">
-        <v>0500012488</v>
+        <v>alwa7ed@hotmail.com</v>
       </c>
       <c r="E27" t="str">
-        <v>Ce3@hotmail.com</v>
+        <v>JEDDAH</v>
       </c>
       <c r="F27" t="str">
-        <v>حفر الباطن</v>
-      </c>
-      <c r="G27" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
+        <v>Waste collection, treatment &amp; disposal activities; materials recovery,Collection of non-hazardous waste ,Street cleaning,Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Repair and maintenance of railways and subways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Long-distance oil and gas pipelines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction, erection and repair of power plants,Repair and maintenance of wired and wireless communication stations and radars,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Dredging of waterways,Construction of dykes,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.),Repair and maintenance of dams,Repair and maintenance of port piers and marine facilities,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Other construction installation ,Installation, repair and maintenance of elevators and escalators,Installation, repair and maintenance of automated and revolving doors,Installation, repair and maintenance of lightning conductors,Installation, repair and maintenance of vacuum cleaning systems,Installation, repair and maintenance of thermal, sound or vibration insulation,Other not previously mentioned construction installation, repair and maintenance activities,Installation and maintenance of elevators,Installation, repair and maintenance of escalators, conveyor and ground belts,Installation, repair and maintenance of thermal, sound or vibration insulation,Installation and repair of civil protection devices such as heavy equipment used to control earth quicks and buildings collapse and ways of individual protection,Installation and maintenance of early warning sirens and control centers,Installation and maintenance of fire equipment,Installing and maintaining storage and shelves solutions,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.,Services to buildings and landscape activities,Combined facilities support activities ,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Activities of government buildings cleaning services,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Street sweeping and snow and ice removal,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery,Care and maintenance of greenery for sports grounds (e.g. golf courses),Care and maintenance of greenery for stationary and flowing water (basins, ponds, swimming pools, watercourses and wet areas),Care and maintenance of plants for protection against noise, wind and erosion,Care and maintenance of other types of landscap n.e.c.,Activities of landscape design services,Maintenance of land in order to keep it in good ecological condition</v>
       </c>
     </row>
     <row r="28">
@@ -1037,22 +956,19 @@
         <v>2</v>
       </c>
       <c r="B28" t="str">
-        <v>مؤسسة منيره ناصر عمير العمير للمقاولات</v>
+        <v>Wasl Al Khair Contracting Est</v>
       </c>
       <c r="C28" t="str">
-        <v>132413246</v>
+        <v>144614468</v>
       </c>
       <c r="D28" t="str">
-        <v/>
+        <v>habcdefgh2012@gmail.com</v>
       </c>
       <c r="E28" t="str">
-        <v>aazzsaleh882364@gmail.com</v>
+        <v>AHAD AL MUSARIHAH</v>
       </c>
       <c r="F28" t="str">
-        <v>حفر الباطن</v>
-      </c>
-      <c r="G28" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Repair and maintenance of railways and subways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Long-distance oil and gas pipelines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction, erection and repair of power plants,Repair and maintenance of wired and wireless communication stations and radars,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Dredging of waterways,Construction of dykes,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.),Repair and maintenance of dams,Repair and maintenance of port piers and marine facilities,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.,Services to buildings and landscape activities,Combined facilities support activities ,Provision of maintenance services within facilities,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing</v>
       </c>
     </row>
     <row r="29">
@@ -1060,22 +976,19 @@
         <v>2</v>
       </c>
       <c r="B29" t="str">
-        <v>مؤسسة مها غدير رمضان الشمري للمقاولات العامة</v>
+        <v>Maha Ghadeer Ramadan Al Shammari General Contracting Est</v>
       </c>
       <c r="C29" t="str">
         <v>180118011</v>
       </c>
       <c r="D29" t="str">
-        <v>0558444258</v>
+        <v>abda1zaal@hotmail.com</v>
       </c>
       <c r="E29" t="str">
-        <v>abda1zaal@hotmail.com</v>
+        <v>AL HUFUF</v>
       </c>
       <c r="F29" t="str">
-        <v>الهفوف</v>
-      </c>
-      <c r="G29" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Dredging of waterways,Construction of dykes,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.),Repair and maintenance of dams,Repair and maintenance of port piers and marine facilities,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Blasting,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,Activities of government buildings cleaning services,Provision of mail routing services,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Specialized cleaning activities for buildings such as window cleaning, chimney cleaning, etc.,Swimming pool cleaning and maintenance services,Disinfecting and exterminating activities,Cleaning of trains, buses, planes, etc.,Cleaning of industrial machinery,Street sweeping and snow and ice removal,Other building and industrial cleaning activities n.e.c.,Disinfection activities and pest and rodents control by fumes,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery,Care and maintenance of greenery for stationary and flowing water (basins, ponds, swimming pools, watercourses and wet areas),Care and maintenance of plants for protection against noise, wind and erosion,Care and maintenance of other types of landscap n.e.c.,Activities of landscape design services,Maintenance of land in order to keep it in good ecological condition</v>
       </c>
     </row>
     <row r="30">
@@ -1083,22 +996,19 @@
         <v>2</v>
       </c>
       <c r="B30" t="str">
-        <v>شركة نجمة المعمار للمقاولات العامة (شركة شخص واحد)</v>
+        <v>Najmat Al Mimar General Contracting Company (one person company)</v>
       </c>
       <c r="C30" t="str">
         <v>281528159</v>
       </c>
       <c r="D30" t="str">
-        <v/>
+        <v>nasy-11@outlook.com</v>
       </c>
       <c r="E30" t="str">
-        <v>nasy-11@outlook.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F30" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G30" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Blasting,Other site preparation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,Activities of government buildings cleaning services,Provision of mail routing services,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Specialized cleaning activities for buildings such as window cleaning, chimney cleaning, etc.,Swimming pool cleaning and maintenance services,Disinfecting and exterminating activities,Cleaning of trains, buses, planes, etc.,Cleaning of industrial machinery,Street sweeping and snow and ice removal,Other building and industrial cleaning activities n.e.c.,Disinfection activities and pest and rodents control by fumes,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery,Care and maintenance of greenery for sports grounds (e.g. golf courses),Care and maintenance of greenery for stationary and flowing water (basins, ponds, swimming pools, watercourses and wet areas),Care and maintenance of plants for protection against noise, wind and erosion,Care and maintenance of other types of landscap n.e.c.,Activities of landscape design services,Maintenance of land in order to keep it in good ecological condition</v>
       </c>
     </row>
     <row r="31">
@@ -1106,22 +1016,19 @@
         <v>2</v>
       </c>
       <c r="B31" t="str">
-        <v>مؤسسة وسام الوشم للمقاولات العامة</v>
+        <v>Wissam Al-Washm General Contracting Est</v>
       </c>
       <c r="C31" t="str">
         <v>200120015</v>
       </c>
       <c r="D31" t="str">
-        <v/>
+        <v>bader202005@gmail.com</v>
       </c>
       <c r="E31" t="str">
-        <v>bader202005@gmail.com</v>
+        <v>SHAQRA'</v>
       </c>
       <c r="F31" t="str">
-        <v>شقراء</v>
-      </c>
-      <c r="G31" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Repair and maintenance of railways and subways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Long-distance oil and gas pipelines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction, erection and repair of power plants,Repair and maintenance of wired and wireless communication stations and radars,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Dredging of waterways,Construction of dykes,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.),Repair and maintenance of dams,Repair and maintenance of port piers and marine facilities,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Blasting,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of elevators and escalators,Installation, repair and maintenance of automated and revolving doors,Installation, repair and maintenance of lightning conductors,Installation, repair and maintenance of vacuum cleaning systems,Installation, repair and maintenance of thermal, sound or vibration insulation,Other not previously mentioned construction installation, repair and maintenance activities,Installation and maintenance of elevators,Installation, repair and maintenance of escalators, conveyor and ground belts,Installation, repair and maintenance of thermal, sound or vibration insulation,Installation and repair of civil protection devices such as heavy equipment used to control earth quicks and buildings collapse and ways of individual protection,Installation and maintenance of early warning sirens and control centers,Installation and maintenance of fire equipment,Installing and maintaining storage and shelves solutions,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,Activities of government buildings cleaning services,Provision of mail routing services,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Specialized cleaning activities for buildings such as window cleaning, chimney cleaning, etc.,Swimming pool cleaning and maintenance services,Disinfecting and exterminating activities,Cleaning of trains, buses, planes, etc.,Cleaning of industrial machinery,Street sweeping and snow and ice removal,Other building and industrial cleaning activities n.e.c.,Disinfection activities and pest and rodents control by fumes,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery,Care and maintenance of greenery for sports grounds (e.g. golf courses),Care and maintenance of greenery for stationary and flowing water (basins, ponds, swimming pools, watercourses and wet areas),Care and maintenance of plants for protection against noise, wind and erosion,Care and maintenance of other types of landscap n.e.c.,Activities of landscape design services,Maintenance of land in order to keep it in good ecological condition</v>
       </c>
     </row>
     <row r="32">
@@ -1129,22 +1036,19 @@
         <v>2</v>
       </c>
       <c r="B32" t="str">
-        <v>مؤسسة خياري الامثل للمقاولات</v>
+        <v>My Best Choice Contracting Est</v>
       </c>
       <c r="C32" t="str">
         <v>100004514</v>
       </c>
       <c r="D32" t="str">
-        <v>920019963</v>
+        <v>Salnofaiy@gmail.com</v>
       </c>
       <c r="E32" t="str">
-        <v>Salnofaiy@gmail.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F32" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G32" t="str">
-        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,تنظيف الشوارع,خدمات جمع النفايات البلدية,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,تنظيف الممرات المائية,إصلاح وصيانة السدود,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
+        <v>Waste collection, treatment &amp; disposal activities; materials recovery,Collection of non-hazardous waste ,Transfer of municipal waste,Street cleaning,Municipal waste collection services,Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Repair and maintenance of railways and subways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction, erection and repair of power plants,Repair and maintenance of wired and wireless communication stations and radars,Construction of other civil engineering projects ,Dredging of waterways,Repair and maintenance of dams,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Blasting,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of elevators and escalators,Installation, repair and maintenance of automated and revolving doors,Installation, repair and maintenance of vacuum cleaning systems,Installation, repair and maintenance of thermal, sound or vibration insulation,Other not previously mentioned construction installation, repair and maintenance activities,Installation and maintenance of elevators,Installation, repair and maintenance of escalators, conveyor and ground belts,Installation, repair and maintenance of thermal, sound or vibration insulation,Installation and repair of civil protection devices such as heavy equipment used to control earth quicks and buildings collapse and ways of individual protection,Installation and maintenance of early warning sirens and control centers,Installation and maintenance of fire equipment,Installing and maintaining storage and shelves solutions,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,Activities of government buildings cleaning services,Provision of mail routing services,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Specialized cleaning activities for buildings such as window cleaning, chimney cleaning, etc.,Swimming pool cleaning and maintenance services,Disinfecting and exterminating activities,Cleaning of trains, buses, planes, etc.,Cleaning of industrial machinery,Street sweeping and snow and ice removal,Other building and industrial cleaning activities n.e.c.,Disinfection activities and pest and rodents control by fumes,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery,Care and maintenance of greenery for sports grounds (e.g. golf courses),Care and maintenance of greenery for stationary and flowing water (basins, ponds, swimming pools, watercourses and wet areas),Care and maintenance of plants for protection against noise, wind and erosion,Care and maintenance of other types of landscap n.e.c.,Activities of landscape design services,Maintenance of land in order to keep it in good ecological condition</v>
       </c>
     </row>
     <row r="33">
@@ -1152,22 +1056,19 @@
         <v>2</v>
       </c>
       <c r="B33" t="str">
-        <v>مؤسسة نيلوفر هوم للمقاولات العامة</v>
+        <v>New Lover Home General Contracting Est</v>
       </c>
       <c r="C33" t="str">
         <v>138713878</v>
       </c>
       <c r="D33" t="str">
-        <v/>
+        <v>aljnshz@gmail.com</v>
       </c>
       <c r="E33" t="str">
-        <v>aljnshz@gmail.com</v>
+        <v>BURAYDAH</v>
       </c>
       <c r="F33" t="str">
-        <v>بريدة</v>
-      </c>
-      <c r="G33" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings</v>
       </c>
     </row>
     <row r="34">
@@ -1175,22 +1076,19 @@
         <v>2</v>
       </c>
       <c r="B34" t="str">
-        <v>مؤسسة نقطة وصول للمقاولات</v>
+        <v>Access point for contracting</v>
       </c>
       <c r="C34" t="str">
         <v>384138419</v>
       </c>
       <c r="D34" t="str">
-        <v/>
+        <v>taha0595742980@outlook.com</v>
       </c>
       <c r="E34" t="str">
-        <v>taha0595742980@outlook.com</v>
+        <v>AL KHAFJI</v>
       </c>
       <c r="F34" t="str">
-        <v>الخفجي</v>
-      </c>
-      <c r="G34" t="str">
-        <v xml:space="preserve"> لا يوجد بيانات</v>
+        <v>No Data</v>
       </c>
     </row>
     <row r="35">
@@ -1198,22 +1096,19 @@
         <v>2</v>
       </c>
       <c r="B35" t="str">
-        <v>شركة مساندة الإمداد المحدودة</v>
+        <v>Mosanadat Alemdad Company Ltd.</v>
       </c>
       <c r="C35" t="str">
         <v>100003449</v>
       </c>
       <c r="D35" t="str">
-        <v>0114167900</v>
+        <v>meshal@alkathiriholding.com</v>
       </c>
       <c r="E35" t="str">
-        <v>meshal@alkathiriholding.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F35" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G35" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديدات الشبكات,اكمال المباني وتشطيبها,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Specialized construction activities,Electrical installation ,Network wiring,Building completion and finishing ,Other types of floor coverings,Installation of decor,Other decor and wallpaper installation activities,Interior and exterior painting of buildings,Services to buildings and landscape activities,Combined facilities support activities ,Provision of maintenance services within facilities</v>
       </c>
     </row>
     <row r="36">
@@ -1221,22 +1116,19 @@
         <v>2</v>
       </c>
       <c r="B36" t="str">
-        <v>شركة بي اي سي العربية للمقاولات</v>
+        <v>18th Chinarailway Branch Peru Group Company Limited</v>
       </c>
       <c r="C36" t="str">
-        <v>200005232</v>
+        <v>20000803</v>
       </c>
       <c r="D36" t="str">
-        <v>966112166633</v>
+        <v>planningdepartment@cr18gksa.com</v>
       </c>
       <c r="E36" t="str">
-        <v>government.relations@becsaudi.com</v>
+        <v>DAMMAM</v>
       </c>
       <c r="F36" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G36" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Construction of utility projects ,Long-distance pipelines, communication and power lines,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Specialized construction activities,Site preparation ,Landfill,Building completion and finishing ,Other building completion work,Other specialized construction activities ,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.</v>
       </c>
     </row>
     <row r="37">
@@ -1244,22 +1136,19 @@
         <v>2</v>
       </c>
       <c r="B37" t="str">
-        <v>شركة بلت الصناعية</v>
+        <v>Dathin Contracting Company</v>
       </c>
       <c r="C37" t="str">
-        <v>10003183</v>
+        <v>10000708</v>
       </c>
       <c r="D37" t="str">
-        <v>2252877000</v>
+        <v>INFO@DATHIN.COM</v>
       </c>
       <c r="E37" t="str">
-        <v>msaber@labab.com.sa</v>
+        <v>RIYADH</v>
       </c>
       <c r="F37" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G37" t="str">
-        <v>أنشطة خدمات دعم التعدين,أنشطة الدعم لاستخراج النفط والغاز الطبيعي,حفر آبار النفط,حفر آبار الغاز الطبيعي,الخدمات المتصلة باستخراج النفط باستثناء خدمات المسح,الخدمات المتصلة باستخراج الغاز الطبيعي باستثناء خدمات المسح,أنشطة أخرى تتعلق بأنشطة الدعم لاستخراج النفط والغاز الطبيعي,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction of utility projects ,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Specialized construction activities,Electrical installation ,Electrical wiring,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of air- conditioning ducts,Services to buildings and landscape activities,Combined facilities support activities ,Provision of maintenance services within facilities,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of parks and gardens for highway greenery</v>
       </c>
     </row>
     <row r="38">
@@ -1267,22 +1156,19 @@
         <v>2</v>
       </c>
       <c r="B38" t="str">
-        <v>شركة شهم للمقاولات</v>
+        <v>Al-Ameel Co. Ltd.</v>
       </c>
       <c r="C38" t="str">
-        <v>10000886</v>
+        <v>10001985</v>
       </c>
       <c r="D38" t="str">
-        <v>0126166633</v>
+        <v>info@al-ameel.com</v>
       </c>
       <c r="E38" t="str">
-        <v>info@shahm.sa</v>
+        <v>RIYADH</v>
       </c>
       <c r="F38" t="str">
-        <v>جدة</v>
-      </c>
-      <c r="G38" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء السدود,إنشاء كاسرات الأمواج والحماية للأرصفة,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,التركيبات الكهربائية الأخرى,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الزجاج والمرايا للمباني,تنظيف المباني الجديدة بعد الإنشاء,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات التنظيف للمباني الحكومية,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of utility projects ,Long-distance pipelines, communication and power lines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Specialized construction activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Building completion and finishing ,Building finishing,Installation of ceramic,Installation of marble,Parquet and other wooden floor coverings,Installation of decor,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting</v>
       </c>
     </row>
     <row r="39">
@@ -1290,22 +1176,19 @@
         <v>2</v>
       </c>
       <c r="B39" t="str">
-        <v>شركة بكري أحمد حسن آل صعب للمقاولات</v>
+        <v>Mebrick Masoud Al-Khamisi Contracting Company is a one-person company</v>
       </c>
       <c r="C39" t="str">
-        <v>10002598</v>
+        <v>10002323</v>
       </c>
       <c r="D39" t="str">
-        <v>0172279800</v>
+        <v>mebarek99@gmail.com</v>
       </c>
       <c r="E39" t="str">
-        <v>h.bakkri@gmail.com</v>
+        <v>JEDDAH</v>
       </c>
       <c r="F39" t="str">
-        <v>محايل</v>
-      </c>
-      <c r="G39" t="str">
-        <v xml:space="preserve"> لا يوجد بيانات</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction of utility projects ,Specialized construction activities</v>
       </c>
     </row>
     <row r="40">
@@ -1313,22 +1196,19 @@
         <v>2</v>
       </c>
       <c r="B40" t="str">
-        <v>شركة البركة للإنشاءات المحدودة</v>
+        <v>Amjad Abdlwahed Mohamed Contracting Est</v>
       </c>
       <c r="C40" t="str">
-        <v>100004075</v>
+        <v>100006449</v>
       </c>
       <c r="D40" t="str">
-        <v>966122342384</v>
+        <v>amjad007.com@gmail.com</v>
       </c>
       <c r="E40" t="str">
-        <v>aziz@albaraka-co.com</v>
+        <v>MUHAYIL</v>
       </c>
       <c r="F40" t="str">
-        <v>جدة</v>
-      </c>
-      <c r="G40" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of utility projects ,Long-distance pipelines, communication and power lines,Specialized construction activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of refrigeration or air-conditioning equipment</v>
       </c>
     </row>
     <row r="41">
@@ -1336,22 +1216,19 @@
         <v>2</v>
       </c>
       <c r="B41" t="str">
-        <v>شركة درع التطوير للتجارة</v>
+        <v>Arabian Shadows Company for Trading and Contracting</v>
       </c>
       <c r="C41" t="str">
-        <v>100003470</v>
+        <v>100004520</v>
       </c>
       <c r="D41" t="str">
-        <v>920019019</v>
+        <v>s.almallouhi@arabshadows.com</v>
       </c>
       <c r="E41" t="str">
-        <v>aymen@armis.com.sa</v>
+        <v>RIYADH</v>
       </c>
       <c r="F41" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G41" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of bridges or tunnels,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Construction of utility projects ,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction, erection and repair of power plants,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Dredging of waterways,Construction of dykes,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.),Repair and maintenance of dams,Repair and maintenance of port piers and marine facilities,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of automated and revolving doors,Installation, repair and maintenance of vacuum cleaning systems,Other not previously mentioned construction installation, repair and maintenance activities,Installation and maintenance of elevators,Installation, repair and maintenance of escalators, conveyor and ground belts,Installation, repair and maintenance of thermal, sound or vibration insulation,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Installation of furniture,Other building completion work,Other specialized construction activities ,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,Activities of government buildings cleaning services,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Specialized cleaning activities for buildings such as window cleaning, chimney cleaning, etc.,Swimming pool cleaning and maintenance services,Disinfecting and exterminating activities,Cleaning of trains, buses, planes, etc.,Cleaning of industrial machinery,Street sweeping and snow and ice removal,Other building and industrial cleaning activities n.e.c.,Disinfection activities and pest and rodents control by fumes,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery,Care and maintenance of greenery for sports grounds (e.g. golf courses),Care and maintenance of greenery for stationary and flowing water (basins, ponds, swimming pools, watercourses and wet areas),Care and maintenance of plants for protection against noise, wind and erosion,Care and maintenance of other types of landscap n.e.c.,Activities of landscape design services,Maintenance of land in order to keep it in good ecological condition</v>
       </c>
     </row>
     <row r="42">
@@ -1359,22 +1236,19 @@
         <v>3</v>
       </c>
       <c r="B42" t="str">
-        <v>شركة مراسة</v>
+        <v>Fawares Al Olaya Contracting Company</v>
       </c>
       <c r="C42" t="str">
-        <v>10000911</v>
+        <v>100004211</v>
       </c>
       <c r="D42" t="str">
-        <v>0112112550</v>
+        <v>info@fawares.com.sa</v>
       </c>
       <c r="E42" t="str">
-        <v>m.alsuhaimi@marasah.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F42" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G42" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,أعمال السباكة والتدفئة وتكييف الهواء,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,اكمال المباني وتشطيبها, تشطيب المباني</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.</v>
       </c>
     </row>
     <row r="43">
@@ -1382,22 +1256,19 @@
         <v>3</v>
       </c>
       <c r="B43" t="str">
-        <v>شركة قلعة الخبرة للمقاولات</v>
+        <v>Maqasim Company Limited</v>
       </c>
       <c r="C43" t="str">
-        <v>100006803</v>
+        <v>100004818</v>
       </c>
       <c r="D43" t="str">
-        <v>0114559414</v>
+        <v>hsan2000@hotmail.com</v>
       </c>
       <c r="E43" t="str">
-        <v>b.abidah@ex-castle.com</v>
+        <v>JEDDAH</v>
       </c>
       <c r="F43" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G43" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,ترميمات المباني السكنية والغير سكنية</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Repair and maintenance of railways and subways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction, erection and repair of power plants,Repair and maintenance of wired and wireless communication stations and radars,Construction of other civil engineering projects ,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Repair and maintenance of dams,Repair and maintenance of port piers and marine facilities,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of solar energy collectors,Other construction installation ,Installation and maintenance of early warning sirens and control centers,Installation and maintenance of fire equipment,Building completion and finishing ,Building finishing,Services to buildings and landscape activities,Combined facilities support activities ,Provision of maintenance services within facilities,Other building and industrial cleaning activities ,Street sweeping and snow and ice removal</v>
       </c>
     </row>
     <row r="44">
@@ -1405,22 +1276,19 @@
         <v>3</v>
       </c>
       <c r="B44" t="str">
-        <v>شركة الكهرباء العصرية للمقاولات</v>
+        <v>Faisal Electro-Mechanical Company Ltd.</v>
       </c>
       <c r="C44" t="str">
-        <v>10000805</v>
+        <v>10001272</v>
       </c>
       <c r="D44" t="str">
-        <v>0126638739</v>
+        <v>FEMCO@FEMCO.COM.SA</v>
       </c>
       <c r="E44" t="str">
-        <v>info@mecksa.com</v>
+        <v>DAMMAM</v>
       </c>
       <c r="F44" t="str">
-        <v>جدة</v>
-      </c>
-      <c r="G44" t="str">
-        <v>أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of utility projects ,Long-distance pipelines, communication and power lines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of air- conditioning ducts,Other construction installation ,Installation, repair and maintenance of lightning conductors,Installation, repair and maintenance of thermal, sound or vibration insulation,Building completion and finishing ,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Other building completion work,Other specialized construction activities ,Bricklaying,Construction of outdoor swimming pools</v>
       </c>
     </row>
     <row r="45">
@@ -1428,22 +1296,19 @@
         <v>3</v>
       </c>
       <c r="B45" t="str">
-        <v>شركة التقنية والتشغيل للمقاولات</v>
+        <v>Saudi Architecture Art Maintenance Co. Ltd</v>
       </c>
       <c r="C45" t="str">
-        <v>10003037</v>
+        <v>100004618</v>
       </c>
       <c r="D45" t="str">
-        <v>920009363</v>
+        <v>bids@buildingtek.com</v>
       </c>
       <c r="E45" t="str">
-        <v>sout@otc.sa.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F45" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G45" t="str">
-        <v>الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,اكمال المباني وتشطيبها, تشطيب المباني,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures</v>
       </c>
     </row>
     <row r="46">
@@ -1451,22 +1316,19 @@
         <v>3</v>
       </c>
       <c r="B46" t="str">
-        <v>شركة منافع الخليج للمقاولات</v>
+        <v>Ansab General Contracting Company</v>
       </c>
       <c r="C46" t="str">
-        <v>100005245</v>
+        <v>100005137</v>
       </c>
       <c r="D46" t="str">
-        <v>966138254225</v>
+        <v>n.hashem@ansab.com.sa</v>
       </c>
       <c r="E46" t="str">
-        <v>afo@manafalkhaleej.com</v>
+        <v>AL KHOBAR</v>
       </c>
       <c r="F46" t="str">
-        <v>الدمام</v>
-      </c>
-      <c r="G46" t="str">
-        <v>الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Construction of utility projects ,Long-distance pipelines, communication and power lines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction, erection and repair of power plants,Construction of other civil engineering projects ,Construction of harbor and river works,Construction of pleasure ports (marinas),Dredging of waterways,Construction of dykes,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.),Repair and maintenance of dams,Repair and maintenance of port piers and marine facilities,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Blasting,Other site preparation activities,Electrical installation ,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of lighting systems,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,Activities of government buildings cleaning services,Provision of mail routing services,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery,Care and maintenance of greenery for sports grounds (e.g. golf courses),Care and maintenance of greenery for stationary and flowing water (basins, ponds, swimming pools, watercourses and wet areas),Care and maintenance of plants for protection against noise, wind and erosion,Care and maintenance of other types of landscap n.e.c.,Activities of landscape design services,Maintenance of land in order to keep it in good ecological condition</v>
       </c>
     </row>
     <row r="47">
@@ -1474,22 +1336,19 @@
         <v>3</v>
       </c>
       <c r="B47" t="str">
-        <v>شركة رموز الاتحاد الخليجي للمقاولات</v>
+        <v>Saudi Geo Co</v>
       </c>
       <c r="C47" t="str">
-        <v>30001181</v>
+        <v>100004802</v>
       </c>
       <c r="D47" t="str">
-        <v>0138672275</v>
+        <v>ehab.eltantawy@saudigeo.com.sa</v>
       </c>
       <c r="E47" t="str">
-        <v>contact@gcscontracting.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F47" t="str">
-        <v>الخبر</v>
-      </c>
-      <c r="G47" t="str">
-        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,تنظيف الشوارع,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية المطارات,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,أعمال السباكة والتدفئة وتكييف الهواء,تمديدات انابيب الري وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,أنشطة تنظيف الطرق</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures</v>
       </c>
     </row>
     <row r="48">
@@ -1497,22 +1356,19 @@
         <v>3</v>
       </c>
       <c r="B48" t="str">
-        <v>شركة القصيبي للخدمات المحدودة</v>
+        <v>Alhejaz Horizon Ltd. Company</v>
       </c>
       <c r="C48" t="str">
-        <v>100005370</v>
+        <v>100006812</v>
       </c>
       <c r="D48" t="str">
-        <v>00966138472444</v>
+        <v>alhejazhorizon@hotmail.com</v>
       </c>
       <c r="E48" t="str">
-        <v>khalid.alabdulaziz@algosaibi.com.sa</v>
+        <v>MAKKAH AL MUKARRAMAH</v>
       </c>
       <c r="F48" t="str">
-        <v>الدمام</v>
-      </c>
-      <c r="G48" t="str">
-        <v>أنشطة التشييد المتخصصة ,اكمال المباني وتشطيبها,تنظيف المباني الجديدة بعد الإنشاء,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات التنظيف للمباني الحكومية,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر</v>
+        <v>Civil engineering,Construction of utility projects ,Construction, erection and repair of power plants,Construction, erection and repair of power plants,Specialized construction activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Other construction installation ,Installation, repair and maintenance of elevators and escalators,Installation, repair and maintenance of automated and revolving doors,Installation and maintenance of elevators,Installation, repair and maintenance of escalators, conveyor and ground belts,Installation and maintenance of early warning sirens and control centers,Installation and maintenance of fire equipment,Building completion and finishing ,Cleaning of new buildings after construction,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Activities of government buildings cleaning services,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Specialized cleaning activities for buildings such as window cleaning, chimney cleaning, etc.,Swimming pool cleaning and maintenance services,Disinfecting and exterminating activities,Street sweeping and snow and ice removal,Other building and industrial cleaning activities n.e.c.,Disinfection activities and pest and rodents control by fumes,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of parks and gardens for highway greenery</v>
       </c>
     </row>
     <row r="49">
@@ -1520,22 +1376,19 @@
         <v>3</v>
       </c>
       <c r="B49" t="str">
-        <v>شركة سوجتس كوربوريشن</v>
+        <v>Alkhorayef Water &amp; Power Technologies Company</v>
       </c>
       <c r="C49" t="str">
-        <v>200007124</v>
+        <v>10002677</v>
       </c>
       <c r="D49" t="str">
-        <v>966126627253</v>
+        <v>talsayadi@alkhorayef.com</v>
       </c>
       <c r="E49" t="str">
-        <v>masood.asif@sojitz.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F49" t="str">
-        <v>جدة</v>
-      </c>
-      <c r="G49" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تركيب انظمة الاضاءة,تركيب انظمة اضاءة الطرق ومهابط الطائرات</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Long-distance oil and gas pipelines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants,Construction of dams,Dredging of waterways,Repair and maintenance of dams,Specialized construction activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Other site preparation activities,Electrical installation ,Network wiring,Building completion and finishing ,Building finishing,Services to buildings and landscape activities,Combined facilities support activities ,Provision of maintenance services within facilities</v>
       </c>
     </row>
     <row r="50">
@@ -1543,22 +1396,19 @@
         <v>3</v>
       </c>
       <c r="B50" t="str">
-        <v>شركة فداك للطرق والمقاولات</v>
+        <v>Khalf Almoheet Contracting Est.</v>
       </c>
       <c r="C50" t="str">
-        <v>10001297</v>
+        <v>100007302</v>
       </c>
       <c r="D50" t="str">
-        <v/>
+        <v>khalfalmoheet@gmail.com</v>
       </c>
       <c r="E50" t="str">
-        <v>haa@fidakcom.com</v>
+        <v>FAYFA</v>
       </c>
       <c r="F50" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G50" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء السدود,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,اكمال المباني وتشطيبها,أعمال وتركيب الديكورات,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,أنشطة تنظيف الطرق</v>
+        <v>Waste collection, treatment &amp; disposal activities; materials recovery,Collection of non-hazardous waste ,Transfer of municipal waste,Street cleaning,Other non-hazardous waste collection activities,Municipal waste collection services,Transfer of non-hazardous industrial waste,Specialized construction activities,Site preparation ,Building site drainage</v>
       </c>
     </row>
     <row r="51">
@@ -1566,22 +1416,19 @@
         <v>3</v>
       </c>
       <c r="B51" t="str">
-        <v>مؤسسة الحاضرة للمقاولات العامة</v>
+        <v>A.J. Corporation Company Branch</v>
       </c>
       <c r="C51" t="str">
-        <v>465046504</v>
+        <v>200003781</v>
       </c>
       <c r="D51" t="str">
-        <v>0138126969</v>
+        <v>jibreel@ajcengg.pk</v>
       </c>
       <c r="E51" t="str">
-        <v>alkhruaim@yahoo.com</v>
+        <v>DAMMAM</v>
       </c>
       <c r="F51" t="str">
-        <v>صفوى</v>
-      </c>
-      <c r="G51" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Repair and maintenance of railways and subways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Long-distance oil and gas pipelines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Repair and maintenance of wired and wireless communication stations and radars,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Construction of dykes,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.),Repair and maintenance of dams,Specialized construction activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of elevators and escalators,Installation, repair and maintenance of automated and revolving doors,Installation, repair and maintenance of lightning conductors,Installation, repair and maintenance of vacuum cleaning systems,Installation, repair and maintenance of thermal, sound or vibration insulation,Other not previously mentioned construction installation, repair and maintenance activities,Installation and maintenance of elevators,Installation, repair and maintenance of escalators, conveyor and ground belts,Installation, repair and maintenance of thermal, sound or vibration insulation,Installation and repair of civil protection devices such as heavy equipment used to control earth quicks and buildings collapse and ways of individual protection,Installation and maintenance of early warning sirens and control centers,Installation and maintenance of fire equipment,Installing and maintaining storage and shelves solutions,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.</v>
       </c>
     </row>
     <row r="52">
@@ -1589,22 +1436,19 @@
         <v>3</v>
       </c>
       <c r="B52" t="str">
-        <v>شركة فن المعمار السعودية للصيانة المحدودة</v>
+        <v>Shanahan Engineering Limited</v>
       </c>
       <c r="C52" t="str">
-        <v>100004618</v>
+        <v>200006228</v>
       </c>
       <c r="D52" t="str">
-        <v>966114041919</v>
+        <v>govt.affairs@shanahaneng.ie</v>
       </c>
       <c r="E52" t="str">
-        <v>bids@buildingtek.com</v>
+        <v>AL KHOBAR</v>
       </c>
       <c r="F52" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G52" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية</v>
+        <v>Civil engineering,Construction of utility projects ,Construction, erection and repair of power plants</v>
       </c>
     </row>
     <row r="53">
@@ -1612,22 +1456,19 @@
         <v>3</v>
       </c>
       <c r="B53" t="str">
-        <v>شركة خطوط الطاقة للمقاولات</v>
+        <v>Qemmet Alrawsi Contracting Co</v>
       </c>
       <c r="C53" t="str">
-        <v>10002512</v>
+        <v>10001416</v>
       </c>
       <c r="D53" t="str">
-        <v/>
+        <v>qemmet.alrawasi@gmail.com</v>
       </c>
       <c r="E53" t="str">
-        <v>hazem@plc-sa.net</v>
+        <v>RIYADH</v>
       </c>
       <c r="F53" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G53" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني</v>
+        <v>Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of lawn sprinkler systems,Services to buildings and landscape activities,Other building and industrial cleaning activities ,Street sweeping and snow and ice removal</v>
       </c>
     </row>
     <row r="54">
@@ -1635,22 +1476,19 @@
         <v>3</v>
       </c>
       <c r="B54" t="str">
-        <v>شركة عمارة الإنشاء والتشطيبات العالمية المحدودة</v>
+        <v>Awad Saad Binzafrah Contracting Company</v>
       </c>
       <c r="C54" t="str">
-        <v>10000719</v>
+        <v>10001760</v>
       </c>
       <c r="D54" t="str">
-        <v>0126144555</v>
+        <v>ali.alwaeli@binzafrah.com</v>
       </c>
       <c r="E54" t="str">
-        <v>info@amarahksa.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F54" t="str">
-        <v>جدة</v>
-      </c>
-      <c r="G54" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب انظمة الاضاءة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,اكمال المباني وتشطيبها, تشطيب المباني</v>
+        <v>Civil engineering,Construction of utility projects ,Long-distance pipelines, communication and power lines,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Specialized construction activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Other electrical and telecommunications wiring activities</v>
       </c>
     </row>
     <row r="55">
@@ -1658,22 +1496,19 @@
         <v>3</v>
       </c>
       <c r="B55" t="str">
-        <v>شركة البابطين للمقاولات</v>
+        <v>alhadirh Gen Cont Est</v>
       </c>
       <c r="C55" t="str">
-        <v>10001767</v>
+        <v>465046504</v>
       </c>
       <c r="D55" t="str">
-        <v/>
+        <v>alkhruaim@yahoo.com</v>
       </c>
       <c r="E55" t="str">
-        <v>naif@abc.sa.com</v>
+        <v>SAFWA</v>
       </c>
       <c r="F55" t="str">
-        <v>الدمام</v>
-      </c>
-      <c r="G55" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Installation of lighting systems,Installation of fire alarms,Installation and maintenance of fire alarms devices and equipment,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of thermal, sound or vibration insulation,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Services to buildings and landscape activities,Combined facilities support activities ,Provision of maintenance services within facilities</v>
       </c>
     </row>
     <row r="56">
@@ -1681,22 +1516,19 @@
         <v>3</v>
       </c>
       <c r="B56" t="str">
-        <v>شركة الرواد الفنيه للتجارة والمقاولات العامة المحدودة</v>
+        <v>Abdullah Assaf Mohammed Al Ghamdi Contracting Est</v>
       </c>
       <c r="C56" t="str">
-        <v>100003917</v>
+        <v>10000799</v>
       </c>
       <c r="D56" t="str">
-        <v>0126648565</v>
+        <v>alassafcompany@hotmail.com</v>
       </c>
       <c r="E56" t="str">
-        <v>TAWFIQ@PT-TGC.COM</v>
+        <v>BILJURASHI</v>
       </c>
       <c r="F56" t="str">
-        <v>جدة</v>
-      </c>
-      <c r="G56" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings</v>
       </c>
     </row>
     <row r="57">
@@ -1704,22 +1536,19 @@
         <v>3</v>
       </c>
       <c r="B57" t="str">
-        <v>شركة الكفاح العالمية للمقاولات</v>
+        <v>Ahmed Nasser Al Binali &amp; Sons Trading &amp; Contracting Company</v>
       </c>
       <c r="C57" t="str">
-        <v>10000864</v>
+        <v>10000846</v>
       </c>
       <c r="D57" t="str">
-        <v>966112478887</v>
+        <v>nalbinali@albinali.com</v>
       </c>
       <c r="E57" t="str">
-        <v>info@alkifahco.com</v>
+        <v>DHAHRAN</v>
       </c>
       <c r="F57" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G57" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة التشييد المتخصصة ,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,أنشطة تقديم الخدمات للمباني وتجميل المواقع,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,أنشطة خدمات تصميم المناظر الطبيعية</v>
+        <v>Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Construction of other civil engineering projects ,Construction of harbor and river works,Specialized construction activities,Electrical installation ,Electrical wiring</v>
       </c>
     </row>
     <row r="58">
@@ -1727,22 +1556,19 @@
         <v>3</v>
       </c>
       <c r="B58" t="str">
-        <v>فرع المؤسسة الوطنية للقوى الكهربائية المحدودة</v>
+        <v>Afaq Almanzil Construction &amp; Development Company Ltd.</v>
       </c>
       <c r="C58" t="str">
-        <v>200006257</v>
+        <v>20002163</v>
       </c>
       <c r="D58" t="str">
-        <v>966126132073</v>
+        <v>r.jafar@afaqalmanzil.com</v>
       </c>
       <c r="E58" t="str">
-        <v>npcc@npcc.com.sa</v>
+        <v/>
       </c>
       <c r="F58" t="str">
-        <v>جدة</v>
-      </c>
-      <c r="G58" t="str">
-        <v xml:space="preserve"> لا يوجد بيانات</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Civil engineering,Construction of utility projects ,Long-distance pipelines, communication and power lines,Establishment and Maintenance of main lines and stations of water distribution,Other utility projects construction activities n.e.c.,Specialized construction activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems</v>
       </c>
     </row>
     <row r="59">
@@ -1750,22 +1576,19 @@
         <v>3</v>
       </c>
       <c r="B59" t="str">
-        <v>شركة يوسف مرون للمقاولات</v>
+        <v>Arkal Contracting Company</v>
       </c>
       <c r="C59" t="str">
-        <v>100007451</v>
+        <v>10001010</v>
       </c>
       <c r="D59" t="str">
-        <v>0114765992</v>
+        <v>info@arkal-co.com</v>
       </c>
       <c r="E59" t="str">
-        <v>info-hr@ymco.sa</v>
+        <v>RIYADH</v>
       </c>
       <c r="F59" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G59" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,اكمال المباني وتشطيبها, تشطيب المباني,تنظيف المباني الجديدة بعد الإنشاء,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Services to buildings and landscape activities,Combined facilities support activities ,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery,Activities of landscape design services</v>
       </c>
     </row>
     <row r="60">
@@ -1773,22 +1596,19 @@
         <v>3</v>
       </c>
       <c r="B60" t="str">
-        <v>شركة سـوماك للمقاولات</v>
+        <v>International Hospitals Construction Co Ltd</v>
       </c>
       <c r="C60" t="str">
-        <v>20002939</v>
+        <v>10000932</v>
       </c>
       <c r="D60" t="str">
-        <v>00966138260427</v>
+        <v>bdm@ihcc.sa</v>
       </c>
       <c r="E60" t="str">
-        <v>info@somaccontracting.com</v>
+        <v>JEDDAH</v>
       </c>
       <c r="F60" t="str">
-        <v>الدمام</v>
-      </c>
-      <c r="G60" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء السدود,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب السقالات,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Specialized construction activities,Electrical installation ,Electrical wiring,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment</v>
       </c>
     </row>
     <row r="61">
@@ -1796,22 +1616,19 @@
         <v>3</v>
       </c>
       <c r="B61" t="str">
-        <v>شركة الجزيرة العربية المحدودة للتجارة والصناعة والمقاولات</v>
+        <v>Technical Support Company for Industrial Services</v>
       </c>
       <c r="C61" t="str">
-        <v>10001484</v>
+        <v>100007290</v>
       </c>
       <c r="D61" t="str">
-        <v>966125487000</v>
+        <v>hr@techsen.com</v>
       </c>
       <c r="E61" t="str">
-        <v>jacco@jazera.sa</v>
+        <v>AL JUBAIL</v>
       </c>
       <c r="F61" t="str">
-        <v>الطائف</v>
-      </c>
-      <c r="G61" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع</v>
+        <v>Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Blasting,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of elevators and escalators,Installation, repair and maintenance of automated and revolving doors,Installation, repair and maintenance of lightning conductors,Installation, repair and maintenance of vacuum cleaning systems,Installation, repair and maintenance of thermal, sound or vibration insulation,Other not previously mentioned construction installation, repair and maintenance activities,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.</v>
       </c>
     </row>
     <row r="62">
@@ -1819,22 +1636,19 @@
         <v>4</v>
       </c>
       <c r="B62" t="str">
-        <v>شركة دار السمار للمقاولات</v>
+        <v>Mishraf Al Madain Contracting Company</v>
       </c>
       <c r="C62" t="str">
-        <v>10002935</v>
+        <v>10002938</v>
       </c>
       <c r="D62" t="str">
-        <v>0114771477</v>
+        <v>mhamd-alm@msn.com</v>
       </c>
       <c r="E62" t="str">
-        <v>daralsammare@yahoo.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F62" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G62" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء السدود,تنظيف الممرات المائية,إصلاح وصيانة السدود,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,اكمال المباني وتشطيبها,تنظيف المباني الجديدة بعد الإنشاء,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction of utility projects ,Long-distance pipelines, communication and power lines,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Other utility projects construction activities n.e.c.,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Other computer network and cable television wiring installation activities,Other types of electrical installation,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of lawn sprinkler systems,Other installation, maintenance and repair activities n.e.c.,Building completion and finishing ,Building finishing,Interior installation of shops, mobile homes, boats etc.,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Specialized cleaning activities for buildings such as window cleaning, chimney cleaning, etc.,Cleaning of trains, buses, planes, etc.,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery</v>
       </c>
     </row>
     <row r="63">
@@ -1842,22 +1656,19 @@
         <v>4</v>
       </c>
       <c r="B63" t="str">
-        <v>شركة الحرمين للتجارة والمقاولات</v>
+        <v>Kanabal Arabian Company Ltd.</v>
       </c>
       <c r="C63" t="str">
-        <v>10001319</v>
+        <v>100004801</v>
       </c>
       <c r="D63" t="str">
-        <v>0126942000</v>
+        <v>info@canpel.com</v>
       </c>
       <c r="E63" t="str">
-        <v>muad@haramain.com.sa</v>
+        <v>JEDDAH</v>
       </c>
       <c r="F63" t="str">
-        <v>جدة</v>
-      </c>
-      <c r="G63" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء السدود,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Remodeling or renovating existing residential and non- residential structures</v>
       </c>
     </row>
     <row r="64">
@@ -1865,22 +1676,19 @@
         <v>4</v>
       </c>
       <c r="B64" t="str">
-        <v>شركة كيان المملكة كاك المحدودة</v>
+        <v>Faisal Electro-Mechanical Company Ltd.</v>
       </c>
       <c r="C64" t="str">
-        <v>100009685</v>
+        <v>10001272</v>
       </c>
       <c r="D64" t="str">
-        <v>26514999</v>
+        <v>FEMCO@FEMCO.COM.SA</v>
       </c>
       <c r="E64" t="str">
-        <v>alharthyahmad@yahoo.com</v>
+        <v>DAMMAM</v>
       </c>
       <c r="F64" t="str">
-        <v>جدة</v>
-      </c>
-      <c r="G64" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of utility projects ,Long-distance pipelines, communication and power lines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of air- conditioning ducts,Other construction installation ,Installation, repair and maintenance of lightning conductors,Installation, repair and maintenance of thermal, sound or vibration insulation,Building completion and finishing ,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Other building completion work,Other specialized construction activities ,Bricklaying,Construction of outdoor swimming pools</v>
       </c>
     </row>
     <row r="65">
@@ -1888,22 +1696,19 @@
         <v>4</v>
       </c>
       <c r="B65" t="str">
-        <v>شركة شفيق للمقاولات</v>
+        <v>National Computer Systems Company</v>
       </c>
       <c r="C65" t="str">
-        <v>100005480</v>
+        <v>100006355</v>
       </c>
       <c r="D65" t="str">
-        <v>0138052518</v>
+        <v>hassan.jamman@natcom.com.sa</v>
       </c>
       <c r="E65" t="str">
-        <v>rasool@shafiqcontracting.com</v>
+        <v>JEDDAH</v>
       </c>
       <c r="F65" t="str">
-        <v>الدمام</v>
-      </c>
-      <c r="G65" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,اكمال المباني وتشطيبها, تشطيب المباني</v>
+        <v>Specialized construction activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring</v>
       </c>
     </row>
     <row r="66">
@@ -1911,22 +1716,19 @@
         <v>4</v>
       </c>
       <c r="B66" t="str">
-        <v>شركة شبه الجزيرة للمقاولات</v>
+        <v>Tatra Information Technology Company</v>
       </c>
       <c r="C66" t="str">
-        <v>10000760</v>
+        <v>100006635</v>
       </c>
       <c r="D66" t="str">
-        <v>966114777443</v>
+        <v>tatra@tatrait.com</v>
       </c>
       <c r="E66" t="str">
-        <v>maeshal@sajco.com.sa</v>
+        <v>DAMMAM</v>
       </c>
       <c r="F66" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G66" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تركيب انظمة الاضاءة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,اكمال المباني وتشطيبها, تشطيب المباني</v>
+        <v>Specialized construction activities,Electrical installation ,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of burglar alarm systems</v>
       </c>
     </row>
     <row r="67">
@@ -1934,22 +1736,19 @@
         <v>4</v>
       </c>
       <c r="B67" t="str">
-        <v>شركة طرق التنمية للمقاولات</v>
+        <v>Rawabi Specialized Contracting Co.</v>
       </c>
       <c r="C67" t="str">
-        <v>130413048</v>
+        <v>10001412</v>
       </c>
       <c r="D67" t="str">
-        <v>0126499939</v>
+        <v>info@rscc.com.sa</v>
       </c>
       <c r="E67" t="str">
-        <v>meshari.alsaiby@dmco.sa</v>
+        <v>AL KHOBAR</v>
       </c>
       <c r="F67" t="str">
-        <v>جدة</v>
-      </c>
-      <c r="G67" t="str">
-        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,تنظيف الشوارع,خدمات جمع النفايات البلدية,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تمديدات انابيب الري وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,اكمال المباني وتشطيبها, تشطيب المباني,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الطرق,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Services to buildings and landscape activities,Combined facilities support activities ,Provision of maintenance services within facilities</v>
       </c>
     </row>
     <row r="68">
@@ -1957,22 +1756,19 @@
         <v>4</v>
       </c>
       <c r="B68" t="str">
-        <v>مؤسسة رغد المشاريع للمقاولات</v>
+        <v>A.J. Corporation Company Branch</v>
       </c>
       <c r="C68" t="str">
-        <v>10002082</v>
+        <v>200003781</v>
       </c>
       <c r="D68" t="str">
-        <v>0114916149</v>
+        <v>jibreel@ajcengg.pk</v>
       </c>
       <c r="E68" t="str">
-        <v>ie_anasah@hotmail.com</v>
+        <v>DAMMAM</v>
       </c>
       <c r="F68" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G68" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Repair and maintenance of railways and subways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Long-distance oil and gas pipelines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Repair and maintenance of wired and wireless communication stations and radars,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Construction of dykes,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.),Repair and maintenance of dams,Specialized construction activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of elevators and escalators,Installation, repair and maintenance of automated and revolving doors,Installation, repair and maintenance of lightning conductors,Installation, repair and maintenance of vacuum cleaning systems,Installation, repair and maintenance of thermal, sound or vibration insulation,Other not previously mentioned construction installation, repair and maintenance activities,Installation and maintenance of elevators,Installation, repair and maintenance of escalators, conveyor and ground belts,Installation, repair and maintenance of thermal, sound or vibration insulation,Installation and repair of civil protection devices such as heavy equipment used to control earth quicks and buildings collapse and ways of individual protection,Installation and maintenance of early warning sirens and control centers,Installation and maintenance of fire equipment,Installing and maintaining storage and shelves solutions,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.</v>
       </c>
     </row>
     <row r="69">
@@ -1980,22 +1776,19 @@
         <v>4</v>
       </c>
       <c r="B69" t="str">
-        <v>شركة المجال سيد الخدمات</v>
+        <v>Saudi Electrical Contracting Company</v>
       </c>
       <c r="C69" t="str">
-        <v>20001920</v>
+        <v>20001177</v>
       </c>
       <c r="D69" t="str">
-        <v>2849500</v>
+        <v>e.bassam@selcop.co</v>
       </c>
       <c r="E69" t="str">
-        <v>abdulrahman@almajal.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F69" t="str">
-        <v>جدة</v>
-      </c>
-      <c r="G69" t="str">
-        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,تنظيف الشوارع,تشييد المباني,تشييد المباني,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,تنظيف الممرات المائية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,اكمال المباني وتشطيبها, تشطيب المباني,أعمال وتركيب الديكورات,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,تنظيف المباني الجديدة بعد الإنشاء,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الطرق,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة</v>
+        <v>No Data</v>
       </c>
     </row>
     <row r="70">
@@ -2003,22 +1796,19 @@
         <v>4</v>
       </c>
       <c r="B70" t="str">
-        <v>شركة نوفا ست التجارية مساهمة مقفلة شركة شخص واحد</v>
+        <v>Nesma Al Sondos Contracting Company</v>
       </c>
       <c r="C70" t="str">
-        <v>10001003</v>
+        <v>100006680</v>
       </c>
       <c r="D70" t="str">
-        <v>920022006</v>
+        <v>m.saeed@nasamahsondos.com</v>
       </c>
       <c r="E70" t="str">
-        <v>khalid.assiri@novasat.com.sa</v>
+        <v>RIYADH</v>
       </c>
       <c r="F70" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G70" t="str">
-        <v>أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,تركيب وتمديد شبكات الكمبيوتر والاتصالات,التركيبات الكهربائية الأخرى</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of utility projects ,Long-distance pipelines, communication and power lines,Construction of other civil engineering projects ,Repair and maintenance of port piers and marine facilities,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Blasting,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of elevators and escalators,Installation, repair and maintenance of automated and revolving doors,Installation, repair and maintenance of lightning conductors,Installation, repair and maintenance of vacuum cleaning systems,Installation, repair and maintenance of thermal, sound or vibration insulation,Other not previously mentioned construction installation, repair and maintenance activities,Installation and maintenance of elevators,Installation, repair and maintenance of escalators, conveyor and ground belts,Installation, repair and maintenance of thermal, sound or vibration insulation,Installation and repair of civil protection devices such as heavy equipment used to control earth quicks and buildings collapse and ways of individual protection,Installation and maintenance of early warning sirens and control centers,Installation and maintenance of fire equipment,Installing and maintaining storage and shelves solutions,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of maintenance services within facilities,Activities of government buildings cleaning services,General cleaning of buildings ,General cleaning of buildings,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery</v>
       </c>
     </row>
     <row r="71">
@@ -2026,22 +1816,19 @@
         <v>4</v>
       </c>
       <c r="B71" t="str">
-        <v>شركة عوض سعد بن ظفرة للمقاولات</v>
+        <v>Building Construction Co. Ltd.</v>
       </c>
       <c r="C71" t="str">
-        <v>10001760</v>
+        <v>10003238</v>
       </c>
       <c r="D71" t="str">
-        <v>0115411118</v>
+        <v>info@bcc-sa.com</v>
       </c>
       <c r="E71" t="str">
-        <v>ali.alwaeli@binzafrah.com</v>
+        <v>AL KHOBAR</v>
       </c>
       <c r="F71" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G71" t="str">
-        <v>الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures</v>
       </c>
     </row>
     <row r="72">
@@ -2049,22 +1836,19 @@
         <v>4</v>
       </c>
       <c r="B72" t="str">
-        <v>شركة المشاريع والتجارة العامة المحدودة</v>
+        <v>Ahmed Nasser Al Binali &amp; Sons Trading &amp; Contracting Company</v>
       </c>
       <c r="C72" t="str">
-        <v>10003116</v>
+        <v>10000846</v>
       </c>
       <c r="D72" t="str">
-        <v>0112025074</v>
+        <v>nalbinali@albinali.com</v>
       </c>
       <c r="E72" t="str">
-        <v>helmi@getco.com.sa</v>
+        <v>DHAHRAN</v>
       </c>
       <c r="F72" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G72" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات</v>
+        <v>Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Construction of other civil engineering projects ,Construction of harbor and river works,Specialized construction activities,Electrical installation ,Electrical wiring</v>
       </c>
     </row>
     <row r="73">
@@ -2072,22 +1856,19 @@
         <v>4</v>
       </c>
       <c r="B73" t="str">
-        <v>مؤسسة خدمات قوى الطاقة للمقاولات العامة</v>
+        <v>Al - Orini Contracting Company</v>
       </c>
       <c r="C73" t="str">
-        <v>100007141</v>
+        <v>10000839</v>
       </c>
       <c r="D73" t="str">
-        <v/>
+        <v>info@al-orini.com</v>
       </c>
       <c r="E73" t="str">
-        <v>MOHAMMAD@ENERSERV-SA.COM</v>
+        <v>RIYADH</v>
       </c>
       <c r="F73" t="str">
-        <v>الدمام</v>
-      </c>
-      <c r="G73" t="str">
-        <v xml:space="preserve"> لا يوجد بيانات</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of utility projects ,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction of other civil engineering projects ,Construction of dams,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Electrical installation ,Electrical wiring,Building completion and finishing ,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Installation of decor,Services to buildings and landscape activities,Combined facilities support activities ,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,General cleaning of buildings ,General cleaning of buildings,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing</v>
       </c>
     </row>
     <row r="74">
@@ -2095,22 +1876,19 @@
         <v>4</v>
       </c>
       <c r="B74" t="str">
-        <v>شركة نبني المحدودة</v>
+        <v>Tasheed Almsaken Contracting Co</v>
       </c>
       <c r="C74" t="str">
-        <v>100007123</v>
+        <v>10001419</v>
       </c>
       <c r="D74" t="str">
-        <v>0554544193</v>
+        <v>tassheedalmsaken@gmail.com</v>
       </c>
       <c r="E74" t="str">
-        <v>info@nabny.sa</v>
+        <v>HAIL</v>
       </c>
       <c r="F74" t="str">
-        <v>تبوك</v>
-      </c>
-      <c r="G74" t="str">
-        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,تنظيف الشوارع,جمع المواد لإعادة التصنيع,أنشطة أخرى تتعلق بجمع النفايات الغير خطرة,خدمات جمع النفايات البلدية,نقل النفايات الصناعية الغير خطرة,تجميع زيوت الطعام المستخدمة,جمع النفايات الخطرة,جمع النفايات الخطرة للزيوت المستعملة من الشحن أو المرائب,جمع النفايات الخطرة للمواد الخطرة البيولوجية,جمع النفايات الخطرة للبطاريات المستعملة,تشغيل محطات نقل النفايات للنفايات الخطرة,جمع النفايات الخطرة الأخرى,جمع ونقل النفايات الخطرة للزيوت المستعملة من منتجي هذه النفايات,نقل النفايات الطبية الخطرة,جمع ونقل النفايات الناتجة عن أعمال المكافحة والتنظيف للبيئة البحرية والساحلية,نقل النفايات الخطرة,نقل نفايات الاسبستوس,نقل الزيت من واسطة بحرية إلى أخرى داخل عرض البحر أو من مواقع تجميع الزيوت داخل البحر في حالات التلوث,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of other not previously mentioned non-residential buildings,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction of utility projects ,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Specialized construction activities,Electrical installation ,Installation of lighting systems,Building completion and finishing ,Building finishing,Services to buildings and landscape activities,Combined facilities support activities ,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,General cleaning of buildings ,General cleaning of buildings,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens)</v>
       </c>
     </row>
     <row r="75">
@@ -2118,22 +1896,19 @@
         <v>4</v>
       </c>
       <c r="B75" t="str">
-        <v>شركة أس جي أس لخدمات الفحص العربية السعودية المحدودة</v>
+        <v>Smart Decoration Contracting Company</v>
       </c>
       <c r="C75" t="str">
-        <v>30001683</v>
+        <v>100003389</v>
       </c>
       <c r="D75" t="str">
-        <v>96613400044</v>
+        <v>smartdesign_i@yahoo.com</v>
       </c>
       <c r="E75" t="str">
-        <v>abdulaziz.alansari@sgs.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F75" t="str">
-        <v>الجبيل</v>
-      </c>
-      <c r="G75" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),إنشاءات المباني الجاهزة في المواقع</v>
+        <v>Specialized construction activities,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Other glass, mirrors installation activities,Installation of furniture,Other building completion work</v>
       </c>
     </row>
     <row r="76">
@@ -2141,22 +1916,19 @@
         <v>4</v>
       </c>
       <c r="B76" t="str">
-        <v>شركة الحلول الآصيله المحدوده</v>
+        <v>Abdulaziz Mohammed Zain Al-Abidin General Contracting Est</v>
       </c>
       <c r="C76" t="str">
-        <v>30002587</v>
+        <v>100003685</v>
       </c>
       <c r="D76" t="str">
-        <v>0112059550</v>
+        <v>mo@amz.com.sa</v>
       </c>
       <c r="E76" t="str">
-        <v>khalid@alasila.com</v>
+        <v>MAKKAH AL MUKARRAMAH</v>
       </c>
       <c r="F76" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G76" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة</v>
+        <v>Waste collection, treatment &amp; disposal activities; materials recovery,Collection of non-hazardous waste ,Transfer of municipal waste,Municipal waste collection services,Transfer of non-hazardous industrial waste,Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Repair and maintenance of railways and subways,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Electrical installation ,Electrical wiring,Network wiring,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Services to buildings and landscape activities,Combined facilities support activities ,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Activities of government buildings cleaning services,General cleaning of buildings ,General cleaning of buildings,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery,Care and maintenance of greenery for sports grounds (e.g. golf courses),Maintenance of land in order to keep it in good ecological condition</v>
       </c>
     </row>
     <row r="77">
@@ -2164,22 +1936,19 @@
         <v>4</v>
       </c>
       <c r="B77" t="str">
-        <v>شركة داثن للمقاولات</v>
+        <v>Kingdom Entity CAC Co., Ltd.</v>
       </c>
       <c r="C77" t="str">
-        <v>10000708</v>
+        <v>100009685</v>
       </c>
       <c r="D77" t="str">
-        <v>00966114633554</v>
+        <v>alharthyahmad@yahoo.com</v>
       </c>
       <c r="E77" t="str">
-        <v>INFO@DATHIN.COM</v>
+        <v>JEDDAH</v>
       </c>
       <c r="F77" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G77" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة منتزهات الطرق السريعة</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Repair and maintenance of railways and subways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Long-distance oil and gas pipelines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction, erection and repair of power plants,Repair and maintenance of wired and wireless communication stations and radars,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Dredging of waterways,Construction of dykes,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.),Repair and maintenance of dams,Repair and maintenance of port piers and marine facilities,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Blasting,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of elevators and escalators,Installation, repair and maintenance of automated and revolving doors,Installation, repair and maintenance of lightning conductors,Installation, repair and maintenance of vacuum cleaning systems,Installation, repair and maintenance of thermal, sound or vibration insulation,Other not previously mentioned construction installation, repair and maintenance activities,Installation and maintenance of elevators,Installation, repair and maintenance of escalators, conveyor and ground belts,Installation, repair and maintenance of thermal, sound or vibration insulation,Installation and repair of civil protection devices such as heavy equipment used to control earth quicks and buildings collapse and ways of individual protection,Installation and maintenance of early warning sirens and control centers,Installation and maintenance of fire equipment,Installing and maintaining storage and shelves solutions,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,Activities of government buildings cleaning services,Provision of mail routing services,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Specialized cleaning activities for buildings such as window cleaning, chimney cleaning, etc.,Swimming pool cleaning and maintenance services,Disinfecting and exterminating activities,Cleaning of trains, buses, planes, etc.,Cleaning of industrial machinery,Street sweeping and snow and ice removal,Other building and industrial cleaning activities n.e.c.,Disinfection activities and pest and rodents control by fumes,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery,Care and maintenance of greenery for sports grounds (e.g. golf courses),Care and maintenance of greenery for stationary and flowing water (basins, ponds, swimming pools, watercourses and wet areas),Care and maintenance of plants for protection against noise, wind and erosion,Care and maintenance of other types of landscap n.e.c.,Activities of landscape design services,Maintenance of land in order to keep it in good ecological condition</v>
       </c>
     </row>
     <row r="78">
@@ -2187,22 +1956,19 @@
         <v>4</v>
       </c>
       <c r="B78" t="str">
-        <v>شركة أبناء عبدالله حمود الشويعر للتجارة والمقاولات</v>
+        <v>Manafa'a Al - Khaleej Contracting Company</v>
       </c>
       <c r="C78" t="str">
-        <v>10001371</v>
+        <v>100005245</v>
       </c>
       <c r="D78" t="str">
-        <v>0138489999</v>
+        <v>afo@manafalkhaleej.com</v>
       </c>
       <c r="E78" t="str">
-        <v>admins@shuwayer.com</v>
+        <v>DAMMAM</v>
       </c>
       <c r="F78" t="str">
-        <v>الدمام</v>
-      </c>
-      <c r="G78" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,أعمال السباكة والتدفئة وتكييف الهواء,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها</v>
+        <v>Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Repair and maintenance of railways and subways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction, erection and repair of power plants,Repair and maintenance of wired and wireless communication stations and radars,Construction of other civil engineering projects ,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Dredging of waterways,Construction of dykes,Repair and maintenance of dams,Repair and maintenance of port piers and marine facilities,Specialized construction activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Blasting,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Other installation, maintenance and repair activities n.e.c.</v>
       </c>
     </row>
     <row r="79">
@@ -2210,22 +1976,19 @@
         <v>4</v>
       </c>
       <c r="B79" t="str">
-        <v>شركة كفو للخدمات الفنية المحدودة</v>
+        <v>Abdullah Assaf Mohammed Al Ghamdi Contracting Est</v>
       </c>
       <c r="C79" t="str">
-        <v>100004499</v>
+        <v>10000799</v>
       </c>
       <c r="D79" t="str">
-        <v>00966138825067</v>
+        <v>alassafcompany@hotmail.com</v>
       </c>
       <c r="E79" t="str">
-        <v>rashed@ktsco.com.sa</v>
+        <v>BILJURASHI</v>
       </c>
       <c r="F79" t="str">
-        <v>الخبر</v>
-      </c>
-      <c r="G79" t="str">
-        <v>الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة مانعه الصواعق,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,أنشطة تنظيف الآلات والمعدات الصناعية</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings</v>
       </c>
     </row>
     <row r="80">
@@ -2233,22 +1996,19 @@
         <v>4</v>
       </c>
       <c r="B80" t="str">
-        <v>شركة نسما للبنية التحتية والتقنية المحدودة</v>
+        <v>Comatec Saudi Arabia Limited Company Limited</v>
       </c>
       <c r="C80" t="str">
-        <v>10001007</v>
+        <v>100004492</v>
       </c>
       <c r="D80" t="str">
-        <v>0966122727635</v>
+        <v>bashir.alshamemi@comatec.com.sa</v>
       </c>
       <c r="E80" t="str">
-        <v>rayan@nesma.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F80" t="str">
-        <v>جدة</v>
-      </c>
-      <c r="G80" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الحديدية,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,التركيبات الكهربائية الأخرى</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of utility projects ,Long-distance pipelines, communication and power lines,Long-distance oil and gas pipelines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Repair and maintenance of wired and wireless communication stations and radars,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Dredging of waterways,Construction of dykes,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.),Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Blasting,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of elevators and escalators,Installation, repair and maintenance of automated and revolving doors,Installation, repair and maintenance of lightning conductors,Installation, repair and maintenance of vacuum cleaning systems,Installation, repair and maintenance of thermal, sound or vibration insulation,Other not previously mentioned construction installation, repair and maintenance activities,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Specialized cleaning activities for buildings such as window cleaning, chimney cleaning, etc.,Swimming pool cleaning and maintenance services,Disinfecting and exterminating activities,Cleaning of trains, buses, planes, etc.,Cleaning of industrial machinery,Street sweeping and snow and ice removal,Other building and industrial cleaning activities n.e.c.,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery,Care and maintenance of greenery for sports grounds (e.g. golf courses),Care and maintenance of greenery for stationary and flowing water (basins, ponds, swimming pools, watercourses and wet areas),Care and maintenance of plants for protection against noise, wind and erosion,Care and maintenance of other types of landscap n.e.c.,Activities of landscape design services,Maintenance of land in order to keep it in good ecological condition</v>
       </c>
     </row>
     <row r="81">
@@ -2256,22 +2016,19 @@
         <v>4</v>
       </c>
       <c r="B81" t="str">
-        <v>شركة جاك السعودية للمقاولات</v>
+        <v>Abdulkarim H Al Senan &amp; Partner Trading Company</v>
       </c>
       <c r="C81" t="str">
-        <v>100006974</v>
+        <v>10002674</v>
       </c>
       <c r="D81" t="str">
-        <v/>
+        <v>mrefai@sinanakh.com</v>
       </c>
       <c r="E81" t="str">
-        <v>mesholif@yahoo.com</v>
+        <v>AL JUBAIL</v>
       </c>
       <c r="F81" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G81" t="str">
-        <v xml:space="preserve"> لا يوجد بيانات</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of utility projects ,Long-distance pipelines, communication and power lines,Specialized construction activities,Electrical installation ,Electrical wiring,Other types of electrical installation,Building completion and finishing ,Building finishing</v>
       </c>
     </row>
     <row r="82">
@@ -2279,22 +2036,19 @@
         <v>5</v>
       </c>
       <c r="B82" t="str">
-        <v>شركة عبدالمحسن الجاسر للمقاولات</v>
+        <v>Saudi Architecture Art Maintenance Co. Ltd</v>
       </c>
       <c r="C82" t="str">
-        <v>100004498</v>
+        <v>100004618</v>
       </c>
       <c r="D82" t="str">
-        <v>0112770000</v>
+        <v>bids@buildingtek.com</v>
       </c>
       <c r="E82" t="str">
-        <v>aljaser_contrat@yahoo.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F82" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G82" t="str">
-        <v>الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء السدود</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures</v>
       </c>
     </row>
     <row r="83">
@@ -2302,22 +2056,19 @@
         <v>5</v>
       </c>
       <c r="B83" t="str">
-        <v>مؤسسه دار الشبكات العربيه للمقاولات</v>
+        <v>Saudi Urban Development Company</v>
       </c>
       <c r="C83" t="str">
-        <v>100003578</v>
+        <v>100005156</v>
       </c>
       <c r="D83" t="str">
-        <v>966114968932</v>
+        <v>Fahad.aljasser@scdco.sa</v>
       </c>
       <c r="E83" t="str">
-        <v>Arabnet@arabnet-ksa.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F83" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G83" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تركيب انظمة انذار الحريق,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تركيبات إنشائية أخرى,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء</v>
+        <v>Mining support services,Oil and natural gas extraction support activities ,Drilling of oil fields,Drilling of natural gas fields,Services related to oil extraction except surveying services,Services related to natural gas extraction except surveying services,Other activities related to oil and natural gas extraction support activities,Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Construction of utility projects ,Long-distance pipelines, communication and power lines,Long-distance oil and gas pipelines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Dredging of waterways,Construction of dykes,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.),Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Blasting,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of elevators and escalators,Installation, repair and maintenance of automated and revolving doors,Installation, repair and maintenance of lightning conductors,Installation, repair and maintenance of vacuum cleaning systems,Installation, repair and maintenance of thermal, sound or vibration insulation,Other not previously mentioned construction installation, repair and maintenance activities,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Specialized cleaning activities for buildings such as window cleaning, chimney cleaning, etc.,Swimming pool cleaning and maintenance services,Disinfecting and exterminating activities,Cleaning of trains, buses, planes, etc.,Cleaning of industrial machinery,Street sweeping and snow and ice removal,Other building and industrial cleaning activities n.e.c.,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery,Care and maintenance of greenery for sports grounds (e.g. golf courses),Care and maintenance of greenery for stationary and flowing water (basins, ponds, swimming pools, watercourses and wet areas),Care and maintenance of plants for protection against noise, wind and erosion,Care and maintenance of other types of landscap n.e.c.,Activities of landscape design services,Maintenance of land in order to keep it in good ecological condition</v>
       </c>
     </row>
     <row r="84">
@@ -2325,22 +2076,19 @@
         <v>5</v>
       </c>
       <c r="B84" t="str">
-        <v>فرع شركة تشايناريلواي الثامنة عشر بيرو جروب كومباني ليمتد</v>
+        <v>Nova Sat Commercial Company Joint-stock One Person Company</v>
       </c>
       <c r="C84" t="str">
-        <v>20000803</v>
+        <v>10001003</v>
       </c>
       <c r="D84" t="str">
-        <v/>
+        <v>khalid.assiri@novasat.com.sa</v>
       </c>
       <c r="E84" t="str">
-        <v>planningdepartment@cr18gksa.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F84" t="str">
-        <v>الدمام</v>
-      </c>
-      <c r="G84" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,أنشطة التشييد المتخصصة ,تحضير الموقع,صب القواعد والاساسات,اكمال المباني وتشطيبها,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر</v>
+        <v>Specialized construction activities,Electrical installation ,Telecommunications wiring,Network wiring,Installation of computer network and cable television wiring,Other types of electrical installation</v>
       </c>
     </row>
     <row r="85">
@@ -2348,22 +2096,19 @@
         <v>5</v>
       </c>
       <c r="B85" t="str">
-        <v>شركة شبكة الطرق للمقاولات</v>
+        <v>Development Way Contracting Co</v>
       </c>
       <c r="C85" t="str">
-        <v>100003805</v>
+        <v>130413048</v>
       </c>
       <c r="D85" t="str">
-        <v>0112066662</v>
+        <v>meshari.alsaiby@dmco.sa</v>
       </c>
       <c r="E85" t="str">
-        <v>road_net@ymail.com</v>
+        <v>JEDDAH</v>
       </c>
       <c r="F85" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G85" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,التنظيف العام للمباني,التنظيف العام للمباني</v>
+        <v>Waste collection, treatment &amp; disposal activities; materials recovery,Collection of non-hazardous waste ,Transfer of municipal waste,Street cleaning,Municipal waste collection services,Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Repair and maintenance of railways and subways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction, erection and repair of power plants,Repair and maintenance of wired and wireless communication stations and radars,Construction of other civil engineering projects ,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Construction of dykes,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.),Repair and maintenance of dams,Repair and maintenance of port piers and marine facilities,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Blasting,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of lawn sprinkler systems,Other installation, maintenance and repair activities n.e.c.,Building completion and finishing ,Building finishing,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,Activities of government buildings cleaning services,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Disinfecting and exterminating activities,Street sweeping and snow and ice removal,Disinfection activities and pest and rodents control by fumes,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of parks and gardens for highway greenery,Care and maintenance of greenery for sports grounds (e.g. golf courses),Care and maintenance of plants for protection against noise, wind and erosion,Care and maintenance of other types of landscap n.e.c.</v>
       </c>
     </row>
     <row r="86">
@@ -2371,22 +2116,19 @@
         <v>5</v>
       </c>
       <c r="B86" t="str">
-        <v>شركة قمة الرواسي للمقاولات</v>
+        <v>Emdadat Tawneya Company</v>
       </c>
       <c r="C86" t="str">
-        <v>10001416</v>
+        <v>10001653</v>
       </c>
       <c r="D86" t="str">
-        <v>0114329255</v>
+        <v>emdadat.tawneya@hotmail.com</v>
       </c>
       <c r="E86" t="str">
-        <v>qemmet.alrawasi@gmail.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F86" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G86" t="str">
-        <v>الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,أعمال السباكة والتدفئة وتكييف الهواء,تمديدات انابيب الري وصيانتها واصلاحها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,أنشطة تنظيف الطرق</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of other not previously mentioned non-residential buildings,Remodeling or renovating existing residential and non- residential structures,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Building completion and finishing ,Building finishing,Services to buildings and landscape activities,Combined facilities support activities ,Provision of maintenance services within facilities,Activities of government buildings cleaning services,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Street sweeping and snow and ice removal</v>
       </c>
     </row>
     <row r="87">
@@ -2394,22 +2136,19 @@
         <v>5</v>
       </c>
       <c r="B87" t="str">
-        <v>شركة مؤنس محمد الشايب للأعمال المدنية "موبكو"</v>
+        <v>Arch Company for Technical Development</v>
       </c>
       <c r="C87" t="str">
-        <v>200004541</v>
+        <v>100006571</v>
       </c>
       <c r="D87" t="str">
-        <v>00966112935966</v>
+        <v>ahmad@al-kaws.com</v>
       </c>
       <c r="E87" t="str">
-        <v>info.ksa@mobco-group.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F87" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G87" t="str">
-        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,تنظيف الشوارع,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب السقالات,إنشاء حمامات السباحة,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات التنظيف للمباني الحكومية,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
+        <v>No Data</v>
       </c>
     </row>
     <row r="88">
@@ -2417,22 +2156,19 @@
         <v>5</v>
       </c>
       <c r="B88" t="str">
-        <v>شركة افق الحجاز المحدودة</v>
+        <v>Madarat Alwasat Contracting Company</v>
       </c>
       <c r="C88" t="str">
-        <v>100006812</v>
+        <v>100003521</v>
       </c>
       <c r="D88" t="str">
-        <v>125495533</v>
+        <v>info@madaratco.sa</v>
       </c>
       <c r="E88" t="str">
-        <v>alhejazhorizon@hotmail.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F88" t="str">
-        <v>مكة المكرمة</v>
-      </c>
-      <c r="G88" t="str">
-        <v>الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,اكمال المباني وتشطيبها,تنظيف المباني الجديدة بعد الإنشاء,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات التنظيف للمباني الحكومية,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة منتزهات الطرق السريعة</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of other not previously mentioned non-residential buildings,Civil engineering,Construction of utility projects ,Construction, erection and repair of power plants,Construction of other civil engineering projects ,Dredging of waterways,Repair and maintenance of dams,Repair and maintenance of port piers and marine facilities,Specialized construction activities,Electrical installation ,Installation of lighting systems,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of air- conditioning ducts,Other construction installation ,Installation, repair and maintenance of vacuum cleaning systems,Installation and maintenance of fire equipment,Services to buildings and landscape activities,Combined facilities support activities ,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Activities of government buildings cleaning services,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Specialized cleaning activities for buildings such as window cleaning, chimney cleaning, etc.,Swimming pool cleaning and maintenance services,Disinfecting and exterminating activities,Cleaning of industrial machinery,Street sweeping and snow and ice removal,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of parks and gardens for highway greenery,Care and maintenance of greenery for sports grounds (e.g. golf courses)</v>
       </c>
     </row>
     <row r="89">
@@ -2440,22 +2176,19 @@
         <v>5</v>
       </c>
       <c r="B89" t="str">
-        <v>شركة لمسة الالياف الزجاجيه للمقاولات</v>
+        <v>Hani Al Hoty &amp; Partner Company</v>
       </c>
       <c r="C89" t="str">
-        <v>100004851</v>
+        <v>100005354</v>
       </c>
       <c r="D89" t="str">
-        <v>966559374306</v>
+        <v>s.husain@alhoty.com</v>
       </c>
       <c r="E89" t="str">
-        <v>Waleed@grctouch.com</v>
+        <v>AL KHOBAR</v>
       </c>
       <c r="F89" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G89" t="str">
-        <v>أنشطة التشييد المتخصصة ,اكمال المباني وتشطيبها,أعمال وتركيب الديكورات,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Specialized construction activities,Electrical installation ,Other types of electrical installation</v>
       </c>
     </row>
     <row r="90">
@@ -2463,22 +2196,19 @@
         <v>5</v>
       </c>
       <c r="B90" t="str">
-        <v>شركة محمد وسليمان العساف للتجارة والمقاولات المحدودة</v>
+        <v>Marasah Company</v>
       </c>
       <c r="C90" t="str">
-        <v>10002264</v>
+        <v>10000911</v>
       </c>
       <c r="D90" t="str">
-        <v>00966122712299</v>
+        <v>m.alsuhaimi@marasah.com</v>
       </c>
       <c r="E90" t="str">
-        <v>info@alassafco.com.sa</v>
+        <v>RIYADH</v>
       </c>
       <c r="F90" t="str">
-        <v>جدة</v>
-      </c>
-      <c r="G90" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Specialized construction activities,Site preparation ,Drilling and earth moving for site preparation purposes,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of air- conditioning ducts,Building completion and finishing ,Building finishing</v>
       </c>
     </row>
     <row r="91">
@@ -2486,22 +2216,19 @@
         <v>5</v>
       </c>
       <c r="B91" t="str">
-        <v>شركة بن دلامة للمقاولات</v>
+        <v>Afaq Almanzil Construction &amp; Development Company Ltd.</v>
       </c>
       <c r="C91" t="str">
-        <v>10001161</v>
+        <v>20002163</v>
       </c>
       <c r="D91" t="str">
-        <v>0136680668</v>
+        <v>r.jafar@afaqalmanzil.com</v>
       </c>
       <c r="E91" t="str">
-        <v>mail@bindelamah.com</v>
+        <v/>
       </c>
       <c r="F91" t="str">
-        <v>راس تنورة</v>
-      </c>
-      <c r="G91" t="str">
-        <v xml:space="preserve"> لا يوجد بيانات</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Civil engineering,Construction of utility projects ,Long-distance pipelines, communication and power lines,Establishment and Maintenance of main lines and stations of water distribution,Other utility projects construction activities n.e.c.,Specialized construction activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems</v>
       </c>
     </row>
     <row r="92">
@@ -2509,22 +2236,19 @@
         <v>5</v>
       </c>
       <c r="B92" t="str">
-        <v>شركة فوارس العليا للمقاولات</v>
+        <v>Energy Power Service for General Contracting Est</v>
       </c>
       <c r="C92" t="str">
-        <v>100004211</v>
+        <v>100007141</v>
       </c>
       <c r="D92" t="str">
-        <v>0114464626</v>
+        <v>MOHAMMAD@ENERSERV-SA.COM</v>
       </c>
       <c r="E92" t="str">
-        <v>info@fawares.com.sa</v>
+        <v>DAMMAM</v>
       </c>
       <c r="F92" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G92" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر</v>
+        <v>No Data</v>
       </c>
     </row>
     <row r="93">
@@ -2532,22 +2256,19 @@
         <v>5</v>
       </c>
       <c r="B93" t="str">
-        <v>شركة المحيط العميق للمقاولات</v>
+        <v>Safety Arabian Company Ltd.</v>
       </c>
       <c r="C93" t="str">
-        <v>10002099</v>
+        <v>10002387</v>
       </c>
       <c r="D93" t="str">
-        <v>0112915204</v>
+        <v>office@safety-arabia.com</v>
       </c>
       <c r="E93" t="str">
-        <v>info@thedeepocean.com.sa</v>
+        <v>RIYADH</v>
       </c>
       <c r="F93" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G93" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيبات إنشائية أخرى,تركيب وصيانة أجهزة ومعدات الإطفاء,أنشطة تقديم الخدمات للمباني وتجميل المواقع,التنظيف العام للمباني,التنظيف العام للمباني</v>
+        <v>Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways</v>
       </c>
     </row>
     <row r="94">
@@ -2555,22 +2276,19 @@
         <v>5</v>
       </c>
       <c r="B94" t="str">
-        <v>شركة المزين جلف السعودية للمقاولات</v>
+        <v>Eastern Mman Co. For Trading &amp; Contracting</v>
       </c>
       <c r="C94" t="str">
-        <v>100006679</v>
+        <v>100004622</v>
       </c>
       <c r="D94" t="str">
-        <v>966133404200</v>
+        <v>CEO@MMANCO.COM</v>
       </c>
       <c r="E94" t="str">
-        <v>info@almuzain.com</v>
+        <v>AL JUBAIL</v>
       </c>
       <c r="F94" t="str">
-        <v>الجبيل</v>
-      </c>
-      <c r="G94" t="str">
-        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل النفايات الصناعية الغير خطرة,جمع النفايات الخطرة,جمع النفايات الخطرة الأخرى,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,أنشطة التشييد المتخصصة ,أعمال السباكة والتدفئة وتكييف الهواء,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب السقالات,تأجير معدات التشييد والبناء مع مشغل,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Civil engineering,Construction of utility projects ,Long-distance pipelines, communication and power lines,Construction, erection and repair of power plants,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants</v>
       </c>
     </row>
     <row r="95">
@@ -2578,22 +2296,19 @@
         <v>5</v>
       </c>
       <c r="B95" t="str">
-        <v>شركة الظلال العربية للتجارة والمقاولات</v>
+        <v>Saudi Sicli Company</v>
       </c>
       <c r="C95" t="str">
-        <v>100004520</v>
+        <v>10001887</v>
       </c>
       <c r="D95" t="str">
-        <v>920008799</v>
+        <v>ahmad@saudisicli.com.sa</v>
       </c>
       <c r="E95" t="str">
-        <v>s.almallouhi@arabshadows.com</v>
+        <v>JEDDAH</v>
       </c>
       <c r="F95" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G95" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات الكمبيوتر والاتصالات,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الطرق,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
+        <v>Specialized construction activities,Electrical installation ,Installation of fire alarms,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.</v>
       </c>
     </row>
     <row r="96">
@@ -2601,22 +2316,19 @@
         <v>5</v>
       </c>
       <c r="B96" t="str">
-        <v>شركة اتحاد الهندسة الإنشائية (يونك)</v>
+        <v>Arkal Contracting Company</v>
       </c>
       <c r="C96" t="str">
-        <v>200005259</v>
+        <v>10001010</v>
       </c>
       <c r="D96" t="str">
-        <v>966114002769</v>
+        <v>info@arkal-co.com</v>
       </c>
       <c r="E96" t="str">
-        <v>asharqi@unec.ae</v>
+        <v>RIYADH</v>
       </c>
       <c r="F96" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G96" t="str">
-        <v xml:space="preserve"> لا يوجد بيانات</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Services to buildings and landscape activities,Combined facilities support activities ,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery,Activities of landscape design services</v>
       </c>
     </row>
     <row r="97">
@@ -2624,22 +2336,19 @@
         <v>5</v>
       </c>
       <c r="B97" t="str">
-        <v>شركة زهرة الصحراء للتجارة والمقاولات مساهمه مقفله</v>
+        <v>Abdulmohsen Aljasser Contracting Company</v>
       </c>
       <c r="C97" t="str">
-        <v>10002643</v>
+        <v>100004498</v>
       </c>
       <c r="D97" t="str">
-        <v>0114792233</v>
+        <v>aljaser_contrat@yahoo.com</v>
       </c>
       <c r="E97" t="str">
-        <v>info@zas.com.sa</v>
+        <v>RIYADH</v>
       </c>
       <c r="F97" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G97" t="str">
-        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,تنظيف الشوارع,جمع المواد لإعادة التصنيع,أنشطة أخرى تتعلق بجمع النفايات الغير خطرة,خدمات جمع النفايات البلدية,نقل النفايات الصناعية الغير خطرة,تجميع زيوت الطعام المستخدمة,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
+        <v>Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction of other civil engineering projects ,Construction of dams</v>
       </c>
     </row>
     <row r="98">
@@ -2647,22 +2356,19 @@
         <v>5</v>
       </c>
       <c r="B98" t="str">
-        <v>شركة زاس للتجارة والمقاولات</v>
+        <v>Abu Degen Co. For Drilling Wells</v>
       </c>
       <c r="C98" t="str">
-        <v>10002051</v>
+        <v>10002615</v>
       </c>
       <c r="D98" t="str">
-        <v/>
+        <v>info@abudegendrilling.com</v>
       </c>
       <c r="E98" t="str">
-        <v>zass10@hotmail.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F98" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G98" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,اكمال المباني وتشطيبها,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها</v>
+        <v>Mining support services,Oil and natural gas extraction support activities ,Other activities related to oil and natural gas extraction support activities,Civil engineering,Construction of utility projects ,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction of other civil engineering projects ,Construction of dams,Specialized construction activities,Site preparation ,Building site drainage,Electrical installation ,Network wiring</v>
       </c>
     </row>
     <row r="99">
@@ -2670,22 +2376,19 @@
         <v>5</v>
       </c>
       <c r="B99" t="str">
-        <v>شركة مجموعة الذعاتي</v>
+        <v>Enter For Communications &amp; Information Technology Co.</v>
       </c>
       <c r="C99" t="str">
-        <v>10003068</v>
+        <v>100004979</v>
       </c>
       <c r="D99" t="str">
-        <v>0550600092</v>
+        <v>admin@enter.com.sa</v>
       </c>
       <c r="E99" t="str">
-        <v>althaatygroup@gmail.com</v>
+        <v/>
       </c>
       <c r="F99" t="str">
-        <v>الخبر</v>
-      </c>
-      <c r="G99" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تركيب انظمة الاضاءة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,اكمال المباني وتشطيبها,أعمال وتركيب الديكورات,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أنشطة تقديم الخدمات للمباني وتجميل المواقع,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام</v>
+        <v>Specialized construction activities,Electrical installation ,Network wiring,Installation of computer network and cable television wiring</v>
       </c>
     </row>
     <row r="100">
@@ -2693,22 +2396,19 @@
         <v>5</v>
       </c>
       <c r="B100" t="str">
-        <v>شركة تكنولوجيا الخرسانة للمقاولات</v>
+        <v>Maramer Contracting Company</v>
       </c>
       <c r="C100" t="str">
-        <v>100003782</v>
+        <v>10002754</v>
       </c>
       <c r="D100" t="str">
-        <v>00966539391916</v>
+        <v>m.alrumayh@wadimaramer.net</v>
       </c>
       <c r="E100" t="str">
-        <v>conc-tech@hotmail.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F100" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G100" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,تحضير الموقع,صب القواعد والاساسات,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني</v>
+        <v>Mining support services,Oil and natural gas extraction support activities ,Drilling of oil fields,Drilling of natural gas fields,Services related to oil extraction except surveying services,Services related to natural gas extraction except surveying services,Other activities related to oil and natural gas extraction support activities,Waste collection, treatment &amp; disposal activities; materials recovery,Collection of non-hazardous waste ,Transfer of municipal waste,Street cleaning,Collection of recyclable materials,Other non-hazardous waste collection activities,Municipal waste collection services,Transfer of non-hazardous industrial waste,Used cooking oil collection,Collection of hazardous waste ,Collection of hazardous waste, such as used oil from shipment or garages,Collection of hazardous waste, such as bio-hazardous waste,Collection of hazardous waste, such as used batteries,Operation of waste transfer stations for hazardous waste,Collection of other types of hazardous waste,Collection and transfer of hazardous wastes of used oils from producers of such wastes,Transfer of hazardous medical waste,Collection and transfer of waste resulting from the control and cleaning work of the marine and coastal environment,Transfer of hazardous wastes,Transfer of asbestos wastes,Transfer of oil from one watercraft to another within the sea or from offshore oil collection sites in cases of contamination,Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Repair and maintenance of railways and subways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Long-distance oil and gas pipelines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction, erection and repair of power plants,Repair and maintenance of wired and wireless communication stations and radars,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Dredging of waterways,Construction of dykes,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.),Repair and maintenance of dams,Repair and maintenance of port piers and marine facilities,Specialized construction activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of elevators and escalators,Installation, repair and maintenance of automated and revolving doors,Installation, repair and maintenance of lightning conductors,Installation, repair and maintenance of vacuum cleaning systems,Installation, repair and maintenance of thermal, sound or vibration insulation,Other not previously mentioned construction installation, repair and maintenance activities,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,Activities of government buildings cleaning services,Provision of mail routing services,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Specialized cleaning activities for buildings such as window cleaning, chimney cleaning, etc.,Swimming pool cleaning and maintenance services,Disinfecting and exterminating activities,Cleaning of trains, buses, planes, etc.,Cleaning of industrial machinery,Street sweeping and snow and ice removal,Other building and industrial cleaning activities n.e.c.,Disinfection activities and pest and rodents control by fumes,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery,Care and maintenance of greenery for sports grounds (e.g. golf courses),Care and maintenance of greenery for stationary and flowing water (basins, ponds, swimming pools, watercourses and wet areas),Care and maintenance of plants for protection against noise, wind and erosion,Care and maintenance of other types of landscap n.e.c.,Activities of landscape design services,Maintenance of land in order to keep it in good ecological condition</v>
       </c>
     </row>
     <row r="101">
@@ -2716,22 +2416,19 @@
         <v>5</v>
       </c>
       <c r="B101" t="str">
-        <v>شركة إنشاء المستشفيات الدوليه المحدودة</v>
+        <v>Ibrahim M Alaboud Co for Development</v>
       </c>
       <c r="C101" t="str">
-        <v>10000932</v>
+        <v>100006300</v>
       </c>
       <c r="D101" t="str">
-        <v>920006540</v>
+        <v>alaboud2008@yahoo.com</v>
       </c>
       <c r="E101" t="str">
-        <v>bdm@ihcc.sa</v>
+        <v>AD DUWADIMI</v>
       </c>
       <c r="F101" t="str">
-        <v>جدة</v>
-      </c>
-      <c r="G101" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها</v>
+        <v>No Data</v>
       </c>
     </row>
     <row r="102">
@@ -2739,22 +2436,19 @@
         <v>6</v>
       </c>
       <c r="B102" t="str">
-        <v>شركة الانظمة المتقدمة للمشاريع المحدودة</v>
+        <v>Nour Communications Co.</v>
       </c>
       <c r="C102" t="str">
-        <v>10001198</v>
+        <v>10001329</v>
       </c>
       <c r="D102" t="str">
-        <v>00966114443535</v>
+        <v>m.rousan@nour.com.sa</v>
       </c>
       <c r="E102" t="str">
-        <v>ats@atsc-sa.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F102" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G102" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction of utility projects ,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Construction of other civil engineering projects ,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.)</v>
       </c>
     </row>
     <row r="103">
@@ -2762,22 +2456,19 @@
         <v>6</v>
       </c>
       <c r="B103" t="str">
-        <v>شركة تنمية الصروح الانشائية للمقاولات</v>
+        <v>Fast Finishing Contracting Company</v>
       </c>
       <c r="C103" t="str">
-        <v>10002736</v>
+        <v>100006904</v>
       </c>
       <c r="D103" t="str">
-        <v>4452929</v>
+        <v>aalghamdi@fast-cpc.com</v>
       </c>
       <c r="E103" t="str">
-        <v>waleed.w@cedme.com</v>
+        <v>JEDDAH</v>
       </c>
       <c r="F103" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G103" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Repair and maintenance of railways and subways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Long-distance oil and gas pipelines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction, erection and repair of power plants,Repair and maintenance of wired and wireless communication stations and radars,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Dredging of waterways,Construction of dykes,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.),Repair and maintenance of dams,Repair and maintenance of port piers and marine facilities,Specialized construction activities,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work</v>
       </c>
     </row>
     <row r="104">
@@ -2785,22 +2476,19 @@
         <v>6</v>
       </c>
       <c r="B104" t="str">
-        <v>مؤسسة خمسة عشر للمقاولات</v>
+        <v>Saudi Geo Co</v>
       </c>
       <c r="C104" t="str">
-        <v>10000415</v>
+        <v>100004802</v>
       </c>
       <c r="D104" t="str">
-        <v>0559332559</v>
+        <v>ehab.eltantawy@saudigeo.com.sa</v>
       </c>
       <c r="E104" t="str">
-        <v>hajer.nb@gmail.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F104" t="str">
-        <v>مكة المكرمة</v>
-      </c>
-      <c r="G104" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures</v>
       </c>
     </row>
     <row r="105">
@@ -2808,22 +2496,19 @@
         <v>6</v>
       </c>
       <c r="B105" t="str">
-        <v>شركة علي حسين اليامي وشريكه للتجارة والمقاولات</v>
+        <v>Raghad Projects Contracting Est.</v>
       </c>
       <c r="C105" t="str">
-        <v>100003604</v>
+        <v>10002082</v>
       </c>
       <c r="D105" t="str">
-        <v>138644149</v>
+        <v>ie_anasah@hotmail.com</v>
       </c>
       <c r="E105" t="str">
-        <v>faris@bormangroup.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F105" t="str">
-        <v/>
-      </c>
-      <c r="G105" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديدات الشبكات,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,التنظيف العام للمباني,التنظيف العام للمباني</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways</v>
       </c>
     </row>
     <row r="106">
@@ -2831,22 +2516,19 @@
         <v>6</v>
       </c>
       <c r="B106" t="str">
-        <v>شركة السلامة العربية المحدودة</v>
+        <v>Amsy General Contracting Company</v>
       </c>
       <c r="C106" t="str">
-        <v>10002387</v>
+        <v>100003431</v>
       </c>
       <c r="D106" t="str">
-        <v>0114792531</v>
+        <v>amsy_classic@hotmail.com</v>
       </c>
       <c r="E106" t="str">
-        <v>office@safety-arabia.com</v>
+        <v>JAZAN</v>
       </c>
       <c r="F106" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G106" t="str">
-        <v>الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,Activities of government buildings cleaning services,Provision of mail routing services,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery,Care and maintenance of greenery for sports grounds (e.g. golf courses),Care and maintenance of other types of landscap n.e.c.,Activities of landscape design services</v>
       </c>
     </row>
     <row r="107">
@@ -2854,22 +2536,19 @@
         <v>6</v>
       </c>
       <c r="B107" t="str">
-        <v>شركة يالين العربية للمقاولات المحدودة</v>
+        <v>Youssef Marroun Contracting Co.</v>
       </c>
       <c r="C107" t="str">
-        <v>10002714</v>
+        <v>100007451</v>
       </c>
       <c r="D107" t="str">
-        <v/>
+        <v>info-hr@ymco.sa</v>
       </c>
       <c r="E107" t="str">
-        <v>a.mujahed@arabianyalin.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F107" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G107" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of other civil engineering projects ,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Specialized construction activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Installation of lighting systems,Installation of fire alarms,Other types of electrical installation,Plumbing, heat and air-conditioning installation ,Other installation, maintenance and repair activities n.e.c.,Building completion and finishing ,Building finishing,Cleaning of new buildings after construction,Other building completion work,Services to buildings and landscape activities,Combined facilities support activities ,Provision of maintenance services within facilities</v>
       </c>
     </row>
     <row r="108">
@@ -2877,22 +2556,19 @@
         <v>6</v>
       </c>
       <c r="B108" t="str">
-        <v>مجموعة الذيابي للمقاولات</v>
+        <v>Al - Yousr Al-Arabia General Contracting Co</v>
       </c>
       <c r="C108" t="str">
-        <v>10002269</v>
+        <v>10002350</v>
       </c>
       <c r="D108" t="str">
-        <v>966114561245</v>
+        <v>alysr2009@hotmail.com</v>
       </c>
       <c r="E108" t="str">
-        <v>maged@aldeyabi.com</v>
+        <v>NAJRAN</v>
       </c>
       <c r="F108" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G108" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء السدود,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,اكمال المباني وتشطيبها, تشطيب المباني,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction of utility projects ,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Other utility projects construction activities n.e.c.,Construction of other civil engineering projects ,Dredging of waterways,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of parks and gardens for highway greenery</v>
       </c>
     </row>
     <row r="109">
@@ -2900,22 +2576,19 @@
         <v>6</v>
       </c>
       <c r="B109" t="str">
-        <v>شركة برو فاست المحدودة</v>
+        <v>Sham Najd International Co Ltd</v>
       </c>
       <c r="C109" t="str">
-        <v>20003219</v>
+        <v>200006630</v>
       </c>
       <c r="D109" t="str">
-        <v>0114914810</v>
+        <v>shamnajd@shamnajd.com</v>
       </c>
       <c r="E109" t="str">
-        <v>info@alaaalafaq.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F109" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G109" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,تشييد المشاريع الخاصة بالمنافع,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء السدود,إصلاح وصيانة السدود,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Specialized construction activities,Other construction installation ,Installation, repair and maintenance of thermal, sound or vibration insulation,Building completion and finishing ,Building finishing</v>
       </c>
     </row>
     <row r="110">
@@ -2923,22 +2596,19 @@
         <v>6</v>
       </c>
       <c r="B110" t="str">
-        <v>شركة الديكور الذكي للمقاولات</v>
+        <v>Nabny Co.Ltd</v>
       </c>
       <c r="C110" t="str">
-        <v>100003389</v>
+        <v>100007123</v>
       </c>
       <c r="D110" t="str">
-        <v>0114531133</v>
+        <v>info@nabny.sa</v>
       </c>
       <c r="E110" t="str">
-        <v>smartdesign_i@yahoo.com</v>
+        <v>TABUK</v>
       </c>
       <c r="F110" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G110" t="str">
-        <v>أنشطة التشييد المتخصصة ,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,أنشطة أخرى من تركيب الزجاج والمرايا,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها</v>
+        <v>Waste collection, treatment &amp; disposal activities; materials recovery,Collection of non-hazardous waste ,Transfer of municipal waste,Street cleaning,Collection of recyclable materials,Other non-hazardous waste collection activities,Municipal waste collection services,Transfer of non-hazardous industrial waste,Used cooking oil collection,Collection of hazardous waste ,Collection of hazardous waste, such as used oil from shipment or garages,Collection of hazardous waste, such as bio-hazardous waste,Collection of hazardous waste, such as used batteries,Operation of waste transfer stations for hazardous waste,Collection of other types of hazardous waste,Collection and transfer of hazardous wastes of used oils from producers of such wastes,Transfer of hazardous medical waste,Collection and transfer of waste resulting from the control and cleaning work of the marine and coastal environment,Transfer of hazardous wastes,Transfer of asbestos wastes,Transfer of oil from one watercraft to another within the sea or from offshore oil collection sites in cases of contamination,Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Repair and maintenance of railways and subways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Long-distance oil and gas pipelines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction, erection and repair of power plants,Repair and maintenance of wired and wireless communication stations and radars,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Dredging of waterways,Construction of dykes,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.),Repair and maintenance of dams,Repair and maintenance of port piers and marine facilities,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Blasting,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of elevators and escalators,Installation, repair and maintenance of automated and revolving doors,Installation, repair and maintenance of lightning conductors,Installation, repair and maintenance of vacuum cleaning systems,Installation, repair and maintenance of thermal, sound or vibration insulation,Other not previously mentioned construction installation, repair and maintenance activities,Installation and maintenance of elevators,Installation, repair and maintenance of escalators, conveyor and ground belts,Installation, repair and maintenance of thermal, sound or vibration insulation,Installation and repair of civil protection devices such as heavy equipment used to control earth quicks and buildings collapse and ways of individual protection,Installation and maintenance of early warning sirens and control centers,Installation and maintenance of fire equipment,Installing and maintaining storage and shelves solutions,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,Activities of government buildings cleaning services,Provision of mail routing services,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Specialized cleaning activities for buildings such as window cleaning, chimney cleaning, etc.,Swimming pool cleaning and maintenance services,Disinfecting and exterminating activities,Cleaning of trains, buses, planes, etc.,Cleaning of industrial machinery,Street sweeping and snow and ice removal,Other building and industrial cleaning activities n.e.c.,Disinfection activities and pest and rodents control by fumes,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery,Care and maintenance of greenery for sports grounds (e.g. golf courses),Care and maintenance of greenery for stationary and flowing water (basins, ponds, swimming pools, watercourses and wet areas),Care and maintenance of plants for protection against noise, wind and erosion,Care and maintenance of other types of landscap n.e.c.,Activities of landscape design services,Maintenance of land in order to keep it in good ecological condition</v>
       </c>
     </row>
     <row r="111">
@@ -2946,22 +2616,19 @@
         <v>6</v>
       </c>
       <c r="B111" t="str">
-        <v>مؤسسة السهدة للمقاولات</v>
+        <v>Hadiban Hamed Al Makhlafi Company</v>
       </c>
       <c r="C111" t="str">
-        <v>20002666</v>
+        <v>10001058</v>
       </c>
       <c r="D111" t="str">
-        <v/>
+        <v>m.k.c@hotmail.com</v>
       </c>
       <c r="E111" t="str">
-        <v>info@alsahda.com.sa</v>
+        <v>TABUK</v>
       </c>
       <c r="F111" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G111" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,اكمال المباني وتشطيبها, تشطيب المباني,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق</v>
+        <v>Waste collection, treatment &amp; disposal activities; materials recovery,Collection of non-hazardous waste ,Transfer of municipal waste,Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Civil engineering,Construction of utility projects ,Establishment and Maintenance of main lines and stations of water distribution,Specialized construction activities,Site preparation ,Other site preparation activities,Electrical installation ,Installation of lighting systems,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Building completion and finishing ,Installation of decor</v>
       </c>
     </row>
     <row r="112">
@@ -2969,22 +2636,19 @@
         <v>6</v>
       </c>
       <c r="B112" t="str">
-        <v>شركة سبكتروم اينجنيرينغ السعودية</v>
+        <v>Alrashid Trading &amp; Contracting Company</v>
       </c>
       <c r="C112" t="str">
-        <v>403640366</v>
+        <v>100003724</v>
       </c>
       <c r="D112" t="str">
-        <v/>
+        <v>rtcc@rtcc.com.sa</v>
       </c>
       <c r="E112" t="str">
-        <v>yalsayeh@sesksa.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F112" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G112" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تركيب انظمة الاضاءة,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الرخام</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Construction of utility projects ,Long-distance oil and gas pipelines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction of other civil engineering projects ,Construction of dams</v>
       </c>
     </row>
     <row r="113">
@@ -2992,22 +2656,19 @@
         <v>6</v>
       </c>
       <c r="B113" t="str">
-        <v>شركة طالبي للمقاولات</v>
+        <v>Awal Tasmim Company For Decoration</v>
       </c>
       <c r="C113" t="str">
-        <v>200003350</v>
+        <v>100007486</v>
       </c>
       <c r="D113" t="str">
-        <v>0173340331</v>
+        <v>kab@lepremier.com.sa</v>
       </c>
       <c r="E113" t="str">
-        <v>mog.suliman@gmail.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F113" t="str">
-        <v>صامطة</v>
-      </c>
-      <c r="G113" t="str">
-        <v>أنشطة خدمات دعم التعدين,أنشطة الدعم لاستخراج النفط والغاز الطبيعي,حفر آبار النفط,حفر آبار الغاز الطبيعي,الخدمات المتصلة باستخراج النفط باستثناء خدمات المسح,الخدمات المتصلة باستخراج الغاز الطبيعي باستثناء خدمات المسح,أنشطة أخرى تتعلق بأنشطة الدعم لاستخراج النفط والغاز الطبيعي,أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,تنظيف الشوارع,جمع المواد لإعادة التصنيع,أنشطة أخرى تتعلق بجمع النفايات الغير خطرة,خدمات جمع النفايات البلدية,نقل النفايات الصناعية الغير خطرة,تجميع زيوت الطعام المستخدمة,جمع النفايات الخطرة,جمع النفايات الخطرة للزيوت المستعملة من الشحن أو المرائب,جمع النفايات الخطرة للمواد الخطرة البيولوجية,جمع النفايات الخطرة للبطاريات المستعملة,تشغيل محطات نقل النفايات للنفايات الخطرة,جمع النفايات الخطرة الأخرى,جمع ونقل النفايات الخطرة للزيوت المستعملة من منتجي هذه النفايات,نقل النفايات الطبية الخطرة,جمع ونقل النفايات الناتجة عن أعمال المكافحة والتنظيف للبيئة البحرية والساحلية,نقل النفايات الخطرة,نقل نفايات الاسبستوس,نقل الزيت من واسطة بحرية إلى أخرى داخل عرض البحر أو من مواقع تجميع الزيوت داخل البحر في حالات التلوث,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Specialized construction activities,Electrical installation ,Electrical wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities</v>
       </c>
     </row>
     <row r="114">
@@ -3015,22 +2676,19 @@
         <v>6</v>
       </c>
       <c r="B114" t="str">
-        <v>فرع مؤسسة امزان للمقاولات</v>
+        <v>Saudi Services For Electro Mechanic Works</v>
       </c>
       <c r="C114" t="str">
-        <v>100007159</v>
+        <v>10000044</v>
       </c>
       <c r="D114" t="str">
-        <v>0112731919</v>
+        <v>gmoffice@ssem.com.sa</v>
       </c>
       <c r="E114" t="str">
-        <v>alassaker2010@yahoo.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F114" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G114" t="str">
-        <v>أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction of other civil engineering projects ,Construction of dams,Specialized construction activities,Electrical installation ,Electrical wiring,Other electrical and telecommunications wiring activities,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of solar energy collectors</v>
       </c>
     </row>
     <row r="115">
@@ -3038,22 +2696,19 @@
         <v>6</v>
       </c>
       <c r="B115" t="str">
-        <v>شركة اول تصميم للديكور</v>
+        <v>Diamond Contractors Union Company for General Contracting</v>
       </c>
       <c r="C115" t="str">
-        <v>100007486</v>
+        <v>10001111</v>
       </c>
       <c r="D115" t="str">
-        <v>0114169700</v>
+        <v>admin@udc-sa.com</v>
       </c>
       <c r="E115" t="str">
-        <v>kab@lepremier.com.sa</v>
+        <v>JEDDAH</v>
       </c>
       <c r="F115" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G115" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of other not previously mentioned non-residential buildings,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Specialized construction activities,Electrical installation ,Telecommunications wiring,Other electrical and telecommunications wiring activities,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of air- conditioning ducts,Other specialized construction activities ,Scaffolds erecting,Services to buildings and landscape activities,Combined facilities support activities ,Other facilities support activities n.e.c.</v>
       </c>
     </row>
     <row r="116">
@@ -3061,22 +2716,19 @@
         <v>6</v>
       </c>
       <c r="B116" t="str">
-        <v>شركة هلال مشبب العتيبي للمقاولات</v>
+        <v>Alibtihaj Contracting Ltd. Co.</v>
       </c>
       <c r="C116" t="str">
-        <v>100004393</v>
+        <v>10001618</v>
       </c>
       <c r="D116" t="str">
-        <v>0112753219</v>
+        <v>hr.ad2009@gmail.com</v>
       </c>
       <c r="E116" t="str">
-        <v>hilalalotaibicorp@gmail.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F116" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G116" t="str">
-        <v xml:space="preserve"> لا يوجد بيانات</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Specialized construction activities,Building completion and finishing ,Installation of decor,Services to buildings and landscape activities,General cleaning of buildings ,General cleaning of buildings</v>
       </c>
     </row>
     <row r="117">
@@ -3084,22 +2736,19 @@
         <v>6</v>
       </c>
       <c r="B117" t="str">
-        <v>(شركة صيانة التكييف والتبريد المحدودة (ماركو</v>
+        <v>Mohammed Ahmed Al-Hilal Contracting Est</v>
       </c>
       <c r="C117" t="str">
-        <v>10003211</v>
+        <v>122512250</v>
       </c>
       <c r="D117" t="str">
-        <v>0126396611</v>
+        <v>aboahmada0@gmail.com</v>
       </c>
       <c r="E117" t="str">
-        <v>info@juffalimarco.com</v>
+        <v>AL AHSA</v>
       </c>
       <c r="F117" t="str">
-        <v>جدة</v>
-      </c>
-      <c r="G117" t="str">
-        <v>أنشطة التشييد المتخصصة ,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني</v>
+        <v>Waste collection, treatment &amp; disposal activities; materials recovery,Collection of non-hazardous waste ,Street cleaning,Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction of utility projects ,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction of other civil engineering projects ,Construction of dams,Repair and maintenance of dams,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Electrical installation ,Electrical wiring,Services to buildings and landscape activities,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing</v>
       </c>
     </row>
     <row r="118">
@@ -3107,22 +2756,19 @@
         <v>6</v>
       </c>
       <c r="B118" t="str">
-        <v>شركة الواجهة المعمارية للمقاولات</v>
+        <v>Awdah Albiladi And His Sons Contracting Est</v>
       </c>
       <c r="C118" t="str">
-        <v>100006049</v>
+        <v>100004137</v>
       </c>
       <c r="D118" t="str">
-        <v>920009727</v>
+        <v>el.blady@hotmail.com</v>
       </c>
       <c r="E118" t="str">
-        <v>k.almhfouth@levels-re.com</v>
+        <v>AL MADINAH AL MUNAWWARAH</v>
       </c>
       <c r="F118" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G118" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها</v>
+        <v>No Data</v>
       </c>
     </row>
     <row r="119">
@@ -3130,22 +2776,19 @@
         <v>6</v>
       </c>
       <c r="B119" t="str">
-        <v>شركة سفر للتجارة و المقاولات</v>
+        <v>ITEA International Ltd</v>
       </c>
       <c r="C119" t="str">
-        <v>10001562</v>
+        <v>20001370</v>
       </c>
       <c r="D119" t="str">
-        <v>594132685</v>
+        <v>elando@iteaint.com</v>
       </c>
       <c r="E119" t="str">
-        <v>saffar515@yahoo.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F119" t="str">
-        <v>مكة المكرمة</v>
-      </c>
-      <c r="G119" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء السدود,أنشطة التشييد المتخصصة ,الهدم,أنشطة أخرى من الهدم,تحضير الموقع,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديدات الشبكات,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية ارضيات بانواع اخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال أخرى من أعمال تركيب الطابوق والصخور,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings such as airport buildings,Civil engineering,Construction of utility projects ,Long-distance pipelines, communication and power lines,Establishment and Maintenance of main lines and stations of water distribution,Construction, erection and repair of wired and wireless communication stations and radars,Specialized construction activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of air- conditioning ducts</v>
       </c>
     </row>
     <row r="120">
@@ -3153,22 +2796,19 @@
         <v>6</v>
       </c>
       <c r="B120" t="str">
-        <v>فرع شركة ايه جيه كوربوريشن</v>
+        <v>Power Lines Contracting Co.</v>
       </c>
       <c r="C120" t="str">
-        <v>200003781</v>
+        <v>10002512</v>
       </c>
       <c r="D120" t="str">
-        <v>966138288365</v>
+        <v>hazem@plc-sa.net</v>
       </c>
       <c r="E120" t="str">
-        <v>jibreel@ajcengg.pk</v>
+        <v>RIYADH</v>
       </c>
       <c r="F120" t="str">
-        <v>الدمام</v>
-      </c>
-      <c r="G120" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of other not previously mentioned non-residential buildings,Civil engineering,Construction of utility projects ,Long-distance pipelines, communication and power lines,Specialized construction activities,Electrical installation ,Electrical wiring,Other types of electrical installation,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of solar energy collectors,Services to buildings and landscape activities,Combined facilities support activities ,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities</v>
       </c>
     </row>
     <row r="121">
@@ -3176,22 +2816,19 @@
         <v>6</v>
       </c>
       <c r="B121" t="str">
-        <v>شركة الراجحي للبناء و التعمير</v>
+        <v>Concrete Technology Contracting Company</v>
       </c>
       <c r="C121" t="str">
-        <v>100005210</v>
+        <v>100003782</v>
       </c>
       <c r="D121" t="str">
-        <v>96612982272</v>
+        <v>conc-tech@hotmail.com</v>
       </c>
       <c r="E121" t="str">
-        <v>info@alrajhi-co.sa</v>
+        <v>RIYADH</v>
       </c>
       <c r="F121" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G121" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تركيب الأثاث</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Specialized construction activities,Site preparation ,Landfill,Services to buildings and landscape activities,Combined facilities support activities ,Provision of maintenance services within facilities</v>
       </c>
     </row>
     <row r="122">
@@ -3199,22 +2836,19 @@
         <v>7</v>
       </c>
       <c r="B122" t="str">
-        <v>الشركة العالمية للصناعات الحديثة</v>
+        <v>Sama Al-afaq for Trading and Contracting Ltd.</v>
       </c>
       <c r="C122" t="str">
-        <v>10001505</v>
+        <v>10002438</v>
       </c>
       <c r="D122" t="str">
-        <v/>
+        <v>samaalafaq@hotmail.com</v>
       </c>
       <c r="E122" t="str">
-        <v>gm@ifmi.com.sa</v>
+        <v>TURAIF</v>
       </c>
       <c r="F122" t="str">
-        <v>جدة</v>
-      </c>
-      <c r="G122" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات الكمبيوتر والاتصالات,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,أنشطة التشييد المتخصصة الأخرى,تأجير معدات التشييد والبناء مع مشغل,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني,التنظيف العام للمباني,التنظيف العام للمباني,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام</v>
+        <v>Waste collection, treatment &amp; disposal activities; materials recovery,Collection of non-hazardous waste ,Street cleaning,Transfer of non-hazardous industrial waste,Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Long-distance oil and gas pipelines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction, erection and repair of power plants,Repair and maintenance of wired and wireless communication stations and radars,Construction of other civil engineering projects ,Repair and maintenance of dams,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of elevators and escalators,Installation, repair and maintenance of automated and revolving doors,Installation, repair and maintenance of lightning conductors,Installation, repair and maintenance of vacuum cleaning systems,Installation, repair and maintenance of thermal, sound or vibration insulation,Other not previously mentioned construction installation, repair and maintenance activities,Installation and maintenance of elevators,Installation, repair and maintenance of escalators, conveyor and ground belts,Installation, repair and maintenance of thermal, sound or vibration insulation,Installation and repair of civil protection devices such as heavy equipment used to control earth quicks and buildings collapse and ways of individual protection,Installation and maintenance of early warning sirens and control centers,Installation and maintenance of fire equipment,Installing and maintaining storage and shelves solutions,Building completion and finishing ,Building finishing,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.,Services to buildings and landscape activities,Combined facilities support activities ,Provision of maintenance services within facilities,Activities of government buildings cleaning services,General cleaning of buildings ,General cleaning of buildings,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery,Care and maintenance of greenery for sports grounds (e.g. golf courses),Care and maintenance of greenery for stationary and flowing water (basins, ponds, swimming pools, watercourses and wet areas),Care and maintenance of plants for protection against noise, wind and erosion,Care and maintenance of other types of landscap n.e.c.,Activities of landscape design services,Maintenance of land in order to keep it in good ecological condition</v>
       </c>
     </row>
     <row r="123">
@@ -3222,22 +2856,19 @@
         <v>7</v>
       </c>
       <c r="B123" t="str">
-        <v>شركة علي حسين اليامي وشريكه للتجارة والمقاولات</v>
+        <v>Saad Saeed Al Saadi &amp; Sons Co. for Contracting, Maintenance &amp; Operation</v>
       </c>
       <c r="C123" t="str">
-        <v>100003604</v>
+        <v>10001862</v>
       </c>
       <c r="D123" t="str">
-        <v>138644149</v>
+        <v>ISS966@HOTMAIL.COM</v>
       </c>
       <c r="E123" t="str">
-        <v>faris@bormangroup.com</v>
+        <v>MAKKAH AL MUKARRAMAH</v>
       </c>
       <c r="F123" t="str">
-        <v/>
-      </c>
-      <c r="G123" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديدات الشبكات,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,التنظيف العام للمباني,التنظيف العام للمباني</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction of utility projects ,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction of other civil engineering projects ,Construction of dams,Specialized construction activities,Other construction installation ,Other not previously mentioned construction installation, repair and maintenance activities</v>
       </c>
     </row>
     <row r="124">
@@ -3245,22 +2876,19 @@
         <v>7</v>
       </c>
       <c r="B124" t="str">
-        <v>شركة ممان الشرقية للتجارة والمقاولات</v>
+        <v>Arab Peller Trading and Contracting Company</v>
       </c>
       <c r="C124" t="str">
-        <v>100004622</v>
+        <v>10001816</v>
       </c>
       <c r="D124" t="str">
-        <v>00966920003418</v>
+        <v>t.salah@pillararabian.com</v>
       </c>
       <c r="E124" t="str">
-        <v>CEO@MMANCO.COM</v>
+        <v>RIYADH</v>
       </c>
       <c r="F124" t="str">
-        <v>الجبيل</v>
-      </c>
-      <c r="G124" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Other utility projects construction activities n.e.c.,Construction of other civil engineering projects ,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.),Specialized construction activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of plumbing and sanitary equipment,Other installation, maintenance and repair activities n.e.c.,Building completion and finishing ,Building finishing,Services to buildings and landscape activities,Combined facilities support activities ,Other facilities support activities n.e.c.</v>
       </c>
     </row>
     <row r="125">
@@ -3268,22 +2896,19 @@
         <v>7</v>
       </c>
       <c r="B125" t="str">
-        <v>شركة شبكة الطرق للمقاولات</v>
+        <v>Cities Linking Co. for Construction</v>
       </c>
       <c r="C125" t="str">
-        <v>100003805</v>
+        <v>10001982</v>
       </c>
       <c r="D125" t="str">
-        <v>0112066662</v>
+        <v>CITCO88@GMAIL.COM</v>
       </c>
       <c r="E125" t="str">
-        <v>road_net@ymail.com</v>
+        <v>JEDDAH</v>
       </c>
       <c r="F125" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G125" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,التنظيف العام للمباني,التنظيف العام للمباني</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction of utility projects ,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction of other civil engineering projects ,Construction of dams,Services to buildings and landscape activities,Combined facilities support activities ,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings</v>
       </c>
     </row>
     <row r="126">
@@ -3291,22 +2916,19 @@
         <v>7</v>
       </c>
       <c r="B126" t="str">
-        <v>شركة بلت الصناعية</v>
+        <v>General Enterprises Trading Co Ltd</v>
       </c>
       <c r="C126" t="str">
-        <v>10003183</v>
+        <v>10003116</v>
       </c>
       <c r="D126" t="str">
-        <v>2252877000</v>
+        <v>helmi@getco.com.sa</v>
       </c>
       <c r="E126" t="str">
-        <v>msaber@labab.com.sa</v>
+        <v>RIYADH</v>
       </c>
       <c r="F126" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G126" t="str">
-        <v>أنشطة خدمات دعم التعدين,أنشطة الدعم لاستخراج النفط والغاز الطبيعي,حفر آبار النفط,حفر آبار الغاز الطبيعي,الخدمات المتصلة باستخراج النفط باستثناء خدمات المسح,الخدمات المتصلة باستخراج الغاز الطبيعي باستثناء خدمات المسح,أنشطة أخرى تتعلق بأنشطة الدعم لاستخراج النفط والغاز الطبيعي,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of other not previously mentioned non-residential buildings,Civil engineering,Construction of utility projects ,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Repair and maintenance of water distribution stations, networks and main lines,Repair and maintenance of sewer systems, sewage disposal plants and pumping station</v>
       </c>
     </row>
     <row r="127">
@@ -3314,22 +2936,19 @@
         <v>7</v>
       </c>
       <c r="B127" t="str">
-        <v>شركة امتياز العروبة</v>
+        <v>United Engineering Construction Co. UNEC</v>
       </c>
       <c r="C127" t="str">
-        <v>100003545</v>
+        <v>200005259</v>
       </c>
       <c r="D127" t="str">
-        <v>00966530188346</v>
+        <v>asharqi@unec.ae</v>
       </c>
       <c r="E127" t="str">
-        <v>falehalwadani@hotmail.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F127" t="str">
-        <v>الزلفي</v>
-      </c>
-      <c r="G127" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,التركيبات الكهربائية الأخرى</v>
+        <v>No Data</v>
       </c>
     </row>
     <row r="128">
@@ -3337,22 +2956,19 @@
         <v>7</v>
       </c>
       <c r="B128" t="str">
-        <v>الشركة السعودية للحاسبات الالكترونية</v>
+        <v>Bin Delamah Contracting</v>
       </c>
       <c r="C128" t="str">
-        <v>10003104</v>
+        <v>10001161</v>
       </c>
       <c r="D128" t="str">
-        <v/>
+        <v>mail@bindelamah.com</v>
       </c>
       <c r="E128" t="str">
-        <v>snaif@sbm.com.sa</v>
+        <v>RAS TANNURAH</v>
       </c>
       <c r="F128" t="str">
-        <v>جدة</v>
-      </c>
-      <c r="G128" t="str">
-        <v>الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها</v>
+        <v>No Data</v>
       </c>
     </row>
     <row r="129">
@@ -3360,22 +2976,19 @@
         <v>7</v>
       </c>
       <c r="B129" t="str">
-        <v>مؤسسه دار الشبكات العربيه للمقاولات</v>
+        <v>Talbi Contracting Company</v>
       </c>
       <c r="C129" t="str">
-        <v>100003578</v>
+        <v>200003350</v>
       </c>
       <c r="D129" t="str">
-        <v>966114968932</v>
+        <v>mog.suliman@gmail.com</v>
       </c>
       <c r="E129" t="str">
-        <v>Arabnet@arabnet-ksa.com</v>
+        <v>SAMTAH</v>
       </c>
       <c r="F129" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G129" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تركيب انظمة انذار الحريق,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تركيبات إنشائية أخرى,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء</v>
+        <v>Mining support services,Oil and natural gas extraction support activities ,Drilling of oil fields,Drilling of natural gas fields,Services related to oil extraction except surveying services,Services related to natural gas extraction except surveying services,Other activities related to oil and natural gas extraction support activities,Waste collection, treatment &amp; disposal activities; materials recovery,Collection of non-hazardous waste ,Transfer of municipal waste,Street cleaning,Collection of recyclable materials,Other non-hazardous waste collection activities,Municipal waste collection services,Transfer of non-hazardous industrial waste,Used cooking oil collection,Collection of hazardous waste ,Collection of hazardous waste, such as used oil from shipment or garages,Collection of hazardous waste, such as bio-hazardous waste,Collection of hazardous waste, such as used batteries,Operation of waste transfer stations for hazardous waste,Collection of other types of hazardous waste,Collection and transfer of hazardous wastes of used oils from producers of such wastes,Transfer of hazardous medical waste,Collection and transfer of waste resulting from the control and cleaning work of the marine and coastal environment,Transfer of hazardous wastes,Transfer of asbestos wastes,Transfer of oil from one watercraft to another within the sea or from offshore oil collection sites in cases of contamination,Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Repair and maintenance of railways and subways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Long-distance oil and gas pipelines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction, erection and repair of power plants,Repair and maintenance of wired and wireless communication stations and radars,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Dredging of waterways,Construction of dykes,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.),Repair and maintenance of dams,Repair and maintenance of port piers and marine facilities,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Blasting,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of elevators and escalators,Installation, repair and maintenance of automated and revolving doors,Installation, repair and maintenance of lightning conductors,Installation, repair and maintenance of vacuum cleaning systems,Installation, repair and maintenance of thermal, sound or vibration insulation,Other not previously mentioned construction installation, repair and maintenance activities,Installation and maintenance of elevators,Installation, repair and maintenance of escalators, conveyor and ground belts,Installation, repair and maintenance of thermal, sound or vibration insulation,Installation and repair of civil protection devices such as heavy equipment used to control earth quicks and buildings collapse and ways of individual protection,Installation and maintenance of early warning sirens and control centers,Installation and maintenance of fire equipment,Installing and maintaining storage and shelves solutions,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,Activities of government buildings cleaning services,Provision of mail routing services,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Specialized cleaning activities for buildings such as window cleaning, chimney cleaning, etc.,Swimming pool cleaning and maintenance services,Disinfecting and exterminating activities,Cleaning of trains, buses, planes, etc.,Cleaning of industrial machinery,Street sweeping and snow and ice removal,Other building and industrial cleaning activities n.e.c.,Disinfection activities and pest and rodents control by fumes,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery,Care and maintenance of greenery for sports grounds (e.g. golf courses),Care and maintenance of greenery for stationary and flowing water (basins, ponds, swimming pools, watercourses and wet areas),Care and maintenance of plants for protection against noise, wind and erosion,Care and maintenance of other types of landscap n.e.c.,Activities of landscape design services,Maintenance of land in order to keep it in good ecological condition</v>
       </c>
     </row>
     <row r="130">
@@ -3383,22 +2996,19 @@
         <v>7</v>
       </c>
       <c r="B130" t="str">
-        <v>شركة كوماتيك العربية السعودية المحدودة</v>
+        <v>Nesma &amp; Partners Contracting Company Ltd.</v>
       </c>
       <c r="C130" t="str">
-        <v>100004492</v>
+        <v>10001763</v>
       </c>
       <c r="D130" t="str">
-        <v>00966114161901</v>
+        <v>bd@nesmapartners.com</v>
       </c>
       <c r="E130" t="str">
-        <v>bashir.alshamemi@comatec.com.sa</v>
+        <v>AL KHOBAR</v>
       </c>
       <c r="F130" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G130" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures</v>
       </c>
     </row>
     <row r="131">
@@ -3406,22 +3016,19 @@
         <v>7</v>
       </c>
       <c r="B131" t="str">
-        <v>شركة مقاسم المحدودة</v>
+        <v>Arabian Yalin Contracting Company Ltd.</v>
       </c>
       <c r="C131" t="str">
-        <v>100004818</v>
+        <v>10002714</v>
       </c>
       <c r="D131" t="str">
-        <v>0096626424242</v>
+        <v>a.mujahed@arabianyalin.com</v>
       </c>
       <c r="E131" t="str">
-        <v>hsan2000@hotmail.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F131" t="str">
-        <v>جدة</v>
-      </c>
-      <c r="G131" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيبات إنشائية أخرى,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,اكمال المباني وتشطيبها, تشطيب المباني,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,أنشطة تنظيف الطرق</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of utility projects ,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Specialized construction activities,Electrical installation ,Electrical wiring,Installation of lighting systems,Installation of fire alarms,Other types of electrical installation,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,Activities of government buildings cleaning services,Provision of mail routing services,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Specialized cleaning activities for buildings such as window cleaning, chimney cleaning, etc.,Swimming pool cleaning and maintenance services,Disinfecting and exterminating activities,Cleaning of trains, buses, planes, etc.,Cleaning of industrial machinery,Street sweeping and snow and ice removal,Other building and industrial cleaning activities n.e.c.,Disinfection activities and pest and rodents control by fumes,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery,Care and maintenance of greenery for sports grounds (e.g. golf courses),Care and maintenance of greenery for stationary and flowing water (basins, ponds, swimming pools, watercourses and wet areas),Care and maintenance of plants for protection against noise, wind and erosion,Care and maintenance of other types of landscap n.e.c.,Activities of landscape design services,Maintenance of land in order to keep it in good ecological condition</v>
       </c>
     </row>
     <row r="132">
@@ -3429,22 +3036,19 @@
         <v>7</v>
       </c>
       <c r="B132" t="str">
-        <v>شركة كفو للخدمات الفنية المحدودة</v>
+        <v>Nfoud Alathereia Contracting Co.</v>
       </c>
       <c r="C132" t="str">
-        <v>100004499</v>
+        <v>100005978</v>
       </c>
       <c r="D132" t="str">
-        <v>00966138825067</v>
+        <v>ceo@alathereia.com</v>
       </c>
       <c r="E132" t="str">
-        <v>rashed@ktsco.com.sa</v>
+        <v>RIYADH</v>
       </c>
       <c r="F132" t="str">
-        <v>الخبر</v>
-      </c>
-      <c r="G132" t="str">
-        <v>الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة مانعه الصواعق,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,أنشطة تنظيف الآلات والمعدات الصناعية</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Construction of utility projects ,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Repair and maintenance of water distribution stations, networks and main lines,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction, erection and repair of power plants,Construction of other civil engineering projects ,Construction of dams,Repair and maintenance of dams</v>
       </c>
     </row>
     <row r="133">
@@ -3452,22 +3056,19 @@
         <v>7</v>
       </c>
       <c r="B133" t="str">
-        <v>شركة الماء الاحمر لهندسة المشاريع</v>
+        <v>Alsaad General Contracting Company Ltd.</v>
       </c>
       <c r="C133" t="str">
-        <v>10001191</v>
+        <v>20002951</v>
       </c>
       <c r="D133" t="str">
-        <v/>
+        <v>iksalam@alsaad.com.sa</v>
       </c>
       <c r="E133" t="str">
-        <v>awad@redwater.sa</v>
+        <v>JEDDAH</v>
       </c>
       <c r="F133" t="str">
-        <v/>
-      </c>
-      <c r="G133" t="str">
-        <v>أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Construction of utility projects ,Long-distance pipelines, communication and power lines,Long-distance oil and gas pipelines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Dredging of waterways,Construction of dykes,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.),Specialized construction activities,Electrical installation ,Installation of lighting systems</v>
       </c>
     </row>
     <row r="134">
@@ -3475,22 +3076,19 @@
         <v>7</v>
       </c>
       <c r="B134" t="str">
-        <v>شركة الرواد الفنيه للتجارة والمقاولات العامة المحدودة</v>
+        <v>Shabakat Altoorq Contracting Company</v>
       </c>
       <c r="C134" t="str">
-        <v>100003917</v>
+        <v>100003805</v>
       </c>
       <c r="D134" t="str">
-        <v>0126648565</v>
+        <v>road_net@ymail.com</v>
       </c>
       <c r="E134" t="str">
-        <v>TAWFIQ@PT-TGC.COM</v>
+        <v>RIYADH</v>
       </c>
       <c r="F134" t="str">
-        <v>جدة</v>
-      </c>
-      <c r="G134" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Repair and maintenance of railways and subways,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Other building completion work,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,General cleaning of buildings ,General cleaning of buildings</v>
       </c>
     </row>
     <row r="135">
@@ -3498,22 +3096,19 @@
         <v>7</v>
       </c>
       <c r="B135" t="str">
-        <v>مؤسسة أساليب للمقاولات</v>
+        <v>Awad Saad Binzafrah Contracting Company</v>
       </c>
       <c r="C135" t="str">
-        <v>100006924</v>
+        <v>10001760</v>
       </c>
       <c r="D135" t="str">
-        <v>112929300</v>
+        <v>ali.alwaeli@binzafrah.com</v>
       </c>
       <c r="E135" t="str">
-        <v>aziz@almousa.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F135" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G135" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
+        <v>Civil engineering,Construction of utility projects ,Long-distance pipelines, communication and power lines,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Specialized construction activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Other electrical and telecommunications wiring activities</v>
       </c>
     </row>
     <row r="136">
@@ -3521,22 +3116,19 @@
         <v>7</v>
       </c>
       <c r="B136" t="str">
-        <v>شركة أضواء العاصمة للكهروميكانيكا</v>
+        <v>Alsahda Contracting Est.</v>
       </c>
       <c r="C136" t="str">
-        <v>10001074</v>
+        <v>20002666</v>
       </c>
       <c r="D136" t="str">
-        <v>00966114707002</v>
+        <v>info@alsahda.com.sa</v>
       </c>
       <c r="E136" t="str">
-        <v>clc967@gmail.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F136" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G136" t="str">
-        <v>الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديدات الشبكات,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيبات إنشائية أخرى,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of other not previously mentioned non-residential buildings,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of utility projects ,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Specialized construction activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building completion and finishing ,Building finishing,Interior and exterior painting of buildings,Other specialized construction activities ,Bricklaying</v>
       </c>
     </row>
     <row r="137">
@@ -3544,22 +3136,19 @@
         <v>7</v>
       </c>
       <c r="B137" t="str">
-        <v>شركة التعمير والإنشاء المحدودة</v>
+        <v>Kafou Technical Services Co Ltd.</v>
       </c>
       <c r="C137" t="str">
-        <v>10003238</v>
+        <v>100004499</v>
       </c>
       <c r="D137" t="str">
-        <v>0138612223</v>
+        <v>rashed@ktsco.com.sa</v>
       </c>
       <c r="E137" t="str">
-        <v>info@bcc-sa.com</v>
+        <v>AL KHOBAR</v>
       </c>
       <c r="F137" t="str">
-        <v>الخبر</v>
-      </c>
-      <c r="G137" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية</v>
+        <v>Civil engineering,Construction of utility projects ,Long-distance pipelines, communication and power lines,Long-distance oil and gas pipelines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction, erection and repair of power plants,Repair and maintenance of wired and wireless communication stations and radars,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants,Specialized construction activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Other electrical and telecommunications wiring activities,Other computer network and cable television wiring installation activities,Installation of lighting systems,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of lightning conductors,Other not previously mentioned construction installation, repair and maintenance activities,Services to buildings and landscape activities,Other building and industrial cleaning activities ,Cleaning of industrial machinery</v>
       </c>
     </row>
     <row r="138">
@@ -3567,22 +3156,19 @@
         <v>7</v>
       </c>
       <c r="B138" t="str">
-        <v>مؤسسة خلف المحيط للمقاولات</v>
+        <v>Belt Industrial Company</v>
       </c>
       <c r="C138" t="str">
-        <v>100007302</v>
+        <v>10003183</v>
       </c>
       <c r="D138" t="str">
-        <v>0173224303</v>
+        <v>msaber@labab.com.sa</v>
       </c>
       <c r="E138" t="str">
-        <v>khalfalmoheet@gmail.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F138" t="str">
-        <v>فيفاء</v>
-      </c>
-      <c r="G138" t="str">
-        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,تنظيف الشوارع,أنشطة أخرى تتعلق بجمع النفايات الغير خطرة,خدمات جمع النفايات البلدية,نقل النفايات الصناعية الغير خطرة,أنشطة التشييد المتخصصة ,تحضير الموقع,سحب المياه الجوفية وتجفيف المواقع</v>
+        <v>Mining support services,Oil and natural gas extraction support activities ,Drilling of oil fields,Drilling of natural gas fields,Services related to oil extraction except surveying services,Services related to natural gas extraction except surveying services,Other activities related to oil and natural gas extraction support activities,Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways</v>
       </c>
     </row>
     <row r="139">
@@ -3590,22 +3176,19 @@
         <v>7</v>
       </c>
       <c r="B139" t="str">
-        <v>شركة تراث المشرق للمقاولات</v>
+        <v>Abdullah Hamoud Alshuwayer Sons Trading &amp; Contracting Co</v>
       </c>
       <c r="C139" t="str">
-        <v>1000020000104</v>
+        <v>10001371</v>
       </c>
       <c r="D139" t="str">
-        <v>011660114</v>
+        <v>admins@shuwayer.com</v>
       </c>
       <c r="E139" t="str">
-        <v>turath.almashrq@gmail.com</v>
+        <v>DAMMAM</v>
       </c>
       <c r="F139" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G139" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,اكمال المباني وتشطيبها, تشطيب المباني</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction of utility projects ,Long-distance pipelines, communication and power lines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction of other civil engineering projects ,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Specialized construction activities,Electrical installation ,Electrical wiring,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of air- conditioning ducts</v>
       </c>
     </row>
     <row r="140">
@@ -3613,22 +3196,19 @@
         <v>7</v>
       </c>
       <c r="B140" t="str">
-        <v>شركة أس جي أس لخدمات الفحص العربية السعودية المحدودة</v>
+        <v>Helal Moshabab Al Otaibi Contracting Co.</v>
       </c>
       <c r="C140" t="str">
-        <v>30001683</v>
+        <v>100004393</v>
       </c>
       <c r="D140" t="str">
-        <v>96613400044</v>
+        <v>hilalalotaibicorp@gmail.com</v>
       </c>
       <c r="E140" t="str">
-        <v>abdulaziz.alansari@sgs.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F140" t="str">
-        <v>الجبيل</v>
-      </c>
-      <c r="G140" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),إنشاءات المباني الجاهزة في المواقع</v>
+        <v>No Data</v>
       </c>
     </row>
     <row r="141">
@@ -3636,22 +3216,19 @@
         <v>7</v>
       </c>
       <c r="B141" t="str">
-        <v>مؤسسة الحاضرة للمقاولات العامة</v>
+        <v>Naif Awadh Alboqmi Contracting Est</v>
       </c>
       <c r="C141" t="str">
-        <v>465046504</v>
+        <v>100007417</v>
       </c>
       <c r="D141" t="str">
-        <v>0138126969</v>
+        <v>info@shadengulf.com</v>
       </c>
       <c r="E141" t="str">
-        <v>alkhruaim@yahoo.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F141" t="str">
-        <v>صفوى</v>
-      </c>
-      <c r="G141" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني</v>
+        <v>Civil engineering,Construction of utility projects ,Repair and maintenance of wired and wireless communication stations and radars,Specialized construction activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of fire alarms,Other lighting systems, fire alarms and burglar alarm systems installation activities</v>
       </c>
     </row>
     <row r="142">
@@ -3659,22 +3236,19 @@
         <v>8</v>
       </c>
       <c r="B142" t="str">
-        <v>شركة العسيس للمقاولات</v>
+        <v>Saudi Media Systems Co</v>
       </c>
       <c r="C142" t="str">
-        <v>100004776</v>
+        <v>100006342</v>
       </c>
       <c r="D142" t="str">
-        <v>966138196159</v>
+        <v>khumadi@smediasys.com</v>
       </c>
       <c r="E142" t="str">
-        <v>Sec.yousef@osais.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F142" t="str">
-        <v>الدمام</v>
-      </c>
-      <c r="G142" t="str">
-        <v>أنشطة خدمات دعم التعدين,أنشطة الدعم لاستخراج النفط والغاز الطبيعي,حفر آبار النفط,حفر آبار الغاز الطبيعي,الخدمات المتصلة باستخراج النفط باستثناء خدمات المسح,الخدمات المتصلة باستخراج الغاز الطبيعي باستثناء خدمات المسح,أنشطة أخرى تتعلق بأنشطة الدعم لاستخراج النفط والغاز الطبيعي,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
+        <v>No Data</v>
       </c>
     </row>
     <row r="143">
@@ -3682,22 +3256,19 @@
         <v>8</v>
       </c>
       <c r="B143" t="str">
-        <v>مؤسسة اسامة بن زيد ازرق</v>
+        <v>Jabal Beshah General Contracting Est.</v>
       </c>
       <c r="C143" t="str">
-        <v>10001089</v>
+        <v>10002386</v>
       </c>
       <c r="D143" t="str">
-        <v>0125240222</v>
+        <v>abok1402@hotmail.com</v>
       </c>
       <c r="E143" t="str">
-        <v>osamaazraq@hotmail.com</v>
+        <v>JAZAN</v>
       </c>
       <c r="F143" t="str">
-        <v>مكة المكرمة</v>
-      </c>
-      <c r="G143" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تركيبات إنشائية أخرى,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني,أنشطة خدمات التنظيف للمباني الحكومية</v>
+        <v>Waste collection, treatment &amp; disposal activities; materials recovery,Collection of non-hazardous waste ,Street cleaning,Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction of utility projects ,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Specialized construction activities,Electrical installation ,Electrical wiring,Other types of electrical installation,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Services to buildings and landscape activities,Combined facilities support activities ,Provision of maintenance services within facilities,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing</v>
       </c>
     </row>
     <row r="144">
@@ -3705,22 +3276,19 @@
         <v>8</v>
       </c>
       <c r="B144" t="str">
-        <v>شركة المحيط العميق للمقاولات</v>
+        <v>Matn Trading and Contracting Company Ltd</v>
       </c>
       <c r="C144" t="str">
-        <v>10002099</v>
+        <v>100005135</v>
       </c>
       <c r="D144" t="str">
-        <v>0112915204</v>
+        <v>co_maten@hotmail.com</v>
       </c>
       <c r="E144" t="str">
-        <v>info@thedeepocean.com.sa</v>
+        <v>BURAYDAH</v>
       </c>
       <c r="F144" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G144" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيبات إنشائية أخرى,تركيب وصيانة أجهزة ومعدات الإطفاء,أنشطة تقديم الخدمات للمباني وتجميل المواقع,التنظيف العام للمباني,التنظيف العام للمباني</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Construction of utility projects ,Long-distance pipelines, communication and power lines,Long-distance oil and gas pipelines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction, erection and repair of power plants,Repair and maintenance of wired and wireless communication stations and radars,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of elevators and escalators,Installation, repair and maintenance of automated and revolving doors,Installation, repair and maintenance of lightning conductors,Installation, repair and maintenance of vacuum cleaning systems,Installation, repair and maintenance of thermal, sound or vibration insulation,Other not previously mentioned construction installation, repair and maintenance activities,Installation and maintenance of elevators,Installation, repair and maintenance of escalators, conveyor and ground belts,Installation, repair and maintenance of thermal, sound or vibration insulation,Installation and repair of civil protection devices such as heavy equipment used to control earth quicks and buildings collapse and ways of individual protection,Installation and maintenance of early warning sirens and control centers,Installation and maintenance of fire equipment,Installing and maintaining storage and shelves solutions,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,Activities of government buildings cleaning services,Provision of mail routing services,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Specialized cleaning activities for buildings such as window cleaning, chimney cleaning, etc.,Swimming pool cleaning and maintenance services,Disinfecting and exterminating activities,Cleaning of trains, buses, planes, etc.,Cleaning of industrial machinery,Street sweeping and snow and ice removal,Other building and industrial cleaning activities n.e.c.,Disinfection activities and pest and rodents control by fumes,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery,Care and maintenance of greenery for sports grounds (e.g. golf courses),Care and maintenance of greenery for stationary and flowing water (basins, ponds, swimming pools, watercourses and wet areas),Care and maintenance of plants for protection against noise, wind and erosion,Care and maintenance of other types of landscap n.e.c.,Activities of landscape design services,Maintenance of land in order to keep it in good ecological condition</v>
       </c>
     </row>
     <row r="145">
@@ -3728,22 +3296,19 @@
         <v>8</v>
       </c>
       <c r="B145" t="str">
-        <v>شركة الانظمة المتقدمة للمشاريع المحدودة</v>
+        <v>Advanced Concepts Company for Contracting</v>
       </c>
       <c r="C145" t="str">
-        <v>10001198</v>
+        <v>100006184</v>
       </c>
       <c r="D145" t="str">
-        <v>00966114443535</v>
+        <v>samir@advacon.com.sa</v>
       </c>
       <c r="E145" t="str">
-        <v>ats@atsc-sa.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F145" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G145" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Civil engineering,Construction of utility projects ,Long-distance pipelines, communication and power lines,Construction, erection and repair of wired and wireless communication stations and radars,Construction of other civil engineering projects ,Construction of harbor and river works,Specialized construction activities,Electrical installation ,Electrical wiring,Network wiring,Installation and maintenance of safety devices,Services to buildings and landscape activities,Landscape care and maintenance service activities ,Care and maintenance of greenery for sports grounds (e.g. golf courses),Care and maintenance of plants for protection against noise, wind and erosion,Activities of landscape design services,Maintenance of land in order to keep it in good ecological condition</v>
       </c>
     </row>
     <row r="146">
@@ -3751,22 +3316,19 @@
         <v>8</v>
       </c>
       <c r="B146" t="str">
-        <v>شركة أزدة للمقاولات</v>
+        <v>Bait Aljaleed for Maintenance &amp; Operation Company</v>
       </c>
       <c r="C146" t="str">
-        <v>200003903</v>
+        <v>100006826</v>
       </c>
       <c r="D146" t="str">
-        <v>0112912621</v>
+        <v>alkhadhar.a@gmail.com</v>
       </c>
       <c r="E146" t="str">
-        <v>admin@azdah.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F146" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G146" t="str">
-        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,تنظيف الشوارع,جمع المواد لإعادة التصنيع,أنشطة أخرى تتعلق بجمع النفايات الغير خطرة,خدمات جمع النفايات البلدية,نقل النفايات الصناعية الغير خطرة,تجميع زيوت الطعام المستخدمة,جمع النفايات الخطرة,جمع النفايات الخطرة للزيوت المستعملة من الشحن أو المرائب,جمع النفايات الخطرة للمواد الخطرة البيولوجية,جمع النفايات الخطرة للبطاريات المستعملة,تشغيل محطات نقل النفايات للنفايات الخطرة,جمع النفايات الخطرة الأخرى,جمع ونقل النفايات الخطرة للزيوت المستعملة من منتجي هذه النفايات,نقل النفايات الطبية الخطرة,جمع ونقل النفايات الناتجة عن أعمال المكافحة والتنظيف للبيئة البحرية والساحلية,نقل النفايات الخطرة,نقل نفايات الاسبستوس,نقل الزيت من واسطة بحرية إلى أخرى داخل عرض البحر أو من مواقع تجميع الزيوت داخل البحر في حالات التلوث,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء السدود,إنشاء كاسرات الأمواج والحماية للأرصفة,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة</v>
+        <v>No Data</v>
       </c>
     </row>
     <row r="147">
@@ -3774,22 +3336,19 @@
         <v>8</v>
       </c>
       <c r="B147" t="str">
-        <v>شركة سعد سعيد الصاعدي واولاده للمقاولات والصيانه والتشغيل التضامنية</v>
+        <v>Attejarat Company</v>
       </c>
       <c r="C147" t="str">
-        <v>10001862</v>
+        <v>10002744</v>
       </c>
       <c r="D147" t="str">
-        <v>5589303</v>
+        <v>M.alsalloum@attejarat.com.sa</v>
       </c>
       <c r="E147" t="str">
-        <v>ISS966@HOTMAIL.COM</v>
+        <v>RIYADH</v>
       </c>
       <c r="F147" t="str">
-        <v>مكة المكرمة</v>
-      </c>
-      <c r="G147" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء السدود,أنشطة التشييد المتخصصة ,تركيبات إنشائية أخرى,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا</v>
+        <v>Waste collection, treatment &amp; disposal activities; materials recovery,Collection of non-hazardous waste ,Transfer of municipal waste,Street cleaning,Other non-hazardous waste collection activities,Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Services to buildings and landscape activities,Combined facilities support activities ,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Specialized cleaning activities for buildings such as window cleaning, chimney cleaning, etc.,Disinfecting and exterminating activities,Street sweeping and snow and ice removal,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of parks and gardens for highway greenery</v>
       </c>
     </row>
     <row r="148">
@@ -3797,22 +3356,19 @@
         <v>8</v>
       </c>
       <c r="B148" t="str">
-        <v>شركة العميل المحدوده</v>
+        <v>Mashreq Heritage Company for Contracting</v>
       </c>
       <c r="C148" t="str">
-        <v>10001985</v>
+        <v>1000020000104</v>
       </c>
       <c r="D148" t="str">
-        <v/>
+        <v>turath.almashrq@gmail.com</v>
       </c>
       <c r="E148" t="str">
-        <v>info@al-ameel.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F148" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G148" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,اكمال المباني وتشطيبها, تشطيب المباني,تركيب السيراميك والكاشي,تركيب الرخام,تغطية الارضيات خشب الباركيه,أعمال وتركيب الديكورات,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Specialized construction activities,Building completion and finishing ,Building finishing</v>
       </c>
     </row>
     <row r="149">
@@ -3820,22 +3376,19 @@
         <v>8</v>
       </c>
       <c r="B149" t="str">
-        <v>شركة مركز اتجاه الحريق المحدودة</v>
+        <v>Al-Dhaati Group Company</v>
       </c>
       <c r="C149" t="str">
-        <v>100006246</v>
+        <v>10003068</v>
       </c>
       <c r="D149" t="str">
-        <v>966138123579</v>
+        <v>althaatygroup@gmail.com</v>
       </c>
       <c r="E149" t="str">
-        <v>firedirect@firedirect.org</v>
+        <v>AL KHOBAR</v>
       </c>
       <c r="F149" t="str">
-        <v>الدمام</v>
-      </c>
-      <c r="G149" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تركيب انظمة انذار الحريق,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction of utility projects ,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Specialized construction activities,Electrical installation ,Installation of lighting systems,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Building completion and finishing ,Installation of decor,Interior and exterior painting of buildings,Services to buildings and landscape activities,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing</v>
       </c>
     </row>
     <row r="150">
@@ -3843,22 +3396,19 @@
         <v>8</v>
       </c>
       <c r="B150" t="str">
-        <v>شركة بن دلامة للمقاولات</v>
+        <v>Al-Asila Solutions Co., Ltd</v>
       </c>
       <c r="C150" t="str">
-        <v>10001161</v>
+        <v>30002587</v>
       </c>
       <c r="D150" t="str">
-        <v>0136680668</v>
+        <v>khalid@alasila.com</v>
       </c>
       <c r="E150" t="str">
-        <v>mail@bindelamah.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F150" t="str">
-        <v>راس تنورة</v>
-      </c>
-      <c r="G150" t="str">
-        <v xml:space="preserve"> لا يوجد بيانات</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Specialized construction activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities</v>
       </c>
     </row>
     <row r="151">
@@ -3866,22 +3416,19 @@
         <v>8</v>
       </c>
       <c r="B151" t="str">
-        <v>شركة روابي للمقاولات المتخصصة</v>
+        <v>Nesma United Industries Company Ltd.</v>
       </c>
       <c r="C151" t="str">
-        <v>10001412</v>
+        <v>10001285</v>
       </c>
       <c r="D151" t="str">
-        <v>0559802628</v>
+        <v>marketingnt@nesma.com</v>
       </c>
       <c r="E151" t="str">
-        <v>info@rscc.com.sa</v>
+        <v>AL KHOBAR</v>
       </c>
       <c r="F151" t="str">
-        <v>الخبر</v>
-      </c>
-      <c r="G151" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction of utility projects ,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Construction of other civil engineering projects ,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.),Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Site preparation ,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Installation of fire alarms,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Other construction installation ,Installation, repair and maintenance of elevators and escalators,Building completion and finishing ,Building finishing,Parquet and other wooden floor coverings,Interior and exterior painting of buildings,Painting of civil engineering structures,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Other building completion work,Other specialized construction activities ,Scaffolds erecting,Services to buildings and landscape activities,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Specialized cleaning activities for buildings such as window cleaning, chimney cleaning, etc.,Swimming pool cleaning and maintenance services,Disinfecting and exterminating activities,Cleaning of trains, buses, planes, etc.,Cleaning of industrial machinery,Street sweeping and snow and ice removal,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery,Care and maintenance of greenery for stationary and flowing water (basins, ponds, swimming pools, watercourses and wet areas),Care and maintenance of other types of landscap n.e.c.,Activities of landscape design services</v>
       </c>
     </row>
     <row r="152">
@@ -3889,22 +3436,19 @@
         <v>8</v>
       </c>
       <c r="B152" t="str">
-        <v>شركة تشييد المساكن للمقاولات</v>
+        <v>Al-Kifah Holding Company, Contracting Branch</v>
       </c>
       <c r="C152" t="str">
-        <v>10001419</v>
+        <v>10002946</v>
       </c>
       <c r="D152" t="str">
-        <v/>
+        <v>abdullah.busodah@alkifah.com</v>
       </c>
       <c r="E152" t="str">
-        <v>tassheedalmsaken@gmail.com</v>
+        <v>DAMMAM</v>
       </c>
       <c r="F152" t="str">
-        <v>حائل</v>
-      </c>
-      <c r="G152" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تركيب انظمة الاضاءة,اكمال المباني وتشطيبها, تشطيب المباني,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,التنظيف العام للمباني,التنظيف العام للمباني,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Services to buildings and landscape activities,Combined facilities support activities ,Provision of maintenance services within facilities</v>
       </c>
     </row>
     <row r="153">
@@ -3912,22 +3456,19 @@
         <v>8</v>
       </c>
       <c r="B153" t="str">
-        <v>شركة كيان المملكة كاك المحدودة</v>
+        <v>Electrical Power Systems Contracting Est</v>
       </c>
       <c r="C153" t="str">
-        <v>100009685</v>
+        <v>100006289</v>
       </c>
       <c r="D153" t="str">
-        <v>26514999</v>
+        <v>F.alyousef@eps-est.com</v>
       </c>
       <c r="E153" t="str">
-        <v>alharthyahmad@yahoo.com</v>
+        <v>'INAK</v>
       </c>
       <c r="F153" t="str">
-        <v>جدة</v>
-      </c>
-      <c r="G153" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
+        <v>No Data</v>
       </c>
     </row>
     <row r="154">
@@ -3935,22 +3476,19 @@
         <v>8</v>
       </c>
       <c r="B154" t="str">
-        <v>شركة أحمد ناصر البنعلى وأولاده للتجارة والمقاولات</v>
+        <v>Al-Ameel Co. Ltd.</v>
       </c>
       <c r="C154" t="str">
-        <v>10000846</v>
+        <v>10001985</v>
       </c>
       <c r="D154" t="str">
-        <v>0138595555</v>
+        <v>info@al-ameel.com</v>
       </c>
       <c r="E154" t="str">
-        <v>nalbinali@albinali.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F154" t="str">
-        <v>الظهران</v>
-      </c>
-      <c r="G154" t="str">
-        <v>الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of utility projects ,Long-distance pipelines, communication and power lines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Specialized construction activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Building completion and finishing ,Building finishing,Installation of ceramic,Installation of marble,Parquet and other wooden floor coverings,Installation of decor,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting</v>
       </c>
     </row>
     <row r="155">
@@ -3958,22 +3496,19 @@
         <v>8</v>
       </c>
       <c r="B155" t="str">
-        <v>شركة بكري أحمد حسن آل صعب للمقاولات</v>
+        <v>Future Horizons Contracting Est.</v>
       </c>
       <c r="C155" t="str">
-        <v>10002598</v>
+        <v>10002923</v>
       </c>
       <c r="D155" t="str">
-        <v>0172279800</v>
+        <v>m@fhi.sa</v>
       </c>
       <c r="E155" t="str">
-        <v>h.bakkri@gmail.com</v>
+        <v>BISHAH</v>
       </c>
       <c r="F155" t="str">
-        <v>محايل</v>
-      </c>
-      <c r="G155" t="str">
-        <v xml:space="preserve"> لا يوجد بيانات</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Construction of utility projects ,Long-distance pipelines, communication and power lines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of automated and revolving doors,Building completion and finishing ,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Other specialized construction activities ,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.,Services to buildings and landscape activities,Other building and industrial cleaning activities ,Street sweeping and snow and ice removal</v>
       </c>
     </row>
     <row r="156">
@@ -3981,22 +3516,19 @@
         <v>8</v>
       </c>
       <c r="B156" t="str">
-        <v>شركة انساب للمقاولات العامة</v>
+        <v>Saudi Electronic Trading and Contracting Company</v>
       </c>
       <c r="C156" t="str">
-        <v>100005137</v>
+        <v>200006548</v>
       </c>
       <c r="D156" t="str">
-        <v>966599000677</v>
+        <v>homedi.alrasheed@setra.com.sa</v>
       </c>
       <c r="E156" t="str">
-        <v>n.hashem@ansab.com.sa</v>
+        <v>RIYADH</v>
       </c>
       <c r="F156" t="str">
-        <v>الخبر</v>
-      </c>
-      <c r="G156" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
+        <v>Specialized construction activities,Electrical installation ,Electrical wiring,Installation of computer network and cable television wiring,Installation of lighting systems,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of air- conditioning ducts</v>
       </c>
     </row>
     <row r="157">
@@ -4004,22 +3536,19 @@
         <v>8</v>
       </c>
       <c r="B157" t="str">
-        <v>شركة شلفا لإدارة المرافق</v>
+        <v>Rawnaq Al-Amar Contracting Company</v>
       </c>
       <c r="C157" t="str">
-        <v>100003616</v>
+        <v>100005891</v>
       </c>
       <c r="D157" t="str">
-        <v>0114538155</v>
+        <v>a7med.alajami@gmail.com</v>
       </c>
       <c r="E157" t="str">
-        <v>f.albrahim@shalfaintl.com.sa</v>
+        <v>ABU ARISH</v>
       </c>
       <c r="F157" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G157" t="str">
-        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,تنظيف الشوارع,جمع المواد لإعادة التصنيع,أنشطة أخرى تتعلق بجمع النفايات الغير خطرة,خدمات جمع النفايات البلدية,جمع النفايات الخطرة,جمع النفايات الخطرة للزيوت المستعملة من الشحن أو المرائب,جمع النفايات الخطرة للمواد الخطرة البيولوجية,جمع النفايات الخطرة للبطاريات المستعملة,تشغيل محطات نقل النفايات للنفايات الخطرة,جمع النفايات الخطرة الأخرى,جمع ونقل النفايات الناتجة عن أعمال المكافحة والتنظيف للبيئة البحرية والساحلية,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Repair and maintenance of railways and subways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Long-distance oil and gas pipelines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction, erection and repair of power plants,Repair and maintenance of wired and wireless communication stations and radars,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Dredging of waterways,Construction of dykes,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.),Repair and maintenance of dams,Repair and maintenance of port piers and marine facilities,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Blasting,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of elevators and escalators,Installation, repair and maintenance of automated and revolving doors,Installation, repair and maintenance of lightning conductors,Installation, repair and maintenance of vacuum cleaning systems,Installation, repair and maintenance of thermal, sound or vibration insulation,Other not previously mentioned construction installation, repair and maintenance activities,Installation and maintenance of elevators,Installation, repair and maintenance of escalators, conveyor and ground belts,Installation, repair and maintenance of thermal, sound or vibration insulation,Installation and repair of civil protection devices such as heavy equipment used to control earth quicks and buildings collapse and ways of individual protection,Installation and maintenance of early warning sirens and control centers,Installation and maintenance of fire equipment,Installing and maintaining storage and shelves solutions,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,Activities of government buildings cleaning services,Provision of mail routing services,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Specialized cleaning activities for buildings such as window cleaning, chimney cleaning, etc.,Swimming pool cleaning and maintenance services,Disinfecting and exterminating activities,Cleaning of trains, buses, planes, etc.,Cleaning of industrial machinery,Street sweeping and snow and ice removal,Other building and industrial cleaning activities n.e.c.,Disinfection activities and pest and rodents control by fumes,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery,Care and maintenance of greenery for sports grounds (e.g. golf courses),Care and maintenance of greenery for stationary and flowing water (basins, ponds, swimming pools, watercourses and wet areas),Care and maintenance of plants for protection against noise, wind and erosion,Care and maintenance of other types of landscap n.e.c.,Activities of landscape design services,Maintenance of land in order to keep it in good ecological condition</v>
       </c>
     </row>
     <row r="158">
@@ -4027,22 +3556,19 @@
         <v>8</v>
       </c>
       <c r="B158" t="str">
-        <v>شركة تترى لتقنية المعلومات</v>
+        <v>Hadi Haider Alyami Company General Cont. &amp; Trading</v>
       </c>
       <c r="C158" t="str">
-        <v>100006635</v>
+        <v>10003081</v>
       </c>
       <c r="D158" t="str">
-        <v>00966920004794</v>
+        <v>info@hadihaider.com</v>
       </c>
       <c r="E158" t="str">
-        <v>tatra@tatrait.com</v>
+        <v>RAS TANNURAH</v>
       </c>
       <c r="F158" t="str">
-        <v>الدمام</v>
-      </c>
-      <c r="G158" t="str">
-        <v>أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة انذار السرقة</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Erection of prefabricated constructions on the site,Civil engineering,Construction of utility projects ,Long-distance pipelines, communication and power lines,Construction, erection and repair of power plants,Specialized construction activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Other types of electrical installation,Building completion and finishing ,Building finishing</v>
       </c>
     </row>
     <row r="159">
@@ -4050,22 +3576,19 @@
         <v>8</v>
       </c>
       <c r="B159" t="str">
-        <v>شركة الظلال العربية للتجارة والمقاولات</v>
+        <v>Nesma Infrastructure and Technology Company Limited</v>
       </c>
       <c r="C159" t="str">
-        <v>100004520</v>
+        <v>10001007</v>
       </c>
       <c r="D159" t="str">
-        <v>920008799</v>
+        <v>rayan@nesma.com</v>
       </c>
       <c r="E159" t="str">
-        <v>s.almallouhi@arabshadows.com</v>
+        <v>JEDDAH</v>
       </c>
       <c r="F159" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G159" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات الكمبيوتر والاتصالات,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الطرق,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential steel buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of utility projects ,Long-distance pipelines, communication and power lines,Construction, erection and repair of power plants,Specialized construction activities,Electrical installation ,Telecommunications wiring,Network wiring,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Other types of electrical installation</v>
       </c>
     </row>
     <row r="160">
@@ -4073,22 +3596,19 @@
         <v>8</v>
       </c>
       <c r="B160" t="str">
-        <v>شركة الحلول الآصيله المحدوده</v>
+        <v>Al-Majal Syd Al-Khadamat Co.</v>
       </c>
       <c r="C160" t="str">
-        <v>30002587</v>
+        <v>20001920</v>
       </c>
       <c r="D160" t="str">
-        <v>0112059550</v>
+        <v>abdulrahman@almajal.com</v>
       </c>
       <c r="E160" t="str">
-        <v>khalid@alasila.com</v>
+        <v>JEDDAH</v>
       </c>
       <c r="F160" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G160" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة</v>
+        <v>Waste collection, treatment &amp; disposal activities; materials recovery,Collection of non-hazardous waste ,Street cleaning,Construction of buildings,Construction of buildings ,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction of other civil engineering projects ,Dredging of waterways,Specialized construction activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of air- conditioning ducts,Other construction installation ,Installation, repair and maintenance of vacuum cleaning systems,Building completion and finishing ,Building finishing,Installation of decor,Interior and exterior painting of buildings,Cleaning of new buildings after construction,Services to buildings and landscape activities,Combined facilities support activities ,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Swimming pool cleaning and maintenance services,Disinfecting and exterminating activities,Street sweeping and snow and ice removal,Landscape care and maintenance service activities ,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery</v>
       </c>
     </row>
     <row r="161">
@@ -4096,22 +3616,19 @@
         <v>8</v>
       </c>
       <c r="B161" t="str">
-        <v>شركة الأعمال الكهربائية والصيانة فرع شركة شبكشي للتنمية والتجارة</v>
+        <v>Yousef bin Abdullah bin Sulaiman Abalkhail Contracting Est</v>
       </c>
       <c r="C161" t="str">
-        <v>10001833</v>
+        <v>10002862</v>
       </c>
       <c r="D161" t="str">
-        <v>0126916655</v>
+        <v>y.7000@hotmail.com</v>
       </c>
       <c r="E161" t="str">
-        <v>m.sofy@ewmcom.com</v>
+        <v>BURAYDAH</v>
       </c>
       <c r="F161" t="str">
-        <v>جدة</v>
-      </c>
-      <c r="G161" t="str">
-        <v xml:space="preserve"> لا يوجد بيانات</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Blasting,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of elevators and escalators,Installation, repair and maintenance of automated and revolving doors,Installation, repair and maintenance of lightning conductors,Installation, repair and maintenance of vacuum cleaning systems,Installation, repair and maintenance of thermal, sound or vibration insulation,Other not previously mentioned construction installation, repair and maintenance activities,Installation and maintenance of elevators,Installation, repair and maintenance of escalators, conveyor and ground belts,Installation, repair and maintenance of thermal, sound or vibration insulation,Installation and repair of civil protection devices such as heavy equipment used to control earth quicks and buildings collapse and ways of individual protection,Installation and maintenance of early warning sirens and control centers,Installation and maintenance of fire equipment,Installing and maintaining storage and shelves solutions,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.</v>
       </c>
     </row>
     <row r="162">
@@ -4119,22 +3636,19 @@
         <v>9</v>
       </c>
       <c r="B162" t="str">
-        <v>شركة دلتا</v>
+        <v>Bin Omaira Contracting Company LTD.</v>
       </c>
       <c r="C162" t="str">
-        <v>10000998</v>
+        <v>10001055</v>
       </c>
       <c r="D162" t="str">
-        <v>966559339964</v>
+        <v>ssd@binomairah.com</v>
       </c>
       <c r="E162" t="str">
-        <v>info@delta.com.sa</v>
+        <v>RIYADH</v>
       </c>
       <c r="F162" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G162" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار</v>
+        <v>Waste collection, treatment &amp; disposal activities; materials recovery,Collection of non-hazardous waste ,Transfer of municipal waste,Specialized construction activities,Electrical installation ,Electrical wiring,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Services to buildings and landscape activities,Landscape care and maintenance service activities ,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens)</v>
       </c>
     </row>
     <row r="163">
@@ -4142,22 +3656,19 @@
         <v>9</v>
       </c>
       <c r="B163" t="str">
-        <v>شركة هاني الحوطي وشريكه</v>
+        <v>Arabian Rock Contracting Company</v>
       </c>
       <c r="C163" t="str">
-        <v>100005354</v>
+        <v>10001271</v>
       </c>
       <c r="D163" t="str">
-        <v>0138021567</v>
+        <v>info@arbrock.com</v>
       </c>
       <c r="E163" t="str">
-        <v>s.husain@alhoty.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F163" t="str">
-        <v>الخبر</v>
-      </c>
-      <c r="G163" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),أنشطة التشييد المتخصصة ,التركيبات الكهربائية,التركيبات الكهربائية الأخرى</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction of other civil engineering projects ,Construction of dams,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.),Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Blasting,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Services to buildings and landscape activities,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery</v>
       </c>
     </row>
     <row r="164">
@@ -4165,22 +3676,19 @@
         <v>9</v>
       </c>
       <c r="B164" t="str">
-        <v>شركة نظم البيئة للمقاولات</v>
+        <v>Hadi Haider Alyami Company General Cont. &amp; Trading</v>
       </c>
       <c r="C164" t="str">
-        <v>100005173</v>
+        <v>10003081</v>
       </c>
       <c r="D164" t="str">
-        <v>0114109707</v>
+        <v>info@hadihaider.com</v>
       </c>
       <c r="E164" t="str">
-        <v>MOH.S.Q@HOTMAIL.COM</v>
+        <v>RAS TANNURAH</v>
       </c>
       <c r="F164" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G164" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء السدود,تنظيف الممرات المائية,إصلاح وصيانة السدود,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,أعمال السباكة والتدفئة وتكييف الهواء,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,اكمال المباني وتشطيبها, تشطيب المباني,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Erection of prefabricated constructions on the site,Civil engineering,Construction of utility projects ,Long-distance pipelines, communication and power lines,Construction, erection and repair of power plants,Specialized construction activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Other types of electrical installation,Building completion and finishing ,Building finishing</v>
       </c>
     </row>
     <row r="165">
@@ -4188,22 +3696,19 @@
         <v>9</v>
       </c>
       <c r="B165" t="str">
-        <v>شركة الإمدادات التعاونية</v>
+        <v>Marasah Company</v>
       </c>
       <c r="C165" t="str">
-        <v>10001653</v>
+        <v>10000911</v>
       </c>
       <c r="D165" t="str">
-        <v>0114333207</v>
+        <v>m.alsuhaimi@marasah.com</v>
       </c>
       <c r="E165" t="str">
-        <v>emdadat.tawneya@hotmail.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F165" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G165" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,ترميمات المباني السكنية والغير سكنية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,اكمال المباني وتشطيبها, تشطيب المباني,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني,أنشطة خدمات التنظيف للمباني الحكومية,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,أنشطة تنظيف الطرق</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Specialized construction activities,Site preparation ,Drilling and earth moving for site preparation purposes,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of air- conditioning ducts,Building completion and finishing ,Building finishing</v>
       </c>
     </row>
     <row r="166">
@@ -4211,22 +3716,19 @@
         <v>9</v>
       </c>
       <c r="B166" t="str">
-        <v>شركة السعد للمقاولات العامة المحدودة</v>
+        <v>Alsaad General Contracting Company Ltd.</v>
       </c>
       <c r="C166" t="str">
         <v>20002951</v>
       </c>
       <c r="D166" t="str">
-        <v>0126830306</v>
+        <v>iksalam@alsaad.com.sa</v>
       </c>
       <c r="E166" t="str">
-        <v>iksalam@alsaad.com.sa</v>
+        <v>JEDDAH</v>
       </c>
       <c r="F166" t="str">
-        <v>جدة</v>
-      </c>
-      <c r="G166" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تركيب انظمة الاضاءة</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Construction of utility projects ,Long-distance pipelines, communication and power lines,Long-distance oil and gas pipelines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Dredging of waterways,Construction of dykes,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.),Specialized construction activities,Electrical installation ,Installation of lighting systems</v>
       </c>
     </row>
     <row r="167">
@@ -4234,22 +3736,19 @@
         <v>9</v>
       </c>
       <c r="B167" t="str">
-        <v>شركة مستوى السلامة للمقاولات شركة شخص واحد</v>
+        <v>Saad Hussein Bin Khammash and Sons Company for Trading, Industry, and Contracting</v>
       </c>
       <c r="C167" t="str">
-        <v>100006859</v>
+        <v>100003851</v>
       </c>
       <c r="D167" t="str">
-        <v/>
+        <v>isk@binkamash.com</v>
       </c>
       <c r="E167" t="str">
-        <v>safety-level@hotmail.com</v>
+        <v>KHAMIS MUSHAYT</v>
       </c>
       <c r="F167" t="str">
-        <v>نجران</v>
-      </c>
-      <c r="G167" t="str">
-        <v>أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة</v>
+        <v>Mining support services,Oil and natural gas extraction support activities ,Drilling of oil fields,Drilling of natural gas fields,Services related to oil extraction except surveying services,Services related to natural gas extraction except surveying services,Other activities related to oil and natural gas extraction support activities,Waste collection, treatment &amp; disposal activities; materials recovery,Collection of non-hazardous waste ,Transfer of municipal waste,Street cleaning,Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Repair and maintenance of railways and subways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Long-distance oil and gas pipelines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction, erection and repair of power plants,Repair and maintenance of wired and wireless communication stations and radars,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Dredging of waterways,Construction of dykes,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.),Repair and maintenance of dams,Repair and maintenance of port piers and marine facilities,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Blasting,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Other construction installation ,Installation, repair and maintenance of lightning conductors,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,Activities of government buildings cleaning services,Provision of mail routing services,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Specialized cleaning activities for buildings such as window cleaning, chimney cleaning, etc.,Swimming pool cleaning and maintenance services,Disinfecting and exterminating activities,Cleaning of trains, buses, planes, etc.,Cleaning of industrial machinery,Street sweeping and snow and ice removal,Other building and industrial cleaning activities n.e.c.,Disinfection activities and pest and rodents control by fumes,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery,Care and maintenance of greenery for sports grounds (e.g. golf courses),Care and maintenance of greenery for stationary and flowing water (basins, ponds, swimming pools, watercourses and wet areas),Care and maintenance of plants for protection against noise, wind and erosion,Care and maintenance of other types of landscap n.e.c.,Activities of landscape design services,Maintenance of land in order to keep it in good ecological condition</v>
       </c>
     </row>
     <row r="168">
@@ -4257,22 +3756,19 @@
         <v>9</v>
       </c>
       <c r="B168" t="str">
-        <v>شركة الديكور الذكي للمقاولات</v>
+        <v>Mohammad and Sulaiman Al-Assaf Trading and Contracting Company Ltd</v>
       </c>
       <c r="C168" t="str">
-        <v>100003389</v>
+        <v>10002264</v>
       </c>
       <c r="D168" t="str">
-        <v>0114531133</v>
+        <v>info@alassafco.com.sa</v>
       </c>
       <c r="E168" t="str">
-        <v>smartdesign_i@yahoo.com</v>
+        <v>JEDDAH</v>
       </c>
       <c r="F168" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G168" t="str">
-        <v>أنشطة التشييد المتخصصة ,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,أنشطة أخرى من تركيب الزجاج والمرايا,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures</v>
       </c>
     </row>
     <row r="169">
@@ -4280,22 +3776,19 @@
         <v>9</v>
       </c>
       <c r="B169" t="str">
-        <v>شركة رايسي للتجارة والمقاولات المحدودة</v>
+        <v>Bait Aljaleed for Maintenance &amp; Operation Company</v>
       </c>
       <c r="C169" t="str">
-        <v>100005079</v>
+        <v>100006826</v>
       </c>
       <c r="D169" t="str">
-        <v>966114977977</v>
+        <v>alkhadhar.a@gmail.com</v>
       </c>
       <c r="E169" t="str">
-        <v>AHMAD@RAISSY.COM.SA</v>
+        <v>RIYADH</v>
       </c>
       <c r="F169" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G169" t="str">
-        <v>أنشطة خدمات دعم التعدين,أنشطة الدعم لاستخراج النفط والغاز الطبيعي,حفر آبار النفط,حفر آبار الغاز الطبيعي,الخدمات المتصلة باستخراج النفط باستثناء خدمات المسح,الخدمات المتصلة باستخراج الغاز الطبيعي باستثناء خدمات المسح,أنشطة أخرى تتعلق بأنشطة الدعم لاستخراج النفط والغاز الطبيعي,أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,تنظيف الشوارع,جمع المواد لإعادة التصنيع,أنشطة أخرى تتعلق بجمع النفايات الغير خطرة,خدمات جمع النفايات البلدية,نقل النفايات الصناعية الغير خطرة,تجميع زيوت الطعام المستخدمة,جمع النفايات الخطرة,جمع النفايات الخطرة للزيوت المستعملة من الشحن أو المرائب,جمع النفايات الخطرة للمواد الخطرة البيولوجية,جمع النفايات الخطرة للبطاريات المستعملة,تشغيل محطات نقل النفايات للنفايات الخطرة,جمع النفايات الخطرة الأخرى,جمع ونقل النفايات الخطرة للزيوت المستعملة من منتجي هذه النفايات,نقل النفايات الطبية الخطرة,جمع ونقل النفايات الناتجة عن أعمال المكافحة والتنظيف للبيئة البحرية والساحلية,نقل النفايات الخطرة,نقل نفايات الاسبستوس,نقل الزيت من واسطة بحرية إلى أخرى داخل عرض البحر أو من مواقع تجميع الزيوت داخل البحر في حالات التلوث,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
+        <v>No Data</v>
       </c>
     </row>
     <row r="170">
@@ -4303,22 +3796,19 @@
         <v>9</v>
       </c>
       <c r="B170" t="str">
-        <v>شركة فيصل للأعمال الكهربائية والميكانيكية</v>
+        <v>Shahm Contracting Company .</v>
       </c>
       <c r="C170" t="str">
-        <v>10001272</v>
+        <v>10000886</v>
       </c>
       <c r="D170" t="str">
-        <v>920023595</v>
+        <v>info@shahm.sa</v>
       </c>
       <c r="E170" t="str">
-        <v>FEMCO@FEMCO.COM.SA</v>
+        <v>JEDDAH</v>
       </c>
       <c r="F170" t="str">
-        <v>الدمام</v>
-      </c>
-      <c r="G170" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,اكمال المباني وتشطيبها,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,إنشاء حمامات السباحة</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of other not previously mentioned non-residential buildings,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Repair and maintenance of water distribution stations, networks and main lines,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction of other civil engineering projects ,Construction of harbor and river works,Construction of dams,Construction of dykes,Repair and maintenance of dams,Repair and maintenance of port piers and marine facilities,Specialized construction activities,Electrical installation ,Electrical wiring,Other types of electrical installation,Building completion and finishing ,Building finishing,Installation of glass, mirrors of buildings,Cleaning of new buildings after construction,Other building completion work,Services to buildings and landscape activities,Combined facilities support activities ,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Activities of government buildings cleaning services,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Specialized cleaning activities for buildings such as window cleaning, chimney cleaning, etc.,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of greenery for sports grounds (e.g. golf courses)</v>
       </c>
     </row>
     <row r="171">
@@ -4326,22 +3816,19 @@
         <v>9</v>
       </c>
       <c r="B171" t="str">
-        <v>مؤسسة عبد الله عساف محمد الغامدي للمقاولات</v>
+        <v>Fifteen Contracting Est</v>
       </c>
       <c r="C171" t="str">
-        <v>10000799</v>
+        <v>10000415</v>
       </c>
       <c r="D171" t="str">
-        <v>0177220407</v>
+        <v>hajer.nb@gmail.com</v>
       </c>
       <c r="E171" t="str">
-        <v>alassafcompany@hotmail.com</v>
+        <v>MAKKAH AL MUKARRAMAH</v>
       </c>
       <c r="F171" t="str">
-        <v>بلجرشي</v>
-      </c>
-      <c r="G171" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures</v>
       </c>
     </row>
     <row r="172">
@@ -4349,22 +3836,19 @@
         <v>9</v>
       </c>
       <c r="B172" t="str">
-        <v>شركه صناعات العزل الحديثه</v>
+        <v>MHI-AP Saudi Arabia Co. Ltd</v>
       </c>
       <c r="C172" t="str">
-        <v>100006190</v>
+        <v>100005345</v>
       </c>
       <c r="D172" t="str">
-        <v>966112419650</v>
+        <v>ali.almabooq.ns@mhi.com</v>
       </c>
       <c r="E172" t="str">
-        <v>projects@miic.com.sa</v>
+        <v>AL JUBAIL</v>
       </c>
       <c r="F172" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G172" t="str">
-        <v xml:space="preserve"> لا يوجد بيانات</v>
+        <v>Mining support services,Oil and natural gas extraction support activities ,Drilling of oil fields,Drilling of natural gas fields,Services related to oil extraction except surveying services,Services related to natural gas extraction except surveying services,Other activities related to oil and natural gas extraction support activities,Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of utility projects ,Long-distance oil and gas pipelines,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants</v>
       </c>
     </row>
     <row r="173">
@@ -4372,22 +3856,19 @@
         <v>9</v>
       </c>
       <c r="B173" t="str">
-        <v>شركة الميسان للخدمات التقنية المحدودة</v>
+        <v>Abdulkarim H Al Senan &amp; Partner Trading Company</v>
       </c>
       <c r="C173" t="str">
-        <v>100006543</v>
+        <v>10002674</v>
       </c>
       <c r="D173" t="str">
-        <v>0126676251</v>
+        <v>mrefai@sinanakh.com</v>
       </c>
       <c r="E173" t="str">
-        <v>a.anwar@almayssan.com</v>
+        <v>AL JUBAIL</v>
       </c>
       <c r="F173" t="str">
-        <v>جدة</v>
-      </c>
-      <c r="G173" t="str">
-        <v>أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of utility projects ,Long-distance pipelines, communication and power lines,Specialized construction activities,Electrical installation ,Electrical wiring,Other types of electrical installation,Building completion and finishing ,Building finishing</v>
       </c>
     </row>
     <row r="174">
@@ -4395,22 +3876,19 @@
         <v>9</v>
       </c>
       <c r="B174" t="str">
-        <v>شركة الحرمين للتجارة والمقاولات</v>
+        <v>Bani Al Jazeera Contracting Company</v>
       </c>
       <c r="C174" t="str">
-        <v>10001319</v>
+        <v>10001972</v>
       </c>
       <c r="D174" t="str">
-        <v>0126942000</v>
+        <v>khalid.farhan@bunaaljazira.com.sa</v>
       </c>
       <c r="E174" t="str">
-        <v>muad@haramain.com.sa</v>
+        <v>AL KHOBAR</v>
       </c>
       <c r="F174" t="str">
-        <v>جدة</v>
-      </c>
-      <c r="G174" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء السدود,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام</v>
+        <v>Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants</v>
       </c>
     </row>
     <row r="175">
@@ -4418,22 +3896,19 @@
         <v>9</v>
       </c>
       <c r="B175" t="str">
-        <v>شركة طرق التنمية للمقاولات</v>
+        <v>Awjed General Contracting Company</v>
       </c>
       <c r="C175" t="str">
-        <v>130413048</v>
+        <v>100007262</v>
       </c>
       <c r="D175" t="str">
-        <v>0126499939</v>
+        <v>h_almutlaq@awjed.co</v>
       </c>
       <c r="E175" t="str">
-        <v>meshari.alsaiby@dmco.sa</v>
+        <v>DAMMAM</v>
       </c>
       <c r="F175" t="str">
-        <v>جدة</v>
-      </c>
-      <c r="G175" t="str">
-        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,تنظيف الشوارع,خدمات جمع النفايات البلدية,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تمديدات انابيب الري وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,اكمال المباني وتشطيبها, تشطيب المباني,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الطرق,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Repair and maintenance of railways and subways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Long-distance oil and gas pipelines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction, erection and repair of power plants,Repair and maintenance of wired and wireless communication stations and radars,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Dredging of waterways,Construction of dykes,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.),Repair and maintenance of dams,Repair and maintenance of port piers and marine facilities,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Blasting,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of elevators and escalators,Installation, repair and maintenance of automated and revolving doors,Installation, repair and maintenance of lightning conductors,Installation, repair and maintenance of vacuum cleaning systems,Installation, repair and maintenance of thermal, sound or vibration insulation,Other not previously mentioned construction installation, repair and maintenance activities,Installation and maintenance of elevators,Installation, repair and maintenance of escalators, conveyor and ground belts,Installation, repair and maintenance of thermal, sound or vibration insulation,Installation and repair of civil protection devices such as heavy equipment used to control earth quicks and buildings collapse and ways of individual protection,Installation and maintenance of early warning sirens and control centers,Installation and maintenance of fire equipment,Installing and maintaining storage and shelves solutions,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,Activities of government buildings cleaning services,Provision of mail routing services,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Specialized cleaning activities for buildings such as window cleaning, chimney cleaning, etc.,Swimming pool cleaning and maintenance services,Disinfecting and exterminating activities,Cleaning of trains, buses, planes, etc.,Cleaning of industrial machinery,Street sweeping and snow and ice removal,Other building and industrial cleaning activities n.e.c.,Disinfection activities and pest and rodents control by fumes,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery,Care and maintenance of greenery for sports grounds (e.g. golf courses),Care and maintenance of greenery for stationary and flowing water (basins, ponds, swimming pools, watercourses and wet areas),Care and maintenance of plants for protection against noise, wind and erosion,Care and maintenance of other types of landscap n.e.c.,Activities of landscape design services,Maintenance of land in order to keep it in good ecological condition</v>
       </c>
     </row>
     <row r="176">
@@ -4441,22 +3916,19 @@
         <v>9</v>
       </c>
       <c r="B176" t="str">
-        <v>شركة عبدالمحسن الجاسر للمقاولات</v>
+        <v>Raghad Projects Contracting Est.</v>
       </c>
       <c r="C176" t="str">
-        <v>100004498</v>
+        <v>10002082</v>
       </c>
       <c r="D176" t="str">
-        <v>0112770000</v>
+        <v>ie_anasah@hotmail.com</v>
       </c>
       <c r="E176" t="str">
-        <v>aljaser_contrat@yahoo.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F176" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G176" t="str">
-        <v>الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء السدود</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways</v>
       </c>
     </row>
     <row r="177">
@@ -4464,22 +3936,19 @@
         <v>9</v>
       </c>
       <c r="B177" t="str">
-        <v>الشركة الوطنية لأعمال المياه</v>
+        <v>Azdah Contracting Company</v>
       </c>
       <c r="C177" t="str">
-        <v>100004251</v>
+        <v>200003903</v>
       </c>
       <c r="D177" t="str">
-        <v>00966112088558</v>
+        <v>admin@azdah.com</v>
       </c>
       <c r="E177" t="str">
-        <v>info@nwwc.com.sa</v>
+        <v>RIYADH</v>
       </c>
       <c r="F177" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G177" t="str">
-        <v xml:space="preserve"> لا يوجد بيانات</v>
+        <v>Waste collection, treatment &amp; disposal activities; materials recovery,Collection of non-hazardous waste ,Transfer of municipal waste,Street cleaning,Collection of recyclable materials,Other non-hazardous waste collection activities,Municipal waste collection services,Transfer of non-hazardous industrial waste,Used cooking oil collection,Collection of hazardous waste ,Collection of hazardous waste, such as used oil from shipment or garages,Collection of hazardous waste, such as bio-hazardous waste,Collection of hazardous waste, such as used batteries,Operation of waste transfer stations for hazardous waste,Collection of other types of hazardous waste,Collection and transfer of hazardous wastes of used oils from producers of such wastes,Transfer of hazardous medical waste,Collection and transfer of waste resulting from the control and cleaning work of the marine and coastal environment,Transfer of hazardous wastes,Transfer of asbestos wastes,Transfer of oil from one watercraft to another within the sea or from offshore oil collection sites in cases of contamination,Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Repair and maintenance of railways and subways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction of other civil engineering projects ,Construction of harbor and river works,Construction of dams,Construction of dykes,Repair and maintenance of dams,Repair and maintenance of port piers and marine facilities,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Blasting,Other site preparation activities,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,Activities of government buildings cleaning services,Provision of mail routing services,General cleaning of buildings ,General cleaning of buildings,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery</v>
       </c>
     </row>
     <row r="178">
@@ -4487,22 +3956,19 @@
         <v>9</v>
       </c>
       <c r="B178" t="str">
-        <v>شركة منافع الخليج للمقاولات</v>
+        <v>Fire Direct Centre Company LTD</v>
       </c>
       <c r="C178" t="str">
-        <v>100005245</v>
+        <v>100006246</v>
       </c>
       <c r="D178" t="str">
-        <v>966138254225</v>
+        <v>firedirect@firedirect.org</v>
       </c>
       <c r="E178" t="str">
-        <v>afo@manafalkhaleej.com</v>
+        <v>DAMMAM</v>
       </c>
       <c r="F178" t="str">
-        <v>الدمام</v>
-      </c>
-      <c r="G178" t="str">
-        <v>الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Specialized construction activities,Electrical installation ,Installation of fire alarms,Installation and maintenance of fire alarms devices and equipment</v>
       </c>
     </row>
     <row r="179">
@@ -4510,22 +3976,19 @@
         <v>9</v>
       </c>
       <c r="B179" t="str">
-        <v>شركة الجزيرة العربية المحدودة للتجارة والصناعة والمقاولات</v>
+        <v>Sama Al-afaq for Trading and Contracting Ltd.</v>
       </c>
       <c r="C179" t="str">
-        <v>10001484</v>
+        <v>10002438</v>
       </c>
       <c r="D179" t="str">
-        <v>966125487000</v>
+        <v>samaalafaq@hotmail.com</v>
       </c>
       <c r="E179" t="str">
-        <v>jacco@jazera.sa</v>
+        <v>TURAIF</v>
       </c>
       <c r="F179" t="str">
-        <v>الطائف</v>
-      </c>
-      <c r="G179" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع</v>
+        <v>Waste collection, treatment &amp; disposal activities; materials recovery,Collection of non-hazardous waste ,Street cleaning,Transfer of non-hazardous industrial waste,Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Long-distance oil and gas pipelines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction, erection and repair of power plants,Repair and maintenance of wired and wireless communication stations and radars,Construction of other civil engineering projects ,Repair and maintenance of dams,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of elevators and escalators,Installation, repair and maintenance of automated and revolving doors,Installation, repair and maintenance of lightning conductors,Installation, repair and maintenance of vacuum cleaning systems,Installation, repair and maintenance of thermal, sound or vibration insulation,Other not previously mentioned construction installation, repair and maintenance activities,Installation and maintenance of elevators,Installation, repair and maintenance of escalators, conveyor and ground belts,Installation, repair and maintenance of thermal, sound or vibration insulation,Installation and repair of civil protection devices such as heavy equipment used to control earth quicks and buildings collapse and ways of individual protection,Installation and maintenance of early warning sirens and control centers,Installation and maintenance of fire equipment,Installing and maintaining storage and shelves solutions,Building completion and finishing ,Building finishing,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.,Services to buildings and landscape activities,Combined facilities support activities ,Provision of maintenance services within facilities,Activities of government buildings cleaning services,General cleaning of buildings ,General cleaning of buildings,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery,Care and maintenance of greenery for sports grounds (e.g. golf courses),Care and maintenance of greenery for stationary and flowing water (basins, ponds, swimming pools, watercourses and wet areas),Care and maintenance of plants for protection against noise, wind and erosion,Care and maintenance of other types of landscap n.e.c.,Activities of landscape design services,Maintenance of land in order to keep it in good ecological condition</v>
       </c>
     </row>
     <row r="180">
@@ -4533,22 +3996,19 @@
         <v>9</v>
       </c>
       <c r="B180" t="str">
-        <v>شركة فن المعمار السعودية للصيانة المحدودة</v>
+        <v>Hani Al Hoty &amp; Partner Company</v>
       </c>
       <c r="C180" t="str">
-        <v>100004618</v>
+        <v>100005354</v>
       </c>
       <c r="D180" t="str">
-        <v>966114041919</v>
+        <v>s.husain@alhoty.com</v>
       </c>
       <c r="E180" t="str">
-        <v>bids@buildingtek.com</v>
+        <v>AL KHOBAR</v>
       </c>
       <c r="F180" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G180" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Specialized construction activities,Electrical installation ,Other types of electrical installation</v>
       </c>
     </row>
     <row r="181">
@@ -4556,22 +4016,19 @@
         <v>9</v>
       </c>
       <c r="B181" t="str">
-        <v>مؤسسة نظم القوى الكهربائية للمقاولات</v>
+        <v>Mashreq Heritage Company for Contracting</v>
       </c>
       <c r="C181" t="str">
-        <v>100006289</v>
+        <v>1000020000104</v>
       </c>
       <c r="D181" t="str">
-        <v>0138361104</v>
+        <v>turath.almashrq@gmail.com</v>
       </c>
       <c r="E181" t="str">
-        <v>F.alyousef@eps-est.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F181" t="str">
-        <v>عنك</v>
-      </c>
-      <c r="G181" t="str">
-        <v xml:space="preserve"> لا يوجد بيانات</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Specialized construction activities,Building completion and finishing ,Building finishing</v>
       </c>
     </row>
     <row r="182">
@@ -4579,22 +4036,19 @@
         <v>10</v>
       </c>
       <c r="B182" t="str">
-        <v>شركة أبناء عبدالله حمود الشويعر للتجارة والمقاولات</v>
+        <v>Saudi Spectrum Engineering Company</v>
       </c>
       <c r="C182" t="str">
-        <v>10001371</v>
+        <v>403640366</v>
       </c>
       <c r="D182" t="str">
-        <v>0138489999</v>
+        <v>yalsayeh@sesksa.com</v>
       </c>
       <c r="E182" t="str">
-        <v>admins@shuwayer.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F182" t="str">
-        <v>الدمام</v>
-      </c>
-      <c r="G182" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,أعمال السباكة والتدفئة وتكييف الهواء,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Specialized construction activities,Electrical installation ,Electrical wiring,Installation of lighting systems,Building completion and finishing ,Building finishing,Installation of marble</v>
       </c>
     </row>
     <row r="183">
@@ -4602,22 +4056,19 @@
         <v>10</v>
       </c>
       <c r="B183" t="str">
-        <v>شركة بلر العربية للتجارة والمقاولات</v>
+        <v>Saudi Geo Co</v>
       </c>
       <c r="C183" t="str">
-        <v>10001816</v>
+        <v>100004802</v>
       </c>
       <c r="D183" t="str">
-        <v>112707095</v>
+        <v>ehab.eltantawy@saudigeo.com.sa</v>
       </c>
       <c r="E183" t="str">
-        <v>t.salah@pillararabian.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F183" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G183" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,أعمال السباكة والتدفئة وتكييف الهواء,تركيب الادوات الصحية وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,اكمال المباني وتشطيبها, تشطيب المباني,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures</v>
       </c>
     </row>
     <row r="184">
@@ -4625,22 +4076,19 @@
         <v>10</v>
       </c>
       <c r="B184" t="str">
-        <v>شركة الخريف لتقنية المياه والطاقة</v>
+        <v>18th Chinarailway Branch Peru Group Company Limited</v>
       </c>
       <c r="C184" t="str">
-        <v>10002677</v>
+        <v>20000803</v>
       </c>
       <c r="D184" t="str">
-        <v>0114000612</v>
+        <v>planningdepartment@cr18gksa.com</v>
       </c>
       <c r="E184" t="str">
-        <v>talsayadi@alkhorayef.com</v>
+        <v>DAMMAM</v>
       </c>
       <c r="F184" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G184" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء السدود,تنظيف الممرات المائية,إصلاح وصيانة السدود,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديدات الشبكات,اكمال المباني وتشطيبها, تشطيب المباني,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات صيانة المباني</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Construction of utility projects ,Long-distance pipelines, communication and power lines,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Specialized construction activities,Site preparation ,Landfill,Building completion and finishing ,Other building completion work,Other specialized construction activities ,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.</v>
       </c>
     </row>
     <row r="185">
@@ -4648,22 +4096,19 @@
         <v>10</v>
       </c>
       <c r="B185" t="str">
-        <v>شركة الكفاح العالمية للمقاولات</v>
+        <v>Shathrwan Al Thahab Contracting Company</v>
       </c>
       <c r="C185" t="str">
-        <v>10000864</v>
+        <v>10002379</v>
       </c>
       <c r="D185" t="str">
-        <v>966112478887</v>
+        <v>gm@shathrwan.com</v>
       </c>
       <c r="E185" t="str">
-        <v>info@alkifahco.com</v>
+        <v>MAKKAH AL MUKARRAMAH</v>
       </c>
       <c r="F185" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G185" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة التشييد المتخصصة ,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,أنشطة تقديم الخدمات للمباني وتجميل المواقع,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,أنشطة خدمات تصميم المناظر الطبيعية</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Civil engineering,Construction of utility projects ,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Electrical installation ,Electrical wiring,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of plumbing and sanitary equipment,Building completion and finishing ,Building finishing,Installation of decor,Other decor and wallpaper installation activities,Interior and exterior painting of buildings</v>
       </c>
     </row>
     <row r="186">
@@ -4671,22 +4116,19 @@
         <v>10</v>
       </c>
       <c r="B186" t="str">
-        <v>شركة بي اي سي العربية للمقاولات</v>
+        <v>Bakri Ahmed Hassan Al Saab Contracting Company</v>
       </c>
       <c r="C186" t="str">
-        <v>200005232</v>
+        <v>10002598</v>
       </c>
       <c r="D186" t="str">
-        <v>966112166633</v>
+        <v>h.bakkri@gmail.com</v>
       </c>
       <c r="E186" t="str">
-        <v>government.relations@becsaudi.com</v>
+        <v>MUHAYIL</v>
       </c>
       <c r="F186" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G186" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
+        <v>No Data</v>
       </c>
     </row>
     <row r="187">
@@ -4694,22 +4136,19 @@
         <v>10</v>
       </c>
       <c r="B187" t="str">
-        <v>الشركه العربيه لدعم وتأهيل المباني المحدودة</v>
+        <v>Maqasim Company Limited</v>
       </c>
       <c r="C187" t="str">
-        <v>10001986</v>
+        <v>100004818</v>
       </c>
       <c r="D187" t="str">
-        <v>0114193510</v>
+        <v>hsan2000@hotmail.com</v>
       </c>
       <c r="E187" t="str">
-        <v>Aalshehri@Absar.Com</v>
+        <v>JEDDAH</v>
       </c>
       <c r="F187" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G187" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء كاسرات الأمواج والحماية للأرصفة,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,اكمال المباني وتشطيبها, تشطيب المباني,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,أعمال أخرى لإنهاء المباني وتجهيزها</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Repair and maintenance of railways and subways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction, erection and repair of power plants,Repair and maintenance of wired and wireless communication stations and radars,Construction of other civil engineering projects ,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Repair and maintenance of dams,Repair and maintenance of port piers and marine facilities,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of solar energy collectors,Other construction installation ,Installation and maintenance of early warning sirens and control centers,Installation and maintenance of fire equipment,Building completion and finishing ,Building finishing,Services to buildings and landscape activities,Combined facilities support activities ,Provision of maintenance services within facilities,Other building and industrial cleaning activities ,Street sweeping and snow and ice removal</v>
       </c>
     </row>
     <row r="188">
@@ -4717,22 +4156,19 @@
         <v>10</v>
       </c>
       <c r="B188" t="str">
-        <v>مؤسسة عبدالعزيز محمد زين العابدين للمقاولات العامة</v>
+        <v>Eastern Mman Co. For Trading &amp; Contracting</v>
       </c>
       <c r="C188" t="str">
-        <v>100003685</v>
+        <v>100004622</v>
       </c>
       <c r="D188" t="str">
-        <v>966125336200</v>
+        <v>CEO@MMANCO.COM</v>
       </c>
       <c r="E188" t="str">
-        <v>mo@amz.com.sa</v>
+        <v>AL JUBAIL</v>
       </c>
       <c r="F188" t="str">
-        <v>مكة المكرمة</v>
-      </c>
-      <c r="G188" t="str">
-        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,خدمات جمع النفايات البلدية,نقل النفايات الصناعية الغير خطرة,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديدات الشبكات,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات التنظيف للمباني الحكومية,التنظيف العام للمباني,التنظيف العام للمباني,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Civil engineering,Construction of utility projects ,Long-distance pipelines, communication and power lines,Construction, erection and repair of power plants,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants</v>
       </c>
     </row>
     <row r="189">
@@ -4740,22 +4176,19 @@
         <v>10</v>
       </c>
       <c r="B189" t="str">
-        <v>شركة النظم الإعلامية السعودية</v>
+        <v>United Engineering Construction Co. UNEC</v>
       </c>
       <c r="C189" t="str">
-        <v>100006342</v>
+        <v>200005259</v>
       </c>
       <c r="D189" t="str">
-        <v>0114191939</v>
+        <v>asharqi@unec.ae</v>
       </c>
       <c r="E189" t="str">
-        <v>khumadi@smediasys.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F189" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G189" t="str">
-        <v xml:space="preserve"> لا يوجد بيانات</v>
+        <v>No Data</v>
       </c>
     </row>
     <row r="190">
@@ -4763,22 +4196,19 @@
         <v>10</v>
       </c>
       <c r="B190" t="str">
-        <v>شركة طالبي للمقاولات</v>
+        <v>Branch of Alriyadah Investments Company Ltd.</v>
       </c>
       <c r="C190" t="str">
-        <v>200003350</v>
+        <v>100006953</v>
       </c>
       <c r="D190" t="str">
-        <v>0173340331</v>
+        <v>sabudawood@arabian-power.com</v>
       </c>
       <c r="E190" t="str">
-        <v>mog.suliman@gmail.com</v>
+        <v>JEDDAH</v>
       </c>
       <c r="F190" t="str">
-        <v>صامطة</v>
-      </c>
-      <c r="G190" t="str">
-        <v>أنشطة خدمات دعم التعدين,أنشطة الدعم لاستخراج النفط والغاز الطبيعي,حفر آبار النفط,حفر آبار الغاز الطبيعي,الخدمات المتصلة باستخراج النفط باستثناء خدمات المسح,الخدمات المتصلة باستخراج الغاز الطبيعي باستثناء خدمات المسح,أنشطة أخرى تتعلق بأنشطة الدعم لاستخراج النفط والغاز الطبيعي,أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,تنظيف الشوارع,جمع المواد لإعادة التصنيع,أنشطة أخرى تتعلق بجمع النفايات الغير خطرة,خدمات جمع النفايات البلدية,نقل النفايات الصناعية الغير خطرة,تجميع زيوت الطعام المستخدمة,جمع النفايات الخطرة,جمع النفايات الخطرة للزيوت المستعملة من الشحن أو المرائب,جمع النفايات الخطرة للمواد الخطرة البيولوجية,جمع النفايات الخطرة للبطاريات المستعملة,تشغيل محطات نقل النفايات للنفايات الخطرة,جمع النفايات الخطرة الأخرى,جمع ونقل النفايات الخطرة للزيوت المستعملة من منتجي هذه النفايات,نقل النفايات الطبية الخطرة,جمع ونقل النفايات الناتجة عن أعمال المكافحة والتنظيف للبيئة البحرية والساحلية,نقل النفايات الخطرة,نقل نفايات الاسبستوس,نقل الزيت من واسطة بحرية إلى أخرى داخل عرض البحر أو من مواقع تجميع الزيوت داخل البحر في حالات التلوث,تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,أنشطة اخرى خاصة بإنشاء واصلاح الطرق والجسور والانفاق والسكك الحديدية أو جزء منها لم ترد في مكان آخر,إصلاح وصيانة الطرق والشوارع والأرصفة ومستلزمات الطرق,إصلاح وصيانة الجسور والأنفاق,إصلاح وصيانة خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,تمديد انابيب النفط والغاز,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أنشطة أخرى لإنشاء مشاريع المرافق لم ترد فيما سبق,إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه,إصلاح وصيانة قنوات الري والسقي وأبراج تخزين المياه الرئيسية,إصلاح وصيانة محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إصلاح وصيانة محطات الطاقة الكهربائية والمحولات,إصلاح وصيانة محطات وأبراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء محطات التكرير والبتروكيماويات والمصافي,إنشاء ارصفة الموانيء والإنشاءات البحرية,إنشاء المواني والمراسى السياحية (المارينا),إنشاء السدود,تنظيف الممرات المائية,إنشاء كاسرات الأمواج والحماية للأرصفة,إنشاءات اخرى غير المباني مثل الملاعب وتقسيم وفرز ودمج وتطوير الاراضي,إصلاح وصيانة السدود,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات التنظيف العام للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات أخرى لدعم المرافق لم ترد فيما سبق,أنشطة خدمات التنظيف للمباني الحكومية,أنشطة خدمات البريد الخاصة بايصال المعاملات,التنظيف العام للمباني,التنظيف العام للمباني,أنشطة تنظيف المباني والتنظيف الصناعي الأخرى,تنظيف خارجي للمباني,تنظيف متخصص للمباني ، يشمل المداخن والنوافذ وغيرها,تنظيف وصيانة برك السباحة,أنشطة التطهير وإبادة الحشرات والقوارض,أنشطة تنظيف الناقلات,أنشطة تنظيف الآلات والمعدات الصناعية,أنشطة تنظيف الطرق,أنشطة تنظيف مباني وتنظيف صناعي غير مصنفة في موضع آخر,أنشطة التطهير والتبخير لإبادة الحشرات والقوارض,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة المياه الساكنة والجارية ، يشمل ( الأحواض والبحيرات وممرات المياه وحمامات السباحة والمناطق المبللة ),رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,رعاية وصيانة أنواع أخرى من المناظر الطبيعية التي لم ترد فيما سبق,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
+        <v>Civil engineering,Construction of utility projects ,Establishment and Maintenance of main lines and stations of water distribution,Construction, erection and repair of power plants</v>
       </c>
     </row>
     <row r="191">
@@ -4786,22 +4216,19 @@
         <v>10</v>
       </c>
       <c r="B191" t="str">
-        <v>مؤسسة خدمات قوى الطاقة للمقاولات العامة</v>
+        <v>Alkhorayef Water &amp; Power Technologies Company</v>
       </c>
       <c r="C191" t="str">
-        <v>100007141</v>
+        <v>10002677</v>
       </c>
       <c r="D191" t="str">
-        <v/>
+        <v>talsayadi@alkhorayef.com</v>
       </c>
       <c r="E191" t="str">
-        <v>MOHAMMAD@ENERSERV-SA.COM</v>
+        <v>RIYADH</v>
       </c>
       <c r="F191" t="str">
-        <v>الدمام</v>
-      </c>
-      <c r="G191" t="str">
-        <v xml:space="preserve"> لا يوجد بيانات</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Long-distance oil and gas pipelines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants,Construction of dams,Dredging of waterways,Repair and maintenance of dams,Specialized construction activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Other site preparation activities,Electrical installation ,Network wiring,Building completion and finishing ,Building finishing,Services to buildings and landscape activities,Combined facilities support activities ,Provision of maintenance services within facilities</v>
       </c>
     </row>
     <row r="192">
@@ -4809,22 +4236,19 @@
         <v>10</v>
       </c>
       <c r="B192" t="str">
-        <v>شركة بن عميرة للمقاولات ذات مسؤولية محدودة</v>
+        <v>Pro Fast Company Ltd</v>
       </c>
       <c r="C192" t="str">
-        <v>10001055</v>
+        <v>20003219</v>
       </c>
       <c r="D192" t="str">
-        <v>966114536062</v>
+        <v>info@alaaalafaq.com</v>
       </c>
       <c r="E192" t="str">
-        <v>ssd@binomairah.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F192" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G192" t="str">
-        <v>أنشطة جمع النفايات ومعالجتها وتصريفها ، واسترجاع المواد,جمع النفايات غير الخطرة,نقل نفايات البلدية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,أنشطة تقديم الخدمات للمباني وتجميل المواقع,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Construction of utility projects ,Construction, erection and repair of power plants,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction, erection and repair of power plants,Construction of other civil engineering projects ,Construction of dams,Repair and maintenance of dams,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Blasting,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of elevators and escalators,Installation, repair and maintenance of automated and revolving doors,Installation, repair and maintenance of lightning conductors,Installation, repair and maintenance of vacuum cleaning systems,Installation, repair and maintenance of thermal, sound or vibration insulation,Other not previously mentioned construction installation, repair and maintenance activities,Installation and maintenance of elevators,Installation, repair and maintenance of thermal, sound or vibration insulation,Installation and repair of civil protection devices such as heavy equipment used to control earth quicks and buildings collapse and ways of individual protection,Installation and maintenance of early warning sirens and control centers,Installation and maintenance of fire equipment,Installing and maintaining storage and shelves solutions,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.,Services to buildings and landscape activities,Combined facilities support activities ,Provision of maintenance services within facilities</v>
       </c>
     </row>
     <row r="193">
@@ -4832,22 +4256,19 @@
         <v>10</v>
       </c>
       <c r="B193" t="str">
-        <v>شركة المفاهيم المتقدمة للمقاولات</v>
+        <v>Safety Arabian Company Ltd.</v>
       </c>
       <c r="C193" t="str">
-        <v>100006184</v>
+        <v>10002387</v>
       </c>
       <c r="D193" t="str">
-        <v>0112192256</v>
+        <v>office@safety-arabia.com</v>
       </c>
       <c r="E193" t="str">
-        <v>samir@advacon.com.sa</v>
+        <v>RIYADH</v>
       </c>
       <c r="F193" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G193" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واقامة واصلاح محطات وابراج الاتصالات السلكية واللاسلكية والرادار,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إنشاء ارصفة الموانيء والإنشاءات البحرية,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديدات الشبكات,تركيب وصيانة الأجهزة الأمنية,أنشطة تقديم الخدمات للمباني وتجميل المواقع,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة أراضي الملاعب الرياضية وملاعب الجولف,رعاية وصيانة نباتات الحماية من الضجيج والرياح والتصحر,أنشطة خدمات تصميم المناظر الطبيعية,أنشطة خدمات صيانة الأراضي للحفاظ عليها صالحة زراعيا وبيئياً</v>
+        <v>Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways</v>
       </c>
     </row>
     <row r="194">
@@ -4855,22 +4276,19 @@
         <v>10</v>
       </c>
       <c r="B194" t="str">
-        <v>شركة مراسة</v>
+        <v>Trading &amp; Development Partnership Co</v>
       </c>
       <c r="C194" t="str">
-        <v>10000911</v>
+        <v>100003410</v>
       </c>
       <c r="D194" t="str">
-        <v>0112112550</v>
+        <v>amobark@tdpco.com</v>
       </c>
       <c r="E194" t="str">
-        <v>m.alsuhaimi@marasah.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F194" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G194" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,أعمال السباكة والتدفئة وتكييف الهواء,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,اكمال المباني وتشطيبها, تشطيب المباني</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Repair and maintenance of railways and subways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Long-distance oil and gas pipelines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction, erection and repair of power plants,Repair and maintenance of wired and wireless communication stations and radars,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Dredging of waterways,Construction of dykes,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.),Repair and maintenance of dams,Repair and maintenance of port piers and marine facilities,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Blasting,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of elevators and escalators,Installation, repair and maintenance of automated and revolving doors,Installation, repair and maintenance of lightning conductors,Installation, repair and maintenance of vacuum cleaning systems,Installation, repair and maintenance of thermal, sound or vibration insulation,Other not previously mentioned construction installation, repair and maintenance activities,Installation and maintenance of elevators,Installation, repair and maintenance of escalators, conveyor and ground belts,Installation, repair and maintenance of thermal, sound or vibration insulation,Installation and repair of civil protection devices such as heavy equipment used to control earth quicks and buildings collapse and ways of individual protection,Installation and maintenance of early warning sirens and control centers,Installation and maintenance of fire equipment,Installing and maintaining storage and shelves solutions,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.</v>
       </c>
     </row>
     <row r="195">
@@ -4878,22 +4296,19 @@
         <v>10</v>
       </c>
       <c r="B195" t="str">
-        <v>مؤسسة همسة المصيف للمقاولات</v>
+        <v>Kenan Arabian General Contracting Est</v>
       </c>
       <c r="C195" t="str">
-        <v>10001546</v>
+        <v>10001176</v>
       </c>
       <c r="D195" t="str">
-        <v>01129144</v>
+        <v>kenan@kenan-sa.com</v>
       </c>
       <c r="E195" t="str">
-        <v>HAMSATALMASEEF@HOTMAIL.COM</v>
+        <v>JAZAN</v>
       </c>
       <c r="F195" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G195" t="str">
-        <v>الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق</v>
+        <v>Waste collection, treatment &amp; disposal activities; materials recovery,Collection of non-hazardous waste ,Transfer of municipal waste,Street cleaning,Other non-hazardous waste collection activities,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Specialized construction activities,Site preparation ,Drilling and earth moving for site preparation purposes,Electrical installation ,Electrical wiring,Network wiring,Other specialized construction activities ,Stone setting,Services to buildings and landscape activities,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Street sweeping and snow and ice removal,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing</v>
       </c>
     </row>
     <row r="196">
@@ -4901,22 +4316,19 @@
         <v>10</v>
       </c>
       <c r="B196" t="str">
-        <v>شركة الصخر والفولاذ للمقاولات</v>
+        <v>Dar Alshabakat Alarabia Contracting Est.</v>
       </c>
       <c r="C196" t="str">
-        <v>10001110</v>
+        <v>100003578</v>
       </c>
       <c r="D196" t="str">
-        <v>0122615392</v>
+        <v>Arabnet@arabnet-ksa.com</v>
       </c>
       <c r="E196" t="str">
-        <v>essa@rockandsteel.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F196" t="str">
-        <v>جدة</v>
-      </c>
-      <c r="G196" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,التركيبات الكهربائية الأخرى,اكمال المباني وتشطيبها,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Specialized construction activities,Electrical installation ,Electrical wiring,Installation of fire alarms,Installation and maintenance of fire alarms devices and equipment,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Other construction installation ,Installation and maintenance of early warning sirens and control centers,Installation and maintenance of fire equipment</v>
       </c>
     </row>
     <row r="197">
@@ -4924,22 +4336,19 @@
         <v>10</v>
       </c>
       <c r="B197" t="str">
-        <v>شركة اول تصميم للديكور</v>
+        <v>Awal Tasmim Company For Decoration</v>
       </c>
       <c r="C197" t="str">
         <v>100007486</v>
       </c>
       <c r="D197" t="str">
-        <v>0114169700</v>
+        <v>kab@lepremier.com.sa</v>
       </c>
       <c r="E197" t="str">
-        <v>kab@lepremier.com.sa</v>
+        <v>RIYADH</v>
       </c>
       <c r="F197" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G197" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,إنشاء واصلاح خطوط السكك الحديدية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أنشطة التشييد المتخصصة ,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Specialized construction activities,Electrical installation ,Electrical wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities</v>
       </c>
     </row>
     <row r="198">
@@ -4947,22 +4356,19 @@
         <v>10</v>
       </c>
       <c r="B198" t="str">
-        <v>شركة الرواف للمقاولات</v>
+        <v>Awdah Albiladi And His Sons Contracting Est</v>
       </c>
       <c r="C198" t="str">
-        <v>10001197</v>
+        <v>100004137</v>
       </c>
       <c r="D198" t="str">
-        <v>163234440</v>
+        <v>el.blady@hotmail.com</v>
       </c>
       <c r="E198" t="str">
-        <v>RIMOSONG2000@YAHOO.COM</v>
+        <v>AL MADINAH AL MUNAWWARAH</v>
       </c>
       <c r="F198" t="str">
-        <v>بريدة</v>
-      </c>
-      <c r="G198" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,إنشاء واصلاح الجسور والانفاق,تشييد المشاريع الخاصة بالمنافع,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,أنشطة التشييد المتخصصة ,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية</v>
+        <v>No Data</v>
       </c>
     </row>
     <row r="199">
@@ -4970,22 +4376,19 @@
         <v>10</v>
       </c>
       <c r="B199" t="str">
-        <v>شركة بنى الجزيرة للمقاولات</v>
+        <v>Pioneers Technical Trading &amp; General Contracting Ltd.</v>
       </c>
       <c r="C199" t="str">
-        <v>10001972</v>
+        <v>100003917</v>
       </c>
       <c r="D199" t="str">
-        <v/>
+        <v>TAWFIQ@PT-TGC.COM</v>
       </c>
       <c r="E199" t="str">
-        <v>khalid.farhan@bunaaljazira.com.sa</v>
+        <v>JEDDAH</v>
       </c>
       <c r="F199" t="str">
-        <v>الخبر</v>
-      </c>
-      <c r="G199" t="str">
-        <v>الهندسة المدنية,إنشاء الطرق وخطوط السكك الحديدية,إنشاء واصلاح الطرق والشوارع والارصفة ومستلزمات الطرق,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,إنشاء واصلاح المحطات والخطوط الرئيسية لتوزيع المياه,إنشاء واصلاح قنوات الري والسقي وابراج تخزين الماء الرئيسيه وحفر آبار المياه وصيانتها,إنشاء واصلاح محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات,إنشاء واقامة واصلاح محطات الطاقة الكهربائية والمحولات</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of non-residential buildings such as airport buildings,Construction of all types of non-residential steel buildings,Construction of all types of other not previously mentioned non-residential buildings,Erection of prefabricated constructions on the site,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of roads and railways ,Construction and repair of motorways, streets, roads, other vehicular and pedestrian ways,Construction and repair of bridges or tunnels,Construction and repair of railways and subways,Other construction activities of roads, bridges, tunnels and railways n.e.c.,Repair and maintenance of motorways, streets, roads, other vehicular and pedestrian ways,Repair and maintenance of bridges or tunnels,Repair and maintenance of railways and subways,Construction of utility projects ,Long-distance pipelines, communication and power lines,Long-distance oil and gas pipelines,Establishment and Maintenance of main lines and stations of water distribution,Construction and repair of irrigation systems (canals)and main reservoirs, and drilling and maintenance of water wells,Construction and repair of sewer systems, sewage disposal plants and pumping stations,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Repair and maintenance of water distribution stations, networks and main lines,Construction and repair of irrigation systems (canals), water main storage towers and water wells drilling,Repair and maintenance of sewer systems, sewage disposal plants and pumping station,Construction, erection and repair of power plants,Repair and maintenance of wired and wireless communication stations and radars,Construction of other civil engineering projects ,Construction of refineries and petrochemical plants,Construction of harbor and river works,Construction of pleasure ports (marinas),Construction of dams,Dredging of waterways,Construction of dykes,Other construction works, other than buildings, such as outdoor sports facilities, land subdivision with land improvement (e.g. adding of roads, utility infrastructure etc.),Repair and maintenance of dams,Repair and maintenance of port piers and marine facilities,Specialized construction activities,Demolition ,Demolition or wrecking of buildings and other structures,Other demolition activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building site drainage,Blasting,Other site preparation activities,Electrical installation ,Electrical wiring,Telecommunications wiring,Network wiring,Other electrical and telecommunications wiring activities,Installation of satellite dishes,Installation of computer network and cable television wiring,Other computer network and cable television wiring installation activities,Installation of lighting systems,Installation of fire alarms,Installation of burglar alarm systems,Other lighting systems, fire alarms and burglar alarm systems installation activities,Installation of street lighting and airport runway lighting,Connecting of electric appliances and household equipment, including baseboard heating,Other types of electrical installation,Installation and maintenance of fire alarms devices and equipment,Installation of burglar alarm systems,Installation and maintenance of safety devices,Installation and maintenance of traffic safety devices,Other lighting systems, fire alarms and burglar alarm systems installation activities,Plumbing, heat and air-conditioning installation ,Installation, maintenance and repair of heating systems (electric, gas and oil),Installation, maintenance and repair of solar energy collectors,Installation, maintenance and repair of plumbing and sanitary equipment,Installation, maintenance and repair of refrigeration or air-conditioning equipment,Installation, maintenance and repair of gas fittings,Installation, maintenance and repair of steam piping,Installation, maintenance and repair of fire sprinkler systems,Installation, maintenance and repair of lawn sprinkler systems,Installation, maintenance and repair of other gas fittings, steam piping, fire sprinkler systems and lawn sprinkler systems n.e.c.,Installation, maintenance and repair of air- conditioning ducts,Other installation, maintenance and repair activities n.e.c.,Other construction installation ,Installation, repair and maintenance of elevators and escalators,Installation, repair and maintenance of automated and revolving doors,Installation, repair and maintenance of lightning conductors,Installation, repair and maintenance of vacuum cleaning systems,Installation, repair and maintenance of thermal, sound or vibration insulation,Other not previously mentioned construction installation, repair and maintenance activities,Installation and maintenance of elevators,Installation, repair and maintenance of escalators, conveyor and ground belts,Installation, repair and maintenance of thermal, sound or vibration insulation,Installation and repair of civil protection devices such as heavy equipment used to control earth quicks and buildings collapse and ways of individual protection,Installation and maintenance of early warning sirens and control centers,Installation and maintenance of fire equipment,Installing and maintaining storage and shelves solutions,Building completion and finishing ,Building finishing,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of wood,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of aluminum,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of steel,Installation of doors (except automated and revolving), windows, door and window frames, fitted kitchens, staircases of other not previously mentioned materials,Interior completion such as ceilings, wooden wall coverings, movable partitions, etc.,Installation of ceramic,Installation of marble,Installation of cut stone tiles,Installation of granite,Other ceramic, concrete, cut stone, terrazzo, marble, granite or slate wall or floor tiles installation activities,Parquet and other wooden floor coverings,Carpets and linoleum floor coverings, including of rubber or plastic,Other types of floor coverings,Installation of decor,Installation of wallpaper,Other decor and wallpaper installation activities,Works of plaster or stucco,Interior and exterior painting of buildings,Painting of civil engineering structures,Other works of plaster or stucco, and painting,Installation of glass, mirrors of buildings,Exterior glass installation of towers,Other glass, mirrors installation activities,Cleaning of new buildings after construction,Interior installation of shops, mobile homes, boats etc.,Installation of furniture,Other building completion work,Other specialized construction activities ,Bricklaying,Stone setting,Other bricklaying and stone setting work,Scaffolds erecting,Construction of outdoor swimming pools,Steam cleaning, sand blasting and similar activities for building exteriors,Renting of cranes with operator,Other specialized building completion and finishing activities necessitating specialized skills and the use of related equipment n.e.c.,Services to buildings and landscape activities,Combined facilities support activities ,Provision of support services within facilities,Provision of general interior cleaning services within facilities,Provision of maintenance services within facilities,Other facilities support activities n.e.c.,Activities of government buildings cleaning services,Provision of mail routing services,General cleaning of buildings ,General cleaning of buildings,Other building and industrial cleaning activities ,Exterior cleaning of buildings,Specialized cleaning activities for buildings such as window cleaning, chimney cleaning, etc.,Swimming pool cleaning and maintenance services,Disinfecting and exterminating activities,Cleaning of trains, buses, planes, etc.,Cleaning of industrial machinery,Street sweeping and snow and ice removal,Other building and industrial cleaning activities n.e.c.,Disinfection activities and pest and rodents control by fumes,Landscape care and maintenance service activities ,Care and maintenance of parks and gardens for public housing,Care and maintenance of greenery for buildings (roof gardens, facade greenery, indoor gardens),Care and maintenance of parks and gardens for highway greenery,Care and maintenance of greenery for sports grounds (e.g. golf courses),Care and maintenance of greenery for stationary and flowing water (basins, ponds, swimming pools, watercourses and wet areas),Care and maintenance of plants for protection against noise, wind and erosion,Care and maintenance of other types of landscap n.e.c.,Activities of landscape design services,Maintenance of land in order to keep it in good ecological condition</v>
       </c>
     </row>
     <row r="200">
@@ -4993,22 +4396,19 @@
         <v>10</v>
       </c>
       <c r="B200" t="str">
-        <v>شركة درع التطوير للتجارة</v>
+        <v>Mudun Contracting Co</v>
       </c>
       <c r="C200" t="str">
-        <v>100003470</v>
+        <v>10000851</v>
       </c>
       <c r="D200" t="str">
-        <v>920019019</v>
+        <v>contact@mudungroup.com</v>
       </c>
       <c r="E200" t="str">
-        <v>aymen@armis.com.sa</v>
+        <v>JEDDAH</v>
       </c>
       <c r="F200" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G200" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Specialized construction activities,Electrical installation ,Electrical wiring,Building completion and finishing ,Installation of decor,Installation of glass, mirrors of buildings,Services to buildings and landscape activities,Combined facilities support activities ,Provision of maintenance services within facilities</v>
       </c>
     </row>
     <row r="201">
@@ -5016,27 +4416,24 @@
         <v>10</v>
       </c>
       <c r="B201" t="str">
-        <v>شركة نسمة السندس للمقاولات</v>
+        <v>Alsahda Contracting Est.</v>
       </c>
       <c r="C201" t="str">
-        <v>100006680</v>
+        <v>20002666</v>
       </c>
       <c r="D201" t="str">
-        <v>2914768</v>
+        <v>info@alsahda.com.sa</v>
       </c>
       <c r="E201" t="str">
-        <v>m.saeed@nasamahsondos.com</v>
+        <v>RIYADH</v>
       </c>
       <c r="F201" t="str">
-        <v>الرياض</v>
-      </c>
-      <c r="G201" t="str">
-        <v>تشييد المباني,تشييد المباني,الإنشاءات العامة للمباني السكنية,الإنشاءات العامة للمباني الغير السكنية ، يشمل ( المدارس ، المستشفيات، الفنادق ...الخ ),الإنشاءات العامة للمباني الغير السكنية المطارات,الإنشاءات العامة للمباني الغير السكنية الحديدية,الإنشاءات العامة للمباني الغير السكنية الأخرى والتي لم ترد فيما سبق,إنشاءات المباني الجاهزة في المواقع,ترميمات المباني السكنية والغير سكنية,الهندسة المدنية,تشييد المشاريع الخاصة بالمنافع,تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها,أعمال التشييد المتعلقة بمشاريع الهندسة المدنية الأخرى,إصلاح وصيانة أرصفة الموانئ والمرافق البحرية,أنشطة التشييد المتخصصة ,الهدم,هدم وإزالة المباني وغيرها,أنشطة أخرى من الهدم,تحضير الموقع,اعداد وتجهيز المواقع من الحفر والتسوية,صب القواعد والاساسات,سحب المياه الجوفية وتجفيف المواقع,التفجير والنسف,أنشطة أخرى لتحضير الموقع,التركيبات الكهربائية,تمديد الاسلاك الكهربائية,تمديد اسلاك الاتصالات,تمديدات الشبكات,أنشطة أخرى من تمديد الاسلاك الكهربائية والاتصالات,تركيب وتمديد شبكات التلفزيون والستلايت,تركيب وتمديد شبكات الكمبيوتر والاتصالات,أنشطة أخرى من تركيب وتمديد شبكات التلفزيون والكمبيوتر والاتصالات,تركيب انظمة الاضاءة,تركيب انظمة انذار الحريق,تركيب انظمة انذار السرقة,أنشطة أخرى من تركيب انظمة الاضاءة وانذار الحريق والسرقة,تركيب انظمة اضاءة الطرق ومهابط الطائرات,تركيب المعدات الكهربائية والاجهزة المنزلية بما فيها لوحات التسخين,التركيبات الكهربائية الأخرى,تركيب وصيانة أجهزة ومعدات الإنذار من الحريق,تركيب انظمة انذار السرقة,تركيب وصيانة الأجهزة الأمنية,تركيب وصيانة أجهزة السلامة المرورية,أنشطة أخرى من تركيب الأجهزة الأمنية والسلامة المرورية وأنظمة الإضاءة وإنذار الحريق والسرقة,أعمال السباكة والتدفئة وتكييف الهواء,تركيب انظمة التدفئة بالكهرباء اوالغاز اوالزيت وصيانتها واصلاحها,تركيب شبكات الطاقة الشمسية وصيانتها واصلاحها,تركيب الادوات الصحية وصيانتها واصلاحها,تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها,تمديدات انابيب الغاز وصيانتها واصلاحها,تمديدات انابيب البخار وصيانتها واصلاحها,تمديدات انابيب الحريق وصيانتها واصلاحها,تمديدات انابيب الري وصيانتها واصلاحها,تمديدات انابيب الغاز والبخار والحريق والري لم ترد فيما سبق بما فيها من صيانة واصلاح,تركيب وتمديد انابيب تكييف الهواء وصيانتها واصلاحها,تركيبات اخرى لم ترد فما سبق بما فيها من صيانة واصلاح,تركيبات إنشائية أخرى,تركيب وإصلاح وصيانة المصاعد والسلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة الابواب الاوتوماتيكية,تركيب وإصلاح وصيانة مانعه الصواعق,تركيب وإصلاح وصيانة انظمة التنظيف المركزية,تركيب وإصلاح وصيانة انظمة عازل الحرارة والصوت والذبذبات,تركيبات وإصلاح وصيانة إنشائية أخرى لم تذكر سابقا,تركيب وصيانة المصاعد,تركيب وإصلاح وصيانة السلالم المتحركة والسيور الناقلة و الارضية,تركيب وإصلاح وصيانة أنظمة العوازل الحرارية والمائية,تركيب وصيانة أجهزة الحماية المدنية من الأليات والمعدات الثقيلة الخاصة للتدخل في حوادث انهيارات المباني والزلازل ومعدات ووسائل الوقاية الفردية,تركيب وصيانة صافرات الإنذار المبكر ومراكز التحكم بها,تركيب وصيانة أجهزة ومعدات الإطفاء,تركيب وصيانة أنظمة الرفوف والتخزين,اكمال المباني وتشطيبها, تشطيب المباني,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الخشبية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ الالمونيوم,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ المعدنية,تركيب الابواب والشبابيك وإطارات الابواب ( الشرشوب ) والدربزينات والسلالم والمطابخ من مواد اخرى لم ترد فيما سيق,تركيب الاسقف الداخلية والحواجز وتلبيس الجدران بالأخشاب,تركيب السيراميك والكاشي,تركيب الرخام,تركيب الحجر,تركيب القرميد,أنشطة أخرى من تركيب السيراميك والحجر والرخام والكاشي والقرميد,تغطية الارضيات خشب الباركيه,تغطية الارضيات بالمطاط والمشمع والبلاستيك,تغطية ارضيات بانواع اخرى,أعمال وتركيب الديكورات,أعمال التزيين ولصق ورق الحائط,تركيب الديكورات والتزيين وورق الحائط الأخرى,أعمال التجصيص والمساح,أعمال الدهانات والطلاء للمباني الداخلية والخارجية,أعمال الدهانات والطلاء لهياكل الهندسة الحديثة,أنشطة أخرى من أعمال التجصيص والدهانات والطلاء,تركيب الزجاج والمرايا للمباني,تركيب زجاج واجهات الابراج,أنشطة أخرى من تركيب الزجاج والمرايا,تنظيف المباني الجديدة بعد الإنشاء,التركيبات الداخلية للمحلات والمباني المتحركة والقوارب,تركيب الأثاث,أعمال أخرى لإنهاء المباني وتجهيزها,أنشطة التشييد المتخصصة الأخرى,أعمال تركيب الطابوق,أعمال تركيب الصخور,أعمال أخرى من أعمال تركيب الطابوق والصخور,أعمال تركيب السقالات,إنشاء حمامات السباحة,تنظيف المباني بالبخار وتسخين الرمل,تأجير معدات التشييد والبناء مع مشغل,أنشطة اخرى متخصصة لانهاء المباني والتي تحتاج الى آلات ومهارات خاصة لم ترد في مكان آخر,أنشطة تقديم الخدمات للمباني وتجميل المواقع,أنشطة متكاملة لدعم المرافق,أنشطة توفير خدمات الحماية للمباني,أنشطة خدمات صيانة المباني,أنشطة خدمات التنظيف للمباني الحكومية,التنظيف العام للمباني,التنظيف العام للمباني,الأنشطة المتعلقة بخدمة وصيانة تجميل المواقع,رعاية وصيانة المنتزهات والحدائق لأغراض الإسكان العام,رعاية وصيانة مناظر المباني والحدائق المنزلية وحدائق الأسقف وواجهات المباني الخاصة وغيرها,رعاية وصيانة منتزهات الطرق السريعة</v>
+        <v>Construction of buildings,Construction of buildings ,Construction of all types of residential buildings,Construction of all types of non-residential buildings including schools, hospitals, hotels … etc.,Construction of all types of other not previously mentioned non-residential buildings,Remodeling or renovating existing residential and non- residential structures,Civil engineering,Construction of utility projects ,Construction, erection and repair of power plants,Construction, erection and repair of wired and wireless communication stations and radars,Other utility projects construction activities n.e.c.,Specialized construction activities,Site preparation ,Drilling and earth moving for site preparation purposes,Landfill,Building completion and finishing ,Building finishing,Interior and exterior painting of buildings,Other specialized construction activities ,Bricklaying</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G201"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F201"/>
   </ignoredErrors>
 </worksheet>
 </file>